--- a/residualTable.xlsx
+++ b/residualTable.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C434"/>
+  <dimension ref="A1:D434"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,6 +370,11 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Predicted Salary</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Residual</t>
         </is>
       </c>
@@ -384,6 +389,9 @@
         <v>4379527</v>
       </c>
       <c r="C2">
+        <v>3899514.690630183</v>
+      </c>
+      <c r="D2">
         <v>480012.3093698169</v>
       </c>
     </row>
@@ -397,6 +405,9 @@
         <v>32600060</v>
       </c>
       <c r="C3">
+        <v>31900849.80273632</v>
+      </c>
+      <c r="D3">
         <v>699210.1972636804</v>
       </c>
     </row>
@@ -410,6 +421,9 @@
         <v>4114200</v>
       </c>
       <c r="C4">
+        <v>3553369.743449421</v>
+      </c>
+      <c r="D4">
         <v>560830.2565505793</v>
       </c>
     </row>
@@ -423,6 +437,9 @@
         <v>2194200</v>
       </c>
       <c r="C5">
+        <v>7444835.821227196</v>
+      </c>
+      <c r="D5">
         <v>-5250635.821227196</v>
       </c>
     </row>
@@ -436,6 +453,9 @@
         <v>4687500</v>
       </c>
       <c r="C6">
+        <v>3980186.416915425</v>
+      </c>
+      <c r="D6">
         <v>707313.5830845754</v>
       </c>
     </row>
@@ -449,6 +469,9 @@
         <v>8925000</v>
       </c>
       <c r="C7">
+        <v>15808175.85016584</v>
+      </c>
+      <c r="D7">
         <v>-6883175.850165844</v>
       </c>
     </row>
@@ -462,6 +485,9 @@
         <v>20000000</v>
       </c>
       <c r="C8">
+        <v>19299054.41666666</v>
+      </c>
+      <c r="D8">
         <v>700945.5833333395</v>
       </c>
     </row>
@@ -475,6 +501,9 @@
         <v>1836096</v>
       </c>
       <c r="C9">
+        <v>2704563.414262024</v>
+      </c>
+      <c r="D9">
         <v>-868467.4142620238</v>
       </c>
     </row>
@@ -488,6 +517,9 @@
         <v>9219512</v>
       </c>
       <c r="C10">
+        <v>10737768.80588723</v>
+      </c>
+      <c r="D10">
         <v>-1518256.80588723</v>
       </c>
     </row>
@@ -501,6 +533,9 @@
         <v>45640084</v>
       </c>
       <c r="C11">
+        <v>42212862.49900497</v>
+      </c>
+      <c r="D11">
         <v>3427221.500995025</v>
       </c>
     </row>
@@ -514,6 +549,9 @@
         <v>2019706</v>
       </c>
       <c r="C12">
+        <v>3061282.498590381</v>
+      </c>
+      <c r="D12">
         <v>-1041576.498590381</v>
       </c>
     </row>
@@ -527,6 +565,9 @@
         <v>5539771</v>
       </c>
       <c r="C13">
+        <v>7333060.723714761</v>
+      </c>
+      <c r="D13">
         <v>-1793289.723714761</v>
       </c>
     </row>
@@ -540,6 +581,9 @@
         <v>18642857</v>
       </c>
       <c r="C14">
+        <v>18731746.55232173</v>
+      </c>
+      <c r="D14">
         <v>-88889.55232173204</v>
       </c>
     </row>
@@ -553,6 +597,9 @@
         <v>2019706</v>
       </c>
       <c r="C15">
+        <v>2171512.623466004</v>
+      </c>
+      <c r="D15">
         <v>-151806.6234660042</v>
       </c>
     </row>
@@ -566,6 +613,9 @@
         <v>6263188</v>
       </c>
       <c r="C16">
+        <v>7681002.686567168</v>
+      </c>
+      <c r="D16">
         <v>-1417814.686567168</v>
       </c>
     </row>
@@ -579,6 +629,9 @@
         <v>32459438</v>
       </c>
       <c r="C17">
+        <v>25937187.58009949</v>
+      </c>
+      <c r="D17">
         <v>6522250.419900507</v>
       </c>
     </row>
@@ -592,6 +645,9 @@
         <v>12500000</v>
       </c>
       <c r="C18">
+        <v>9050280.198673299</v>
+      </c>
+      <c r="D18">
         <v>3449719.801326701</v>
       </c>
     </row>
@@ -605,6 +661,9 @@
         <v>2337720</v>
       </c>
       <c r="C19">
+        <v>2632173.396351576</v>
+      </c>
+      <c r="D19">
         <v>-294453.3963515759</v>
       </c>
     </row>
@@ -618,6 +677,9 @@
         <v>10900635</v>
       </c>
       <c r="C20">
+        <v>13888908.48341626</v>
+      </c>
+      <c r="D20">
         <v>-2988273.483416259</v>
       </c>
     </row>
@@ -631,6 +693,9 @@
         <v>2019706</v>
       </c>
       <c r="C21">
+        <v>2592245.056053067</v>
+      </c>
+      <c r="D21">
         <v>-572539.0560530671</v>
       </c>
     </row>
@@ -644,6 +709,9 @@
         <v>11608080</v>
       </c>
       <c r="C22">
+        <v>12764283.96898839</v>
+      </c>
+      <c r="D22">
         <v>-1156203.968988394</v>
       </c>
     </row>
@@ -657,6 +725,9 @@
         <v>3845083</v>
       </c>
       <c r="C23">
+        <v>18949844.13076285</v>
+      </c>
+      <c r="D23">
         <v>-15104761.13076285</v>
       </c>
     </row>
@@ -670,6 +741,9 @@
         <v>2019706</v>
       </c>
       <c r="C24">
+        <v>2238473.158789386</v>
+      </c>
+      <c r="D24">
         <v>-218767.1587893856</v>
       </c>
     </row>
@@ -683,6 +757,9 @@
         <v>17000000</v>
       </c>
       <c r="C25">
+        <v>14203975.93291875</v>
+      </c>
+      <c r="D25">
         <v>2796024.067081254</v>
       </c>
     </row>
@@ -696,6 +773,9 @@
         <v>8008680</v>
       </c>
       <c r="C26">
+        <v>12770549.65854063</v>
+      </c>
+      <c r="D26">
         <v>-4761869.658540631</v>
       </c>
     </row>
@@ -709,6 +789,9 @@
         <v>23883929</v>
       </c>
       <c r="C27">
+        <v>18774450.1393864</v>
+      </c>
+      <c r="D27">
         <v>5109478.860613603</v>
       </c>
     </row>
@@ -722,6 +805,9 @@
         <v>2600000</v>
       </c>
       <c r="C28">
+        <v>4352024.693781096</v>
+      </c>
+      <c r="D28">
         <v>-1752024.693781096</v>
       </c>
     </row>
@@ -735,6 +821,9 @@
         <v>2346614</v>
       </c>
       <c r="C29">
+        <v>5213215.098092868</v>
+      </c>
+      <c r="D29">
         <v>-2866601.098092868</v>
       </c>
     </row>
@@ -748,6 +837,9 @@
         <v>11710818</v>
       </c>
       <c r="C30">
+        <v>9522527.276782749</v>
+      </c>
+      <c r="D30">
         <v>2188290.723217251</v>
       </c>
     </row>
@@ -761,6 +853,9 @@
         <v>46741590</v>
       </c>
       <c r="C31">
+        <v>33393969.46616915</v>
+      </c>
+      <c r="D31">
         <v>13347620.53383085</v>
       </c>
     </row>
@@ -774,6 +869,9 @@
         <v>2019706</v>
       </c>
       <c r="C32">
+        <v>7106637.991625208</v>
+      </c>
+      <c r="D32">
         <v>-5086931.991625208</v>
       </c>
     </row>
@@ -787,6 +885,9 @@
         <v>2609400</v>
       </c>
       <c r="C33">
+        <v>3451816.070066334</v>
+      </c>
+      <c r="D33">
         <v>-842416.0700663342</v>
       </c>
     </row>
@@ -800,6 +901,9 @@
         <v>17000000</v>
       </c>
       <c r="C34">
+        <v>11404732.56890547</v>
+      </c>
+      <c r="D34">
         <v>5595267.431094525</v>
       </c>
     </row>
@@ -813,6 +917,9 @@
         <v>2019706</v>
       </c>
       <c r="C35">
+        <v>4970283.560613598</v>
+      </c>
+      <c r="D35">
         <v>-2950577.560613598</v>
       </c>
     </row>
@@ -826,6 +933,9 @@
         <v>4556983</v>
       </c>
       <c r="C36">
+        <v>8751431.871227197</v>
+      </c>
+      <c r="D36">
         <v>-4194448.871227197</v>
       </c>
     </row>
@@ -839,6 +949,9 @@
         <v>2066585</v>
       </c>
       <c r="C37">
+        <v>3615345.372885573</v>
+      </c>
+      <c r="D37">
         <v>-1548760.372885573</v>
       </c>
     </row>
@@ -852,6 +965,9 @@
         <v>5000000</v>
       </c>
       <c r="C38">
+        <v>8351812.898756221</v>
+      </c>
+      <c r="D38">
         <v>-3351812.898756221</v>
       </c>
     </row>
@@ -865,6 +981,9 @@
         <v>7245480</v>
       </c>
       <c r="C39">
+        <v>4519646.982504146</v>
+      </c>
+      <c r="D39">
         <v>2725833.017495854</v>
       </c>
     </row>
@@ -878,6 +997,9 @@
         <v>18700000</v>
       </c>
       <c r="C40">
+        <v>19988404.14875622</v>
+      </c>
+      <c r="D40">
         <v>-1288404.148756217</v>
       </c>
     </row>
@@ -891,6 +1013,9 @@
         <v>20000000</v>
       </c>
       <c r="C41">
+        <v>21586046.49535655</v>
+      </c>
+      <c r="D41">
         <v>-1586046.495356549</v>
       </c>
     </row>
@@ -904,6 +1029,9 @@
         <v>2019706</v>
       </c>
       <c r="C42">
+        <v>1969862.357131012</v>
+      </c>
+      <c r="D42">
         <v>49843.64286898798</v>
       </c>
     </row>
@@ -917,6 +1045,9 @@
         <v>36016200</v>
       </c>
       <c r="C43">
+        <v>34067399.70389718</v>
+      </c>
+      <c r="D43">
         <v>1948800.296102822</v>
       </c>
     </row>
@@ -930,6 +1061,9 @@
         <v>1836096</v>
       </c>
       <c r="C44">
+        <v>2594676.119237147</v>
+      </c>
+      <c r="D44">
         <v>-758580.1192371473</v>
       </c>
     </row>
@@ -943,6 +1077,9 @@
         <v>11750000</v>
       </c>
       <c r="C45">
+        <v>9552966.428855719</v>
+      </c>
+      <c r="D45">
         <v>2197033.571144281</v>
       </c>
     </row>
@@ -956,6 +1093,9 @@
         <v>4570080</v>
       </c>
       <c r="C46">
+        <v>3861766.214013267</v>
+      </c>
+      <c r="D46">
         <v>708313.7859867327</v>
       </c>
     </row>
@@ -969,6 +1109,9 @@
         <v>3071880</v>
       </c>
       <c r="C47">
+        <v>4385020.288308457</v>
+      </c>
+      <c r="D47">
         <v>-1313140.288308457</v>
       </c>
     </row>
@@ -982,6 +1125,9 @@
         <v>2949120</v>
       </c>
       <c r="C48">
+        <v>3492730.991210615</v>
+      </c>
+      <c r="D48">
         <v>-543610.9912106148</v>
       </c>
     </row>
@@ -995,6 +1141,9 @@
         <v>21700000</v>
       </c>
       <c r="C49">
+        <v>26988240.72363184</v>
+      </c>
+      <c r="D49">
         <v>-5288240.72363184</v>
       </c>
     </row>
@@ -1008,6 +1157,9 @@
         <v>7921300</v>
       </c>
       <c r="C50">
+        <v>16493797.06119403</v>
+      </c>
+      <c r="D50">
         <v>-8572497.061194031</v>
       </c>
     </row>
@@ -1021,6 +1173,9 @@
         <v>2165000</v>
       </c>
       <c r="C51">
+        <v>2632103.981923714</v>
+      </c>
+      <c r="D51">
         <v>-467103.9819237143</v>
       </c>
     </row>
@@ -1034,6 +1189,9 @@
         <v>22500000</v>
       </c>
       <c r="C52">
+        <v>22665456.91177447</v>
+      </c>
+      <c r="D52">
         <v>-165456.9117744677</v>
       </c>
     </row>
@@ -1047,6 +1205,9 @@
         <v>22627671</v>
       </c>
       <c r="C53">
+        <v>17714345.70124378</v>
+      </c>
+      <c r="D53">
         <v>4913325.298756219</v>
       </c>
     </row>
@@ -1060,6 +1221,9 @@
         <v>22000000</v>
       </c>
       <c r="C54">
+        <v>12770855.47636816</v>
+      </c>
+      <c r="D54">
         <v>9229144.523631843</v>
       </c>
     </row>
@@ -1073,6 +1237,9 @@
         <v>31830357</v>
       </c>
       <c r="C55">
+        <v>30021134.50887231</v>
+      </c>
+      <c r="D55">
         <v>1809222.491127688</v>
       </c>
     </row>
@@ -1086,6 +1253,9 @@
         <v>2413320</v>
       </c>
       <c r="C56">
+        <v>2847124.297097844</v>
+      </c>
+      <c r="D56">
         <v>-433804.2970978436</v>
       </c>
     </row>
@@ -1099,6 +1269,9 @@
         <v>2019706</v>
       </c>
       <c r="C57">
+        <v>4499338.606301823</v>
+      </c>
+      <c r="D57">
         <v>-2479632.606301823</v>
       </c>
     </row>
@@ -1112,6 +1285,9 @@
         <v>4000000</v>
       </c>
       <c r="C58">
+        <v>3192645.728192372</v>
+      </c>
+      <c r="D58">
         <v>807354.2718076278</v>
       </c>
     </row>
@@ -1125,6 +1301,9 @@
         <v>26346666</v>
       </c>
       <c r="C59">
+        <v>28581368.21069651</v>
+      </c>
+      <c r="D59">
         <v>-2234702.210696515</v>
       </c>
     </row>
@@ -1138,6 +1317,9 @@
         <v>2528233</v>
       </c>
       <c r="C60">
+        <v>3199122.685820896</v>
+      </c>
+      <c r="D60">
         <v>-670889.6858208957</v>
       </c>
     </row>
@@ -1151,6 +1333,9 @@
         <v>4094280</v>
       </c>
       <c r="C61">
+        <v>2955124.839220564</v>
+      </c>
+      <c r="D61">
         <v>1139155.160779436</v>
       </c>
     </row>
@@ -1164,6 +1349,9 @@
         <v>13033786</v>
       </c>
       <c r="C62">
+        <v>9727064.964096187</v>
+      </c>
+      <c r="D62">
         <v>3306721.035903813</v>
       </c>
     </row>
@@ -1177,6 +1365,9 @@
         <v>10489600</v>
       </c>
       <c r="C63">
+        <v>10457568.17935323</v>
+      </c>
+      <c r="D63">
         <v>32031.82064676844</v>
       </c>
     </row>
@@ -1190,6 +1381,9 @@
         <v>45183960</v>
       </c>
       <c r="C64">
+        <v>39779277.61973467</v>
+      </c>
+      <c r="D64">
         <v>5404682.380265325</v>
       </c>
     </row>
@@ -1203,6 +1397,9 @@
         <v>14704938</v>
       </c>
       <c r="C65">
+        <v>12221810.35257048</v>
+      </c>
+      <c r="D65">
         <v>2483127.647429518</v>
       </c>
     </row>
@@ -1216,6 +1413,9 @@
         <v>1119563</v>
       </c>
       <c r="C66">
+        <v>3426784.338225538</v>
+      </c>
+      <c r="D66">
         <v>-2307221.338225538</v>
       </c>
     </row>
@@ -1229,6 +1429,9 @@
         <v>20616000</v>
       </c>
       <c r="C67">
+        <v>16268427.26185738</v>
+      </c>
+      <c r="D67">
         <v>4347572.738142623</v>
       </c>
     </row>
@@ -1242,6 +1445,9 @@
         <v>6190476</v>
       </c>
       <c r="C68">
+        <v>6678704.586401328</v>
+      </c>
+      <c r="D68">
         <v>-488228.5864013284</v>
       </c>
     </row>
@@ -1255,6 +1461,9 @@
         <v>13050000</v>
       </c>
       <c r="C69">
+        <v>9861364.261857377</v>
+      </c>
+      <c r="D69">
         <v>3188635.738142623</v>
       </c>
     </row>
@@ -1268,6 +1477,9 @@
         <v>9460000</v>
       </c>
       <c r="C70">
+        <v>8962977.649087893</v>
+      </c>
+      <c r="D70">
         <v>497022.3509121072</v>
       </c>
     </row>
@@ -1281,6 +1493,9 @@
         <v>3000000</v>
       </c>
       <c r="C71">
+        <v>3810858.098424545</v>
+      </c>
+      <c r="D71">
         <v>-810858.0984245446</v>
       </c>
     </row>
@@ -1294,6 +1509,9 @@
         <v>1719864</v>
       </c>
       <c r="C72">
+        <v>2726357.195605306</v>
+      </c>
+      <c r="D72">
         <v>-1006493.195605306</v>
       </c>
     </row>
@@ -1307,6 +1525,9 @@
         <v>1119563</v>
       </c>
       <c r="C73">
+        <v>2495990.912686567</v>
+      </c>
+      <c r="D73">
         <v>-1376427.912686567</v>
       </c>
     </row>
@@ -1320,6 +1541,9 @@
         <v>23487629</v>
       </c>
       <c r="C74">
+        <v>23573854.34776122</v>
+      </c>
+      <c r="D74">
         <v>-86225.3477612175</v>
       </c>
     </row>
@@ -1333,6 +1557,9 @@
         <v>9625000</v>
       </c>
       <c r="C75">
+        <v>9790947.586815918</v>
+      </c>
+      <c r="D75">
         <v>-165947.5868159179</v>
       </c>
     </row>
@@ -1346,6 +1573,9 @@
         <v>3089520</v>
       </c>
       <c r="C76">
+        <v>3093984.922305142</v>
+      </c>
+      <c r="D76">
         <v>-4464.922305141576</v>
       </c>
     </row>
@@ -1359,6 +1589,9 @@
         <v>3666667</v>
       </c>
       <c r="C77">
+        <v>3918191.855306798</v>
+      </c>
+      <c r="D77">
         <v>-251524.8553067981</v>
       </c>
     </row>
@@ -1372,6 +1605,9 @@
         <v>25340000</v>
       </c>
       <c r="C78">
+        <v>21941769.01948591</v>
+      </c>
+      <c r="D78">
         <v>3398230.980514094</v>
       </c>
     </row>
@@ -1385,6 +1621,9 @@
         <v>7700000</v>
       </c>
       <c r="C79">
+        <v>9997366.924378112</v>
+      </c>
+      <c r="D79">
         <v>-2297366.924378112</v>
       </c>
     </row>
@@ -1398,6 +1637,9 @@
         <v>24360000</v>
       </c>
       <c r="C80">
+        <v>22359066.70713101</v>
+      </c>
+      <c r="D80">
         <v>2000933.292868994</v>
       </c>
     </row>
@@ -1411,6 +1653,9 @@
         <v>9423869</v>
       </c>
       <c r="C81">
+        <v>7766830.153731346</v>
+      </c>
+      <c r="D81">
         <v>1657038.846268654</v>
       </c>
     </row>
@@ -1424,6 +1669,9 @@
         <v>6614280</v>
       </c>
       <c r="C82">
+        <v>6729383.969485906</v>
+      </c>
+      <c r="D82">
         <v>-115103.969485906</v>
       </c>
     </row>
@@ -1437,6 +1685,9 @@
         <v>11692308</v>
       </c>
       <c r="C83">
+        <v>9373159.169154225</v>
+      </c>
+      <c r="D83">
         <v>2319148.830845775</v>
       </c>
     </row>
@@ -1450,6 +1701,9 @@
         <v>2528233</v>
       </c>
       <c r="C84">
+        <v>5444019.728358208</v>
+      </c>
+      <c r="D84">
         <v>-2915786.728358208</v>
       </c>
     </row>
@@ -1463,6 +1717,9 @@
         <v>2019706</v>
       </c>
       <c r="C85">
+        <v>5580379.43026534</v>
+      </c>
+      <c r="D85">
         <v>-3560673.43026534</v>
       </c>
     </row>
@@ -1476,6 +1733,9 @@
         <v>11055360</v>
       </c>
       <c r="C86">
+        <v>13196600.52064677</v>
+      </c>
+      <c r="D86">
         <v>-2141240.52064677</v>
       </c>
     </row>
@@ -1489,6 +1749,9 @@
         <v>4000000</v>
       </c>
       <c r="C87">
+        <v>7864160.211276948</v>
+      </c>
+      <c r="D87">
         <v>-3864160.211276948</v>
       </c>
     </row>
@@ -1502,6 +1765,9 @@
         <v>51915615</v>
       </c>
       <c r="C88">
+        <v>43399545.18192374</v>
+      </c>
+      <c r="D88">
         <v>8516069.81807626</v>
       </c>
     </row>
@@ -1515,6 +1781,9 @@
         <v>5784120</v>
       </c>
       <c r="C89">
+        <v>4839207.802321726</v>
+      </c>
+      <c r="D89">
         <v>944912.1976782745</v>
       </c>
     </row>
@@ -1528,6 +1797,9 @@
         <v>40600080</v>
       </c>
       <c r="C90">
+        <v>37477788.58532339</v>
+      </c>
+      <c r="D90">
         <v>3122291.414676607</v>
       </c>
     </row>
@@ -1541,6 +1813,9 @@
         <v>5050800</v>
       </c>
       <c r="C91">
+        <v>3413814.039220563</v>
+      </c>
+      <c r="D91">
         <v>1636985.960779437</v>
       </c>
     </row>
@@ -1554,6 +1829,9 @@
         <v>28600000</v>
       </c>
       <c r="C92">
+        <v>29939983.15472636</v>
+      </c>
+      <c r="D92">
         <v>-1339983.154726364</v>
       </c>
     </row>
@@ -1567,6 +1845,9 @@
         <v>4536720</v>
       </c>
       <c r="C93">
+        <v>3814132.757296849</v>
+      </c>
+      <c r="D93">
         <v>722587.242703151</v>
       </c>
     </row>
@@ -1580,6 +1861,9 @@
         <v>4798440</v>
       </c>
       <c r="C94">
+        <v>3941958.277777778</v>
+      </c>
+      <c r="D94">
         <v>856481.7222222215</v>
       </c>
     </row>
@@ -1593,6 +1877,9 @@
         <v>20357143</v>
       </c>
       <c r="C95">
+        <v>22577366.41849088</v>
+      </c>
+      <c r="D95">
         <v>-2220223.418490879</v>
       </c>
     </row>
@@ -1606,6 +1893,9 @@
         <v>10900000</v>
       </c>
       <c r="C96">
+        <v>6071642.013847428</v>
+      </c>
+      <c r="D96">
         <v>4828357.986152572</v>
       </c>
     </row>
@@ -1619,6 +1909,9 @@
         <v>40064220</v>
       </c>
       <c r="C97">
+        <v>37208486.67255389</v>
+      </c>
+      <c r="D97">
         <v>2855733.327446111</v>
       </c>
     </row>
@@ -1632,6 +1925,9 @@
         <v>15277778</v>
       </c>
       <c r="C98">
+        <v>8190127.901907135</v>
+      </c>
+      <c r="D98">
         <v>7087650.098092865</v>
       </c>
     </row>
@@ -1645,6 +1941,9 @@
         <v>6481482</v>
       </c>
       <c r="C99">
+        <v>3950105.943034827</v>
+      </c>
+      <c r="D99">
         <v>2531376.056965173</v>
       </c>
     </row>
@@ -1658,6 +1957,9 @@
         <v>3360000</v>
       </c>
       <c r="C100">
+        <v>7424288.259701491</v>
+      </c>
+      <c r="D100">
         <v>-4064288.259701491</v>
       </c>
     </row>
@@ -1671,6 +1973,9 @@
         <v>4124400</v>
       </c>
       <c r="C101">
+        <v>3747657.79676617</v>
+      </c>
+      <c r="D101">
         <v>376742.2032338302</v>
       </c>
     </row>
@@ -1684,6 +1989,9 @@
         <v>2586665</v>
       </c>
       <c r="C102">
+        <v>7068409.540215587</v>
+      </c>
+      <c r="D102">
         <v>-4481744.540215587</v>
       </c>
     </row>
@@ -1697,6 +2005,9 @@
         <v>47649433</v>
       </c>
       <c r="C103">
+        <v>39880084.903068</v>
+      </c>
+      <c r="D103">
         <v>7769348.096932001</v>
       </c>
     </row>
@@ -1710,6 +2021,9 @@
         <v>4330680</v>
       </c>
       <c r="C104">
+        <v>8125976.704477613</v>
+      </c>
+      <c r="D104">
         <v>-3795296.704477613</v>
       </c>
     </row>
@@ -1723,6 +2037,9 @@
         <v>3527160</v>
       </c>
       <c r="C105">
+        <v>4718281.38432836</v>
+      </c>
+      <c r="D105">
         <v>-1191121.38432836</v>
       </c>
     </row>
@@ -1736,6 +2053,9 @@
         <v>13534817</v>
       </c>
       <c r="C106">
+        <v>16017361.50298508</v>
+      </c>
+      <c r="D106">
         <v>-2482544.502985081</v>
       </c>
     </row>
@@ -1749,6 +2069,9 @@
         <v>1927896</v>
       </c>
       <c r="C107">
+        <v>1915928.677611941</v>
+      </c>
+      <c r="D107">
         <v>11967.32238805923</v>
       </c>
     </row>
@@ -1762,6 +2085,9 @@
         <v>47607350</v>
       </c>
       <c r="C108">
+        <v>40366560.94046434</v>
+      </c>
+      <c r="D108">
         <v>7240789.05953566</v>
       </c>
     </row>
@@ -1775,6 +2101,9 @@
         <v>2346614</v>
       </c>
       <c r="C109">
+        <v>2984881.471227199</v>
+      </c>
+      <c r="D109">
         <v>-638267.4712271988</v>
       </c>
     </row>
@@ -1788,6 +2117,9 @@
         <v>3000000</v>
       </c>
       <c r="C110">
+        <v>4495568.202736318</v>
+      </c>
+      <c r="D110">
         <v>-1495568.202736318</v>
       </c>
     </row>
@@ -1801,6 +2133,9 @@
         <v>2581522</v>
       </c>
       <c r="C111">
+        <v>2643965.3907131</v>
+      </c>
+      <c r="D111">
         <v>-62443.39071310032</v>
       </c>
     </row>
@@ -1814,6 +2149,9 @@
         <v>13932008</v>
       </c>
       <c r="C112">
+        <v>12354557.55638475</v>
+      </c>
+      <c r="D112">
         <v>1577450.443615254</v>
       </c>
     </row>
@@ -1827,6 +2165,9 @@
         <v>3873025</v>
       </c>
       <c r="C113">
+        <v>4058848.504145937</v>
+      </c>
+      <c r="D113">
         <v>-185823.504145937</v>
       </c>
     </row>
@@ -1840,6 +2181,9 @@
         <v>3044872</v>
       </c>
       <c r="C114">
+        <v>4302587.502155887</v>
+      </c>
+      <c r="D114">
         <v>-1257715.502155887</v>
       </c>
     </row>
@@ -1853,6 +2197,9 @@
         <v>18857143</v>
       </c>
       <c r="C115">
+        <v>13146823.93457712</v>
+      </c>
+      <c r="D115">
         <v>5710319.065422883</v>
       </c>
     </row>
@@ -1866,6 +2213,9 @@
         <v>32600060</v>
       </c>
       <c r="C116">
+        <v>31540049.54991708</v>
+      </c>
+      <c r="D116">
         <v>1060010.45008292</v>
       </c>
     </row>
@@ -1879,6 +2229,9 @@
         <v>17000000</v>
       </c>
       <c r="C117">
+        <v>14449427.14386401</v>
+      </c>
+      <c r="D117">
         <v>2550572.85613599</v>
       </c>
     </row>
@@ -1892,6 +2245,9 @@
         <v>12402000</v>
       </c>
       <c r="C118">
+        <v>8582370.764510781</v>
+      </c>
+      <c r="D118">
         <v>3819629.235489219</v>
       </c>
     </row>
@@ -1905,6 +2261,9 @@
         <v>6802950</v>
       </c>
       <c r="C119">
+        <v>7217136.857131009</v>
+      </c>
+      <c r="D119">
         <v>-414186.857131009</v>
       </c>
     </row>
@@ -1918,6 +2277,9 @@
         <v>34005250</v>
       </c>
       <c r="C120">
+        <v>29943634.10771145</v>
+      </c>
+      <c r="D120">
         <v>4061615.892288554</v>
       </c>
     </row>
@@ -1931,6 +2293,9 @@
         <v>3889800</v>
       </c>
       <c r="C121">
+        <v>6669316.265505807</v>
+      </c>
+      <c r="D121">
         <v>-2779516.265505807</v>
       </c>
     </row>
@@ -1944,6 +2309,9 @@
         <v>45640084</v>
       </c>
       <c r="C122">
+        <v>40451358.87189057</v>
+      </c>
+      <c r="D122">
         <v>5188725.128109433</v>
       </c>
     </row>
@@ -1957,6 +2325,9 @@
         <v>6587040</v>
       </c>
       <c r="C123">
+        <v>9109246.218988394</v>
+      </c>
+      <c r="D123">
         <v>-2522206.218988394</v>
       </c>
     </row>
@@ -1970,6 +2341,9 @@
         <v>2019706</v>
       </c>
       <c r="C124">
+        <v>2330333.857545604</v>
+      </c>
+      <c r="D124">
         <v>-310627.8575456045</v>
       </c>
     </row>
@@ -1983,6 +2357,9 @@
         <v>33386850</v>
       </c>
       <c r="C125">
+        <v>32447062.71475954</v>
+      </c>
+      <c r="D125">
         <v>939787.2852404639</v>
       </c>
     </row>
@@ -1996,6 +2373,9 @@
         <v>1997238</v>
       </c>
       <c r="C126">
+        <v>3734149.63747927</v>
+      </c>
+      <c r="D126">
         <v>-1736911.63747927</v>
       </c>
     </row>
@@ -2009,6 +2389,9 @@
         <v>41000000</v>
       </c>
       <c r="C127">
+        <v>21063866.05074627</v>
+      </c>
+      <c r="D127">
         <v>19936133.94925373</v>
       </c>
     </row>
@@ -2022,6 +2405,9 @@
         <v>1927896</v>
       </c>
       <c r="C128">
+        <v>2674418.34145937</v>
+      </c>
+      <c r="D128">
         <v>-746522.3414593698</v>
       </c>
     </row>
@@ -2035,6 +2421,9 @@
         <v>22266182</v>
       </c>
       <c r="C129">
+        <v>20838735.2946932</v>
+      </c>
+      <c r="D129">
         <v>1427446.705306798</v>
       </c>
     </row>
@@ -2048,6 +2437,9 @@
         <v>3196448</v>
       </c>
       <c r="C130">
+        <v>10269679.93524047</v>
+      </c>
+      <c r="D130">
         <v>-7073231.935240466</v>
       </c>
     </row>
@@ -2061,6 +2453,9 @@
         <v>12100000</v>
       </c>
       <c r="C131">
+        <v>8867658.796766171</v>
+      </c>
+      <c r="D131">
         <v>3232341.203233829</v>
       </c>
     </row>
@@ -2074,6 +2469,9 @@
         <v>27586207</v>
       </c>
       <c r="C132">
+        <v>25740458.2136816</v>
+      </c>
+      <c r="D132">
         <v>1845748.786318399</v>
       </c>
     </row>
@@ -2087,6 +2485,9 @@
         <v>1901769</v>
       </c>
       <c r="C133">
+        <v>2425578.564925373</v>
+      </c>
+      <c r="D133">
         <v>-523809.5649253731</v>
       </c>
     </row>
@@ -2100,6 +2501,9 @@
         <v>200000</v>
       </c>
       <c r="C134">
+        <v>2765488.212769486</v>
+      </c>
+      <c r="D134">
         <v>-2565488.212769486</v>
       </c>
     </row>
@@ -2113,6 +2517,9 @@
         <v>22321429</v>
       </c>
       <c r="C135">
+        <v>18141023.50008292</v>
+      </c>
+      <c r="D135">
         <v>4180405.499917079</v>
       </c>
     </row>
@@ -2126,6 +2533,9 @@
         <v>9891480</v>
       </c>
       <c r="C136">
+        <v>10253953.08134329</v>
+      </c>
+      <c r="D136">
         <v>-362473.0813432857</v>
       </c>
     </row>
@@ -2139,6 +2549,9 @@
         <v>9600000</v>
       </c>
       <c r="C137">
+        <v>9712566.11849088</v>
+      </c>
+      <c r="D137">
         <v>-112566.1184908804</v>
       </c>
     </row>
@@ -2152,6 +2565,9 @@
         <v>4765339</v>
       </c>
       <c r="C138">
+        <v>5013981.34154229</v>
+      </c>
+      <c r="D138">
         <v>-248642.3415422896</v>
       </c>
     </row>
@@ -2165,6 +2581,9 @@
         <v>3712920</v>
       </c>
       <c r="C139">
+        <v>3604775.638391376</v>
+      </c>
+      <c r="D139">
         <v>108144.361608624</v>
       </c>
     </row>
@@ -2178,6 +2597,9 @@
         <v>2385720</v>
       </c>
       <c r="C140">
+        <v>3249520.99668325</v>
+      </c>
+      <c r="D140">
         <v>-863800.9966832502</v>
       </c>
     </row>
@@ -2191,6 +2613,9 @@
         <v>1119563</v>
       </c>
       <c r="C141">
+        <v>1943438.953150913</v>
+      </c>
+      <c r="D141">
         <v>-823875.9531509127</v>
       </c>
     </row>
@@ -2204,6 +2629,9 @@
         <v>15740741</v>
       </c>
       <c r="C142">
+        <v>11152920.12089552</v>
+      </c>
+      <c r="D142">
         <v>4587820.879104478</v>
       </c>
     </row>
@@ -2217,6 +2645,9 @@
         <v>5808435</v>
       </c>
       <c r="C143">
+        <v>20435703.4973466</v>
+      </c>
+      <c r="D143">
         <v>-14627268.4973466</v>
       </c>
     </row>
@@ -2230,6 +2661,9 @@
         <v>17897728</v>
       </c>
       <c r="C144">
+        <v>20042649.61028193</v>
+      </c>
+      <c r="D144">
         <v>-2144921.610281926</v>
       </c>
     </row>
@@ -2243,6 +2677,9 @@
         <v>35640000</v>
       </c>
       <c r="C145">
+        <v>35113727.77529021</v>
+      </c>
+      <c r="D145">
         <v>526272.2247097939</v>
       </c>
     </row>
@@ -2256,6 +2693,9 @@
         <v>1719864</v>
       </c>
       <c r="C146">
+        <v>4011360.934411278</v>
+      </c>
+      <c r="D146">
         <v>-2291496.934411278</v>
       </c>
     </row>
@@ -2269,6 +2709,9 @@
         <v>13000000</v>
       </c>
       <c r="C147">
+        <v>7336183.673217244</v>
+      </c>
+      <c r="D147">
         <v>5663816.326782756</v>
       </c>
     </row>
@@ -2282,6 +2725,9 @@
         <v>19928571</v>
       </c>
       <c r="C148">
+        <v>14776457.62131011</v>
+      </c>
+      <c r="D148">
         <v>5152113.378689885</v>
       </c>
     </row>
@@ -2295,6 +2741,9 @@
         <v>39270150</v>
       </c>
       <c r="C149">
+        <v>26828752.68101161</v>
+      </c>
+      <c r="D149">
         <v>12441397.31898839</v>
       </c>
     </row>
@@ -2308,6 +2757,9 @@
         <v>12960000</v>
       </c>
       <c r="C150">
+        <v>12089566.51824212</v>
+      </c>
+      <c r="D150">
         <v>870433.4817578811</v>
       </c>
     </row>
@@ -2321,6 +2773,9 @@
         <v>9245121</v>
       </c>
       <c r="C151">
+        <v>4907492.879601992</v>
+      </c>
+      <c r="D151">
         <v>4337628.120398008</v>
       </c>
     </row>
@@ -2334,6 +2789,9 @@
         <v>1927896</v>
       </c>
       <c r="C152">
+        <v>3642021.298590383</v>
+      </c>
+      <c r="D152">
         <v>-1714125.298590383</v>
       </c>
     </row>
@@ -2347,6 +2805,9 @@
         <v>4310160</v>
       </c>
       <c r="C153">
+        <v>5033729.485074627</v>
+      </c>
+      <c r="D153">
         <v>-723569.4850746272</v>
       </c>
     </row>
@@ -2360,6 +2821,9 @@
         <v>2165000</v>
       </c>
       <c r="C154">
+        <v>2501374.757379767</v>
+      </c>
+      <c r="D154">
         <v>-336374.7573797675</v>
       </c>
     </row>
@@ -2373,6 +2837,9 @@
         <v>7413955</v>
       </c>
       <c r="C155">
+        <v>7556655.58698176</v>
+      </c>
+      <c r="D155">
         <v>-142700.5869817603</v>
       </c>
     </row>
@@ -2386,6 +2853,9 @@
         <v>31500000</v>
       </c>
       <c r="C156">
+        <v>26398199.26285241</v>
+      </c>
+      <c r="D156">
         <v>5101800.737147592</v>
       </c>
     </row>
@@ -2399,6 +2869,9 @@
         <v>9770880</v>
       </c>
       <c r="C157">
+        <v>10794615.61202322</v>
+      </c>
+      <c r="D157">
         <v>-1023735.612023218</v>
       </c>
     </row>
@@ -2412,6 +2885,9 @@
         <v>5569920</v>
       </c>
       <c r="C158">
+        <v>4697865.791873964</v>
+      </c>
+      <c r="D158">
         <v>872054.2081260365</v>
       </c>
     </row>
@@ -2425,6 +2901,9 @@
         <v>27000000</v>
       </c>
       <c r="C159">
+        <v>27429952.25978441</v>
+      </c>
+      <c r="D159">
         <v>-429952.2597844079</v>
       </c>
     </row>
@@ -2438,6 +2917,9 @@
         <v>19279841</v>
       </c>
       <c r="C160">
+        <v>16642648.1221393</v>
+      </c>
+      <c r="D160">
         <v>2637192.877860704</v>
       </c>
     </row>
@@ -2451,6 +2933,9 @@
         <v>1902137</v>
       </c>
       <c r="C161">
+        <v>5315233.163515755</v>
+      </c>
+      <c r="D161">
         <v>-3413096.163515755</v>
       </c>
     </row>
@@ -2464,6 +2949,9 @@
         <v>2019706</v>
       </c>
       <c r="C162">
+        <v>3704183.609203981</v>
+      </c>
+      <c r="D162">
         <v>-1684477.609203981</v>
       </c>
     </row>
@@ -2477,6 +2965,9 @@
         <v>36861707</v>
       </c>
       <c r="C163">
+        <v>25678055.9623549</v>
+      </c>
+      <c r="D163">
         <v>11183651.0376451</v>
       </c>
     </row>
@@ -2490,6 +2981,9 @@
         <v>2019706</v>
       </c>
       <c r="C164">
+        <v>9577118.626533996</v>
+      </c>
+      <c r="D164">
         <v>-7557412.626533996</v>
       </c>
     </row>
@@ -2503,6 +2997,9 @@
         <v>12046020</v>
       </c>
       <c r="C165">
+        <v>5479820.213847429</v>
+      </c>
+      <c r="D165">
         <v>6566199.786152571</v>
       </c>
     </row>
@@ -2516,6 +3013,9 @@
         <v>10386000</v>
       </c>
       <c r="C166">
+        <v>9957705.292039802</v>
+      </c>
+      <c r="D166">
         <v>428294.7079601977</v>
       </c>
     </row>
@@ -2529,6 +3029,9 @@
         <v>3695040</v>
       </c>
       <c r="C167">
+        <v>3610869.158789386</v>
+      </c>
+      <c r="D167">
         <v>84170.84121061396</v>
       </c>
     </row>
@@ -2542,6 +3045,9 @@
         <v>10000000</v>
       </c>
       <c r="C168">
+        <v>10090199.68913764</v>
+      </c>
+      <c r="D168">
         <v>-90199.6891376432</v>
       </c>
     </row>
@@ -2555,6 +3061,9 @@
         <v>11020000</v>
       </c>
       <c r="C169">
+        <v>9324838.510447767</v>
+      </c>
+      <c r="D169">
         <v>1695161.489552233</v>
       </c>
     </row>
@@ -2568,6 +3077,9 @@
         <v>4310250</v>
       </c>
       <c r="C170">
+        <v>5330811.186401328</v>
+      </c>
+      <c r="D170">
         <v>-1020561.186401328</v>
       </c>
     </row>
@@ -2581,6 +3093,9 @@
         <v>2000000</v>
       </c>
       <c r="C171">
+        <v>2600286.236567164</v>
+      </c>
+      <c r="D171">
         <v>-600286.2365671638</v>
       </c>
     </row>
@@ -2594,6 +3109,9 @@
         <v>5026800</v>
       </c>
       <c r="C172">
+        <v>3333798.319402985</v>
+      </c>
+      <c r="D172">
         <v>1693001.680597015</v>
       </c>
     </row>
@@ -2607,6 +3125,9 @@
         <v>15669643</v>
       </c>
       <c r="C173">
+        <v>11763296.05762853</v>
+      </c>
+      <c r="D173">
         <v>3906346.942371475</v>
       </c>
     </row>
@@ -2620,6 +3141,9 @@
         <v>20089286</v>
       </c>
       <c r="C174">
+        <v>19544181.07172471</v>
+      </c>
+      <c r="D174">
         <v>545104.9282752872</v>
       </c>
     </row>
@@ -2633,6 +3157,9 @@
         <v>2306400</v>
       </c>
       <c r="C175">
+        <v>3428431.28955224</v>
+      </c>
+      <c r="D175">
         <v>-1122031.28955224</v>
       </c>
     </row>
@@ -2646,6 +3173,9 @@
         <v>11000000</v>
       </c>
       <c r="C176">
+        <v>7352295.360862354</v>
+      </c>
+      <c r="D176">
         <v>3647704.639137646</v>
       </c>
     </row>
@@ -2659,6 +3189,9 @@
         <v>33833400</v>
       </c>
       <c r="C177">
+        <v>31639623.26865673</v>
+      </c>
+      <c r="D177">
         <v>2193776.731343269</v>
       </c>
     </row>
@@ -2672,6 +3205,9 @@
         <v>37037037</v>
       </c>
       <c r="C178">
+        <v>30070868.0876451</v>
+      </c>
+      <c r="D178">
         <v>6966168.912354898</v>
       </c>
     </row>
@@ -2685,6 +3221,9 @@
         <v>17400000</v>
       </c>
       <c r="C179">
+        <v>5012723.075953563</v>
+      </c>
+      <c r="D179">
         <v>12387276.92404644</v>
       </c>
     </row>
@@ -2698,6 +3237,9 @@
         <v>7614480</v>
       </c>
       <c r="C180">
+        <v>8348209.859286899</v>
+      </c>
+      <c r="D180">
         <v>-733729.8592868987</v>
       </c>
     </row>
@@ -2711,6 +3253,9 @@
         <v>1119563</v>
       </c>
       <c r="C181">
+        <v>2037395.926699834</v>
+      </c>
+      <c r="D181">
         <v>-917832.9266998344</v>
       </c>
     </row>
@@ -2724,6 +3269,9 @@
         <v>2696280</v>
       </c>
       <c r="C182">
+        <v>3213533.521973467</v>
+      </c>
+      <c r="D182">
         <v>-517253.5219734665</v>
       </c>
     </row>
@@ -2737,6 +3285,9 @@
         <v>27102202</v>
       </c>
       <c r="C183">
+        <v>26777424.93134328</v>
+      </c>
+      <c r="D183">
         <v>324777.0686567165</v>
       </c>
     </row>
@@ -2750,6 +3301,9 @@
         <v>5000000</v>
       </c>
       <c r="C184">
+        <v>7224343.895688227</v>
+      </c>
+      <c r="D184">
         <v>-2224343.895688227</v>
       </c>
     </row>
@@ -2763,6 +3317,9 @@
         <v>1119563</v>
       </c>
       <c r="C185">
+        <v>2098981.832587066</v>
+      </c>
+      <c r="D185">
         <v>-979418.8325870656</v>
       </c>
     </row>
@@ -2776,6 +3333,9 @@
         <v>47607350</v>
       </c>
       <c r="C186">
+        <v>37312298.8818408</v>
+      </c>
+      <c r="D186">
         <v>10295051.1181592</v>
       </c>
     </row>
@@ -2789,6 +3349,9 @@
         <v>3510600</v>
       </c>
       <c r="C187">
+        <v>7370589.179767828</v>
+      </c>
+      <c r="D187">
         <v>-3859989.179767828</v>
       </c>
     </row>
@@ -2802,6 +3365,9 @@
         <v>2066585</v>
       </c>
       <c r="C188">
+        <v>2053420.675456054</v>
+      </c>
+      <c r="D188">
         <v>13164.32454394619</v>
       </c>
     </row>
@@ -2815,6 +3381,9 @@
         <v>2439025</v>
       </c>
       <c r="C189">
+        <v>3195714.840049752</v>
+      </c>
+      <c r="D189">
         <v>-756689.8400497516</v>
       </c>
     </row>
@@ -2828,6 +3397,9 @@
         <v>1997238</v>
       </c>
       <c r="C190">
+        <v>3422856.949751243</v>
+      </c>
+      <c r="D190">
         <v>-1425618.949751243</v>
       </c>
     </row>
@@ -2841,6 +3413,9 @@
         <v>25679348</v>
       </c>
       <c r="C191">
+        <v>20988810.12736318</v>
+      </c>
+      <c r="D191">
         <v>4690537.872636817</v>
       </c>
     </row>
@@ -2854,6 +3429,9 @@
         <v>2925360</v>
       </c>
       <c r="C192">
+        <v>7387684.720066336</v>
+      </c>
+      <c r="D192">
         <v>-4462324.720066336</v>
       </c>
     </row>
@@ -2867,6 +3445,9 @@
         <v>20000000</v>
       </c>
       <c r="C193">
+        <v>18797304.53988392</v>
+      </c>
+      <c r="D193">
         <v>1202695.460116085</v>
       </c>
     </row>
@@ -2880,6 +3461,9 @@
         <v>47607350</v>
       </c>
       <c r="C194">
+        <v>41581763.22819237</v>
+      </c>
+      <c r="D194">
         <v>6025586.771807633</v>
       </c>
     </row>
@@ -2893,6 +3477,9 @@
         <v>2019706</v>
       </c>
       <c r="C195">
+        <v>2070567.707877281</v>
+      </c>
+      <c r="D195">
         <v>-50861.70787728066</v>
       </c>
     </row>
@@ -2906,6 +3493,9 @@
         <v>2586665</v>
       </c>
       <c r="C196">
+        <v>2598277.646849088</v>
+      </c>
+      <c r="D196">
         <v>-11612.64684908791</v>
       </c>
     </row>
@@ -2919,6 +3509,9 @@
         <v>5379706</v>
       </c>
       <c r="C197">
+        <v>6498838.839220564</v>
+      </c>
+      <c r="D197">
         <v>-1119132.839220564</v>
       </c>
     </row>
@@ -2932,6 +3525,9 @@
         <v>12015150</v>
       </c>
       <c r="C198">
+        <v>10462085.38175787</v>
+      </c>
+      <c r="D198">
         <v>1553064.618242126</v>
       </c>
     </row>
@@ -2945,6 +3541,9 @@
         <v>9895833</v>
       </c>
       <c r="C199">
+        <v>9687335.258374793</v>
+      </c>
+      <c r="D199">
         <v>208497.7416252065</v>
       </c>
     </row>
@@ -2958,6 +3557,9 @@
         <v>14000000</v>
       </c>
       <c r="C200">
+        <v>14967186.94660033</v>
+      </c>
+      <c r="D200">
         <v>-967186.946600331</v>
       </c>
     </row>
@@ -2971,6 +3573,9 @@
         <v>2019706</v>
       </c>
       <c r="C201">
+        <v>6123935.955389718</v>
+      </c>
+      <c r="D201">
         <v>-4104229.955389718</v>
       </c>
     </row>
@@ -2984,6 +3589,9 @@
         <v>2019706</v>
       </c>
       <c r="C202">
+        <v>4143881.353067994</v>
+      </c>
+      <c r="D202">
         <v>-2124175.353067994</v>
       </c>
     </row>
@@ -2997,6 +3605,9 @@
         <v>2352000</v>
       </c>
       <c r="C203">
+        <v>3294690.055721394</v>
+      </c>
+      <c r="D203">
         <v>-942690.0557213943</v>
       </c>
     </row>
@@ -3010,6 +3621,9 @@
         <v>14763636</v>
       </c>
       <c r="C204">
+        <v>9579263.525953563</v>
+      </c>
+      <c r="D204">
         <v>5184372.474046437</v>
       </c>
     </row>
@@ -3023,6 +3637,9 @@
         <v>2831160</v>
       </c>
       <c r="C205">
+        <v>4418705.311359867</v>
+      </c>
+      <c r="D205">
         <v>-1587545.311359867</v>
       </c>
     </row>
@@ -3036,6 +3653,9 @@
         <v>3722040</v>
       </c>
       <c r="C206">
+        <v>4905337.901243782</v>
+      </c>
+      <c r="D206">
         <v>-1183297.901243782</v>
       </c>
     </row>
@@ -3049,6 +3669,9 @@
         <v>11000000</v>
       </c>
       <c r="C207">
+        <v>8564308.439303486</v>
+      </c>
+      <c r="D207">
         <v>2435691.560696514</v>
       </c>
     </row>
@@ -3062,6 +3685,9 @@
         <v>1845593</v>
       </c>
       <c r="C208">
+        <v>3909689.572470977</v>
+      </c>
+      <c r="D208">
         <v>-2064096.572470977</v>
       </c>
     </row>
@@ -3075,6 +3701,9 @@
         <v>2400000</v>
       </c>
       <c r="C209">
+        <v>3756256.886152571</v>
+      </c>
+      <c r="D209">
         <v>-1356256.886152571</v>
       </c>
     </row>
@@ -3088,6 +3717,9 @@
         <v>5370370</v>
       </c>
       <c r="C210">
+        <v>2159394.59013267</v>
+      </c>
+      <c r="D210">
         <v>3210975.40986733</v>
       </c>
     </row>
@@ -3101,6 +3733,9 @@
         <v>2413304</v>
       </c>
       <c r="C211">
+        <v>4187311.43482587</v>
+      </c>
+      <c r="D211">
         <v>-1774007.43482587</v>
       </c>
     </row>
@@ -3114,6 +3749,9 @@
         <v>6012840</v>
       </c>
       <c r="C212">
+        <v>5777911.063764513</v>
+      </c>
+      <c r="D212">
         <v>234928.9362354875</v>
       </c>
     </row>
@@ -3127,6 +3765,9 @@
         <v>25568182</v>
       </c>
       <c r="C213">
+        <v>27620960.17230514</v>
+      </c>
+      <c r="D213">
         <v>-2052778.172305141</v>
       </c>
     </row>
@@ -3140,6 +3781,9 @@
         <v>8000000</v>
       </c>
       <c r="C214">
+        <v>6932049.290132671</v>
+      </c>
+      <c r="D214">
         <v>1067950.709867329</v>
       </c>
     </row>
@@ -3153,6 +3797,9 @@
         <v>3199920</v>
       </c>
       <c r="C215">
+        <v>2961210.262603649</v>
+      </c>
+      <c r="D215">
         <v>238709.7373963506</v>
       </c>
     </row>
@@ -3166,6 +3813,9 @@
         <v>40064220</v>
       </c>
       <c r="C216">
+        <v>33759726.2309287</v>
+      </c>
+      <c r="D216">
         <v>6304493.769071303</v>
       </c>
     </row>
@@ -3179,6 +3829,9 @@
         <v>2019706</v>
       </c>
       <c r="C217">
+        <v>3051059.139883915</v>
+      </c>
+      <c r="D217">
         <v>-1031353.139883915</v>
       </c>
     </row>
@@ -3192,6 +3845,9 @@
         <v>45640084</v>
       </c>
       <c r="C218">
+        <v>39509759.61160863</v>
+      </c>
+      <c r="D218">
         <v>6130324.388391368</v>
       </c>
     </row>
@@ -3205,6 +3861,9 @@
         <v>15384616</v>
       </c>
       <c r="C219">
+        <v>19324268.03772803</v>
+      </c>
+      <c r="D219">
         <v>-3939652.03772803</v>
       </c>
     </row>
@@ -3218,6 +3877,9 @@
         <v>5722116</v>
       </c>
       <c r="C220">
+        <v>4834658.416749586</v>
+      </c>
+      <c r="D220">
         <v>887457.5832504136</v>
       </c>
     </row>
@@ -3231,6 +3893,9 @@
         <v>1119563</v>
       </c>
       <c r="C221">
+        <v>1516717.772968491</v>
+      </c>
+      <c r="D221">
         <v>-397154.7729684906</v>
       </c>
     </row>
@@ -3244,6 +3909,9 @@
         <v>1801769</v>
       </c>
       <c r="C222">
+        <v>1990781.23681592</v>
+      </c>
+      <c r="D222">
         <v>-189012.2368159203</v>
       </c>
     </row>
@@ -3257,6 +3925,9 @@
         <v>45640084</v>
       </c>
       <c r="C223">
+        <v>40550309.96351576</v>
+      </c>
+      <c r="D223">
         <v>5089774.036484241</v>
       </c>
     </row>
@@ -3270,6 +3941,9 @@
         <v>6250000</v>
       </c>
       <c r="C224">
+        <v>5103724.795854065</v>
+      </c>
+      <c r="D224">
         <v>1146275.204145935</v>
       </c>
     </row>
@@ -3283,6 +3957,9 @@
         <v>4775640</v>
       </c>
       <c r="C225">
+        <v>5067426.672222223</v>
+      </c>
+      <c r="D225">
         <v>-291786.6722222231</v>
       </c>
     </row>
@@ -3296,6 +3973,9 @@
         <v>1836096</v>
       </c>
       <c r="C226">
+        <v>6080386.498839137</v>
+      </c>
+      <c r="D226">
         <v>-4244290.498839137</v>
       </c>
     </row>
@@ -3309,6 +3989,9 @@
         <v>1119563</v>
       </c>
       <c r="C227">
+        <v>1677285.630845771</v>
+      </c>
+      <c r="D227">
         <v>-557722.6308457709</v>
       </c>
     </row>
@@ -3322,6 +4005,9 @@
         <v>1719864</v>
       </c>
       <c r="C228">
+        <v>2066349.175621891</v>
+      </c>
+      <c r="D228">
         <v>-346485.1756218907</v>
       </c>
     </row>
@@ -3335,6 +4021,9 @@
         <v>7500000</v>
       </c>
       <c r="C229">
+        <v>7219039.347844115</v>
+      </c>
+      <c r="D229">
         <v>280960.6521558855</v>
       </c>
     </row>
@@ -3348,6 +4037,9 @@
         <v>25000000</v>
       </c>
       <c r="C230">
+        <v>12948284.02470979</v>
+      </c>
+      <c r="D230">
         <v>12051715.97529021</v>
       </c>
     </row>
@@ -3361,6 +4053,9 @@
         <v>2019706</v>
       </c>
       <c r="C231">
+        <v>2686171.174295192</v>
+      </c>
+      <c r="D231">
         <v>-666465.1742951917</v>
       </c>
     </row>
@@ -3374,6 +4069,9 @@
         <v>3835738</v>
       </c>
       <c r="C232">
+        <v>5597203.349585407</v>
+      </c>
+      <c r="D232">
         <v>-1761465.349585407</v>
       </c>
     </row>
@@ -3387,6 +4085,9 @@
         <v>29682540</v>
       </c>
       <c r="C233">
+        <v>22571708.020398</v>
+      </c>
+      <c r="D233">
         <v>7110831.979601998</v>
       </c>
     </row>
@@ -3400,6 +4101,9 @@
         <v>8000000</v>
       </c>
       <c r="C234">
+        <v>5914627.796517414</v>
+      </c>
+      <c r="D234">
         <v>2085372.203482586</v>
       </c>
     </row>
@@ -3413,6 +4117,9 @@
         <v>2019706</v>
       </c>
       <c r="C235">
+        <v>3278839.931260365</v>
+      </c>
+      <c r="D235">
         <v>-1259133.931260365</v>
       </c>
     </row>
@@ -3426,6 +4133,9 @@
         <v>10576923</v>
       </c>
       <c r="C236">
+        <v>9742386.783499168</v>
+      </c>
+      <c r="D236">
         <v>834536.2165008318</v>
       </c>
     </row>
@@ -3439,6 +4149,9 @@
         <v>3191400</v>
       </c>
       <c r="C237">
+        <v>3808710.073217247</v>
+      </c>
+      <c r="D237">
         <v>-617310.0732172471</v>
       </c>
     </row>
@@ -3452,6 +4165,9 @@
         <v>2019706</v>
       </c>
       <c r="C238">
+        <v>4446108.073134328</v>
+      </c>
+      <c r="D238">
         <v>-2426402.073134328</v>
       </c>
     </row>
@@ -3465,6 +4181,9 @@
         <v>17259999</v>
       </c>
       <c r="C239">
+        <v>24809898.48946932</v>
+      </c>
+      <c r="D239">
         <v>-7549899.489469323</v>
       </c>
     </row>
@@ -3478,6 +4197,9 @@
         <v>1930681</v>
       </c>
       <c r="C240">
+        <v>2983735.644444444</v>
+      </c>
+      <c r="D240">
         <v>-1053054.644444444</v>
       </c>
     </row>
@@ -3491,6 +4213,9 @@
         <v>6802950</v>
       </c>
       <c r="C241">
+        <v>8209184.505721396</v>
+      </c>
+      <c r="D241">
         <v>-1406234.505721396</v>
       </c>
     </row>
@@ -3504,6 +4229,9 @@
         <v>7560000</v>
       </c>
       <c r="C242">
+        <v>6197906.653482586</v>
+      </c>
+      <c r="D242">
         <v>1362093.346517414</v>
       </c>
     </row>
@@ -3517,6 +4245,9 @@
         <v>1930681</v>
       </c>
       <c r="C243">
+        <v>1893394.996517413</v>
+      </c>
+      <c r="D243">
         <v>37286.00348258694</v>
       </c>
     </row>
@@ -3530,6 +4261,9 @@
         <v>2000000</v>
       </c>
       <c r="C244">
+        <v>3256320.148922056</v>
+      </c>
+      <c r="D244">
         <v>-1256320.148922056</v>
       </c>
     </row>
@@ -3543,6 +4277,9 @@
         <v>6916080</v>
       </c>
       <c r="C245">
+        <v>7331003.036069652</v>
+      </c>
+      <c r="D245">
         <v>-414923.0360696521</v>
       </c>
     </row>
@@ -3556,6 +4293,9 @@
         <v>2019706</v>
       </c>
       <c r="C246">
+        <v>5069282.210364842</v>
+      </c>
+      <c r="D246">
         <v>-3049576.210364842</v>
       </c>
     </row>
@@ -3569,6 +4309,9 @@
         <v>4343920</v>
       </c>
       <c r="C247">
+        <v>24249315.80306799</v>
+      </c>
+      <c r="D247">
         <v>-19905395.80306799</v>
       </c>
     </row>
@@ -3582,6 +4325,9 @@
         <v>1799163</v>
       </c>
       <c r="C248">
+        <v>4134696.628689884</v>
+      </c>
+      <c r="D248">
         <v>-2335533.628689884</v>
       </c>
     </row>
@@ -3595,6 +4341,9 @@
         <v>1836096</v>
       </c>
       <c r="C249">
+        <v>1958457.29344942</v>
+      </c>
+      <c r="D249">
         <v>-122361.29344942</v>
       </c>
     </row>
@@ -3608,6 +4357,9 @@
         <v>35802469</v>
       </c>
       <c r="C250">
+        <v>30243267.81177447</v>
+      </c>
+      <c r="D250">
         <v>5559201.188225526</v>
       </c>
     </row>
@@ -3621,6 +4373,9 @@
         <v>8700000</v>
       </c>
       <c r="C251">
+        <v>8923632.381426206</v>
+      </c>
+      <c r="D251">
         <v>-223632.3814262059</v>
       </c>
     </row>
@@ -3634,6 +4389,9 @@
         <v>3901399</v>
       </c>
       <c r="C252">
+        <v>6365162.443200663</v>
+      </c>
+      <c r="D252">
         <v>-2463763.443200663</v>
       </c>
     </row>
@@ -3647,6 +4405,9 @@
         <v>4516000</v>
       </c>
       <c r="C253">
+        <v>3939342.454560529</v>
+      </c>
+      <c r="D253">
         <v>576657.5454394706</v>
       </c>
     </row>
@@ -3660,6 +4421,9 @@
         <v>13750000</v>
       </c>
       <c r="C254">
+        <v>12615311.02852405</v>
+      </c>
+      <c r="D254">
         <v>1134688.971475951</v>
       </c>
     </row>
@@ -3673,6 +4437,9 @@
         <v>4368030</v>
       </c>
       <c r="C255">
+        <v>5102960.140215589</v>
+      </c>
+      <c r="D255">
         <v>-734930.1402155887</v>
       </c>
     </row>
@@ -3686,6 +4453,9 @@
         <v>1719864</v>
       </c>
       <c r="C256">
+        <v>2978564.840215588</v>
+      </c>
+      <c r="D256">
         <v>-1258700.840215588</v>
       </c>
     </row>
@@ -3699,6 +4469,9 @@
         <v>2320000</v>
       </c>
       <c r="C257">
+        <v>2785869.4039801</v>
+      </c>
+      <c r="D257">
         <v>-465869.4039800996</v>
       </c>
     </row>
@@ -3712,6 +4485,9 @@
         <v>8000000</v>
       </c>
       <c r="C258">
+        <v>9936547.189635158</v>
+      </c>
+      <c r="D258">
         <v>-1936547.189635158</v>
       </c>
     </row>
@@ -3725,6 +4501,9 @@
         <v>1997238</v>
       </c>
       <c r="C259">
+        <v>2942993.013432836</v>
+      </c>
+      <c r="D259">
         <v>-945755.0134328362</v>
       </c>
     </row>
@@ -3738,6 +4517,9 @@
         <v>2019706</v>
       </c>
       <c r="C260">
+        <v>4035550.35</v>
+      </c>
+      <c r="D260">
         <v>-2015844.35</v>
       </c>
     </row>
@@ -3751,6 +4533,9 @@
         <v>7723000</v>
       </c>
       <c r="C261">
+        <v>7748233.681674958</v>
+      </c>
+      <c r="D261">
         <v>-25233.68167495821</v>
       </c>
     </row>
@@ -3764,6 +4549,9 @@
         <v>29320988</v>
       </c>
       <c r="C262">
+        <v>16310957.31401327</v>
+      </c>
+      <c r="D262">
         <v>13010030.68598673</v>
       </c>
     </row>
@@ -3777,6 +4565,9 @@
         <v>10880400</v>
       </c>
       <c r="C263">
+        <v>10449190.45058043</v>
+      </c>
+      <c r="D263">
         <v>431209.5494195689</v>
       </c>
     </row>
@@ -3790,6 +4581,9 @@
         <v>1800000</v>
       </c>
       <c r="C264">
+        <v>2193848.37039801</v>
+      </c>
+      <c r="D264">
         <v>-393848.3703980097</v>
       </c>
     </row>
@@ -3803,6 +4597,9 @@
         <v>2966040</v>
       </c>
       <c r="C265">
+        <v>3537168.528938639</v>
+      </c>
+      <c r="D265">
         <v>-571128.5289386385</v>
       </c>
     </row>
@@ -3816,6 +4613,9 @@
         <v>6802950</v>
       </c>
       <c r="C266">
+        <v>6109447.265422887</v>
+      </c>
+      <c r="D266">
         <v>693502.7345771128</v>
       </c>
     </row>
@@ -3829,6 +4629,9 @@
         <v>5000000</v>
       </c>
       <c r="C267">
+        <v>4869649.782172471</v>
+      </c>
+      <c r="D267">
         <v>130350.2178275287</v>
       </c>
     </row>
@@ -3842,6 +4645,9 @@
         <v>1719864</v>
       </c>
       <c r="C268">
+        <v>1910617.564262024</v>
+      </c>
+      <c r="D268">
         <v>-190753.5642620237</v>
       </c>
     </row>
@@ -3855,6 +4661,9 @@
         <v>5063640</v>
       </c>
       <c r="C269">
+        <v>4973742.454809288</v>
+      </c>
+      <c r="D269">
         <v>89897.54519071244</v>
       </c>
     </row>
@@ -3868,6 +4677,9 @@
         <v>33162030</v>
       </c>
       <c r="C270">
+        <v>33242067.42470977</v>
+      </c>
+      <c r="D270">
         <v>-80037.42470977455</v>
       </c>
     </row>
@@ -3881,6 +4693,9 @@
         <v>8882640</v>
       </c>
       <c r="C271">
+        <v>16487360.94386401</v>
+      </c>
+      <c r="D271">
         <v>-7604720.943864014</v>
       </c>
     </row>
@@ -3894,6 +4709,9 @@
         <v>9945830</v>
       </c>
       <c r="C272">
+        <v>11718701.41782753</v>
+      </c>
+      <c r="D272">
         <v>-1772871.417827534</v>
       </c>
     </row>
@@ -3907,6 +4725,9 @@
         <v>3918480</v>
       </c>
       <c r="C273">
+        <v>3584524.686898839</v>
+      </c>
+      <c r="D273">
         <v>333955.3131011608</v>
       </c>
     </row>
@@ -3920,6 +4741,9 @@
         <v>2421720</v>
       </c>
       <c r="C274">
+        <v>2063764.648092869</v>
+      </c>
+      <c r="D274">
         <v>357955.351907131</v>
       </c>
     </row>
@@ -3933,6 +4757,9 @@
         <v>34005250</v>
       </c>
       <c r="C275">
+        <v>32039723.02280265</v>
+      </c>
+      <c r="D275">
         <v>1965526.977197353</v>
       </c>
     </row>
@@ -3946,6 +4773,9 @@
         <v>17116279</v>
       </c>
       <c r="C276">
+        <v>12538905.3247927</v>
+      </c>
+      <c r="D276">
         <v>4577373.675207296</v>
       </c>
     </row>
@@ -3959,6 +4789,9 @@
         <v>2019706</v>
       </c>
       <c r="C277">
+        <v>5688253.938225538</v>
+      </c>
+      <c r="D277">
         <v>-3668547.938225538</v>
       </c>
     </row>
@@ -3972,6 +4805,9 @@
         <v>3359280</v>
       </c>
       <c r="C278">
+        <v>13460122.63756219</v>
+      </c>
+      <c r="D278">
         <v>-10100842.63756219</v>
       </c>
     </row>
@@ -3985,6 +4821,9 @@
         <v>18214000</v>
       </c>
       <c r="C279">
+        <v>22477301.17810945</v>
+      </c>
+      <c r="D279">
         <v>-4263301.178109448</v>
       </c>
     </row>
@@ -3998,6 +4837,9 @@
         <v>33833400</v>
       </c>
       <c r="C280">
+        <v>29342759.02470978</v>
+      </c>
+      <c r="D280">
         <v>4490640.975290217</v>
       </c>
     </row>
@@ -4011,6 +4853,9 @@
         <v>8409000</v>
       </c>
       <c r="C281">
+        <v>13141332.4800995</v>
+      </c>
+      <c r="D281">
         <v>-4732332.480099499</v>
       </c>
     </row>
@@ -4024,6 +4869,9 @@
         <v>2847480</v>
       </c>
       <c r="C282">
+        <v>3144168.345936981</v>
+      </c>
+      <c r="D282">
         <v>-296688.3459369815</v>
       </c>
     </row>
@@ -4037,6 +4885,9 @@
         <v>3500000</v>
       </c>
       <c r="C283">
+        <v>5016726.608208954</v>
+      </c>
+      <c r="D283">
         <v>-1516726.608208954</v>
       </c>
     </row>
@@ -4050,6 +4901,9 @@
         <v>2019706</v>
       </c>
       <c r="C284">
+        <v>2307146.097595356</v>
+      </c>
+      <c r="D284">
         <v>-287440.0975953564</v>
       </c>
     </row>
@@ -4063,6 +4917,9 @@
         <v>10375000</v>
       </c>
       <c r="C285">
+        <v>8842224.819983415</v>
+      </c>
+      <c r="D285">
         <v>1532775.180016585</v>
       </c>
     </row>
@@ -4076,6 +4933,9 @@
         <v>2131905</v>
       </c>
       <c r="C286">
+        <v>7231933.214510782</v>
+      </c>
+      <c r="D286">
         <v>-5100028.214510782</v>
       </c>
     </row>
@@ -4089,6 +4949,9 @@
         <v>5634257</v>
       </c>
       <c r="C287">
+        <v>6594053.492703155</v>
+      </c>
+      <c r="D287">
         <v>-959796.4927031547</v>
       </c>
     </row>
@@ -4102,6 +4965,9 @@
         <v>8800000</v>
       </c>
       <c r="C288">
+        <v>7879009.012603647</v>
+      </c>
+      <c r="D288">
         <v>920990.9873963529</v>
       </c>
     </row>
@@ -4115,6 +4981,9 @@
         <v>4306281</v>
       </c>
       <c r="C289">
+        <v>3362850.789054725</v>
+      </c>
+      <c r="D289">
         <v>943430.2109452747</v>
       </c>
     </row>
@@ -4128,6 +4997,9 @@
         <v>16875000</v>
       </c>
       <c r="C290">
+        <v>19776042.34361525</v>
+      </c>
+      <c r="D290">
         <v>-2901042.343615249</v>
       </c>
     </row>
@@ -4141,6 +5013,9 @@
         <v>3000000</v>
       </c>
       <c r="C291">
+        <v>3558738.252238806</v>
+      </c>
+      <c r="D291">
         <v>-558738.2522388063</v>
       </c>
     </row>
@@ -4154,6 +5029,9 @@
         <v>9500000</v>
       </c>
       <c r="C292">
+        <v>9132256.052238801</v>
+      </c>
+      <c r="D292">
         <v>367743.9477611985</v>
       </c>
     </row>
@@ -4167,6 +5045,9 @@
         <v>5266713</v>
       </c>
       <c r="C293">
+        <v>2741720.29809287</v>
+      </c>
+      <c r="D293">
         <v>2524992.70190713</v>
       </c>
     </row>
@@ -4180,6 +5061,9 @@
         <v>2815937</v>
       </c>
       <c r="C294">
+        <v>3097835.815008292</v>
+      </c>
+      <c r="D294">
         <v>-281898.815008292</v>
       </c>
     </row>
@@ -4193,6 +5077,9 @@
         <v>8109063</v>
       </c>
       <c r="C295">
+        <v>6734405.282006633</v>
+      </c>
+      <c r="D295">
         <v>1374657.717993367</v>
       </c>
     </row>
@@ -4206,6 +5093,9 @@
         <v>8920795</v>
       </c>
       <c r="C296">
+        <v>8271494.11641791</v>
+      </c>
+      <c r="D296">
         <v>649300.88358209</v>
       </c>
     </row>
@@ -4219,6 +5109,9 @@
         <v>12195122</v>
       </c>
       <c r="C297">
+        <v>11699959.98665009</v>
+      </c>
+      <c r="D297">
         <v>495162.0133499149</v>
       </c>
     </row>
@@ -4232,6 +5125,9 @@
         <v>6718842</v>
       </c>
       <c r="C298">
+        <v>6385897.78499171</v>
+      </c>
+      <c r="D298">
         <v>332944.2150082905</v>
       </c>
     </row>
@@ -4245,6 +5141,9 @@
         <v>2019706</v>
       </c>
       <c r="C299">
+        <v>6241772.547844114</v>
+      </c>
+      <c r="D299">
         <v>-4222066.547844114</v>
       </c>
     </row>
@@ -4258,6 +5157,9 @@
         <v>30800000</v>
       </c>
       <c r="C300">
+        <v>25412065.53723051</v>
+      </c>
+      <c r="D300">
         <v>5387934.46276949</v>
       </c>
     </row>
@@ -4271,6 +5173,9 @@
         <v>8519706</v>
       </c>
       <c r="C301">
+        <v>7768417.412354893</v>
+      </c>
+      <c r="D301">
         <v>751288.5876451069</v>
       </c>
     </row>
@@ -4284,6 +5189,9 @@
         <v>8715000</v>
       </c>
       <c r="C302">
+        <v>8095670.20273632</v>
+      </c>
+      <c r="D302">
         <v>619329.79726368</v>
       </c>
     </row>
@@ -4297,6 +5205,9 @@
         <v>559782</v>
       </c>
       <c r="C303">
+        <v>2033302.679850747</v>
+      </c>
+      <c r="D303">
         <v>-1473520.679850747</v>
       </c>
     </row>
@@ -4310,6 +5221,9 @@
         <v>1600000</v>
       </c>
       <c r="C304">
+        <v>2378510.797595357</v>
+      </c>
+      <c r="D304">
         <v>-778510.7975953571</v>
       </c>
     </row>
@@ -4323,6 +5237,9 @@
         <v>1708143</v>
       </c>
       <c r="C305">
+        <v>2062420.783333334</v>
+      </c>
+      <c r="D305">
         <v>-354277.7833333337</v>
       </c>
     </row>
@@ -4336,6 +5253,9 @@
         <v>5000000</v>
       </c>
       <c r="C306">
+        <v>6176703.618076285</v>
+      </c>
+      <c r="D306">
         <v>-1176703.618076285</v>
       </c>
     </row>
@@ -4349,6 +5269,9 @@
         <v>3352440</v>
       </c>
       <c r="C307">
+        <v>5011179.420149253</v>
+      </c>
+      <c r="D307">
         <v>-1658739.420149253</v>
       </c>
     </row>
@@ -4362,6 +5285,9 @@
         <v>19500000</v>
       </c>
       <c r="C308">
+        <v>11445394.58905473</v>
+      </c>
+      <c r="D308">
         <v>8054605.410945274</v>
       </c>
     </row>
@@ -4375,6 +5301,9 @@
         <v>5009633</v>
       </c>
       <c r="C309">
+        <v>2720539.456799337</v>
+      </c>
+      <c r="D309">
         <v>2289093.543200663</v>
       </c>
     </row>
@@ -4388,6 +5317,9 @@
         <v>27455357</v>
       </c>
       <c r="C310">
+        <v>16441069.87819237</v>
+      </c>
+      <c r="D310">
         <v>11014287.12180763</v>
       </c>
     </row>
@@ -4401,6 +5333,9 @@
         <v>33386850</v>
       </c>
       <c r="C311">
+        <v>26521997.2566335</v>
+      </c>
+      <c r="D311">
         <v>6864852.743366499</v>
       </c>
     </row>
@@ -4414,6 +5349,9 @@
         <v>6300000</v>
       </c>
       <c r="C312">
+        <v>5771233.155887231</v>
+      </c>
+      <c r="D312">
         <v>528766.8441127688</v>
       </c>
     </row>
@@ -4427,6 +5365,9 @@
         <v>11710818</v>
       </c>
       <c r="C313">
+        <v>10051240.74170813</v>
+      </c>
+      <c r="D313">
         <v>1659577.258291874</v>
       </c>
     </row>
@@ -4440,6 +5381,9 @@
         <v>36016200</v>
       </c>
       <c r="C314">
+        <v>30918376.28150912</v>
+      </c>
+      <c r="D314">
         <v>5097823.718490876</v>
       </c>
     </row>
@@ -4453,6 +5397,9 @@
         <v>4000000</v>
       </c>
       <c r="C315">
+        <v>5896458.031260365</v>
+      </c>
+      <c r="D315">
         <v>-1896458.031260365</v>
       </c>
     </row>
@@ -4466,6 +5413,9 @@
         <v>18000000</v>
       </c>
       <c r="C316">
+        <v>14895675.57827528</v>
+      </c>
+      <c r="D316">
         <v>3104324.421724718</v>
       </c>
     </row>
@@ -4479,6 +5429,9 @@
         <v>6105941</v>
       </c>
       <c r="C317">
+        <v>5622578.331840798</v>
+      </c>
+      <c r="D317">
         <v>483362.6681592017</v>
       </c>
     </row>
@@ -4492,6 +5445,9 @@
         <v>4516000</v>
       </c>
       <c r="C318">
+        <v>7696124.739386396</v>
+      </c>
+      <c r="D318">
         <v>-3180124.739386396</v>
       </c>
     </row>
@@ -4505,6 +5461,9 @@
         <v>4037277</v>
       </c>
       <c r="C319">
+        <v>5081327.06119403</v>
+      </c>
+      <c r="D319">
         <v>-1044050.06119403</v>
       </c>
     </row>
@@ -4518,6 +5477,9 @@
         <v>2733720</v>
       </c>
       <c r="C320">
+        <v>3296820.848590382</v>
+      </c>
+      <c r="D320">
         <v>-563100.8485903819</v>
       </c>
     </row>
@@ -4531,6 +5493,9 @@
         <v>4171548</v>
       </c>
       <c r="C321">
+        <v>12379516.65149254</v>
+      </c>
+      <c r="D321">
         <v>-8207968.651492536</v>
       </c>
     </row>
@@ -4544,6 +5509,9 @@
         <v>28226880</v>
       </c>
       <c r="C322">
+        <v>31123276.50995025</v>
+      </c>
+      <c r="D322">
         <v>-2896396.50995025</v>
       </c>
     </row>
@@ -4557,6 +5525,9 @@
         <v>12015150</v>
       </c>
       <c r="C323">
+        <v>16911527.88913765</v>
+      </c>
+      <c r="D323">
         <v>-4896377.889137648</v>
       </c>
     </row>
@@ -4570,6 +5541,9 @@
         <v>2165000</v>
       </c>
       <c r="C324">
+        <v>4173615.810199005</v>
+      </c>
+      <c r="D324">
         <v>-2008615.810199005</v>
       </c>
     </row>
@@ -4583,6 +5557,9 @@
         <v>7723000</v>
       </c>
       <c r="C325">
+        <v>5386424.667330016</v>
+      </c>
+      <c r="D325">
         <v>2336575.332669984</v>
       </c>
     </row>
@@ -4596,6 +5573,9 @@
         <v>12950400</v>
       </c>
       <c r="C326">
+        <v>6990691.361774461</v>
+      </c>
+      <c r="D326">
         <v>5959708.638225539</v>
       </c>
     </row>
@@ -4609,6 +5589,9 @@
         <v>5000000</v>
       </c>
       <c r="C327">
+        <v>6042537.904311774</v>
+      </c>
+      <c r="D327">
         <v>-1042537.904311774</v>
       </c>
     </row>
@@ -4622,6 +5605,9 @@
         <v>2891467</v>
       </c>
       <c r="C328">
+        <v>8018121.609121061</v>
+      </c>
+      <c r="D328">
         <v>-5126654.609121061</v>
       </c>
     </row>
@@ -4635,6 +5621,9 @@
         <v>18154000</v>
       </c>
       <c r="C329">
+        <v>16075430.34063017</v>
+      </c>
+      <c r="D329">
         <v>2078569.659369826</v>
       </c>
     </row>
@@ -4648,6 +5637,9 @@
         <v>15681818</v>
       </c>
       <c r="C330">
+        <v>11814982.42578773</v>
+      </c>
+      <c r="D330">
         <v>3866835.574212268</v>
       </c>
     </row>
@@ -4661,6 +5653,9 @@
         <v>1801769</v>
       </c>
       <c r="C331">
+        <v>2338372.860613599</v>
+      </c>
+      <c r="D331">
         <v>-536603.860613599</v>
       </c>
     </row>
@@ -4674,6 +5669,9 @@
         <v>2718240</v>
       </c>
       <c r="C332">
+        <v>3696070.391542288</v>
+      </c>
+      <c r="D332">
         <v>-977830.391542288</v>
       </c>
     </row>
@@ -4687,6 +5685,9 @@
         <v>1719864</v>
       </c>
       <c r="C333">
+        <v>4018654.077114428</v>
+      </c>
+      <c r="D333">
         <v>-2298790.077114428</v>
       </c>
     </row>
@@ -4700,6 +5701,9 @@
         <v>3196448</v>
       </c>
       <c r="C334">
+        <v>5319497.878358209</v>
+      </c>
+      <c r="D334">
         <v>-2123049.878358209</v>
       </c>
     </row>
@@ -4713,6 +5717,9 @@
         <v>23205221</v>
       </c>
       <c r="C335">
+        <v>27815743.27222223</v>
+      </c>
+      <c r="D335">
         <v>-4610522.272222228</v>
       </c>
     </row>
@@ -4726,6 +5733,9 @@
         <v>1119563</v>
       </c>
       <c r="C336">
+        <v>1963678.671641791</v>
+      </c>
+      <c r="D336">
         <v>-844115.671641791</v>
       </c>
     </row>
@@ -4739,6 +5749,9 @@
         <v>17307693</v>
       </c>
       <c r="C337">
+        <v>19894056.96575455</v>
+      </c>
+      <c r="D337">
         <v>-2586363.965754554</v>
       </c>
     </row>
@@ -4752,6 +5765,9 @@
         <v>30600000</v>
       </c>
       <c r="C338">
+        <v>31553059.74676616</v>
+      </c>
+      <c r="D338">
         <v>-953059.7467661612</v>
       </c>
     </row>
@@ -4765,6 +5781,9 @@
         <v>2066585</v>
       </c>
       <c r="C339">
+        <v>2363860.909618573</v>
+      </c>
+      <c r="D339">
         <v>-297275.9096185728</v>
       </c>
     </row>
@@ -4778,6 +5797,9 @@
         <v>1029483</v>
       </c>
       <c r="C340">
+        <v>1725893.60721393</v>
+      </c>
+      <c r="D340">
         <v>-696410.6072139305</v>
       </c>
     </row>
@@ -4791,6 +5813,9 @@
         <v>2019706</v>
       </c>
       <c r="C341">
+        <v>4740010.917910447</v>
+      </c>
+      <c r="D341">
         <v>-2720304.917910447</v>
       </c>
     </row>
@@ -4804,6 +5829,9 @@
         <v>2624040</v>
       </c>
       <c r="C342">
+        <v>3758454.913432836</v>
+      </c>
+      <c r="D342">
         <v>-1134414.913432836</v>
       </c>
     </row>
@@ -4817,6 +5845,9 @@
         <v>12405000</v>
       </c>
       <c r="C343">
+        <v>16771381.75290215</v>
+      </c>
+      <c r="D343">
         <v>-4366381.752902152</v>
       </c>
     </row>
@@ -4830,6 +5861,9 @@
         <v>3536280</v>
       </c>
       <c r="C344">
+        <v>12904425.93897181</v>
+      </c>
+      <c r="D344">
         <v>-9368145.938971814</v>
       </c>
     </row>
@@ -4843,6 +5877,9 @@
         <v>2448600</v>
       </c>
       <c r="C345">
+        <v>2578480.79145937</v>
+      </c>
+      <c r="D345">
         <v>-129880.7914593699</v>
       </c>
     </row>
@@ -4856,6 +5893,9 @@
         <v>17325000</v>
       </c>
       <c r="C346">
+        <v>15512863.60480928</v>
+      </c>
+      <c r="D346">
         <v>1812136.395190716</v>
       </c>
     </row>
@@ -4869,6 +5909,9 @@
         <v>10250000</v>
       </c>
       <c r="C347">
+        <v>7177285.751990051</v>
+      </c>
+      <c r="D347">
         <v>3072714.248009949</v>
       </c>
     </row>
@@ -4882,6 +5925,9 @@
         <v>2210040</v>
       </c>
       <c r="C348">
+        <v>3105300.502736319</v>
+      </c>
+      <c r="D348">
         <v>-895260.5027363189</v>
       </c>
     </row>
@@ -4895,6 +5941,9 @@
         <v>6313800</v>
       </c>
       <c r="C349">
+        <v>8853353.941873964</v>
+      </c>
+      <c r="D349">
         <v>-2539553.941873964</v>
       </c>
     </row>
@@ -4908,6 +5957,9 @@
         <v>2537160</v>
       </c>
       <c r="C350">
+        <v>3008409.489220565</v>
+      </c>
+      <c r="D350">
         <v>-471249.4892205647</v>
       </c>
     </row>
@@ -4921,6 +5973,9 @@
         <v>37893408</v>
       </c>
       <c r="C351">
+        <v>29367948.21393036</v>
+      </c>
+      <c r="D351">
         <v>8525459.786069639</v>
       </c>
     </row>
@@ -4934,6 +5989,9 @@
         <v>37893408</v>
       </c>
       <c r="C352">
+        <v>29362677.75787728</v>
+      </c>
+      <c r="D352">
         <v>8530730.242122725</v>
       </c>
     </row>
@@ -4947,6 +6005,9 @@
         <v>24107143</v>
       </c>
       <c r="C353">
+        <v>24416363.95903814</v>
+      </c>
+      <c r="D353">
         <v>-309220.9590381421</v>
       </c>
     </row>
@@ -4960,6 +6021,9 @@
         <v>1927896</v>
       </c>
       <c r="C354">
+        <v>2334371.314096187</v>
+      </c>
+      <c r="D354">
         <v>-406475.3140961868</v>
       </c>
     </row>
@@ -4973,6 +6037,9 @@
         <v>18833713</v>
       </c>
       <c r="C355">
+        <v>18930521.01492538</v>
+      </c>
+      <c r="D355">
         <v>-96808.01492537931</v>
       </c>
     </row>
@@ -4986,6 +6053,9 @@
         <v>2019706</v>
       </c>
       <c r="C356">
+        <v>3774258.945522387</v>
+      </c>
+      <c r="D356">
         <v>-1754552.945522387</v>
       </c>
     </row>
@@ -4999,6 +6069,9 @@
         <v>1801769</v>
       </c>
       <c r="C357">
+        <v>3072863.670149253</v>
+      </c>
+      <c r="D357">
         <v>-1271094.670149253</v>
       </c>
     </row>
@@ -5012,6 +6085,9 @@
         <v>2019706</v>
       </c>
       <c r="C358">
+        <v>8745093.363267001</v>
+      </c>
+      <c r="D358">
         <v>-6725387.363267001</v>
       </c>
     </row>
@@ -5025,6 +6101,9 @@
         <v>9326520</v>
       </c>
       <c r="C359">
+        <v>9012373.155472636</v>
+      </c>
+      <c r="D359">
         <v>314146.8445273638</v>
       </c>
     </row>
@@ -5038,6 +6117,9 @@
         <v>5043773</v>
       </c>
       <c r="C360">
+        <v>5158911.337147596</v>
+      </c>
+      <c r="D360">
         <v>-115138.3371475963</v>
       </c>
     </row>
@@ -5051,6 +6133,9 @@
         <v>2463960</v>
       </c>
       <c r="C361">
+        <v>3334827.316086235</v>
+      </c>
+      <c r="D361">
         <v>-870867.3160862345</v>
       </c>
     </row>
@@ -5064,6 +6149,9 @@
         <v>5316960</v>
       </c>
       <c r="C362">
+        <v>8038219.577529022</v>
+      </c>
+      <c r="D362">
         <v>-2721259.577529022</v>
       </c>
     </row>
@@ -5077,6 +6165,9 @@
         <v>2226240</v>
       </c>
       <c r="C363">
+        <v>2669075.896766169</v>
+      </c>
+      <c r="D363">
         <v>-442835.896766169</v>
       </c>
     </row>
@@ -5090,6 +6181,9 @@
         <v>2419706</v>
       </c>
       <c r="C364">
+        <v>2392178.512437811</v>
+      </c>
+      <c r="D364">
         <v>27527.48756218934</v>
       </c>
     </row>
@@ -5103,6 +6197,9 @@
         <v>5266713</v>
       </c>
       <c r="C365">
+        <v>8841987.340878936</v>
+      </c>
+      <c r="D365">
         <v>-3575274.340878936</v>
       </c>
     </row>
@@ -5116,6 +6213,9 @@
         <v>2431080</v>
       </c>
       <c r="C366">
+        <v>3056151.674709786</v>
+      </c>
+      <c r="D366">
         <v>-625071.6747097857</v>
       </c>
     </row>
@@ -5129,6 +6229,9 @@
         <v>14487684</v>
       </c>
       <c r="C367">
+        <v>17877731.55497513</v>
+      </c>
+      <c r="D367">
         <v>-3390047.554975126</v>
       </c>
     </row>
@@ -5142,6 +6245,9 @@
         <v>7252080</v>
       </c>
       <c r="C368">
+        <v>8215266.947678279</v>
+      </c>
+      <c r="D368">
         <v>-963186.9476782791</v>
       </c>
     </row>
@@ -5155,6 +6261,9 @@
         <v>6500000</v>
       </c>
       <c r="C369">
+        <v>6021623.397927036</v>
+      </c>
+      <c r="D369">
         <v>478376.6020729644</v>
       </c>
     </row>
@@ -5168,6 +6277,9 @@
         <v>32600060</v>
       </c>
       <c r="C370">
+        <v>32042380.2066335</v>
+      </c>
+      <c r="D370">
         <v>557679.793366503</v>
       </c>
     </row>
@@ -5181,6 +6293,9 @@
         <v>2019706</v>
       </c>
       <c r="C371">
+        <v>2276146.339054727</v>
+      </c>
+      <c r="D371">
         <v>-256440.339054727</v>
       </c>
     </row>
@@ -5194,6 +6309,9 @@
         <v>2019706</v>
       </c>
       <c r="C372">
+        <v>3148167.384411278</v>
+      </c>
+      <c r="D372">
         <v>-1128461.384411278</v>
       </c>
     </row>
@@ -5207,6 +6325,9 @@
         <v>3350760</v>
       </c>
       <c r="C373">
+        <v>3242770.544776118</v>
+      </c>
+      <c r="D373">
         <v>107989.4552238816</v>
       </c>
     </row>
@@ -5220,6 +6341,9 @@
         <v>8670002</v>
       </c>
       <c r="C374">
+        <v>7335223.847678277</v>
+      </c>
+      <c r="D374">
         <v>1334778.152321723</v>
       </c>
     </row>
@@ -5233,6 +6357,9 @@
         <v>8670002</v>
       </c>
       <c r="C375">
+        <v>8441178.633582087</v>
+      </c>
+      <c r="D375">
         <v>228823.3664179128</v>
       </c>
     </row>
@@ -5246,6 +6373,9 @@
         <v>2240160</v>
       </c>
       <c r="C376">
+        <v>9651625.139054727</v>
+      </c>
+      <c r="D376">
         <v>-7411465.139054727</v>
       </c>
     </row>
@@ -5259,6 +6389,9 @@
         <v>8809320</v>
       </c>
       <c r="C377">
+        <v>6417339.764925373</v>
+      </c>
+      <c r="D377">
         <v>2391980.235074627</v>
       </c>
     </row>
@@ -5272,6 +6405,9 @@
         <v>7977480</v>
       </c>
       <c r="C378">
+        <v>8031357.72238806</v>
+      </c>
+      <c r="D378">
         <v>-53877.72238805983</v>
       </c>
     </row>
@@ -5285,6 +6421,9 @@
         <v>43219440</v>
       </c>
       <c r="C379">
+        <v>33209873.50912106</v>
+      </c>
+      <c r="D379">
         <v>10009566.49087894</v>
       </c>
     </row>
@@ -5298,6 +6437,9 @@
         <v>2019706</v>
       </c>
       <c r="C380">
+        <v>3790962.182918741</v>
+      </c>
+      <c r="D380">
         <v>-1771256.182918741</v>
       </c>
     </row>
@@ -5311,6 +6453,9 @@
         <v>1836096</v>
       </c>
       <c r="C381">
+        <v>3743972.275124377</v>
+      </c>
+      <c r="D381">
         <v>-1907876.275124377</v>
       </c>
     </row>
@@ -5324,6 +6469,9 @@
         <v>10500000</v>
       </c>
       <c r="C382">
+        <v>8847781.504394695</v>
+      </c>
+      <c r="D382">
         <v>1652218.495605305</v>
       </c>
     </row>
@@ -5337,6 +6485,9 @@
         <v>1930681</v>
       </c>
       <c r="C383">
+        <v>2837276.490298508</v>
+      </c>
+      <c r="D383">
         <v>-906595.4902985077</v>
       </c>
     </row>
@@ -5350,6 +6501,9 @@
         <v>6803012</v>
       </c>
       <c r="C384">
+        <v>7967528.832006632</v>
+      </c>
+      <c r="D384">
         <v>-1164516.832006632</v>
       </c>
     </row>
@@ -5363,6 +6517,9 @@
         <v>36016200</v>
       </c>
       <c r="C385">
+        <v>33291223.24527363</v>
+      </c>
+      <c r="D385">
         <v>2724976.754726373</v>
       </c>
     </row>
@@ -5376,6 +6533,9 @@
         <v>18560000</v>
       </c>
       <c r="C386">
+        <v>9068215.335903814</v>
+      </c>
+      <c r="D386">
         <v>9491784.664096186</v>
       </c>
     </row>
@@ -5389,6 +6549,9 @@
         <v>11014500</v>
       </c>
       <c r="C387">
+        <v>9468191.437810943</v>
+      </c>
+      <c r="D387">
         <v>1546308.562189057</v>
       </c>
     </row>
@@ -5402,6 +6565,9 @@
         <v>20975000</v>
       </c>
       <c r="C388">
+        <v>21481419.92968491</v>
+      </c>
+      <c r="D388">
         <v>-506419.9296849146</v>
       </c>
     </row>
@@ -5415,6 +6581,9 @@
         <v>1119563</v>
       </c>
       <c r="C389">
+        <v>1506195.681757877</v>
+      </c>
+      <c r="D389">
         <v>-386632.6817578771</v>
       </c>
     </row>
@@ -5428,6 +6597,9 @@
         <v>15435000</v>
       </c>
       <c r="C390">
+        <v>21244213.75588723</v>
+      </c>
+      <c r="D390">
         <v>-5809213.755887225</v>
       </c>
     </row>
@@ -5441,6 +6613,9 @@
         <v>4698000</v>
       </c>
       <c r="C391">
+        <v>4611690.210364842</v>
+      </c>
+      <c r="D391">
         <v>86309.78963515814</v>
       </c>
     </row>
@@ -5454,6 +6629,9 @@
         <v>40806300</v>
       </c>
       <c r="C392">
+        <v>32301660.22271974</v>
+      </c>
+      <c r="D392">
         <v>8504639.777280264</v>
       </c>
     </row>
@@ -5467,6 +6645,9 @@
         <v>5887899</v>
       </c>
       <c r="C393">
+        <v>10933405.5655058</v>
+      </c>
+      <c r="D393">
         <v>-5045506.565505803</v>
       </c>
     </row>
@@ -5480,6 +6661,9 @@
         <v>6341464</v>
       </c>
       <c r="C394">
+        <v>5587225.67039801</v>
+      </c>
+      <c r="D394">
         <v>754238.3296019901</v>
       </c>
     </row>
@@ -5493,6 +6677,9 @@
         <v>10500000</v>
       </c>
       <c r="C395">
+        <v>9487318.523880595</v>
+      </c>
+      <c r="D395">
         <v>1012681.476119405</v>
       </c>
     </row>
@@ -5506,6 +6693,9 @@
         <v>18518519</v>
       </c>
       <c r="C396">
+        <v>24086574.98225541</v>
+      </c>
+      <c r="D396">
         <v>-5568055.98225541</v>
       </c>
     </row>
@@ -5519,6 +6709,9 @@
         <v>5709877</v>
       </c>
       <c r="C397">
+        <v>5740452.722222223</v>
+      </c>
+      <c r="D397">
         <v>-30575.72222222295</v>
       </c>
     </row>
@@ -5532,6 +6725,9 @@
         <v>5508720</v>
       </c>
       <c r="C398">
+        <v>10093527.44883914</v>
+      </c>
+      <c r="D398">
         <v>-4584807.448839137</v>
       </c>
     </row>
@@ -5545,6 +6741,9 @@
         <v>8000000</v>
       </c>
       <c r="C399">
+        <v>7607970.713432835</v>
+      </c>
+      <c r="D399">
         <v>392029.2865671646</v>
       </c>
     </row>
@@ -5558,6 +6757,9 @@
         <v>1927896</v>
       </c>
       <c r="C400">
+        <v>2643110.724958541</v>
+      </c>
+      <c r="D400">
         <v>-715214.7249585409</v>
       </c>
     </row>
@@ -5571,6 +6773,9 @@
         <v>1719864</v>
       </c>
       <c r="C401">
+        <v>4232561.710447761</v>
+      </c>
+      <c r="D401">
         <v>-2512697.710447761</v>
       </c>
     </row>
@@ -5584,6 +6789,9 @@
         <v>6059520</v>
       </c>
       <c r="C402">
+        <v>4984893.821144278</v>
+      </c>
+      <c r="D402">
         <v>1074626.178855722</v>
       </c>
     </row>
@@ -5597,6 +6805,9 @@
         <v>2019706</v>
       </c>
       <c r="C403">
+        <v>6559909.899004975</v>
+      </c>
+      <c r="D403">
         <v>-4540203.899004975</v>
       </c>
     </row>
@@ -5610,6 +6821,9 @@
         <v>5291400</v>
       </c>
       <c r="C404">
+        <v>4367477.711359868</v>
+      </c>
+      <c r="D404">
         <v>923922.2886401322</v>
       </c>
     </row>
@@ -5623,6 +6837,9 @@
         <v>16847826</v>
       </c>
       <c r="C405">
+        <v>16560930.01409618</v>
+      </c>
+      <c r="D405">
         <v>286895.9859038163</v>
       </c>
     </row>
@@ -5636,6 +6853,9 @@
         <v>2346614</v>
       </c>
       <c r="C406">
+        <v>4151505.880845771</v>
+      </c>
+      <c r="D406">
         <v>-1804891.880845771</v>
       </c>
     </row>
@@ -5649,6 +6869,9 @@
         <v>2019706</v>
       </c>
       <c r="C407">
+        <v>3247057.38888889</v>
+      </c>
+      <c r="D407">
         <v>-1227351.38888889</v>
       </c>
     </row>
@@ -5662,6 +6885,9 @@
         <v>2303520</v>
       </c>
       <c r="C408">
+        <v>2818542.04742952</v>
+      </c>
+      <c r="D408">
         <v>-515022.0474295197</v>
       </c>
     </row>
@@ -5675,6 +6901,9 @@
         <v>12160680</v>
       </c>
       <c r="C409">
+        <v>11855595.69237148</v>
+      </c>
+      <c r="D409">
         <v>305084.3076285217</v>
       </c>
     </row>
@@ -5688,6 +6917,9 @@
         <v>2504640</v>
       </c>
       <c r="C410">
+        <v>3577835.778524048</v>
+      </c>
+      <c r="D410">
         <v>-1073195.778524048</v>
       </c>
     </row>
@@ -5701,6 +6933,9 @@
         <v>3835738</v>
       </c>
       <c r="C411">
+        <v>9431284.709286898</v>
+      </c>
+      <c r="D411">
         <v>-5595546.709286898</v>
       </c>
     </row>
@@ -5714,6 +6949,9 @@
         <v>11111111</v>
       </c>
       <c r="C412">
+        <v>17217348.08756219</v>
+      </c>
+      <c r="D412">
         <v>-6106237.087562189</v>
       </c>
     </row>
@@ -5727,6 +6965,9 @@
         <v>18357143</v>
       </c>
       <c r="C413">
+        <v>22377318.48905472</v>
+      </c>
+      <c r="D413">
         <v>-4020175.489054721</v>
       </c>
     </row>
@@ -5740,6 +6981,9 @@
         <v>3218160</v>
       </c>
       <c r="C414">
+        <v>3548998.816749585</v>
+      </c>
+      <c r="D414">
         <v>-330838.8167495853</v>
       </c>
     </row>
@@ -5753,6 +6997,9 @@
         <v>1836096</v>
       </c>
       <c r="C415">
+        <v>2523986.396185737</v>
+      </c>
+      <c r="D415">
         <v>-687890.3961857366</v>
       </c>
     </row>
@@ -5766,6 +7013,9 @@
         <v>24330357</v>
       </c>
       <c r="C416">
+        <v>10810324.36575456</v>
+      </c>
+      <c r="D416">
         <v>13520032.63424544</v>
       </c>
     </row>
@@ -5779,6 +7029,9 @@
         <v>12405000</v>
       </c>
       <c r="C417">
+        <v>10056893.90887231</v>
+      </c>
+      <c r="D417">
         <v>2348106.091127692</v>
       </c>
     </row>
@@ -5792,6 +7045,9 @@
         <v>4558680</v>
       </c>
       <c r="C418">
+        <v>8764119.722885573</v>
+      </c>
+      <c r="D418">
         <v>-4205439.722885573</v>
       </c>
     </row>
@@ -5805,6 +7061,9 @@
         <v>2000000</v>
       </c>
       <c r="C419">
+        <v>3109303.239635157</v>
+      </c>
+      <c r="D419">
         <v>-1109303.239635157</v>
       </c>
     </row>
@@ -5818,6 +7077,9 @@
         <v>6175000</v>
       </c>
       <c r="C420">
+        <v>6149778.44660033</v>
+      </c>
+      <c r="D420">
         <v>25221.55339966994</v>
       </c>
     </row>
@@ -5831,6 +7093,9 @@
         <v>3908160</v>
       </c>
       <c r="C421">
+        <v>6236092.373631842</v>
+      </c>
+      <c r="D421">
         <v>-2327932.373631842</v>
       </c>
     </row>
@@ -5844,6 +7109,9 @@
         <v>9835881</v>
       </c>
       <c r="C422">
+        <v>7085261.761359867</v>
+      </c>
+      <c r="D422">
         <v>2750619.238640133</v>
       </c>
     </row>
@@ -5857,6 +7125,9 @@
         <v>11571429</v>
       </c>
       <c r="C423">
+        <v>8065711.60456053</v>
+      </c>
+      <c r="D423">
         <v>3505717.39543947</v>
       </c>
     </row>
@@ -5870,6 +7141,9 @@
         <v>4810200</v>
       </c>
       <c r="C424">
+        <v>3458484.992039802</v>
+      </c>
+      <c r="D424">
         <v>1351715.007960198</v>
       </c>
     </row>
@@ -5883,6 +7157,9 @@
         <v>34005250</v>
       </c>
       <c r="C425">
+        <v>26454253.61517414</v>
+      </c>
+      <c r="D425">
         <v>7550996.384825859</v>
       </c>
     </row>
@@ -5896,6 +7173,9 @@
         <v>2019706</v>
       </c>
       <c r="C426">
+        <v>1974467.033830847</v>
+      </c>
+      <c r="D426">
         <v>45238.96616915287</v>
       </c>
     </row>
@@ -5909,6 +7189,9 @@
         <v>12119440</v>
       </c>
       <c r="C427">
+        <v>5725611.755389719</v>
+      </c>
+      <c r="D427">
         <v>6393828.244610281</v>
       </c>
     </row>
@@ -5922,6 +7205,9 @@
         <v>2709849</v>
       </c>
       <c r="C428">
+        <v>3915435.556550581</v>
+      </c>
+      <c r="D428">
         <v>-1205586.556550581</v>
       </c>
     </row>
@@ -5935,6 +7221,9 @@
         <v>8195122</v>
       </c>
       <c r="C429">
+        <v>8179408.876036484</v>
+      </c>
+      <c r="D429">
         <v>15713.12396351621</v>
       </c>
     </row>
@@ -5948,6 +7237,9 @@
         <v>8000000</v>
       </c>
       <c r="C430">
+        <v>5918718.626119401</v>
+      </c>
+      <c r="D430">
         <v>2081281.373880599</v>
       </c>
     </row>
@@ -5961,6 +7253,9 @@
         <v>40064220</v>
       </c>
       <c r="C431">
+        <v>35805973.99237148</v>
+      </c>
+      <c r="D431">
         <v>4258246.007628515</v>
       </c>
     </row>
@@ -5974,6 +7269,9 @@
         <v>2800000</v>
       </c>
       <c r="C432">
+        <v>3566424.322388059</v>
+      </c>
+      <c r="D432">
         <v>-766424.3223880595</v>
       </c>
     </row>
@@ -5987,6 +7285,9 @@
         <v>2019706</v>
       </c>
       <c r="C433">
+        <v>3877711.316169154</v>
+      </c>
+      <c r="D433">
         <v>-1858005.316169154</v>
       </c>
     </row>
@@ -6000,6 +7301,9 @@
         <v>10933333</v>
       </c>
       <c r="C434">
+        <v>11586401.94411277</v>
+      </c>
+      <c r="D434">
         <v>-653068.9441127665</v>
       </c>
     </row>

--- a/residualTable.xlsx
+++ b/residualTable.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D434"/>
+  <dimension ref="A1:E434"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,17 +365,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Current Year Salary</t>
+          <t>Current.Year.Salary</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Predicted Salary</t>
+          <t>Predicted.Salary</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Residual</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percent.of.Salary.Off</t>
         </is>
       </c>
     </row>
@@ -394,6 +399,9 @@
       <c r="D2">
         <v>480012.3093698169</v>
       </c>
+      <c r="E2">
+        <v>0.1096036876516156</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -410,6 +418,9 @@
       <c r="D3">
         <v>699210.1972636804</v>
       </c>
+      <c r="E3">
+        <v>0.02144812608515691</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -426,6 +437,9 @@
       <c r="D4">
         <v>560830.2565505793</v>
       </c>
+      <c r="E4">
+        <v>0.1363157494897135</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -442,6 +456,9 @@
       <c r="D5">
         <v>-5250635.821227196</v>
       </c>
+      <c r="E5">
+        <v>-2.392961362331235</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -458,6 +475,9 @@
       <c r="D6">
         <v>707313.5830845754</v>
       </c>
+      <c r="E6">
+        <v>0.1508935643913761</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -474,6 +494,9 @@
       <c r="D7">
         <v>-6883175.850165844</v>
       </c>
+      <c r="E7">
+        <v>-0.7712241848925315</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -490,6 +513,9 @@
       <c r="D8">
         <v>700945.5833333395</v>
       </c>
+      <c r="E8">
+        <v>0.03504727916666698</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -506,6 +532,9 @@
       <c r="D9">
         <v>-868467.4142620238</v>
       </c>
+      <c r="E9">
+        <v>-0.4729967356075193</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -522,6 +551,9 @@
       <c r="D10">
         <v>-1518256.80588723</v>
       </c>
+      <c r="E10">
+        <v>-0.1646786517428721</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -538,6 +570,9 @@
       <c r="D11">
         <v>3427221.500995025</v>
       </c>
+      <c r="E11">
+        <v>0.07509235743288784</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -554,6 +589,9 @@
       <c r="D12">
         <v>-1041576.498590381</v>
       </c>
+      <c r="E12">
+        <v>-0.5157069883390855</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -570,6 +608,9 @@
       <c r="D13">
         <v>-1793289.723714761</v>
       </c>
+      <c r="E13">
+        <v>-0.3237118869561144</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -586,6 +627,9 @@
       <c r="D14">
         <v>-88889.55232173204</v>
       </c>
+      <c r="E14">
+        <v>-0.004768022000154378</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -602,6 +646,9 @@
       <c r="D15">
         <v>-151806.6234660042</v>
       </c>
+      <c r="E15">
+        <v>-0.0751627333215845</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -618,6 +665,9 @@
       <c r="D16">
         <v>-1417814.686567168</v>
       </c>
+      <c r="E16">
+        <v>-0.2263726853747912</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -634,6 +684,9 @@
       <c r="D17">
         <v>6522250.419900507</v>
       </c>
+      <c r="E17">
+        <v>0.2009354080591447</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -650,6 +703,9 @@
       <c r="D18">
         <v>3449719.801326701</v>
       </c>
+      <c r="E18">
+        <v>0.2759775841061361</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -666,6 +722,9 @@
       <c r="D19">
         <v>-294453.3963515759</v>
       </c>
+      <c r="E19">
+        <v>-0.1259575125984189</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -682,6 +741,9 @@
       <c r="D20">
         <v>-2988273.483416259</v>
       </c>
+      <c r="E20">
+        <v>-0.274137560189499</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -698,6 +760,9 @@
       <c r="D21">
         <v>-572539.0560530671</v>
       </c>
+      <c r="E21">
+        <v>-0.2834764347152838</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -714,6 +779,9 @@
       <c r="D22">
         <v>-1156203.968988394</v>
       </c>
+      <c r="E22">
+        <v>-0.09960337704326593</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -730,6 +798,9 @@
       <c r="D23">
         <v>-15104761.13076285</v>
       </c>
+      <c r="E23">
+        <v>-3.928331620088006</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -746,6 +817,9 @@
       <c r="D24">
         <v>-218767.1587893856</v>
       </c>
+      <c r="E24">
+        <v>-0.1083163385113406</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -762,6 +836,9 @@
       <c r="D25">
         <v>2796024.067081254</v>
       </c>
+      <c r="E25">
+        <v>0.1644720039459561</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -778,6 +855,9 @@
       <c r="D26">
         <v>-4761869.658540631</v>
       </c>
+      <c r="E26">
+        <v>-0.5945885787096788</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -794,6 +874,9 @@
       <c r="D27">
         <v>5109478.860613603</v>
       </c>
+      <c r="E27">
+        <v>0.2139295783626556</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -810,6 +893,9 @@
       <c r="D28">
         <v>-1752024.693781096</v>
       </c>
+      <c r="E28">
+        <v>-0.6738556514542675</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -826,6 +912,9 @@
       <c r="D29">
         <v>-2866601.098092868</v>
       </c>
+      <c r="E29">
+        <v>-1.221590384312404</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -842,6 +931,9 @@
       <c r="D30">
         <v>2188290.723217251</v>
       </c>
+      <c r="E30">
+        <v>0.1868606209418719</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -858,6 +950,9 @@
       <c r="D31">
         <v>13347620.53383085</v>
       </c>
+      <c r="E31">
+        <v>0.2855619702673967</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -874,6 +969,9 @@
       <c r="D32">
         <v>-5086931.991625208</v>
       </c>
+      <c r="E32">
+        <v>-2.518649739925122</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -890,6 +988,9 @@
       <c r="D33">
         <v>-842416.0700663342</v>
       </c>
+      <c r="E33">
+        <v>-0.3228389936638055</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -906,6 +1007,9 @@
       <c r="D34">
         <v>5595267.431094525</v>
       </c>
+      <c r="E34">
+        <v>0.329133378299678</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -922,6 +1026,9 @@
       <c r="D35">
         <v>-2950577.560613598</v>
       </c>
+      <c r="E35">
+        <v>-1.46089458595142</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -938,6 +1045,9 @@
       <c r="D36">
         <v>-4194448.871227197</v>
       </c>
+      <c r="E36">
+        <v>-0.9204442656966676</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -954,6 +1064,9 @@
       <c r="D37">
         <v>-1548760.372885573</v>
       </c>
+      <c r="E37">
+        <v>-0.7494297949929827</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -970,6 +1083,9 @@
       <c r="D38">
         <v>-3351812.898756221</v>
       </c>
+      <c r="E38">
+        <v>-0.6703625797512441</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -986,6 +1102,9 @@
       <c r="D39">
         <v>2725833.017495854</v>
       </c>
+      <c r="E39">
+        <v>0.3762115163516915</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1002,6 +1121,9 @@
       <c r="D40">
         <v>-1288404.148756217</v>
       </c>
+      <c r="E40">
+        <v>-0.06889861758054637</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1018,6 +1140,9 @@
       <c r="D41">
         <v>-1586046.495356549</v>
       </c>
+      <c r="E41">
+        <v>-0.07930232476782743</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1034,6 +1159,9 @@
       <c r="D42">
         <v>49843.64286898798</v>
       </c>
+      <c r="E42">
+        <v>0.02467866257217039</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1050,6 +1178,9 @@
       <c r="D43">
         <v>1948800.296102822</v>
       </c>
+      <c r="E43">
+        <v>0.05410899251178142</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1066,6 +1197,9 @@
       <c r="D44">
         <v>-758580.1192371473</v>
       </c>
+      <c r="E44">
+        <v>-0.413148397053938</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1082,6 +1216,9 @@
       <c r="D45">
         <v>2197033.571144281</v>
       </c>
+      <c r="E45">
+        <v>0.1869815805229175</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1098,6 +1235,9 @@
       <c r="D46">
         <v>708313.7859867327</v>
       </c>
+      <c r="E46">
+        <v>0.154989362546549</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1114,6 +1254,9 @@
       <c r="D47">
         <v>-1313140.288308457</v>
       </c>
+      <c r="E47">
+        <v>-0.427471219028236</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1130,6 +1273,9 @@
       <c r="D48">
         <v>-543610.9912106148</v>
       </c>
+      <c r="E48">
+        <v>-0.1843298988208736</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1146,6 +1292,9 @@
       <c r="D49">
         <v>-5288240.72363184</v>
       </c>
+      <c r="E49">
+        <v>-0.243697729199624</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1162,6 +1311,9 @@
       <c r="D50">
         <v>-8572497.061194031</v>
       </c>
+      <c r="E50">
+        <v>-1.08220835736483</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1178,6 +1330,9 @@
       <c r="D51">
         <v>-467103.9819237143</v>
       </c>
+      <c r="E51">
+        <v>-0.2157524165929396</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1194,6 +1349,9 @@
       <c r="D52">
         <v>-165456.9117744677</v>
       </c>
+      <c r="E52">
+        <v>-0.007353640523309675</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1210,6 +1368,9 @@
       <c r="D53">
         <v>4913325.298756219</v>
       </c>
+      <c r="E53">
+        <v>0.2171379148457753</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1226,6 +1387,9 @@
       <c r="D54">
         <v>9229144.523631843</v>
       </c>
+      <c r="E54">
+        <v>0.4195065692559928</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1242,6 +1406,9 @@
       <c r="D55">
         <v>1809222.491127688</v>
       </c>
+      <c r="E55">
+        <v>0.05683952872811601</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1258,6 +1425,9 @@
       <c r="D56">
         <v>-433804.2970978436</v>
       </c>
+      <c r="E56">
+        <v>-0.1797541548977523</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1274,6 +1444,9 @@
       <c r="D57">
         <v>-2479632.606301823</v>
       </c>
+      <c r="E57">
+        <v>-1.227719582108397</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1290,6 +1463,9 @@
       <c r="D58">
         <v>807354.2718076278</v>
       </c>
+      <c r="E58">
+        <v>0.2018385679519069</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1306,6 +1482,9 @@
       <c r="D59">
         <v>-2234702.210696515</v>
       </c>
+      <c r="E59">
+        <v>-0.08481916500161785</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1322,6 +1501,9 @@
       <c r="D60">
         <v>-670889.6858208957</v>
       </c>
+      <c r="E60">
+        <v>-0.2653591207063968</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1338,6 +1520,9 @@
       <c r="D61">
         <v>1139155.160779436</v>
       </c>
+      <c r="E61">
+        <v>0.2782308881609064</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1354,6 +1539,9 @@
       <c r="D62">
         <v>3306721.035903813</v>
       </c>
+      <c r="E62">
+        <v>0.2537037999475987</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1370,6 +1558,9 @@
       <c r="D63">
         <v>32031.82064676844</v>
       </c>
+      <c r="E63">
+        <v>0.003053674176972281</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1386,6 +1577,9 @@
       <c r="D64">
         <v>5404682.380265325</v>
       </c>
+      <c r="E64">
+        <v>0.1196150665029211</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1402,6 +1596,9 @@
       <c r="D65">
         <v>2483127.647429518</v>
       </c>
+      <c r="E65">
+        <v>0.1688635237652494</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1418,6 +1615,9 @@
       <c r="D66">
         <v>-2307221.338225538</v>
       </c>
+      <c r="E66">
+        <v>-2.060823141016217</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1434,6 +1634,9 @@
       <c r="D67">
         <v>4347572.738142623</v>
       </c>
+      <c r="E67">
+        <v>0.210883427344908</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1450,6 +1653,9 @@
       <c r="D68">
         <v>-488228.5864013284</v>
       </c>
+      <c r="E68">
+        <v>-0.07886769715306681</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1466,6 +1672,9 @@
       <c r="D69">
         <v>3188635.738142623</v>
       </c>
+      <c r="E69">
+        <v>0.2443399033059481</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1482,6 +1691,9 @@
       <c r="D70">
         <v>497022.3509121072</v>
       </c>
+      <c r="E70">
+        <v>0.05253936056153353</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1498,6 +1710,9 @@
       <c r="D71">
         <v>-810858.0984245446</v>
       </c>
+      <c r="E71">
+        <v>-0.2702860328081815</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1514,6 +1729,9 @@
       <c r="D72">
         <v>-1006493.195605306</v>
       </c>
+      <c r="E72">
+        <v>-0.5852167355124047</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1530,6 +1748,9 @@
       <c r="D73">
         <v>-1376427.912686567</v>
       </c>
+      <c r="E73">
+        <v>-1.229433191956654</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1546,6 +1767,9 @@
       <c r="D74">
         <v>-86225.3477612175</v>
       </c>
+      <c r="E74">
+        <v>-0.003671096293338825</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1562,6 +1786,9 @@
       <c r="D75">
         <v>-165947.5868159179</v>
       </c>
+      <c r="E75">
+        <v>-0.01724130772113432</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1578,6 +1805,9 @@
       <c r="D76">
         <v>-4464.922305141576</v>
       </c>
+      <c r="E76">
+        <v>-0.001445183169275996</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1594,6 +1824,9 @@
       <c r="D77">
         <v>-251524.8553067981</v>
       </c>
+      <c r="E77">
+        <v>-0.06859768157479207</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1610,6 +1843,9 @@
       <c r="D78">
         <v>3398230.980514094</v>
       </c>
+      <c r="E78">
+        <v>0.1341054057030029</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1626,6 +1862,9 @@
       <c r="D79">
         <v>-2297366.924378112</v>
       </c>
+      <c r="E79">
+        <v>-0.2983593408283262</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1642,6 +1881,9 @@
       <c r="D80">
         <v>2000933.292868994</v>
       </c>
+      <c r="E80">
+        <v>0.08214011875488482</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1658,6 +1900,9 @@
       <c r="D81">
         <v>1657038.846268654</v>
       </c>
+      <c r="E81">
+        <v>0.1758342402964912</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1674,6 +1919,9 @@
       <c r="D82">
         <v>-115103.969485906</v>
       </c>
+      <c r="E82">
+        <v>-0.01740234303445061</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1690,6 +1938,9 @@
       <c r="D83">
         <v>2319148.830845775</v>
       </c>
+      <c r="E83">
+        <v>0.1983482500500137</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1706,6 +1957,9 @@
       <c r="D84">
         <v>-2915786.728358208</v>
       </c>
+      <c r="E84">
+        <v>-1.153290352731812</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1722,6 +1976,9 @@
       <c r="D85">
         <v>-3560673.43026534</v>
       </c>
+      <c r="E85">
+        <v>-1.762966209074657</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1738,6 +1995,9 @@
       <c r="D86">
         <v>-2141240.52064677</v>
       </c>
+      <c r="E86">
+        <v>-0.193683473052598</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1754,6 +2014,9 @@
       <c r="D87">
         <v>-3864160.211276948</v>
       </c>
+      <c r="E87">
+        <v>-0.9660400528192369</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1770,6 +2033,9 @@
       <c r="D88">
         <v>8516069.81807626</v>
       </c>
+      <c r="E88">
+        <v>0.1640367704028212</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1786,6 +2052,9 @@
       <c r="D89">
         <v>944912.1976782745</v>
       </c>
+      <c r="E89">
+        <v>0.1633631732533686</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1802,6 +2071,9 @@
       <c r="D90">
         <v>3122291.414676607</v>
       </c>
+      <c r="E90">
+        <v>0.07690357789138856</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1818,6 +2090,9 @@
       <c r="D91">
         <v>1636985.960779437</v>
       </c>
+      <c r="E91">
+        <v>0.324104292543644</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1834,6 +2109,9 @@
       <c r="D92">
         <v>-1339983.154726364</v>
       </c>
+      <c r="E92">
+        <v>-0.04685255785756517</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1850,6 +2128,9 @@
       <c r="D93">
         <v>722587.242703151</v>
       </c>
+      <c r="E93">
+        <v>0.1592752567280218</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1866,6 +2147,9 @@
       <c r="D94">
         <v>856481.7222222215</v>
       </c>
+      <c r="E94">
+        <v>0.1784917019327576</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1882,6 +2166,9 @@
       <c r="D95">
         <v>-2220223.418490879</v>
       </c>
+      <c r="E95">
+        <v>-0.1090636057570003</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1898,6 +2185,9 @@
       <c r="D96">
         <v>4828357.986152572</v>
       </c>
+      <c r="E96">
+        <v>0.4429686225828047</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1914,6 +2204,9 @@
       <c r="D97">
         <v>2855733.327446111</v>
       </c>
+      <c r="E97">
+        <v>0.07127889492035813</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1930,6 +2223,9 @@
       <c r="D98">
         <v>7087650.098092865</v>
       </c>
+      <c r="E98">
+        <v>0.4639189087636216</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1946,6 +2242,9 @@
       <c r="D99">
         <v>2531376.056965173</v>
       </c>
+      <c r="E99">
+        <v>0.3905551318302162</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1962,6 +2261,9 @@
       <c r="D100">
         <v>-4064288.259701491</v>
       </c>
+      <c r="E100">
+        <v>-1.209609601101634</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1978,6 +2280,9 @@
       <c r="D101">
         <v>376742.2032338302</v>
       </c>
+      <c r="E101">
+        <v>0.09134472971434152</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1994,6 +2299,9 @@
       <c r="D102">
         <v>-4481744.540215587</v>
       </c>
+      <c r="E102">
+        <v>-1.732634314925043</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2010,6 +2318,9 @@
       <c r="D103">
         <v>7769348.096932001</v>
       </c>
+      <c r="E103">
+        <v>0.1630522675250302</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2026,6 +2337,9 @@
       <c r="D104">
         <v>-3795296.704477613</v>
       </c>
+      <c r="E104">
+        <v>-0.8763743117657303</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2042,6 +2356,9 @@
       <c r="D105">
         <v>-1191121.38432836</v>
       </c>
+      <c r="E105">
+        <v>-0.3376998447273046</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2058,6 +2375,9 @@
       <c r="D106">
         <v>-2482544.502985081</v>
       </c>
+      <c r="E106">
+        <v>-0.1834191406492663</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2074,6 +2394,9 @@
       <c r="D107">
         <v>11967.32238805923</v>
       </c>
+      <c r="E107">
+        <v>0.006207452263015861</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2090,6 +2413,9 @@
       <c r="D108">
         <v>7240789.05953566</v>
       </c>
+      <c r="E108">
+        <v>0.1520939321246753</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2106,6 +2432,9 @@
       <c r="D109">
         <v>-638267.4712271988</v>
       </c>
+      <c r="E109">
+        <v>-0.2719950836512519</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2122,6 +2451,9 @@
       <c r="D110">
         <v>-1495568.202736318</v>
       </c>
+      <c r="E110">
+        <v>-0.4985227342454394</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2138,6 +2470,9 @@
       <c r="D111">
         <v>-62443.39071310032</v>
       </c>
+      <c r="E111">
+        <v>-0.02418859522138503</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2154,6 +2489,9 @@
       <c r="D112">
         <v>1577450.443615254</v>
       </c>
+      <c r="E112">
+        <v>0.1132249165816768</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2170,6 +2508,9 @@
       <c r="D113">
         <v>-185823.504145937</v>
       </c>
+      <c r="E113">
+        <v>-0.04797890644804437</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2186,6 +2527,9 @@
       <c r="D114">
         <v>-1257715.502155887</v>
       </c>
+      <c r="E114">
+        <v>-0.4130602213018764</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2202,6 +2546,9 @@
       <c r="D115">
         <v>5710319.065422883</v>
       </c>
+      <c r="E115">
+        <v>0.3028199481450018</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2218,6 +2565,9 @@
       <c r="D116">
         <v>1060010.45008292</v>
       </c>
+      <c r="E116">
+        <v>0.03251559813334456</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2234,6 +2584,9 @@
       <c r="D117">
         <v>2550572.85613599</v>
       </c>
+      <c r="E117">
+        <v>0.1500336974197641</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2250,6 +2603,9 @@
       <c r="D118">
         <v>3819629.235489219</v>
       </c>
+      <c r="E118">
+        <v>0.3079849407748121</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2266,6 +2622,9 @@
       <c r="D119">
         <v>-414186.857131009</v>
       </c>
+      <c r="E119">
+        <v>-0.06088341927119985</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2282,6 +2641,9 @@
       <c r="D120">
         <v>4061615.892288554</v>
       </c>
+      <c r="E120">
+        <v>0.1194408478775646</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2298,6 +2660,9 @@
       <c r="D121">
         <v>-2779516.265505807</v>
       </c>
+      <c r="E121">
+        <v>-0.7145653415357619</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2314,6 +2679,9 @@
       <c r="D122">
         <v>5188725.128109433</v>
       </c>
+      <c r="E122">
+        <v>0.1136878961070587</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2330,6 +2698,9 @@
       <c r="D123">
         <v>-2522206.218988394</v>
       </c>
+      <c r="E123">
+        <v>-0.3829043423128438</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2346,6 +2717,9 @@
       <c r="D124">
         <v>-310627.8575456045</v>
       </c>
+      <c r="E124">
+        <v>-0.1537985516434592</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2362,6 +2736,9 @@
       <c r="D125">
         <v>939787.2852404639</v>
       </c>
+      <c r="E125">
+        <v>0.02814842625885533</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2378,6 +2755,9 @@
       <c r="D126">
         <v>-1736911.63747927</v>
       </c>
+      <c r="E126">
+        <v>-0.869656814800875</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2394,6 +2774,9 @@
       <c r="D127">
         <v>19936133.94925373</v>
       </c>
+      <c r="E127">
+        <v>0.4862471694939934</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2410,6 +2793,9 @@
       <c r="D128">
         <v>-746522.3414593698</v>
       </c>
+      <c r="E128">
+        <v>-0.3872212720288697</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2426,6 +2812,9 @@
       <c r="D129">
         <v>1427446.705306798</v>
       </c>
+      <c r="E129">
+        <v>0.06410828337371886</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2442,6 +2831,9 @@
       <c r="D130">
         <v>-7073231.935240466</v>
       </c>
+      <c r="E130">
+        <v>-2.212841233531866</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2458,6 +2850,9 @@
       <c r="D131">
         <v>3232341.203233829</v>
       </c>
+      <c r="E131">
+        <v>0.267135636630895</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2474,6 +2869,9 @@
       <c r="D132">
         <v>1845748.786318399</v>
       </c>
+      <c r="E132">
+        <v>0.0669083932531355</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2490,6 +2888,9 @@
       <c r="D133">
         <v>-523809.5649253731</v>
       </c>
+      <c r="E133">
+        <v>-0.2754328022621954</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2506,6 +2907,9 @@
       <c r="D134">
         <v>-2565488.212769486</v>
       </c>
+      <c r="E134">
+        <v>-12.82744106384743</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2522,6 +2926,9 @@
       <c r="D135">
         <v>4180405.499917079</v>
       </c>
+      <c r="E135">
+        <v>0.1872821628004676</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2538,6 +2945,9 @@
       <c r="D136">
         <v>-362473.0813432857</v>
       </c>
+      <c r="E136">
+        <v>-0.03664497945133446</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2554,6 +2964,9 @@
       <c r="D137">
         <v>-112566.1184908804</v>
       </c>
+      <c r="E137">
+        <v>-0.01172563734280004</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2570,6 +2983,9 @@
       <c r="D138">
         <v>-248642.3415422896</v>
       </c>
+      <c r="E138">
+        <v>-0.05217726200429593</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2586,6 +3002,9 @@
       <c r="D139">
         <v>108144.361608624</v>
       </c>
+      <c r="E139">
+        <v>0.02912649925358585</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2602,6 +3021,9 @@
       <c r="D140">
         <v>-863800.9966832502</v>
       </c>
+      <c r="E140">
+        <v>-0.3620714068219448</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2618,6 +3040,9 @@
       <c r="D141">
         <v>-823875.9531509127</v>
       </c>
+      <c r="E141">
+        <v>-0.7358906583648376</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2634,6 +3059,9 @@
       <c r="D142">
         <v>4587820.879104478</v>
       </c>
+      <c r="E142">
+        <v>0.2914615569308001</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2650,6 +3078,9 @@
       <c r="D143">
         <v>-14627268.4973466</v>
       </c>
+      <c r="E143">
+        <v>-2.518280483012481</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2666,6 +3097,9 @@
       <c r="D144">
         <v>-2144921.610281926</v>
       </c>
+      <c r="E144">
+        <v>-0.1198432343078365</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2682,6 +3116,9 @@
       <c r="D145">
         <v>526272.2247097939</v>
       </c>
+      <c r="E145">
+        <v>0.01476633627131857</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2698,6 +3135,9 @@
       <c r="D146">
         <v>-2291496.934411278</v>
       </c>
+      <c r="E146">
+        <v>-1.332371009807333</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2714,6 +3154,9 @@
       <c r="D147">
         <v>5663816.326782756</v>
       </c>
+      <c r="E147">
+        <v>0.4356781789832889</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2730,6 +3173,9 @@
       <c r="D148">
         <v>5152113.378689885</v>
       </c>
+      <c r="E148">
+        <v>0.2585289923040586</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2746,6 +3192,9 @@
       <c r="D149">
         <v>12441397.31898839</v>
       </c>
+      <c r="E149">
+        <v>0.3168156301666377</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2762,6 +3211,9 @@
       <c r="D150">
         <v>870433.4817578811</v>
       </c>
+      <c r="E150">
+        <v>0.0671630772961328</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2778,6 +3230,9 @@
       <c r="D151">
         <v>4337628.120398008</v>
       </c>
+      <c r="E151">
+        <v>0.4691802433302937</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2794,6 +3249,9 @@
       <c r="D152">
         <v>-1714125.298590383</v>
       </c>
+      <c r="E152">
+        <v>-0.8891170989464071</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2810,6 +3268,9 @@
       <c r="D153">
         <v>-723569.4850746272</v>
       </c>
+      <c r="E153">
+        <v>-0.1678753190309936</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -2826,6 +3287,9 @@
       <c r="D154">
         <v>-336374.7573797675</v>
       </c>
+      <c r="E154">
+        <v>-0.1553694029467748</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -2842,6 +3306,9 @@
       <c r="D155">
         <v>-142700.5869817603</v>
       </c>
+      <c r="E155">
+        <v>-0.01924756583790438</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -2858,6 +3325,9 @@
       <c r="D156">
         <v>5101800.737147592</v>
       </c>
+      <c r="E156">
+        <v>0.1619619281634156</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -2874,6 +3344,9 @@
       <c r="D157">
         <v>-1023735.612023218</v>
       </c>
+      <c r="E157">
+        <v>-0.1047741464456853</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -2890,6 +3363,9 @@
       <c r="D158">
         <v>872054.2081260365</v>
       </c>
+      <c r="E158">
+        <v>0.1565649431456891</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -2906,6 +3382,9 @@
       <c r="D159">
         <v>-429952.2597844079</v>
       </c>
+      <c r="E159">
+        <v>-0.01592415776979289</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -2922,6 +3401,9 @@
       <c r="D160">
         <v>2637192.877860704</v>
       </c>
+      <c r="E160">
+        <v>0.1367849910100765</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -2938,6 +3420,9 @@
       <c r="D161">
         <v>-3413096.163515755</v>
       </c>
+      <c r="E161">
+        <v>-1.794348232285979</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -2954,6 +3439,9 @@
       <c r="D162">
         <v>-1684477.609203981</v>
       </c>
+      <c r="E162">
+        <v>-0.8340211937796792</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -2970,6 +3458,9 @@
       <c r="D163">
         <v>11183651.0376451</v>
       </c>
+      <c r="E163">
+        <v>0.3033948221021099</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -2986,6 +3477,9 @@
       <c r="D164">
         <v>-7557412.626533996</v>
       </c>
+      <c r="E164">
+        <v>-3.741837983614445</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3002,6 +3496,9 @@
       <c r="D165">
         <v>6566199.786152571</v>
       </c>
+      <c r="E165">
+        <v>0.5450928843014183</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -3018,6 +3515,9 @@
       <c r="D166">
         <v>428294.7079601977</v>
       </c>
+      <c r="E166">
+        <v>0.04123769574043883</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -3034,6 +3534,9 @@
       <c r="D167">
         <v>84170.84121061396</v>
       </c>
+      <c r="E167">
+        <v>0.02277941272912173</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -3050,6 +3553,9 @@
       <c r="D168">
         <v>-90199.6891376432</v>
       </c>
+      <c r="E168">
+        <v>-0.009019968913764321</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -3066,6 +3572,9 @@
       <c r="D169">
         <v>1695161.489552233</v>
       </c>
+      <c r="E169">
+        <v>0.1538259064929431</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -3082,6 +3591,9 @@
       <c r="D170">
         <v>-1020561.186401328</v>
       </c>
+      <c r="E170">
+        <v>-0.2367754043040028</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -3098,6 +3610,9 @@
       <c r="D171">
         <v>-600286.2365671638</v>
       </c>
+      <c r="E171">
+        <v>-0.3001431182835819</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -3114,6 +3629,9 @@
       <c r="D172">
         <v>1693001.680597015</v>
       </c>
+      <c r="E172">
+        <v>0.3367951143067189</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -3130,6 +3648,9 @@
       <c r="D173">
         <v>3906346.942371475</v>
       </c>
+      <c r="E173">
+        <v>0.2492939336506565</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -3146,6 +3667,9 @@
       <c r="D174">
         <v>545104.9282752872</v>
       </c>
+      <c r="E174">
+        <v>0.02713411159935137</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -3162,6 +3686,9 @@
       <c r="D175">
         <v>-1122031.28955224</v>
       </c>
+      <c r="E175">
+        <v>-0.4864859909609087</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -3178,6 +3705,9 @@
       <c r="D176">
         <v>3647704.639137646</v>
       </c>
+      <c r="E176">
+        <v>0.3316095126488769</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -3194,6 +3724,9 @@
       <c r="D177">
         <v>2193776.731343269</v>
       </c>
+      <c r="E177">
+        <v>0.0648405638021384</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -3210,6 +3743,9 @@
       <c r="D178">
         <v>6966168.912354898</v>
       </c>
+      <c r="E178">
+        <v>0.1880865608216688</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -3226,6 +3762,9 @@
       <c r="D179">
         <v>12387276.92404644</v>
       </c>
+      <c r="E179">
+        <v>0.7119124668992206</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -3242,6 +3781,9 @@
       <c r="D180">
         <v>-733729.8592868987</v>
       </c>
+      <c r="E180">
+        <v>-0.09635981173854272</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -3258,6 +3800,9 @@
       <c r="D181">
         <v>-917832.9266998344</v>
       </c>
+      <c r="E181">
+        <v>-0.819813558236414</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -3274,6 +3819,9 @@
       <c r="D182">
         <v>-517253.5219734665</v>
       </c>
+      <c r="E182">
+        <v>-0.191839690971808</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -3290,6 +3838,9 @@
       <c r="D183">
         <v>324777.0686567165</v>
       </c>
+      <c r="E183">
+        <v>0.01198341996922304</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -3306,6 +3857,9 @@
       <c r="D184">
         <v>-2224343.895688227</v>
       </c>
+      <c r="E184">
+        <v>-0.4448687791376455</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -3322,6 +3876,9 @@
       <c r="D185">
         <v>-979418.8325870656</v>
       </c>
+      <c r="E185">
+        <v>-0.8748224374930804</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -3338,6 +3895,9 @@
       <c r="D186">
         <v>10295051.1181592</v>
       </c>
+      <c r="E186">
+        <v>0.2162491950961185</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -3354,6 +3914,9 @@
       <c r="D187">
         <v>-3859989.179767828</v>
       </c>
+      <c r="E187">
+        <v>-1.099524064196385</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -3370,6 +3933,9 @@
       <c r="D188">
         <v>13164.32454394619</v>
       </c>
+      <c r="E188">
+        <v>0.006370086177895509</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -3386,6 +3952,9 @@
       <c r="D189">
         <v>-756689.8400497516</v>
       </c>
+      <c r="E189">
+        <v>-0.3102427568597089</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -3402,6 +3971,9 @@
       <c r="D190">
         <v>-1425618.949751243</v>
       </c>
+      <c r="E190">
+        <v>-0.7137952260828422</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -3418,6 +3990,9 @@
       <c r="D191">
         <v>4690537.872636817</v>
       </c>
+      <c r="E191">
+        <v>0.1826579815280675</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -3434,6 +4009,9 @@
       <c r="D192">
         <v>-4462324.720066336</v>
       </c>
+      <c r="E192">
+        <v>-1.52539336015613</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -3450,6 +4028,9 @@
       <c r="D193">
         <v>1202695.460116085</v>
       </c>
+      <c r="E193">
+        <v>0.06013477300580423</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -3466,6 +4047,9 @@
       <c r="D194">
         <v>6025586.771807633</v>
       </c>
+      <c r="E194">
+        <v>0.1265684137387952</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -3482,6 +4066,9 @@
       <c r="D195">
         <v>-50861.70787728066</v>
       </c>
+      <c r="E195">
+        <v>-0.02518272851458611</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -3498,6 +4085,9 @@
       <c r="D196">
         <v>-11612.64684908791</v>
       </c>
+      <c r="E196">
+        <v>-0.004489428220928456</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -3514,6 +4104,9 @@
       <c r="D197">
         <v>-1119132.839220564</v>
       </c>
+      <c r="E197">
+        <v>-0.2080286244676872</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -3530,6 +4123,9 @@
       <c r="D198">
         <v>1553064.618242126</v>
       </c>
+      <c r="E198">
+        <v>0.1292588622066413</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -3546,6 +4142,9 @@
       <c r="D199">
         <v>208497.7416252065</v>
       </c>
+      <c r="E199">
+        <v>0.02106924617919548</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -3562,6 +4161,9 @@
       <c r="D200">
         <v>-967186.946600331</v>
       </c>
+      <c r="E200">
+        <v>-0.06908478190002364</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -3578,6 +4180,9 @@
       <c r="D201">
         <v>-4104229.955389718</v>
       </c>
+      <c r="E201">
+        <v>-2.032092767655153</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -3594,6 +4199,9 @@
       <c r="D202">
         <v>-2124175.353067994</v>
       </c>
+      <c r="E202">
+        <v>-1.051725029815227</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -3610,6 +4218,9 @@
       <c r="D203">
         <v>-942690.0557213943</v>
       </c>
+      <c r="E203">
+        <v>-0.4008035951196404</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -3626,6 +4237,9 @@
       <c r="D204">
         <v>5184372.474046437</v>
       </c>
+      <c r="E204">
+        <v>0.3511582427287179</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -3642,6 +4256,9 @@
       <c r="D205">
         <v>-1587545.311359867</v>
       </c>
+      <c r="E205">
+        <v>-0.5607402306333328</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -3658,6 +4275,9 @@
       <c r="D206">
         <v>-1183297.901243782</v>
       </c>
+      <c r="E206">
+        <v>-0.3179164923654184</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -3674,6 +4294,9 @@
       <c r="D207">
         <v>2435691.560696514</v>
       </c>
+      <c r="E207">
+        <v>0.2214265055178649</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -3690,6 +4313,9 @@
       <c r="D208">
         <v>-2064096.572470977</v>
       </c>
+      <c r="E208">
+        <v>-1.118392068278855</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -3706,6 +4332,9 @@
       <c r="D209">
         <v>-1356256.886152571</v>
       </c>
+      <c r="E209">
+        <v>-0.5651070358969044</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -3722,6 +4351,9 @@
       <c r="D210">
         <v>3210975.40986733</v>
       </c>
+      <c r="E210">
+        <v>0.5979058072101793</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -3738,6 +4370,9 @@
       <c r="D211">
         <v>-1774007.43482587</v>
       </c>
+      <c r="E211">
+        <v>-0.7350948885121268</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -3754,6 +4389,9 @@
       <c r="D212">
         <v>234928.9362354875</v>
       </c>
+      <c r="E212">
+        <v>0.03907121031583868</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -3770,6 +4408,9 @@
       <c r="D213">
         <v>-2052778.172305141</v>
       </c>
+      <c r="E213">
+        <v>-0.08028643461256418</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -3786,6 +4427,9 @@
       <c r="D214">
         <v>1067950.709867329</v>
       </c>
+      <c r="E214">
+        <v>0.1334938387334162</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -3802,6 +4446,9 @@
       <c r="D215">
         <v>238709.7373963506</v>
       </c>
+      <c r="E215">
+        <v>0.07459865790280713</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -3818,6 +4465,9 @@
       <c r="D216">
         <v>6304493.769071303</v>
       </c>
+      <c r="E216">
+        <v>0.1573597032232577</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -3834,6 +4484,9 @@
       <c r="D217">
         <v>-1031353.139883915</v>
       </c>
+      <c r="E217">
+        <v>-0.5106451829543087</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -3850,6 +4503,9 @@
       <c r="D218">
         <v>6130324.388391368</v>
       </c>
+      <c r="E218">
+        <v>0.1343188673445774</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -3866,6 +4522,9 @@
       <c r="D219">
         <v>-3939652.03772803</v>
       </c>
+      <c r="E219">
+        <v>-0.256077372209227</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -3882,6 +4541,9 @@
       <c r="D220">
         <v>887457.5832504136</v>
       </c>
+      <c r="E220">
+        <v>0.1550925537424291</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -3898,6 +4560,9 @@
       <c r="D221">
         <v>-397154.7729684906</v>
       </c>
+      <c r="E221">
+        <v>-0.3547408881576924</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -3914,6 +4579,9 @@
       <c r="D222">
         <v>-189012.2368159203</v>
       </c>
+      <c r="E222">
+        <v>-0.1049037012047162</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -3930,6 +4598,9 @@
       <c r="D223">
         <v>5089774.036484241</v>
       </c>
+      <c r="E223">
+        <v>0.1115198218409116</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -3946,6 +4617,9 @@
       <c r="D224">
         <v>1146275.204145935</v>
       </c>
+      <c r="E224">
+        <v>0.1834040326633496</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -3962,6 +4636,9 @@
       <c r="D225">
         <v>-291786.6722222231</v>
       </c>
+      <c r="E225">
+        <v>-0.06109896730537125</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -3978,6 +4655,9 @@
       <c r="D226">
         <v>-4244290.498839137</v>
       </c>
+      <c r="E226">
+        <v>-2.311584197579613</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -3994,6 +4674,9 @@
       <c r="D227">
         <v>-557722.6308457709</v>
       </c>
+      <c r="E227">
+        <v>-0.4981610064335557</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -4010,6 +4693,9 @@
       <c r="D228">
         <v>-346485.1756218907</v>
       </c>
+      <c r="E228">
+        <v>-0.2014607990061369</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -4026,6 +4712,9 @@
       <c r="D229">
         <v>280960.6521558855</v>
       </c>
+      <c r="E229">
+        <v>0.0374614202874514</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -4042,6 +4731,9 @@
       <c r="D230">
         <v>12051715.97529021</v>
       </c>
+      <c r="E230">
+        <v>0.4820686390116085</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -4058,6 +4750,9 @@
       <c r="D231">
         <v>-666465.1742951917</v>
       </c>
+      <c r="E231">
+        <v>-0.3299812815801862</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -4074,6 +4769,9 @@
       <c r="D232">
         <v>-1761465.349585407</v>
       </c>
+      <c r="E232">
+        <v>-0.4592246262871467</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -4090,6 +4788,9 @@
       <c r="D233">
         <v>7110831.979601998</v>
       </c>
+      <c r="E233">
+        <v>0.2395627860554386</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -4106,6 +4807,9 @@
       <c r="D234">
         <v>2085372.203482586</v>
       </c>
+      <c r="E234">
+        <v>0.2606715254353232</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -4122,6 +4826,9 @@
       <c r="D235">
         <v>-1259133.931260365</v>
       </c>
+      <c r="E235">
+        <v>-0.6234243653583069</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -4138,6 +4845,9 @@
       <c r="D236">
         <v>834536.2165008318</v>
       </c>
+      <c r="E236">
+        <v>0.07890160649754487</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -4154,6 +4864,9 @@
       <c r="D237">
         <v>-617310.0732172471</v>
       </c>
+      <c r="E237">
+        <v>-0.193429238960095</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -4170,6 +4883,9 @@
       <c r="D238">
         <v>-2426402.073134328</v>
       </c>
+      <c r="E238">
+        <v>-1.201363997103701</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -4186,6 +4902,9 @@
       <c r="D239">
         <v>-7549899.489469323</v>
       </c>
+      <c r="E239">
+        <v>-0.437421780237028</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -4202,6 +4921,9 @@
       <c r="D240">
         <v>-1053054.644444444</v>
       </c>
+      <c r="E240">
+        <v>-0.5454317126674185</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -4218,6 +4940,9 @@
       <c r="D241">
         <v>-1406234.505721396</v>
       </c>
+      <c r="E241">
+        <v>-0.2067095165658127</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -4234,6 +4959,9 @@
       <c r="D242">
         <v>1362093.346517414</v>
       </c>
+      <c r="E242">
+        <v>0.1801710775816685</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -4250,6 +4978,9 @@
       <c r="D243">
         <v>37286.00348258694</v>
       </c>
+      <c r="E243">
+        <v>0.01931235842823695</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -4266,6 +4997,9 @@
       <c r="D244">
         <v>-1256320.148922056</v>
       </c>
+      <c r="E244">
+        <v>-0.628160074461028</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -4282,6 +5016,9 @@
       <c r="D245">
         <v>-414923.0360696521</v>
       </c>
+      <c r="E245">
+        <v>-0.05999396132919979</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -4298,6 +5035,9 @@
       <c r="D246">
         <v>-3049576.210364842</v>
       </c>
+      <c r="E246">
+        <v>-1.50991095256678</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -4314,6 +5054,9 @@
       <c r="D247">
         <v>-19905395.80306799</v>
       </c>
+      <c r="E247">
+        <v>-4.582357824975596</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -4330,6 +5073,9 @@
       <c r="D248">
         <v>-2335533.628689884</v>
       </c>
+      <c r="E248">
+        <v>-1.298122309479399</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -4346,6 +5092,9 @@
       <c r="D249">
         <v>-122361.29344942</v>
       </c>
+      <c r="E249">
+        <v>-0.06664210011318582</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -4362,6 +5111,9 @@
       <c r="D250">
         <v>5559201.188225526</v>
       </c>
+      <c r="E250">
+        <v>0.1552742406738911</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -4378,6 +5130,9 @@
       <c r="D251">
         <v>-223632.3814262059</v>
       </c>
+      <c r="E251">
+        <v>-0.02570487142829952</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -4394,6 +5149,9 @@
       <c r="D252">
         <v>-2463763.443200663</v>
       </c>
+      <c r="E252">
+        <v>-0.6315076830646296</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -4410,6 +5168,9 @@
       <c r="D253">
         <v>576657.5454394706</v>
       </c>
+      <c r="E253">
+        <v>0.1276921048360209</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -4426,6 +5187,9 @@
       <c r="D254">
         <v>1134688.971475951</v>
       </c>
+      <c r="E254">
+        <v>0.0825228342891601</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -4442,6 +5206,9 @@
       <c r="D255">
         <v>-734930.1402155887</v>
       </c>
+      <c r="E255">
+        <v>-0.1682520816513597</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -4458,6 +5225,9 @@
       <c r="D256">
         <v>-1258700.840215588</v>
       </c>
+      <c r="E256">
+        <v>-0.7318606821327666</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -4474,6 +5244,9 @@
       <c r="D257">
         <v>-465869.4039800996</v>
       </c>
+      <c r="E257">
+        <v>-0.2008057775776291</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -4490,6 +5263,9 @@
       <c r="D258">
         <v>-1936547.189635158</v>
       </c>
+      <c r="E258">
+        <v>-0.2420683987043947</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -4506,6 +5282,9 @@
       <c r="D259">
         <v>-945755.0134328362</v>
       </c>
+      <c r="E259">
+        <v>-0.4735314536539141</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -4522,6 +5301,9 @@
       <c r="D260">
         <v>-2015844.35</v>
       </c>
+      <c r="E260">
+        <v>-0.9980880138000281</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -4538,6 +5320,9 @@
       <c r="D261">
         <v>-25233.68167495821</v>
       </c>
+      <c r="E261">
+        <v>-0.003267341923469922</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -4554,6 +5339,9 @@
       <c r="D262">
         <v>13010030.68598673</v>
       </c>
+      <c r="E262">
+        <v>0.4437105150067499</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -4570,6 +5358,9 @@
       <c r="D263">
         <v>431209.5494195689</v>
       </c>
+      <c r="E263">
+        <v>0.03963177359468115</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -4586,6 +5377,9 @@
       <c r="D264">
         <v>-393848.3703980097</v>
       </c>
+      <c r="E264">
+        <v>-0.2188046502211165</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -4602,6 +5396,9 @@
       <c r="D265">
         <v>-571128.5289386385</v>
       </c>
+      <c r="E265">
+        <v>-0.192555909205081</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -4618,6 +5415,9 @@
       <c r="D266">
         <v>693502.7345771128</v>
       </c>
+      <c r="E266">
+        <v>0.1019414716523145</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -4634,6 +5434,9 @@
       <c r="D267">
         <v>130350.2178275287</v>
       </c>
+      <c r="E267">
+        <v>0.02607004356550574</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -4650,6 +5453,9 @@
       <c r="D268">
         <v>-190753.5642620237</v>
       </c>
+      <c r="E268">
+        <v>-0.1109120048224881</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -4666,6 +5472,9 @@
       <c r="D269">
         <v>89897.54519071244</v>
       </c>
+      <c r="E269">
+        <v>0.01775354195612493</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -4682,6 +5491,9 @@
       <c r="D270">
         <v>-80037.42470977455</v>
       </c>
+      <c r="E270">
+        <v>-0.002413526093239001</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -4698,6 +5510,9 @@
       <c r="D271">
         <v>-7604720.943864014</v>
       </c>
+      <c r="E271">
+        <v>-0.8561329676609672</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -4714,6 +5529,9 @@
       <c r="D272">
         <v>-1772871.417827534</v>
       </c>
+      <c r="E272">
+        <v>-0.1782527368583149</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -4730,6 +5548,9 @@
       <c r="D273">
         <v>333955.3131011608</v>
       </c>
+      <c r="E273">
+        <v>0.08522572862466078</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -4746,6 +5567,9 @@
       <c r="D274">
         <v>357955.351907131</v>
       </c>
+      <c r="E274">
+        <v>0.1478103793614171</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -4762,6 +5586,9 @@
       <c r="D275">
         <v>1965526.977197353</v>
       </c>
+      <c r="E275">
+        <v>0.05780069186955993</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -4778,6 +5605,9 @@
       <c r="D276">
         <v>4577373.675207296</v>
       </c>
+      <c r="E276">
+        <v>0.2674280826578777</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -4794,6 +5624,9 @@
       <c r="D277">
         <v>-3668547.938225538</v>
       </c>
+      <c r="E277">
+        <v>-1.816377204516667</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -4810,6 +5643,9 @@
       <c r="D278">
         <v>-10100842.63756219</v>
       </c>
+      <c r="E278">
+        <v>-3.006847490403357</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -4826,6 +5662,9 @@
       <c r="D279">
         <v>-4263301.178109448</v>
       </c>
+      <c r="E279">
+        <v>-0.2340672657356675</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -4842,6 +5681,9 @@
       <c r="D280">
         <v>4490640.975290217</v>
       </c>
+      <c r="E280">
+        <v>0.1327280431552908</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -4858,6 +5700,9 @@
       <c r="D281">
         <v>-4732332.480099499</v>
       </c>
+      <c r="E281">
+        <v>-0.5627699464977404</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -4874,6 +5719,9 @@
       <c r="D282">
         <v>-296688.3459369815</v>
       </c>
+      <c r="E282">
+        <v>-0.1041933028281082</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -4890,6 +5738,9 @@
       <c r="D283">
         <v>-1516726.608208954</v>
       </c>
+      <c r="E283">
+        <v>-0.4333504594882727</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -4906,6 +5757,9 @@
       <c r="D284">
         <v>-287440.0975953564</v>
       </c>
+      <c r="E284">
+        <v>-0.1423177915970723</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -4922,6 +5776,9 @@
       <c r="D285">
         <v>1532775.180016585</v>
       </c>
+      <c r="E285">
+        <v>0.1477373667485865</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -4938,6 +5795,9 @@
       <c r="D286">
         <v>-5100028.214510782</v>
       </c>
+      <c r="E286">
+        <v>-2.392239904925774</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -4954,6 +5814,9 @@
       <c r="D287">
         <v>-959796.4927031547</v>
       </c>
+      <c r="E287">
+        <v>-0.1703501442520557</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -4970,6 +5833,9 @@
       <c r="D288">
         <v>920990.9873963529</v>
       </c>
+      <c r="E288">
+        <v>0.1046580667495856</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -4986,6 +5852,9 @@
       <c r="D289">
         <v>943430.2109452747</v>
       </c>
+      <c r="E289">
+        <v>0.2190823615424248</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -5002,6 +5871,9 @@
       <c r="D290">
         <v>-2901042.343615249</v>
       </c>
+      <c r="E290">
+        <v>-0.1719136203623851</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -5018,6 +5890,9 @@
       <c r="D291">
         <v>-558738.2522388063</v>
       </c>
+      <c r="E291">
+        <v>-0.1862460840796021</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -5034,6 +5909,9 @@
       <c r="D292">
         <v>367743.9477611985</v>
       </c>
+      <c r="E292">
+        <v>0.03870988923802089</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -5050,6 +5928,9 @@
       <c r="D293">
         <v>2524992.70190713</v>
       </c>
+      <c r="E293">
+        <v>0.4794247763087016</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -5066,6 +5947,9 @@
       <c r="D294">
         <v>-281898.815008292</v>
       </c>
+      <c r="E294">
+        <v>-0.1001083529241925</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -5082,6 +5966,9 @@
       <c r="D295">
         <v>1374657.717993367</v>
       </c>
+      <c r="E295">
+        <v>0.1695211540462032</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -5098,6 +5985,9 @@
       <c r="D296">
         <v>649300.88358209</v>
       </c>
+      <c r="E296">
+        <v>0.07278509186480465</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -5114,6 +6004,9 @@
       <c r="D297">
         <v>495162.0133499149</v>
       </c>
+      <c r="E297">
+        <v>0.04060328493227988</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -5130,6 +6023,9 @@
       <c r="D298">
         <v>332944.2150082905</v>
       </c>
+      <c r="E298">
+        <v>0.04955380927372462</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -5146,6 +6042,9 @@
       <c r="D299">
         <v>-4222066.547844114</v>
       </c>
+      <c r="E299">
+        <v>-2.090436205984492</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -5162,6 +6061,9 @@
       <c r="D300">
         <v>5387934.46276949</v>
       </c>
+      <c r="E300">
+        <v>0.1749329371029055</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -5178,6 +6080,9 @@
       <c r="D301">
         <v>751288.5876451069</v>
       </c>
+      <c r="E301">
+        <v>0.08818245461112237</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -5194,6 +6099,9 @@
       <c r="D302">
         <v>619329.79726368</v>
       </c>
+      <c r="E302">
+        <v>0.07106480748866094</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -5210,6 +6118,9 @@
       <c r="D303">
         <v>-1473520.679850747</v>
       </c>
+      <c r="E303">
+        <v>-2.632311649625652</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -5226,6 +6137,9 @@
       <c r="D304">
         <v>-778510.7975953571</v>
       </c>
+      <c r="E304">
+        <v>-0.4865692484970982</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -5242,6 +6156,9 @@
       <c r="D305">
         <v>-354277.7833333337</v>
       </c>
+      <c r="E305">
+        <v>-0.20740522505044</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -5258,6 +6175,9 @@
       <c r="D306">
         <v>-1176703.618076285</v>
       </c>
+      <c r="E306">
+        <v>-0.2353407236152571</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -5274,6 +6194,9 @@
       <c r="D307">
         <v>-1658739.420149253</v>
       </c>
+      <c r="E307">
+        <v>-0.4947857143302349</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -5290,6 +6213,9 @@
       <c r="D308">
         <v>8054605.410945274</v>
       </c>
+      <c r="E308">
+        <v>0.4130566877407833</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -5306,6 +6232,9 @@
       <c r="D309">
         <v>2289093.543200663</v>
       </c>
+      <c r="E309">
+        <v>0.4569383711742284</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -5322,6 +6251,9 @@
       <c r="D310">
         <v>11014287.12180763</v>
       </c>
+      <c r="E310">
+        <v>0.4011707850605488</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -5338,6 +6270,9 @@
       <c r="D311">
         <v>6864852.743366499</v>
       </c>
+      <c r="E311">
+        <v>0.2056154666692575</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -5354,6 +6289,9 @@
       <c r="D312">
         <v>528766.8441127688</v>
       </c>
+      <c r="E312">
+        <v>0.08393124509726488</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -5370,6 +6308,9 @@
       <c r="D313">
         <v>1659577.258291874</v>
       </c>
+      <c r="E313">
+        <v>0.141713179924056</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -5386,6 +6327,9 @@
       <c r="D314">
         <v>5097823.718490876</v>
       </c>
+      <c r="E314">
+        <v>0.1415425202684036</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -5402,6 +6346,9 @@
       <c r="D315">
         <v>-1896458.031260365</v>
       </c>
+      <c r="E315">
+        <v>-0.4741145078150912</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -5418,6 +6365,9 @@
       <c r="D316">
         <v>3104324.421724718</v>
       </c>
+      <c r="E316">
+        <v>0.1724624678735955</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -5434,6 +6384,9 @@
       <c r="D317">
         <v>483362.6681592017</v>
       </c>
+      <c r="E317">
+        <v>0.07916268240377719</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -5450,6 +6403,9 @@
       <c r="D318">
         <v>-3180124.739386396</v>
       </c>
+      <c r="E318">
+        <v>-0.7041905977383518</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -5466,6 +6422,9 @@
       <c r="D319">
         <v>-1044050.06119403</v>
       </c>
+      <c r="E319">
+        <v>-0.2586025336369116</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -5482,6 +6441,9 @@
       <c r="D320">
         <v>-563100.8485903819</v>
       </c>
+      <c r="E320">
+        <v>-0.2059833664714681</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -5498,6 +6460,9 @@
       <c r="D321">
         <v>-8207968.651492536</v>
       </c>
+      <c r="E321">
+        <v>-1.967607384954587</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -5514,6 +6479,9 @@
       <c r="D322">
         <v>-2896396.50995025</v>
       </c>
+      <c r="E322">
+        <v>-0.1026112878911963</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -5530,6 +6498,9 @@
       <c r="D323">
         <v>-4896377.889137648</v>
       </c>
+      <c r="E323">
+        <v>-0.4075170005482785</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -5546,6 +6517,9 @@
       <c r="D324">
         <v>-2008615.810199005</v>
       </c>
+      <c r="E324">
+        <v>-0.9277671178748291</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -5562,6 +6536,9 @@
       <c r="D325">
         <v>2336575.332669984</v>
       </c>
+      <c r="E325">
+        <v>0.3025476282105378</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -5578,6 +6555,9 @@
       <c r="D326">
         <v>5959708.638225539</v>
       </c>
+      <c r="E326">
+        <v>0.460194946737208</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -5594,6 +6574,9 @@
       <c r="D327">
         <v>-1042537.904311774</v>
       </c>
+      <c r="E327">
+        <v>-0.2085075808623549</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -5610,6 +6593,9 @@
       <c r="D328">
         <v>-5126654.609121061</v>
       </c>
+      <c r="E328">
+        <v>-1.773028918926296</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -5626,6 +6612,9 @@
       <c r="D329">
         <v>2078569.659369826</v>
       </c>
+      <c r="E329">
+        <v>0.1144965109270588</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -5642,6 +6631,9 @@
       <c r="D330">
         <v>3866835.574212268</v>
       </c>
+      <c r="E330">
+        <v>0.2465808220840382</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -5658,6 +6650,9 @@
       <c r="D331">
         <v>-536603.860613599</v>
       </c>
+      <c r="E331">
+        <v>-0.2978205644639235</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -5674,6 +6669,9 @@
       <c r="D332">
         <v>-977830.391542288</v>
       </c>
+      <c r="E332">
+        <v>-0.3597292334533698</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -5690,6 +6688,9 @@
       <c r="D333">
         <v>-2298790.077114428</v>
       </c>
+      <c r="E333">
+        <v>-1.33661154435143</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -5706,6 +6707,9 @@
       <c r="D334">
         <v>-2123049.878358209</v>
       </c>
+      <c r="E334">
+        <v>-0.6641903382624115</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -5722,6 +6726,9 @@
       <c r="D335">
         <v>-4610522.272222228</v>
       </c>
+      <c r="E335">
+        <v>-0.1986846956649208</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -5738,6 +6745,9 @@
       <c r="D336">
         <v>-844115.671641791</v>
       </c>
+      <c r="E336">
+        <v>-0.753968889327167</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -5754,6 +6764,9 @@
       <c r="D337">
         <v>-2586363.965754554</v>
       </c>
+      <c r="E337">
+        <v>-0.1494343564884444</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -5770,6 +6783,9 @@
       <c r="D338">
         <v>-953059.7467661612</v>
       </c>
+      <c r="E338">
+        <v>-0.03114574335837128</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -5786,6 +6802,9 @@
       <c r="D339">
         <v>-297275.9096185728</v>
       </c>
+      <c r="E339">
+        <v>-0.1438488664238697</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -5802,6 +6821,9 @@
       <c r="D340">
         <v>-696410.6072139305</v>
       </c>
+      <c r="E340">
+        <v>-0.6764663498221247</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -5818,6 +6840,9 @@
       <c r="D341">
         <v>-2720304.917910447</v>
       </c>
+      <c r="E341">
+        <v>-1.34688163421332</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -5834,6 +6859,9 @@
       <c r="D342">
         <v>-1134414.913432836</v>
       </c>
+      <c r="E342">
+        <v>-0.432316166458147</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -5850,6 +6878,9 @@
       <c r="D343">
         <v>-4366381.752902152</v>
       </c>
+      <c r="E343">
+        <v>-0.3519856310279849</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -5866,6 +6897,9 @@
       <c r="D344">
         <v>-9368145.938971814</v>
       </c>
+      <c r="E344">
+        <v>-2.649152764761788</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -5882,6 +6916,9 @@
       <c r="D345">
         <v>-129880.7914593699</v>
       </c>
+      <c r="E345">
+        <v>-0.05304287815869065</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -5898,6 +6935,9 @@
       <c r="D346">
         <v>1812136.395190716</v>
       </c>
+      <c r="E346">
+        <v>0.1045966173270254</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -5914,6 +6954,9 @@
       <c r="D347">
         <v>3072714.248009949</v>
       </c>
+      <c r="E347">
+        <v>0.2997769998058487</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -5930,6 +6973,9 @@
       <c r="D348">
         <v>-895260.5027363189</v>
       </c>
+      <c r="E348">
+        <v>-0.4050879181989099</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -5946,6 +6992,9 @@
       <c r="D349">
         <v>-2539553.941873964</v>
       </c>
+      <c r="E349">
+        <v>-0.4022227409601134</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -5962,6 +7011,9 @@
       <c r="D350">
         <v>-471249.4892205647</v>
       </c>
+      <c r="E350">
+        <v>-0.1857389716141531</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -5978,6 +7030,9 @@
       <c r="D351">
         <v>8525459.786069639</v>
       </c>
+      <c r="E351">
+        <v>0.2249853005058199</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -5994,6 +7049,9 @@
       <c r="D352">
         <v>8530730.242122725</v>
       </c>
+      <c r="E352">
+        <v>0.2251243868622934</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -6010,6 +7068,9 @@
       <c r="D353">
         <v>-309220.9590381421</v>
       </c>
+      <c r="E353">
+        <v>-0.01282694341001512</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -6026,6 +7087,9 @@
       <c r="D354">
         <v>-406475.3140961868</v>
       </c>
+      <c r="E354">
+        <v>-0.2108388181189166</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -6042,6 +7106,9 @@
       <c r="D355">
         <v>-96808.01492537931</v>
       </c>
+      <c r="E355">
+        <v>-0.005140144958425315</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -6058,6 +7125,9 @@
       <c r="D356">
         <v>-1754552.945522387</v>
       </c>
+      <c r="E356">
+        <v>-0.8687170041196031</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -6074,6 +7144,9 @@
       <c r="D357">
         <v>-1271094.670149253</v>
       </c>
+      <c r="E357">
+        <v>-0.7054703850211946</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -6090,6 +7163,9 @@
       <c r="D358">
         <v>-6725387.363267001</v>
       </c>
+      <c r="E358">
+        <v>-3.329884331317034</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -6106,6 +7182,9 @@
       <c r="D359">
         <v>314146.8445273638</v>
       </c>
+      <c r="E359">
+        <v>0.033683179205895</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -6122,6 +7201,9 @@
       <c r="D360">
         <v>-115138.3371475963</v>
       </c>
+      <c r="E360">
+        <v>-0.02282781900525585</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -6138,6 +7220,9 @@
       <c r="D361">
         <v>-870867.3160862345</v>
       </c>
+      <c r="E361">
+        <v>-0.3534421484464985</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -6154,6 +7239,9 @@
       <c r="D362">
         <v>-2721259.577529022</v>
       </c>
+      <c r="E362">
+        <v>-0.5118074195647553</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -6170,6 +7258,9 @@
       <c r="D363">
         <v>-442835.896766169</v>
       </c>
+      <c r="E363">
+        <v>-0.1989165124901938</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -6186,6 +7277,9 @@
       <c r="D364">
         <v>27527.48756218934</v>
       </c>
+      <c r="E364">
+        <v>0.01137637694917868</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -6202,6 +7296,9 @@
       <c r="D365">
         <v>-3575274.340878936</v>
       </c>
+      <c r="E365">
+        <v>-0.6788435862897666</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -6218,6 +7315,9 @@
       <c r="D366">
         <v>-625071.6747097857</v>
       </c>
+      <c r="E366">
+        <v>-0.25711686769246</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -6234,6 +7334,9 @@
       <c r="D367">
         <v>-3390047.554975126</v>
       </c>
+      <c r="E367">
+        <v>-0.2339951337270419</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -6250,6 +7353,9 @@
       <c r="D368">
         <v>-963186.9476782791</v>
       </c>
+      <c r="E368">
+        <v>-0.1328152678511929</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -6266,6 +7372,9 @@
       <c r="D369">
         <v>478376.6020729644</v>
       </c>
+      <c r="E369">
+        <v>0.07359640031891761</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -6282,6 +7391,9 @@
       <c r="D370">
         <v>557679.793366503</v>
       </c>
+      <c r="E370">
+        <v>0.01710671064306333</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -6298,6 +7410,9 @@
       <c r="D371">
         <v>-256440.339054727</v>
       </c>
+      <c r="E371">
+        <v>-0.126969142565664</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -6314,6 +7429,9 @@
       <c r="D372">
         <v>-1128461.384411278</v>
       </c>
+      <c r="E372">
+        <v>-0.5587255691725816</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -6330,6 +7448,9 @@
       <c r="D373">
         <v>107989.4552238816</v>
       </c>
+      <c r="E373">
+        <v>0.03222834677024963</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -6346,6 +7467,9 @@
       <c r="D374">
         <v>1334778.152321723</v>
       </c>
+      <c r="E374">
+        <v>0.1539536152727212</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -6362,6 +7486,9 @@
       <c r="D375">
         <v>228823.3664179128</v>
       </c>
+      <c r="E375">
+        <v>0.02639253905799708</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -6378,6 +7505,9 @@
       <c r="D376">
         <v>-7411465.139054727</v>
       </c>
+      <c r="E376">
+        <v>-3.308453476115423</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -6394,6 +7524,9 @@
       <c r="D377">
         <v>2391980.235074627</v>
       </c>
+      <c r="E377">
+        <v>0.2715283625835623</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -6410,6 +7543,9 @@
       <c r="D378">
         <v>-53877.72238805983</v>
       </c>
+      <c r="E378">
+        <v>-0.006753727040125432</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -6426,6 +7562,9 @@
       <c r="D379">
         <v>10009566.49087894</v>
       </c>
+      <c r="E379">
+        <v>0.2315987086107303</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -6442,6 +7581,9 @@
       <c r="D380">
         <v>-1771256.182918741</v>
       </c>
+      <c r="E380">
+        <v>-0.8769871371965726</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -6458,6 +7600,9 @@
       <c r="D381">
         <v>-1907876.275124377</v>
       </c>
+      <c r="E381">
+        <v>-1.039093966287371</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -6474,6 +7619,9 @@
       <c r="D382">
         <v>1652218.495605305</v>
       </c>
+      <c r="E382">
+        <v>0.1573541424386005</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -6490,6 +7638,9 @@
       <c r="D383">
         <v>-906595.4902985077</v>
       </c>
+      <c r="E383">
+        <v>-0.4695729073308888</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -6506,6 +7657,9 @@
       <c r="D384">
         <v>-1164516.832006632</v>
       </c>
+      <c r="E384">
+        <v>-0.1711766541065387</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -6522,6 +7676,9 @@
       <c r="D385">
         <v>2724976.754726373</v>
       </c>
+      <c r="E385">
+        <v>0.07565975185406491</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -6538,6 +7695,9 @@
       <c r="D386">
         <v>9491784.664096186</v>
       </c>
+      <c r="E386">
+        <v>0.5114108116431134</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -6554,6 +7714,9 @@
       <c r="D387">
         <v>1546308.562189057</v>
       </c>
+      <c r="E387">
+        <v>0.1403884481537117</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -6570,6 +7733,9 @@
       <c r="D388">
         <v>-506419.9296849146</v>
       </c>
+      <c r="E388">
+        <v>-0.02414397757734993</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -6586,6 +7752,9 @@
       <c r="D389">
         <v>-386632.6817578771</v>
       </c>
+      <c r="E389">
+        <v>-0.3453424968115927</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -6602,6 +7771,9 @@
       <c r="D390">
         <v>-5809213.755887225</v>
       </c>
+      <c r="E390">
+        <v>-0.3763662945181228</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -6618,6 +7790,9 @@
       <c r="D391">
         <v>86309.78963515814</v>
       </c>
+      <c r="E391">
+        <v>0.01837160273204728</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -6634,6 +7809,9 @@
       <c r="D392">
         <v>8504639.777280264</v>
       </c>
+      <c r="E392">
+        <v>0.2084148716565889</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -6650,6 +7828,9 @@
       <c r="D393">
         <v>-5045506.565505803</v>
       </c>
+      <c r="E393">
+        <v>-0.8569281785414122</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -6666,6 +7847,9 @@
       <c r="D394">
         <v>754238.3296019901</v>
       </c>
+      <c r="E394">
+        <v>0.1189375717660764</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -6682,6 +7866,9 @@
       <c r="D395">
         <v>1012681.476119405</v>
       </c>
+      <c r="E395">
+        <v>0.09644585486851473</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -6698,6 +7885,9 @@
       <c r="D396">
         <v>-5568055.98225541</v>
       </c>
+      <c r="E396">
+        <v>-0.3006750152242418</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -6714,6 +7904,9 @@
       <c r="D397">
         <v>-30575.72222222295</v>
       </c>
+      <c r="E397">
+        <v>-0.005354882814852745</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -6730,6 +7923,9 @@
       <c r="D398">
         <v>-4584807.448839137</v>
       </c>
+      <c r="E398">
+        <v>-0.832281809356645</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -6746,6 +7942,9 @@
       <c r="D399">
         <v>392029.2865671646</v>
       </c>
+      <c r="E399">
+        <v>0.04900366082089557</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -6762,6 +7961,9 @@
       <c r="D400">
         <v>-715214.7249585409</v>
       </c>
+      <c r="E400">
+        <v>-0.3709820057505908</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -6778,6 +7980,9 @@
       <c r="D401">
         <v>-2512697.710447761</v>
       </c>
+      <c r="E401">
+        <v>-1.460986281733766</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -6794,6 +7999,9 @@
       <c r="D402">
         <v>1074626.178855722</v>
       </c>
+      <c r="E402">
+        <v>0.1773450997530699</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -6810,6 +8018,9 @@
       <c r="D403">
         <v>-4540203.899004975</v>
       </c>
+      <c r="E403">
+        <v>-2.247952869875603</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -6826,6 +8037,9 @@
       <c r="D404">
         <v>923922.2886401322</v>
       </c>
+      <c r="E404">
+        <v>0.1746082867747916</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -6842,6 +8056,9 @@
       <c r="D405">
         <v>286895.9859038163</v>
       </c>
+      <c r="E405">
+        <v>0.01702866505766479</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -6858,6 +8075,9 @@
       <c r="D406">
         <v>-1804891.880845771</v>
       </c>
+      <c r="E406">
+        <v>-0.769147324973673</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -6874,6 +8094,9 @@
       <c r="D407">
         <v>-1227351.38888889</v>
       </c>
+      <c r="E407">
+        <v>-0.607688143169793</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -6890,6 +8113,9 @@
       <c r="D408">
         <v>-515022.0474295197</v>
       </c>
+      <c r="E408">
+        <v>-0.2235804540136485</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -6906,6 +8132,9 @@
       <c r="D409">
         <v>305084.3076285217</v>
       </c>
+      <c r="E409">
+        <v>0.02508776710089581</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -6922,6 +8151,9 @@
       <c r="D410">
         <v>-1073195.778524048</v>
       </c>
+      <c r="E410">
+        <v>-0.4284830468746198</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -6938,6 +8170,9 @@
       <c r="D411">
         <v>-5595546.709286898</v>
       </c>
+      <c r="E411">
+        <v>-1.458792730183057</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -6954,6 +8189,9 @@
       <c r="D412">
         <v>-6106237.087562189</v>
       </c>
+      <c r="E412">
+        <v>-0.5495613433762104</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -6970,6 +8208,9 @@
       <c r="D413">
         <v>-4020175.489054721</v>
       </c>
+      <c r="E413">
+        <v>-0.2189978848590285</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -6986,6 +8227,9 @@
       <c r="D414">
         <v>-330838.8167495853</v>
       </c>
+      <c r="E414">
+        <v>-0.1028037191281929</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -7002,6 +8246,9 @@
       <c r="D415">
         <v>-687890.3961857366</v>
       </c>
+      <c r="E415">
+        <v>-0.3746483823208245</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -7018,6 +8265,9 @@
       <c r="D416">
         <v>13520032.63424544</v>
       </c>
+      <c r="E416">
+        <v>0.555685748229894</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -7034,6 +8284,9 @@
       <c r="D417">
         <v>2348106.091127692</v>
       </c>
+      <c r="E417">
+        <v>0.1892870690147273</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -7050,6 +8303,9 @@
       <c r="D418">
         <v>-4205439.722885573</v>
       </c>
+      <c r="E418">
+        <v>-0.9225125963843861</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -7066,6 +8322,9 @@
       <c r="D419">
         <v>-1109303.239635157</v>
       </c>
+      <c r="E419">
+        <v>-0.5546516198175785</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -7082,6 +8341,9 @@
       <c r="D420">
         <v>25221.55339966994</v>
       </c>
+      <c r="E420">
+        <v>0.004084462089015375</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -7098,6 +8360,9 @@
       <c r="D421">
         <v>-2327932.373631842</v>
       </c>
+      <c r="E421">
+        <v>-0.5956594340128964</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -7114,6 +8379,9 @@
       <c r="D422">
         <v>2750619.238640133</v>
       </c>
+      <c r="E422">
+        <v>0.2796515369228372</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -7130,6 +8398,9 @@
       <c r="D423">
         <v>3505717.39543947</v>
       </c>
+      <c r="E423">
+        <v>0.3029632204837855</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -7146,6 +8417,9 @@
       <c r="D424">
         <v>1351715.007960198</v>
       </c>
+      <c r="E424">
+        <v>0.2810101467631696</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -7162,6 +8436,9 @@
       <c r="D425">
         <v>7550996.384825859</v>
       </c>
+      <c r="E425">
+        <v>0.2220538412399809</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -7178,6 +8455,9 @@
       <c r="D426">
         <v>45238.96616915287</v>
       </c>
+      <c r="E426">
+        <v>0.02239878782810611</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -7194,6 +8474,9 @@
       <c r="D427">
         <v>6393828.244610281</v>
       </c>
+      <c r="E427">
+        <v>0.5275679606161903</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -7210,6 +8493,9 @@
       <c r="D428">
         <v>-1205586.556550581</v>
       </c>
+      <c r="E428">
+        <v>-0.4448906771375752</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -7226,6 +8512,9 @@
       <c r="D429">
         <v>15713.12396351621</v>
       </c>
+      <c r="E429">
+        <v>0.001917375234135161</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -7242,6 +8531,9 @@
       <c r="D430">
         <v>2081281.373880599</v>
       </c>
+      <c r="E430">
+        <v>0.2601601717350748</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -7258,6 +8550,9 @@
       <c r="D431">
         <v>4258246.007628515</v>
       </c>
+      <c r="E431">
+        <v>0.1062855088063243</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -7274,6 +8569,9 @@
       <c r="D432">
         <v>-766424.3223880595</v>
       </c>
+      <c r="E432">
+        <v>-0.2737229722814498</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -7290,6 +8588,9 @@
       <c r="D433">
         <v>-1858005.316169154</v>
       </c>
+      <c r="E433">
+        <v>-0.9199385040046194</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -7305,6 +8606,9 @@
       </c>
       <c r="D434">
         <v>-653068.9441127665</v>
+      </c>
+      <c r="E434">
+        <v>-0.05973191744116516</v>
       </c>
     </row>
   </sheetData>

--- a/residualTable.xlsx
+++ b/residualTable.xlsx
@@ -394,13 +394,13 @@
         <v>4379527</v>
       </c>
       <c r="C2">
-        <v>3899514.690630183</v>
+        <v>4476394.12062937</v>
       </c>
       <c r="D2">
-        <v>480012.3093698169</v>
+        <v>-96867.12062937021</v>
       </c>
       <c r="E2">
-        <v>0.1096036876516156</v>
+        <v>-0.02211816952592602</v>
       </c>
     </row>
     <row r="3">
@@ -413,13 +413,13 @@
         <v>32600060</v>
       </c>
       <c r="C3">
-        <v>31900849.80273632</v>
+        <v>31297737.2241259</v>
       </c>
       <c r="D3">
-        <v>699210.1972636804</v>
+        <v>1302322.775874104</v>
       </c>
       <c r="E3">
-        <v>0.02144812608515691</v>
+        <v>0.0399484778823752</v>
       </c>
     </row>
     <row r="4">
@@ -432,13 +432,13 @@
         <v>4114200</v>
       </c>
       <c r="C4">
-        <v>3553369.743449421</v>
+        <v>3960748.798834498</v>
       </c>
       <c r="D4">
-        <v>560830.2565505793</v>
+        <v>153451.201165502</v>
       </c>
       <c r="E4">
-        <v>0.1363157494897135</v>
+        <v>0.0372979439904482</v>
       </c>
     </row>
     <row r="5">
@@ -451,13 +451,13 @@
         <v>2194200</v>
       </c>
       <c r="C5">
-        <v>7444835.821227196</v>
+        <v>4051539.490276388</v>
       </c>
       <c r="D5">
-        <v>-5250635.821227196</v>
+        <v>-1857339.490276388</v>
       </c>
       <c r="E5">
-        <v>-2.392961362331235</v>
+        <v>-0.8464768436224537</v>
       </c>
     </row>
     <row r="6">
@@ -470,13 +470,13 @@
         <v>4687500</v>
       </c>
       <c r="C6">
-        <v>3980186.416915425</v>
+        <v>5255564.12564102</v>
       </c>
       <c r="D6">
-        <v>707313.5830845754</v>
+        <v>-568064.12564102</v>
       </c>
       <c r="E6">
-        <v>0.1508935643913761</v>
+        <v>-0.1211870134700843</v>
       </c>
     </row>
     <row r="7">
@@ -489,13 +489,13 @@
         <v>8925000</v>
       </c>
       <c r="C7">
-        <v>15808175.85016584</v>
+        <v>13414378.00927407</v>
       </c>
       <c r="D7">
-        <v>-6883175.850165844</v>
+        <v>-4489378.009274069</v>
       </c>
       <c r="E7">
-        <v>-0.7712241848925315</v>
+        <v>-0.5030115416553579</v>
       </c>
     </row>
     <row r="8">
@@ -508,13 +508,13 @@
         <v>20000000</v>
       </c>
       <c r="C8">
-        <v>19299054.41666666</v>
+        <v>19174195.88056943</v>
       </c>
       <c r="D8">
-        <v>700945.5833333395</v>
+        <v>825804.1194305718</v>
       </c>
       <c r="E8">
-        <v>0.03504727916666698</v>
+        <v>0.04129020597152859</v>
       </c>
     </row>
     <row r="9">
@@ -527,13 +527,13 @@
         <v>1836096</v>
       </c>
       <c r="C9">
-        <v>2704563.414262024</v>
+        <v>2939369.361338658</v>
       </c>
       <c r="D9">
-        <v>-868467.4142620238</v>
+        <v>-1103273.361338658</v>
       </c>
       <c r="E9">
-        <v>-0.4729967356075193</v>
+        <v>-0.600879998289119</v>
       </c>
     </row>
     <row r="10">
@@ -546,13 +546,13 @@
         <v>9219512</v>
       </c>
       <c r="C10">
-        <v>10737768.80588723</v>
+        <v>10225976.86063936</v>
       </c>
       <c r="D10">
-        <v>-1518256.80588723</v>
+        <v>-1006464.860639358</v>
       </c>
       <c r="E10">
-        <v>-0.1646786517428721</v>
+        <v>-0.1091668258189108</v>
       </c>
     </row>
     <row r="11">
@@ -565,13 +565,13 @@
         <v>45640084</v>
       </c>
       <c r="C11">
-        <v>42212862.49900497</v>
+        <v>41672810.7640859</v>
       </c>
       <c r="D11">
-        <v>3427221.500995025</v>
+        <v>3967273.235914096</v>
       </c>
       <c r="E11">
-        <v>0.07509235743288784</v>
+        <v>0.08692519575367337</v>
       </c>
     </row>
     <row r="12">
@@ -584,13 +584,13 @@
         <v>2019706</v>
       </c>
       <c r="C12">
-        <v>3061282.498590381</v>
+        <v>2455843.761621711</v>
       </c>
       <c r="D12">
-        <v>-1041576.498590381</v>
+        <v>-436137.7616217113</v>
       </c>
       <c r="E12">
-        <v>-0.5157069883390855</v>
+        <v>-0.2159412120485414</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>5539771</v>
       </c>
       <c r="C13">
-        <v>7333060.723714761</v>
+        <v>7133472.806060598</v>
       </c>
       <c r="D13">
-        <v>-1793289.723714761</v>
+        <v>-1593701.806060598</v>
       </c>
       <c r="E13">
-        <v>-0.3237118869561144</v>
+        <v>-0.2876836977666763</v>
       </c>
     </row>
     <row r="14">
@@ -622,13 +622,13 @@
         <v>18642857</v>
       </c>
       <c r="C14">
-        <v>18731746.55232173</v>
+        <v>18042766.48747919</v>
       </c>
       <c r="D14">
-        <v>-88889.55232173204</v>
+        <v>600090.512520805</v>
       </c>
       <c r="E14">
-        <v>-0.004768022000154378</v>
+        <v>0.03218876337037853</v>
       </c>
     </row>
     <row r="15">
@@ -641,13 +641,13 @@
         <v>2019706</v>
       </c>
       <c r="C15">
-        <v>2171512.623466004</v>
+        <v>2091156.130119879</v>
       </c>
       <c r="D15">
-        <v>-151806.6234660042</v>
+        <v>-71450.13011987857</v>
       </c>
       <c r="E15">
-        <v>-0.0751627333215845</v>
+        <v>-0.03537650040148347</v>
       </c>
     </row>
     <row r="16">
@@ -660,13 +660,13 @@
         <v>6263188</v>
       </c>
       <c r="C16">
-        <v>7681002.686567168</v>
+        <v>7439534.778887771</v>
       </c>
       <c r="D16">
-        <v>-1417814.686567168</v>
+        <v>-1176346.778887771</v>
       </c>
       <c r="E16">
-        <v>-0.2263726853747912</v>
+        <v>-0.1878191711453929</v>
       </c>
     </row>
     <row r="17">
@@ -679,13 +679,13 @@
         <v>32459438</v>
       </c>
       <c r="C17">
-        <v>25937187.58009949</v>
+        <v>22286647.66405262</v>
       </c>
       <c r="D17">
-        <v>6522250.419900507</v>
+        <v>10172790.33594738</v>
       </c>
       <c r="E17">
-        <v>0.2009354080591447</v>
+        <v>0.3134000759947654</v>
       </c>
     </row>
     <row r="18">
@@ -698,13 +698,13 @@
         <v>12500000</v>
       </c>
       <c r="C18">
-        <v>9050280.198673299</v>
+        <v>9779685.206393616</v>
       </c>
       <c r="D18">
-        <v>3449719.801326701</v>
+        <v>2720314.793606384</v>
       </c>
       <c r="E18">
-        <v>0.2759775841061361</v>
+        <v>0.2176251834885107</v>
       </c>
     </row>
     <row r="19">
@@ -717,13 +717,13 @@
         <v>2337720</v>
       </c>
       <c r="C19">
-        <v>2632173.396351576</v>
+        <v>2561438.490825841</v>
       </c>
       <c r="D19">
-        <v>-294453.3963515759</v>
+        <v>-223718.4908258412</v>
       </c>
       <c r="E19">
-        <v>-0.1259575125984189</v>
+        <v>-0.09569943826713259</v>
       </c>
     </row>
     <row r="20">
@@ -736,13 +736,13 @@
         <v>10900635</v>
       </c>
       <c r="C20">
-        <v>13888908.48341626</v>
+        <v>14864144.66383616</v>
       </c>
       <c r="D20">
-        <v>-2988273.483416259</v>
+        <v>-3963509.663836159</v>
       </c>
       <c r="E20">
-        <v>-0.274137560189499</v>
+        <v>-0.363603557392405</v>
       </c>
     </row>
     <row r="21">
@@ -755,13 +755,13 @@
         <v>2019706</v>
       </c>
       <c r="C21">
-        <v>2592245.056053067</v>
+        <v>3002351.911738258</v>
       </c>
       <c r="D21">
-        <v>-572539.0560530671</v>
+        <v>-982645.9117382583</v>
       </c>
       <c r="E21">
-        <v>-0.2834764347152838</v>
+        <v>-0.4865291838209414</v>
       </c>
     </row>
     <row r="22">
@@ -774,13 +774,13 @@
         <v>11608080</v>
       </c>
       <c r="C22">
-        <v>12764283.96898839</v>
+        <v>12318096.99075924</v>
       </c>
       <c r="D22">
-        <v>-1156203.968988394</v>
+        <v>-710016.9907592386</v>
       </c>
       <c r="E22">
-        <v>-0.09960337704326593</v>
+        <v>-0.0611657561594371</v>
       </c>
     </row>
     <row r="23">
@@ -793,13 +793,13 @@
         <v>3845083</v>
       </c>
       <c r="C23">
-        <v>18949844.13076285</v>
+        <v>16842890.65474524</v>
       </c>
       <c r="D23">
-        <v>-15104761.13076285</v>
+        <v>-12997807.65474524</v>
       </c>
       <c r="E23">
-        <v>-3.928331620088006</v>
+        <v>-3.380371153170229</v>
       </c>
     </row>
     <row r="24">
@@ -812,13 +812,13 @@
         <v>2019706</v>
       </c>
       <c r="C24">
-        <v>2238473.158789386</v>
+        <v>2067343.747069597</v>
       </c>
       <c r="D24">
-        <v>-218767.1587893856</v>
+        <v>-47637.74706959655</v>
       </c>
       <c r="E24">
-        <v>-0.1083163385113406</v>
+        <v>-0.02358647598689935</v>
       </c>
     </row>
     <row r="25">
@@ -831,13 +831,13 @@
         <v>17000000</v>
       </c>
       <c r="C25">
-        <v>14203975.93291875</v>
+        <v>16427168.37520814</v>
       </c>
       <c r="D25">
-        <v>2796024.067081254</v>
+        <v>572831.6247918624</v>
       </c>
       <c r="E25">
-        <v>0.1644720039459561</v>
+        <v>0.03369597792893309</v>
       </c>
     </row>
     <row r="26">
@@ -850,13 +850,13 @@
         <v>8008680</v>
       </c>
       <c r="C26">
-        <v>12770549.65854063</v>
+        <v>9409797.109007655</v>
       </c>
       <c r="D26">
-        <v>-4761869.658540631</v>
+        <v>-1401117.109007655</v>
       </c>
       <c r="E26">
-        <v>-0.5945885787096788</v>
+        <v>-0.1749498180733473</v>
       </c>
     </row>
     <row r="27">
@@ -869,13 +869,13 @@
         <v>23883929</v>
       </c>
       <c r="C27">
-        <v>18774450.1393864</v>
+        <v>16647819.07973693</v>
       </c>
       <c r="D27">
-        <v>5109478.860613603</v>
+        <v>7236109.920263065</v>
       </c>
       <c r="E27">
-        <v>0.2139295783626556</v>
+        <v>0.30296983047735</v>
       </c>
     </row>
     <row r="28">
@@ -888,13 +888,13 @@
         <v>2600000</v>
       </c>
       <c r="C28">
-        <v>4352024.693781096</v>
+        <v>3971742.933516486</v>
       </c>
       <c r="D28">
-        <v>-1752024.693781096</v>
+        <v>-1371742.933516486</v>
       </c>
       <c r="E28">
-        <v>-0.6738556514542675</v>
+        <v>-0.5275934359678792</v>
       </c>
     </row>
     <row r="29">
@@ -907,13 +907,13 @@
         <v>2346614</v>
       </c>
       <c r="C29">
-        <v>5213215.098092868</v>
+        <v>3441641.492673996</v>
       </c>
       <c r="D29">
-        <v>-2866601.098092868</v>
+        <v>-1095027.492673996</v>
       </c>
       <c r="E29">
-        <v>-1.221590384312404</v>
+        <v>-0.4666415067301211</v>
       </c>
     </row>
     <row r="30">
@@ -926,13 +926,13 @@
         <v>11710818</v>
       </c>
       <c r="C30">
-        <v>9522527.276782749</v>
+        <v>10596632.00178155</v>
       </c>
       <c r="D30">
-        <v>2188290.723217251</v>
+        <v>1114185.998218449</v>
       </c>
       <c r="E30">
-        <v>0.1868606209418719</v>
+        <v>0.09514160310735328</v>
       </c>
     </row>
     <row r="31">
@@ -945,13 +945,13 @@
         <v>46741590</v>
       </c>
       <c r="C31">
-        <v>33393969.46616915</v>
+        <v>33267933.47755576</v>
       </c>
       <c r="D31">
-        <v>13347620.53383085</v>
+        <v>13473656.52244424</v>
       </c>
       <c r="E31">
-        <v>0.2855619702673967</v>
+        <v>0.2882584123142631</v>
       </c>
     </row>
     <row r="32">
@@ -964,13 +964,13 @@
         <v>2019706</v>
       </c>
       <c r="C32">
-        <v>7106637.991625208</v>
+        <v>7667717.417615716</v>
       </c>
       <c r="D32">
-        <v>-5086931.991625208</v>
+        <v>-5648011.417615716</v>
       </c>
       <c r="E32">
-        <v>-2.518649739925122</v>
+        <v>-2.796452264644318</v>
       </c>
     </row>
     <row r="33">
@@ -983,13 +983,13 @@
         <v>2609400</v>
       </c>
       <c r="C33">
-        <v>3451816.070066334</v>
+        <v>3319164.61939727</v>
       </c>
       <c r="D33">
-        <v>-842416.0700663342</v>
+        <v>-709764.6193972696</v>
       </c>
       <c r="E33">
-        <v>-0.3228389936638055</v>
+        <v>-0.2720029966265308</v>
       </c>
     </row>
     <row r="34">
@@ -1002,13 +1002,13 @@
         <v>17000000</v>
       </c>
       <c r="C34">
-        <v>11404732.56890547</v>
+        <v>5303366.208941057</v>
       </c>
       <c r="D34">
-        <v>5595267.431094525</v>
+        <v>11696633.79105894</v>
       </c>
       <c r="E34">
-        <v>0.329133378299678</v>
+        <v>0.6880372818269966</v>
       </c>
     </row>
     <row r="35">
@@ -1021,13 +1021,13 @@
         <v>2019706</v>
       </c>
       <c r="C35">
-        <v>4970283.560613598</v>
+        <v>3966095.845787545</v>
       </c>
       <c r="D35">
-        <v>-2950577.560613598</v>
+        <v>-1946389.845787545</v>
       </c>
       <c r="E35">
-        <v>-1.46089458595142</v>
+        <v>-0.96369959082537</v>
       </c>
     </row>
     <row r="36">
@@ -1040,13 +1040,13 @@
         <v>4556983</v>
       </c>
       <c r="C36">
-        <v>8751431.871227197</v>
+        <v>9172233.88176824</v>
       </c>
       <c r="D36">
-        <v>-4194448.871227197</v>
+        <v>-4615250.88176824</v>
       </c>
       <c r="E36">
-        <v>-0.9204442656966676</v>
+        <v>-1.012786504090149</v>
       </c>
     </row>
     <row r="37">
@@ -1059,13 +1059,13 @@
         <v>2066585</v>
       </c>
       <c r="C37">
-        <v>3615345.372885573</v>
+        <v>3299301.283816183</v>
       </c>
       <c r="D37">
-        <v>-1548760.372885573</v>
+        <v>-1232716.283816183</v>
       </c>
       <c r="E37">
-        <v>-0.7494297949929827</v>
+        <v>-0.5964991925404391</v>
       </c>
     </row>
     <row r="38">
@@ -1078,13 +1078,13 @@
         <v>5000000</v>
       </c>
       <c r="C38">
-        <v>8351812.898756221</v>
+        <v>7039557.74352314</v>
       </c>
       <c r="D38">
-        <v>-3351812.898756221</v>
+        <v>-2039557.74352314</v>
       </c>
       <c r="E38">
-        <v>-0.6703625797512441</v>
+        <v>-0.4079115487046281</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>7245480</v>
       </c>
       <c r="C39">
-        <v>4519646.982504146</v>
+        <v>4625236.776140528</v>
       </c>
       <c r="D39">
-        <v>2725833.017495854</v>
+        <v>2620243.223859472</v>
       </c>
       <c r="E39">
-        <v>0.3762115163516915</v>
+        <v>0.3616383212512452</v>
       </c>
     </row>
     <row r="40">
@@ -1116,13 +1116,13 @@
         <v>18700000</v>
       </c>
       <c r="C40">
-        <v>19988404.14875622</v>
+        <v>19444038.45243091</v>
       </c>
       <c r="D40">
-        <v>-1288404.148756217</v>
+        <v>-744038.4524309114</v>
       </c>
       <c r="E40">
-        <v>-0.06889861758054637</v>
+        <v>-0.03978815253641237</v>
       </c>
     </row>
     <row r="41">
@@ -1135,13 +1135,13 @@
         <v>20000000</v>
       </c>
       <c r="C41">
-        <v>21586046.49535655</v>
+        <v>23815507.77006324</v>
       </c>
       <c r="D41">
-        <v>-1586046.495356549</v>
+        <v>-3815507.770063244</v>
       </c>
       <c r="E41">
-        <v>-0.07930232476782743</v>
+        <v>-0.1907753885031622</v>
       </c>
     </row>
     <row r="42">
@@ -1154,13 +1154,13 @@
         <v>2019706</v>
       </c>
       <c r="C42">
-        <v>1969862.357131012</v>
+        <v>1943991.369780217</v>
       </c>
       <c r="D42">
-        <v>49843.64286898798</v>
+        <v>75714.63021978294</v>
       </c>
       <c r="E42">
-        <v>0.02467866257217039</v>
+        <v>0.03748794637426583</v>
       </c>
     </row>
     <row r="43">
@@ -1173,13 +1173,13 @@
         <v>36016200</v>
       </c>
       <c r="C43">
-        <v>34067399.70389718</v>
+        <v>34541595.99868464</v>
       </c>
       <c r="D43">
-        <v>1948800.296102822</v>
+        <v>1474604.001315355</v>
       </c>
       <c r="E43">
-        <v>0.05410899251178142</v>
+        <v>0.04094279799966002</v>
       </c>
     </row>
     <row r="44">
@@ -1192,13 +1192,13 @@
         <v>1836096</v>
       </c>
       <c r="C44">
-        <v>2594676.119237147</v>
+        <v>2578560.760289708</v>
       </c>
       <c r="D44">
-        <v>-758580.1192371473</v>
+        <v>-742464.7602897082</v>
       </c>
       <c r="E44">
-        <v>-0.413148397053938</v>
+        <v>-0.4043714273598484</v>
       </c>
     </row>
     <row r="45">
@@ -1211,13 +1211,13 @@
         <v>11750000</v>
       </c>
       <c r="C45">
-        <v>9552966.428855719</v>
+        <v>11989161.87803862</v>
       </c>
       <c r="D45">
-        <v>2197033.571144281</v>
+        <v>-239161.8780386224</v>
       </c>
       <c r="E45">
-        <v>0.1869815805229175</v>
+        <v>-0.02035420238626574</v>
       </c>
     </row>
     <row r="46">
@@ -1230,13 +1230,13 @@
         <v>4570080</v>
       </c>
       <c r="C46">
-        <v>3861766.214013267</v>
+        <v>3980884.86092241</v>
       </c>
       <c r="D46">
-        <v>708313.7859867327</v>
+        <v>589195.1390775903</v>
       </c>
       <c r="E46">
-        <v>0.154989362546549</v>
+        <v>0.1289244693916934</v>
       </c>
     </row>
     <row r="47">
@@ -1249,13 +1249,13 @@
         <v>3071880</v>
       </c>
       <c r="C47">
-        <v>4385020.288308457</v>
+        <v>4202676.916683313</v>
       </c>
       <c r="D47">
-        <v>-1313140.288308457</v>
+        <v>-1130796.916683313</v>
       </c>
       <c r="E47">
-        <v>-0.427471219028236</v>
+        <v>-0.3681123340375644</v>
       </c>
     </row>
     <row r="48">
@@ -1268,13 +1268,13 @@
         <v>2949120</v>
       </c>
       <c r="C48">
-        <v>3492730.991210615</v>
+        <v>3485946.926157176</v>
       </c>
       <c r="D48">
-        <v>-543610.9912106148</v>
+        <v>-536826.9261571765</v>
       </c>
       <c r="E48">
-        <v>-0.1843298988208736</v>
+        <v>-0.1820295295400582</v>
       </c>
     </row>
     <row r="49">
@@ -1287,13 +1287,13 @@
         <v>21700000</v>
       </c>
       <c r="C49">
-        <v>26988240.72363184</v>
+        <v>28775263.02221112</v>
       </c>
       <c r="D49">
-        <v>-5288240.72363184</v>
+        <v>-7075263.02221112</v>
       </c>
       <c r="E49">
-        <v>-0.243697729199624</v>
+        <v>-0.3260489871986691</v>
       </c>
     </row>
     <row r="50">
@@ -1306,13 +1306,13 @@
         <v>7921300</v>
       </c>
       <c r="C50">
-        <v>16493797.06119403</v>
+        <v>15268389.099001</v>
       </c>
       <c r="D50">
-        <v>-8572497.061194031</v>
+        <v>-7347089.099001</v>
       </c>
       <c r="E50">
-        <v>-1.08220835736483</v>
+        <v>-0.9275105221366442</v>
       </c>
     </row>
     <row r="51">
@@ -1325,13 +1325,13 @@
         <v>2165000</v>
       </c>
       <c r="C51">
-        <v>2632103.981923714</v>
+        <v>2657273.837545787</v>
       </c>
       <c r="D51">
-        <v>-467103.9819237143</v>
+        <v>-492273.837545787</v>
       </c>
       <c r="E51">
-        <v>-0.2157524165929396</v>
+        <v>-0.2273782159564836</v>
       </c>
     </row>
     <row r="52">
@@ -1344,13 +1344,13 @@
         <v>22500000</v>
       </c>
       <c r="C52">
-        <v>22665456.91177447</v>
+        <v>21869791.63519813</v>
       </c>
       <c r="D52">
-        <v>-165456.9117744677</v>
+        <v>630208.3648018688</v>
       </c>
       <c r="E52">
-        <v>-0.007353640523309675</v>
+        <v>0.02800926065786084</v>
       </c>
     </row>
     <row r="53">
@@ -1363,13 +1363,13 @@
         <v>22627671</v>
       </c>
       <c r="C53">
-        <v>17714345.70124378</v>
+        <v>20930995.66684986</v>
       </c>
       <c r="D53">
-        <v>4913325.298756219</v>
+        <v>1696675.333150145</v>
       </c>
       <c r="E53">
-        <v>0.2171379148457753</v>
+        <v>0.07498232288909207</v>
       </c>
     </row>
     <row r="54">
@@ -1382,13 +1382,13 @@
         <v>22000000</v>
       </c>
       <c r="C54">
-        <v>12770855.47636816</v>
+        <v>18156493.41238762</v>
       </c>
       <c r="D54">
-        <v>9229144.523631843</v>
+        <v>3843506.587612383</v>
       </c>
       <c r="E54">
-        <v>0.4195065692559928</v>
+        <v>0.1747048448914719</v>
       </c>
     </row>
     <row r="55">
@@ -1401,13 +1401,13 @@
         <v>31830357</v>
       </c>
       <c r="C55">
-        <v>30021134.50887231</v>
+        <v>30874215.6000666</v>
       </c>
       <c r="D55">
-        <v>1809222.491127688</v>
+        <v>956141.3999333978</v>
       </c>
       <c r="E55">
-        <v>0.05683952872811601</v>
+        <v>0.0300386640317417</v>
       </c>
     </row>
     <row r="56">
@@ -1420,13 +1420,13 @@
         <v>2413320</v>
       </c>
       <c r="C56">
-        <v>2847124.297097844</v>
+        <v>2513323.337595738</v>
       </c>
       <c r="D56">
-        <v>-433804.2970978436</v>
+        <v>-100003.3375957385</v>
       </c>
       <c r="E56">
-        <v>-0.1797541548977523</v>
+        <v>-0.04143807600970384</v>
       </c>
     </row>
     <row r="57">
@@ -1439,13 +1439,13 @@
         <v>2019706</v>
       </c>
       <c r="C57">
-        <v>4499338.606301823</v>
+        <v>4414678.69618715</v>
       </c>
       <c r="D57">
-        <v>-2479632.606301823</v>
+        <v>-2394972.69618715</v>
       </c>
       <c r="E57">
-        <v>-1.227719582108397</v>
+        <v>-1.185802634733545</v>
       </c>
     </row>
     <row r="58">
@@ -1458,13 +1458,13 @@
         <v>4000000</v>
       </c>
       <c r="C58">
-        <v>3192645.728192372</v>
+        <v>3836674.41085581</v>
       </c>
       <c r="D58">
-        <v>807354.2718076278</v>
+        <v>163325.5891441903</v>
       </c>
       <c r="E58">
-        <v>0.2018385679519069</v>
+        <v>0.04083139728604758</v>
       </c>
     </row>
     <row r="59">
@@ -1477,13 +1477,13 @@
         <v>26346666</v>
       </c>
       <c r="C59">
-        <v>28581368.21069651</v>
+        <v>26910294.12820516</v>
       </c>
       <c r="D59">
-        <v>-2234702.210696515</v>
+        <v>-563628.1282051578</v>
       </c>
       <c r="E59">
-        <v>-0.08481916500161785</v>
+        <v>-0.02139276856529619</v>
       </c>
     </row>
     <row r="60">
@@ -1496,13 +1496,13 @@
         <v>2528233</v>
       </c>
       <c r="C60">
-        <v>3199122.685820896</v>
+        <v>4852053.180702629</v>
       </c>
       <c r="D60">
-        <v>-670889.6858208957</v>
+        <v>-2323820.180702629</v>
       </c>
       <c r="E60">
-        <v>-0.2653591207063968</v>
+        <v>-0.9191479506448296</v>
       </c>
     </row>
     <row r="61">
@@ -1515,13 +1515,13 @@
         <v>4094280</v>
       </c>
       <c r="C61">
-        <v>2955124.839220564</v>
+        <v>3339222.517848816</v>
       </c>
       <c r="D61">
-        <v>1139155.160779436</v>
+        <v>755057.4821511838</v>
       </c>
       <c r="E61">
-        <v>0.2782308881609064</v>
+        <v>0.1844176466072628</v>
       </c>
     </row>
     <row r="62">
@@ -1534,13 +1534,13 @@
         <v>13033786</v>
       </c>
       <c r="C62">
-        <v>9727064.964096187</v>
+        <v>6287178.890909093</v>
       </c>
       <c r="D62">
-        <v>3306721.035903813</v>
+        <v>6746607.109090907</v>
       </c>
       <c r="E62">
-        <v>0.2537037999475987</v>
+        <v>0.5176245113346888</v>
       </c>
     </row>
     <row r="63">
@@ -1553,13 +1553,13 @@
         <v>10489600</v>
       </c>
       <c r="C63">
-        <v>10457568.17935323</v>
+        <v>9158268.274691971</v>
       </c>
       <c r="D63">
-        <v>32031.82064676844</v>
+        <v>1331331.725308029</v>
       </c>
       <c r="E63">
-        <v>0.003053674176972281</v>
+        <v>0.126919208102123</v>
       </c>
     </row>
     <row r="64">
@@ -1572,13 +1572,13 @@
         <v>45183960</v>
       </c>
       <c r="C64">
-        <v>39779277.61973467</v>
+        <v>41217400.66463537</v>
       </c>
       <c r="D64">
-        <v>5404682.380265325</v>
+        <v>3966559.335364632</v>
       </c>
       <c r="E64">
-        <v>0.1196150665029211</v>
+        <v>0.08778689020096141</v>
       </c>
     </row>
     <row r="65">
@@ -1591,13 +1591,13 @@
         <v>14704938</v>
       </c>
       <c r="C65">
-        <v>12221810.35257048</v>
+        <v>12273930.8390776</v>
       </c>
       <c r="D65">
-        <v>2483127.647429518</v>
+        <v>2431007.160922395</v>
       </c>
       <c r="E65">
-        <v>0.1688635237652494</v>
+        <v>0.1653191030742459</v>
       </c>
     </row>
     <row r="66">
@@ -1610,13 +1610,13 @@
         <v>1119563</v>
       </c>
       <c r="C66">
-        <v>3426784.338225538</v>
+        <v>2769595.71168831</v>
       </c>
       <c r="D66">
-        <v>-2307221.338225538</v>
+        <v>-1650032.71168831</v>
       </c>
       <c r="E66">
-        <v>-2.060823141016217</v>
+        <v>-1.473818544993279</v>
       </c>
     </row>
     <row r="67">
@@ -1629,13 +1629,13 @@
         <v>20616000</v>
       </c>
       <c r="C67">
-        <v>16268427.26185738</v>
+        <v>17466939.63643025</v>
       </c>
       <c r="D67">
-        <v>4347572.738142623</v>
+        <v>3149060.363569751</v>
       </c>
       <c r="E67">
-        <v>0.210883427344908</v>
+        <v>0.1527483684308184</v>
       </c>
     </row>
     <row r="68">
@@ -1648,13 +1648,13 @@
         <v>6190476</v>
       </c>
       <c r="C68">
-        <v>6678704.586401328</v>
+        <v>6518677.37472527</v>
       </c>
       <c r="D68">
-        <v>-488228.5864013284</v>
+        <v>-328201.3747252701</v>
       </c>
       <c r="E68">
-        <v>-0.07886769715306681</v>
+        <v>-0.05301714677922507</v>
       </c>
     </row>
     <row r="69">
@@ -1667,13 +1667,13 @@
         <v>13050000</v>
       </c>
       <c r="C69">
-        <v>9861364.261857377</v>
+        <v>6814224.309706956</v>
       </c>
       <c r="D69">
-        <v>3188635.738142623</v>
+        <v>6235775.690293044</v>
       </c>
       <c r="E69">
-        <v>0.2443399033059481</v>
+        <v>0.4778372176469766</v>
       </c>
     </row>
     <row r="70">
@@ -1686,13 +1686,13 @@
         <v>9460000</v>
       </c>
       <c r="C70">
-        <v>8962977.649087893</v>
+        <v>10447589.46092241</v>
       </c>
       <c r="D70">
-        <v>497022.3509121072</v>
+        <v>-987589.4609224126</v>
       </c>
       <c r="E70">
-        <v>0.05253936056153353</v>
+        <v>-0.1043963489347159</v>
       </c>
     </row>
     <row r="71">
@@ -1705,13 +1705,13 @@
         <v>3000000</v>
       </c>
       <c r="C71">
-        <v>3810858.098424545</v>
+        <v>3791412.814202465</v>
       </c>
       <c r="D71">
-        <v>-810858.0984245446</v>
+        <v>-791412.8142024651</v>
       </c>
       <c r="E71">
-        <v>-0.2702860328081815</v>
+        <v>-0.2638042714008217</v>
       </c>
     </row>
     <row r="72">
@@ -1724,13 +1724,13 @@
         <v>1719864</v>
       </c>
       <c r="C72">
-        <v>2726357.195605306</v>
+        <v>2728623.631801533</v>
       </c>
       <c r="D72">
-        <v>-1006493.195605306</v>
+        <v>-1008759.631801533</v>
       </c>
       <c r="E72">
-        <v>-0.5852167355124047</v>
+        <v>-0.5865345351734399</v>
       </c>
     </row>
     <row r="73">
@@ -1743,13 +1743,13 @@
         <v>1119563</v>
       </c>
       <c r="C73">
-        <v>2495990.912686567</v>
+        <v>3994749.634965034</v>
       </c>
       <c r="D73">
-        <v>-1376427.912686567</v>
+        <v>-2875186.634965034</v>
       </c>
       <c r="E73">
-        <v>-1.229433191956654</v>
+        <v>-2.568132954523358</v>
       </c>
     </row>
     <row r="74">
@@ -1762,13 +1762,13 @@
         <v>23487629</v>
       </c>
       <c r="C74">
-        <v>23573854.34776122</v>
+        <v>24417376.45795867</v>
       </c>
       <c r="D74">
-        <v>-86225.3477612175</v>
+        <v>-929747.4579586685</v>
       </c>
       <c r="E74">
-        <v>-0.003671096293338825</v>
+        <v>-0.03958455993828362</v>
       </c>
     </row>
     <row r="75">
@@ -1781,13 +1781,13 @@
         <v>9625000</v>
       </c>
       <c r="C75">
-        <v>9790947.586815918</v>
+        <v>10215059.26463537</v>
       </c>
       <c r="D75">
-        <v>-165947.5868159179</v>
+        <v>-590059.2646353673</v>
       </c>
       <c r="E75">
-        <v>-0.01724130772113432</v>
+        <v>-0.06130485866341479</v>
       </c>
     </row>
     <row r="76">
@@ -1800,13 +1800,13 @@
         <v>3089520</v>
       </c>
       <c r="C76">
-        <v>3093984.922305142</v>
+        <v>3121464.737445888</v>
       </c>
       <c r="D76">
-        <v>-4464.922305141576</v>
+        <v>-31944.73744588764</v>
       </c>
       <c r="E76">
-        <v>-0.001445183169275996</v>
+        <v>-0.01033970890167005</v>
       </c>
     </row>
     <row r="77">
@@ -1819,13 +1819,13 @@
         <v>3666667</v>
       </c>
       <c r="C77">
-        <v>3918191.855306798</v>
+        <v>3870586.147519153</v>
       </c>
       <c r="D77">
-        <v>-251524.8553067981</v>
+        <v>-203919.1475191526</v>
       </c>
       <c r="E77">
-        <v>-0.06859768157479207</v>
+        <v>-0.05561430790392272</v>
       </c>
     </row>
     <row r="78">
@@ -1838,13 +1838,13 @@
         <v>25340000</v>
       </c>
       <c r="C78">
-        <v>21941769.01948591</v>
+        <v>19009994.14725276</v>
       </c>
       <c r="D78">
-        <v>3398230.980514094</v>
+        <v>6330005.852747239</v>
       </c>
       <c r="E78">
-        <v>0.1341054057030029</v>
+        <v>0.249802914473056</v>
       </c>
     </row>
     <row r="79">
@@ -1857,13 +1857,13 @@
         <v>7700000</v>
       </c>
       <c r="C79">
-        <v>9997366.924378112</v>
+        <v>11019812.0488678</v>
       </c>
       <c r="D79">
-        <v>-2297366.924378112</v>
+        <v>-3319812.048867805</v>
       </c>
       <c r="E79">
-        <v>-0.2983593408283262</v>
+        <v>-0.4311444219308838</v>
       </c>
     </row>
     <row r="80">
@@ -1876,13 +1876,13 @@
         <v>24360000</v>
       </c>
       <c r="C80">
-        <v>22359066.70713101</v>
+        <v>23715349.74600401</v>
       </c>
       <c r="D80">
-        <v>2000933.292868994</v>
+        <v>644650.2539959885</v>
       </c>
       <c r="E80">
-        <v>0.08214011875488482</v>
+        <v>0.02646347512298803</v>
       </c>
     </row>
     <row r="81">
@@ -1895,13 +1895,13 @@
         <v>9423869</v>
       </c>
       <c r="C81">
-        <v>7766830.153731346</v>
+        <v>8918366.970862476</v>
       </c>
       <c r="D81">
-        <v>1657038.846268654</v>
+        <v>505502.0291375238</v>
       </c>
       <c r="E81">
-        <v>0.1758342402964912</v>
+        <v>0.05364060442027832</v>
       </c>
     </row>
     <row r="82">
@@ -1914,13 +1914,13 @@
         <v>6614280</v>
       </c>
       <c r="C82">
-        <v>6729383.969485906</v>
+        <v>6502013.760689306</v>
       </c>
       <c r="D82">
-        <v>-115103.969485906</v>
+        <v>112266.2393106939</v>
       </c>
       <c r="E82">
-        <v>-0.01740234303445061</v>
+        <v>0.01697331218374395</v>
       </c>
     </row>
     <row r="83">
@@ -1933,13 +1933,13 @@
         <v>11692308</v>
       </c>
       <c r="C83">
-        <v>9373159.169154225</v>
+        <v>8822719.84428904</v>
       </c>
       <c r="D83">
-        <v>2319148.830845775</v>
+        <v>2869588.15571096</v>
       </c>
       <c r="E83">
-        <v>0.1983482500500137</v>
+        <v>0.2454252963325085</v>
       </c>
     </row>
     <row r="84">
@@ -1952,13 +1952,13 @@
         <v>2528233</v>
       </c>
       <c r="C84">
-        <v>5444019.728358208</v>
+        <v>5431200.002097903</v>
       </c>
       <c r="D84">
-        <v>-2915786.728358208</v>
+        <v>-2902967.002097903</v>
       </c>
       <c r="E84">
-        <v>-1.153290352731812</v>
+        <v>-1.148219725831402</v>
       </c>
     </row>
     <row r="85">
@@ -1971,13 +1971,13 @@
         <v>2019706</v>
       </c>
       <c r="C85">
-        <v>5580379.43026534</v>
+        <v>5548950.316983018</v>
       </c>
       <c r="D85">
-        <v>-3560673.43026534</v>
+        <v>-3529244.316983018</v>
       </c>
       <c r="E85">
-        <v>-1.762966209074657</v>
+        <v>-1.747404977250658</v>
       </c>
     </row>
     <row r="86">
@@ -1990,13 +1990,13 @@
         <v>11055360</v>
       </c>
       <c r="C86">
-        <v>13196600.52064677</v>
+        <v>12495821.38638028</v>
       </c>
       <c r="D86">
-        <v>-2141240.52064677</v>
+        <v>-1440461.386380283</v>
       </c>
       <c r="E86">
-        <v>-0.193683473052598</v>
+        <v>-0.1302952944436258</v>
       </c>
     </row>
     <row r="87">
@@ -2009,13 +2009,13 @@
         <v>4000000</v>
       </c>
       <c r="C87">
-        <v>7864160.211276948</v>
+        <v>4309438.921078918</v>
       </c>
       <c r="D87">
-        <v>-3864160.211276948</v>
+        <v>-309438.9210789176</v>
       </c>
       <c r="E87">
-        <v>-0.9660400528192369</v>
+        <v>-0.07735973026972939</v>
       </c>
     </row>
     <row r="88">
@@ -2028,13 +2028,13 @@
         <v>51915615</v>
       </c>
       <c r="C88">
-        <v>43399545.18192374</v>
+        <v>40611683.62312686</v>
       </c>
       <c r="D88">
-        <v>8516069.81807626</v>
+        <v>11303931.37687314</v>
       </c>
       <c r="E88">
-        <v>0.1640367704028212</v>
+        <v>0.2177366362099945</v>
       </c>
     </row>
     <row r="89">
@@ -2047,13 +2047,13 @@
         <v>5784120</v>
       </c>
       <c r="C89">
-        <v>4839207.802321726</v>
+        <v>5413121.209274061</v>
       </c>
       <c r="D89">
-        <v>944912.1976782745</v>
+        <v>370998.790725939</v>
       </c>
       <c r="E89">
-        <v>0.1633631732533686</v>
+        <v>0.06414092216723356</v>
       </c>
     </row>
     <row r="90">
@@ -2066,13 +2066,13 @@
         <v>40600080</v>
       </c>
       <c r="C90">
-        <v>37477788.58532339</v>
+        <v>35040196.82962038</v>
       </c>
       <c r="D90">
-        <v>3122291.414676607</v>
+        <v>5559883.170379616</v>
       </c>
       <c r="E90">
-        <v>0.07690357789138856</v>
+        <v>0.1369426653932607</v>
       </c>
     </row>
     <row r="91">
@@ -2085,13 +2085,13 @@
         <v>5050800</v>
       </c>
       <c r="C91">
-        <v>3413814.039220563</v>
+        <v>2905542.903330005</v>
       </c>
       <c r="D91">
-        <v>1636985.960779437</v>
+        <v>2145257.096669995</v>
       </c>
       <c r="E91">
-        <v>0.324104292543644</v>
+        <v>0.4247361005523867</v>
       </c>
     </row>
     <row r="92">
@@ -2104,13 +2104,13 @@
         <v>28600000</v>
       </c>
       <c r="C92">
-        <v>29939983.15472636</v>
+        <v>29844709.23136864</v>
       </c>
       <c r="D92">
-        <v>-1339983.154726364</v>
+        <v>-1244709.231368639</v>
       </c>
       <c r="E92">
-        <v>-0.04685255785756517</v>
+        <v>-0.04352130179610624</v>
       </c>
     </row>
     <row r="93">
@@ -2123,13 +2123,13 @@
         <v>4536720</v>
       </c>
       <c r="C93">
-        <v>3814132.757296849</v>
+        <v>4207922.259590407</v>
       </c>
       <c r="D93">
-        <v>722587.242703151</v>
+        <v>328797.7404095931</v>
       </c>
       <c r="E93">
-        <v>0.1592752567280218</v>
+        <v>0.07247477040892827</v>
       </c>
     </row>
     <row r="94">
@@ -2142,13 +2142,13 @@
         <v>4798440</v>
       </c>
       <c r="C94">
-        <v>3941958.277777778</v>
+        <v>4249853.157808857</v>
       </c>
       <c r="D94">
-        <v>856481.7222222215</v>
+        <v>548586.842191143</v>
       </c>
       <c r="E94">
-        <v>0.1784917019327576</v>
+        <v>0.1143260814329538</v>
       </c>
     </row>
     <row r="95">
@@ -2161,13 +2161,13 @@
         <v>20357143</v>
       </c>
       <c r="C95">
-        <v>22577366.41849088</v>
+        <v>22698023.95269731</v>
       </c>
       <c r="D95">
-        <v>-2220223.418490879</v>
+        <v>-2340880.952697307</v>
       </c>
       <c r="E95">
-        <v>-0.1090636057570003</v>
+        <v>-0.1149906424834422</v>
       </c>
     </row>
     <row r="96">
@@ -2180,13 +2180,13 @@
         <v>10900000</v>
       </c>
       <c r="C96">
-        <v>6071642.013847428</v>
+        <v>8728089.287495837</v>
       </c>
       <c r="D96">
-        <v>4828357.986152572</v>
+        <v>2171910.712504163</v>
       </c>
       <c r="E96">
-        <v>0.4429686225828047</v>
+        <v>0.1992578635324921</v>
       </c>
     </row>
     <row r="97">
@@ -2199,13 +2199,13 @@
         <v>40064220</v>
       </c>
       <c r="C97">
-        <v>37208486.67255389</v>
+        <v>36591454.30862471</v>
       </c>
       <c r="D97">
-        <v>2855733.327446111</v>
+        <v>3472765.691375293</v>
       </c>
       <c r="E97">
-        <v>0.07127889492035813</v>
+        <v>0.08667997758037703</v>
       </c>
     </row>
     <row r="98">
@@ -2218,13 +2218,13 @@
         <v>15277778</v>
       </c>
       <c r="C98">
-        <v>8190127.901907135</v>
+        <v>12374678.09592074</v>
       </c>
       <c r="D98">
-        <v>7087650.098092865</v>
+        <v>2903099.90407926</v>
       </c>
       <c r="E98">
-        <v>0.4639189087636216</v>
+        <v>0.1900210818666995</v>
       </c>
     </row>
     <row r="99">
@@ -2237,13 +2237,13 @@
         <v>6481482</v>
       </c>
       <c r="C99">
-        <v>3950105.943034827</v>
+        <v>5938618.818381618</v>
       </c>
       <c r="D99">
-        <v>2531376.056965173</v>
+        <v>542863.1816183822</v>
       </c>
       <c r="E99">
-        <v>0.3905551318302162</v>
+        <v>0.08375602703492538</v>
       </c>
     </row>
     <row r="100">
@@ -2256,13 +2256,13 @@
         <v>3360000</v>
       </c>
       <c r="C100">
-        <v>7424288.259701491</v>
+        <v>5903581.888777888</v>
       </c>
       <c r="D100">
-        <v>-4064288.259701491</v>
+        <v>-2543581.888777888</v>
       </c>
       <c r="E100">
-        <v>-1.209609601101634</v>
+        <v>-0.7570184192791335</v>
       </c>
     </row>
     <row r="101">
@@ -2275,13 +2275,13 @@
         <v>4124400</v>
       </c>
       <c r="C101">
-        <v>3747657.79676617</v>
+        <v>3759635.522960376</v>
       </c>
       <c r="D101">
-        <v>376742.2032338302</v>
+        <v>364764.4770396245</v>
       </c>
       <c r="E101">
-        <v>0.09134472971434152</v>
+        <v>0.08844061609922037</v>
       </c>
     </row>
     <row r="102">
@@ -2294,13 +2294,13 @@
         <v>2586665</v>
       </c>
       <c r="C102">
-        <v>7068409.540215587</v>
+        <v>3916612.072793878</v>
       </c>
       <c r="D102">
-        <v>-4481744.540215587</v>
+        <v>-1329947.072793878</v>
       </c>
       <c r="E102">
-        <v>-1.732634314925043</v>
+        <v>-0.5141551274687206</v>
       </c>
     </row>
     <row r="103">
@@ -2313,13 +2313,13 @@
         <v>47649433</v>
       </c>
       <c r="C103">
-        <v>39880084.903068</v>
+        <v>44772222.24603729</v>
       </c>
       <c r="D103">
-        <v>7769348.096932001</v>
+        <v>2877210.75396271</v>
       </c>
       <c r="E103">
-        <v>0.1630522675250302</v>
+        <v>0.06038289593000425</v>
       </c>
     </row>
     <row r="104">
@@ -2332,13 +2332,13 @@
         <v>4330680</v>
       </c>
       <c r="C104">
-        <v>8125976.704477613</v>
+        <v>6439614.282051285</v>
       </c>
       <c r="D104">
-        <v>-3795296.704477613</v>
+        <v>-2108934.282051285</v>
       </c>
       <c r="E104">
-        <v>-0.8763743117657303</v>
+        <v>-0.4869753207466921</v>
       </c>
     </row>
     <row r="105">
@@ -2351,13 +2351,13 @@
         <v>3527160</v>
       </c>
       <c r="C105">
-        <v>4718281.38432836</v>
+        <v>4834280.262770562</v>
       </c>
       <c r="D105">
-        <v>-1191121.38432836</v>
+        <v>-1307120.262770562</v>
       </c>
       <c r="E105">
-        <v>-0.3376998447273046</v>
+        <v>-0.3705871757364459</v>
       </c>
     </row>
     <row r="106">
@@ -2370,13 +2370,13 @@
         <v>13534817</v>
       </c>
       <c r="C106">
-        <v>16017361.50298508</v>
+        <v>15219239.58839491</v>
       </c>
       <c r="D106">
-        <v>-2482544.502985081</v>
+        <v>-1684422.588394912</v>
       </c>
       <c r="E106">
-        <v>-0.1834191406492663</v>
+        <v>-0.1244510796411146</v>
       </c>
     </row>
     <row r="107">
@@ -2389,13 +2389,13 @@
         <v>1927896</v>
       </c>
       <c r="C107">
-        <v>1915928.677611941</v>
+        <v>1891676.019480516</v>
       </c>
       <c r="D107">
-        <v>11967.32238805923</v>
+        <v>36219.9805194838</v>
       </c>
       <c r="E107">
-        <v>0.006207452263015861</v>
+        <v>0.01878731037332086</v>
       </c>
     </row>
     <row r="108">
@@ -2408,13 +2408,13 @@
         <v>47607350</v>
       </c>
       <c r="C108">
-        <v>40366560.94046434</v>
+        <v>43210949.25359637</v>
       </c>
       <c r="D108">
-        <v>7240789.05953566</v>
+        <v>4396400.746403635</v>
       </c>
       <c r="E108">
-        <v>0.1520939321246753</v>
+        <v>0.09234710073977305</v>
       </c>
     </row>
     <row r="109">
@@ -2427,13 +2427,13 @@
         <v>2346614</v>
       </c>
       <c r="C109">
-        <v>2984881.471227199</v>
+        <v>5757300.820462872</v>
       </c>
       <c r="D109">
-        <v>-638267.4712271988</v>
+        <v>-3410686.820462872</v>
       </c>
       <c r="E109">
-        <v>-0.2719950836512519</v>
+        <v>-1.453450299223848</v>
       </c>
     </row>
     <row r="110">
@@ -2446,13 +2446,13 @@
         <v>3000000</v>
       </c>
       <c r="C110">
-        <v>4495568.202736318</v>
+        <v>4242801.586147192</v>
       </c>
       <c r="D110">
-        <v>-1495568.202736318</v>
+        <v>-1242801.586147192</v>
       </c>
       <c r="E110">
-        <v>-0.4985227342454394</v>
+        <v>-0.4142671953823973</v>
       </c>
     </row>
     <row r="111">
@@ -2465,13 +2465,13 @@
         <v>2581522</v>
       </c>
       <c r="C111">
-        <v>2643965.3907131</v>
+        <v>2876709.182201136</v>
       </c>
       <c r="D111">
-        <v>-62443.39071310032</v>
+        <v>-295187.1822011359</v>
       </c>
       <c r="E111">
-        <v>-0.02418859522138503</v>
+        <v>-0.114346181129247</v>
       </c>
     </row>
     <row r="112">
@@ -2484,13 +2484,13 @@
         <v>13932008</v>
       </c>
       <c r="C112">
-        <v>12354557.55638475</v>
+        <v>13188736.91350317</v>
       </c>
       <c r="D112">
-        <v>1577450.443615254</v>
+        <v>743271.0864968337</v>
       </c>
       <c r="E112">
-        <v>0.1132249165816768</v>
+        <v>0.05334988944140957</v>
       </c>
     </row>
     <row r="113">
@@ -2503,13 +2503,13 @@
         <v>3873025</v>
       </c>
       <c r="C113">
-        <v>4058848.504145937</v>
+        <v>3975867.050982349</v>
       </c>
       <c r="D113">
-        <v>-185823.504145937</v>
+        <v>-102842.0509823491</v>
       </c>
       <c r="E113">
-        <v>-0.04797890644804437</v>
+        <v>-0.02655341780193753</v>
       </c>
     </row>
     <row r="114">
@@ -2522,13 +2522,13 @@
         <v>3044872</v>
       </c>
       <c r="C114">
-        <v>4302587.502155887</v>
+        <v>4402147.775041629</v>
       </c>
       <c r="D114">
-        <v>-1257715.502155887</v>
+        <v>-1357275.775041629</v>
       </c>
       <c r="E114">
-        <v>-0.4130602213018764</v>
+        <v>-0.4457579087205074</v>
       </c>
     </row>
     <row r="115">
@@ -2541,13 +2541,13 @@
         <v>18857143</v>
       </c>
       <c r="C115">
-        <v>13146823.93457712</v>
+        <v>13108423.62660673</v>
       </c>
       <c r="D115">
-        <v>5710319.065422883</v>
+        <v>5748719.373393275</v>
       </c>
       <c r="E115">
-        <v>0.3028199481450018</v>
+        <v>0.3048563280977015</v>
       </c>
     </row>
     <row r="116">
@@ -2560,13 +2560,13 @@
         <v>32600060</v>
       </c>
       <c r="C116">
-        <v>31540049.54991708</v>
+        <v>31538391.29227443</v>
       </c>
       <c r="D116">
-        <v>1060010.45008292</v>
+        <v>1061668.707725573</v>
       </c>
       <c r="E116">
-        <v>0.03251559813334456</v>
+        <v>0.03256646483857923</v>
       </c>
     </row>
     <row r="117">
@@ -2579,13 +2579,13 @@
         <v>17000000</v>
       </c>
       <c r="C117">
-        <v>14449427.14386401</v>
+        <v>15503057.22312689</v>
       </c>
       <c r="D117">
-        <v>2550572.85613599</v>
+        <v>1496942.776873114</v>
       </c>
       <c r="E117">
-        <v>0.1500336974197641</v>
+        <v>0.08805545746312433</v>
       </c>
     </row>
     <row r="118">
@@ -2598,13 +2598,13 @@
         <v>12402000</v>
       </c>
       <c r="C118">
-        <v>8582370.764510781</v>
+        <v>11577892.54991674</v>
       </c>
       <c r="D118">
-        <v>3819629.235489219</v>
+        <v>824107.4500832576</v>
       </c>
       <c r="E118">
-        <v>0.3079849407748121</v>
+        <v>0.06644956056146248</v>
       </c>
     </row>
     <row r="119">
@@ -2617,13 +2617,13 @@
         <v>6802950</v>
       </c>
       <c r="C119">
-        <v>7217136.857131009</v>
+        <v>8041692.811588403</v>
       </c>
       <c r="D119">
-        <v>-414186.857131009</v>
+        <v>-1238742.811588403</v>
       </c>
       <c r="E119">
-        <v>-0.06088341927119985</v>
+        <v>-0.1820890660064241</v>
       </c>
     </row>
     <row r="120">
@@ -2636,13 +2636,13 @@
         <v>34005250</v>
       </c>
       <c r="C120">
-        <v>29943634.10771145</v>
+        <v>26068940.24885114</v>
       </c>
       <c r="D120">
-        <v>4061615.892288554</v>
+        <v>7936309.751148865</v>
       </c>
       <c r="E120">
-        <v>0.1194408478775646</v>
+        <v>0.2333848376691501</v>
       </c>
     </row>
     <row r="121">
@@ -2655,13 +2655,13 @@
         <v>3889800</v>
       </c>
       <c r="C121">
-        <v>6669316.265505807</v>
+        <v>6035423.626606727</v>
       </c>
       <c r="D121">
-        <v>-2779516.265505807</v>
+        <v>-2145623.626606727</v>
       </c>
       <c r="E121">
-        <v>-0.7145653415357619</v>
+        <v>-0.5516025570997807</v>
       </c>
     </row>
     <row r="122">
@@ -2674,13 +2674,13 @@
         <v>45640084</v>
       </c>
       <c r="C122">
-        <v>40451358.87189057</v>
+        <v>43218680.6173493</v>
       </c>
       <c r="D122">
-        <v>5188725.128109433</v>
+        <v>2421403.382650696</v>
       </c>
       <c r="E122">
-        <v>0.1136878961070587</v>
+        <v>0.05305431476968131</v>
       </c>
     </row>
     <row r="123">
@@ -2693,13 +2693,13 @@
         <v>6587040</v>
       </c>
       <c r="C123">
-        <v>9109246.218988394</v>
+        <v>7418713.132783876</v>
       </c>
       <c r="D123">
-        <v>-2522206.218988394</v>
+        <v>-831673.1327838758</v>
       </c>
       <c r="E123">
-        <v>-0.3829043423128438</v>
+        <v>-0.1262590075031996</v>
       </c>
     </row>
     <row r="124">
@@ -2712,13 +2712,13 @@
         <v>2019706</v>
       </c>
       <c r="C124">
-        <v>2330333.857545604</v>
+        <v>2283196.102597401</v>
       </c>
       <c r="D124">
-        <v>-310627.8575456045</v>
+        <v>-263490.1025974005</v>
       </c>
       <c r="E124">
-        <v>-0.1537985516434592</v>
+        <v>-0.1304596325392906</v>
       </c>
     </row>
     <row r="125">
@@ -2731,13 +2731,13 @@
         <v>33386850</v>
       </c>
       <c r="C125">
-        <v>32447062.71475954</v>
+        <v>32026516.90825842</v>
       </c>
       <c r="D125">
-        <v>939787.2852404639</v>
+        <v>1360333.091741581</v>
       </c>
       <c r="E125">
-        <v>0.02814842625885533</v>
+        <v>0.04074457733333874</v>
       </c>
     </row>
     <row r="126">
@@ -2750,13 +2750,13 @@
         <v>1997238</v>
       </c>
       <c r="C126">
-        <v>3734149.63747927</v>
+        <v>5621011.503013649</v>
       </c>
       <c r="D126">
-        <v>-1736911.63747927</v>
+        <v>-3623773.503013649</v>
       </c>
       <c r="E126">
-        <v>-0.869656814800875</v>
+        <v>-1.814392427449132</v>
       </c>
     </row>
     <row r="127">
@@ -2769,13 +2769,13 @@
         <v>41000000</v>
       </c>
       <c r="C127">
-        <v>21063866.05074627</v>
+        <v>32433737.51809859</v>
       </c>
       <c r="D127">
-        <v>19936133.94925373</v>
+        <v>8566262.481901411</v>
       </c>
       <c r="E127">
-        <v>0.4862471694939934</v>
+        <v>0.2089332312658881</v>
       </c>
     </row>
     <row r="128">
@@ -2788,13 +2788,13 @@
         <v>1927896</v>
       </c>
       <c r="C128">
-        <v>2674418.34145937</v>
+        <v>2809797.241391938</v>
       </c>
       <c r="D128">
-        <v>-746522.3414593698</v>
+        <v>-881901.2413919382</v>
       </c>
       <c r="E128">
-        <v>-0.3872212720288697</v>
+        <v>-0.4574423316361143</v>
       </c>
     </row>
     <row r="129">
@@ -2807,13 +2807,13 @@
         <v>22266182</v>
       </c>
       <c r="C129">
-        <v>20838735.2946932</v>
+        <v>21255494.07693973</v>
       </c>
       <c r="D129">
-        <v>1427446.705306798</v>
+        <v>1010687.923060268</v>
       </c>
       <c r="E129">
-        <v>0.06410828337371886</v>
+        <v>0.04539116419062182</v>
       </c>
     </row>
     <row r="130">
@@ -2826,13 +2826,13 @@
         <v>3196448</v>
       </c>
       <c r="C130">
-        <v>10269679.93524047</v>
+        <v>11924857.30594406</v>
       </c>
       <c r="D130">
-        <v>-7073231.935240466</v>
+        <v>-8728409.305944055</v>
       </c>
       <c r="E130">
-        <v>-2.212841233531866</v>
+        <v>-2.730658939530396</v>
       </c>
     </row>
     <row r="131">
@@ -2845,13 +2845,13 @@
         <v>12100000</v>
       </c>
       <c r="C131">
-        <v>8867658.796766171</v>
+        <v>9332258.059473861</v>
       </c>
       <c r="D131">
-        <v>3232341.203233829</v>
+        <v>2767741.940526139</v>
       </c>
       <c r="E131">
-        <v>0.267135636630895</v>
+        <v>0.2287390033492677</v>
       </c>
     </row>
     <row r="132">
@@ -2864,13 +2864,13 @@
         <v>27586207</v>
       </c>
       <c r="C132">
-        <v>25740458.2136816</v>
+        <v>27718738.38403261</v>
       </c>
       <c r="D132">
-        <v>1845748.786318399</v>
+        <v>-132531.3840326108</v>
       </c>
       <c r="E132">
-        <v>0.0669083932531355</v>
+        <v>-0.004804262653166157</v>
       </c>
     </row>
     <row r="133">
@@ -2883,13 +2883,13 @@
         <v>1901769</v>
       </c>
       <c r="C133">
-        <v>2425578.564925373</v>
+        <v>1873762.107609056</v>
       </c>
       <c r="D133">
-        <v>-523809.5649253731</v>
+        <v>28006.8923909443</v>
       </c>
       <c r="E133">
-        <v>-0.2754328022621954</v>
+        <v>0.01472675829238162</v>
       </c>
     </row>
     <row r="134">
@@ -2902,13 +2902,13 @@
         <v>200000</v>
       </c>
       <c r="C134">
-        <v>2765488.212769486</v>
+        <v>1812308.953596404</v>
       </c>
       <c r="D134">
-        <v>-2565488.212769486</v>
+        <v>-1612308.953596404</v>
       </c>
       <c r="E134">
-        <v>-12.82744106384743</v>
+        <v>-8.061544767982019</v>
       </c>
     </row>
     <row r="135">
@@ -2921,13 +2921,13 @@
         <v>22321429</v>
       </c>
       <c r="C135">
-        <v>18141023.50008292</v>
+        <v>19096747.99282385</v>
       </c>
       <c r="D135">
-        <v>4180405.499917079</v>
+        <v>3224681.00717615</v>
       </c>
       <c r="E135">
-        <v>0.1872821628004676</v>
+        <v>0.1444657063477499</v>
       </c>
     </row>
     <row r="136">
@@ -2940,13 +2940,13 @@
         <v>9891480</v>
       </c>
       <c r="C136">
-        <v>10253953.08134329</v>
+        <v>9282594.710506164</v>
       </c>
       <c r="D136">
-        <v>-362473.0813432857</v>
+        <v>608885.2894938365</v>
       </c>
       <c r="E136">
-        <v>-0.03664497945133446</v>
+        <v>0.06155654052718466</v>
       </c>
     </row>
     <row r="137">
@@ -2959,13 +2959,13 @@
         <v>9600000</v>
       </c>
       <c r="C137">
-        <v>9712566.11849088</v>
+        <v>8950329.768614717</v>
       </c>
       <c r="D137">
-        <v>-112566.1184908804</v>
+        <v>649670.2313852832</v>
       </c>
       <c r="E137">
-        <v>-0.01172563734280004</v>
+        <v>0.06767398243596699</v>
       </c>
     </row>
     <row r="138">
@@ -2978,13 +2978,13 @@
         <v>4765339</v>
       </c>
       <c r="C138">
-        <v>5013981.34154229</v>
+        <v>5210923.175541124</v>
       </c>
       <c r="D138">
-        <v>-248642.3415422896</v>
+        <v>-445584.1755411243</v>
       </c>
       <c r="E138">
-        <v>-0.05217726200429593</v>
+        <v>-0.09350524181828918</v>
       </c>
     </row>
     <row r="139">
@@ -2997,13 +2997,13 @@
         <v>3712920</v>
       </c>
       <c r="C139">
-        <v>3604775.638391376</v>
+        <v>3679648.443922742</v>
       </c>
       <c r="D139">
-        <v>108144.361608624</v>
+        <v>33271.55607725773</v>
       </c>
       <c r="E139">
-        <v>0.02912649925358585</v>
+        <v>0.00896102153487221</v>
       </c>
     </row>
     <row r="140">
@@ -3016,13 +3016,13 @@
         <v>2385720</v>
       </c>
       <c r="C140">
-        <v>3249520.99668325</v>
+        <v>4048997.270029973</v>
       </c>
       <c r="D140">
-        <v>-863800.9966832502</v>
+        <v>-1663277.270029973</v>
       </c>
       <c r="E140">
-        <v>-0.3620714068219448</v>
+        <v>-0.6971804193409006</v>
       </c>
     </row>
     <row r="141">
@@ -3035,13 +3035,13 @@
         <v>1119563</v>
       </c>
       <c r="C141">
-        <v>1943438.953150913</v>
+        <v>3188936.459440558</v>
       </c>
       <c r="D141">
-        <v>-823875.9531509127</v>
+        <v>-2069373.459440558</v>
       </c>
       <c r="E141">
-        <v>-0.7358906583648376</v>
+        <v>-1.848376071235435</v>
       </c>
     </row>
     <row r="142">
@@ -3054,13 +3054,13 @@
         <v>15740741</v>
       </c>
       <c r="C142">
-        <v>11152920.12089552</v>
+        <v>11909969.99928405</v>
       </c>
       <c r="D142">
-        <v>4587820.879104478</v>
+        <v>3830771.000715954</v>
       </c>
       <c r="E142">
-        <v>0.2914615569308001</v>
+        <v>0.2433666242723868</v>
       </c>
     </row>
     <row r="143">
@@ -3073,13 +3073,13 @@
         <v>5808435</v>
       </c>
       <c r="C143">
-        <v>20435703.4973466</v>
+        <v>11740411.897003</v>
       </c>
       <c r="D143">
-        <v>-14627268.4973466</v>
+        <v>-5931976.897002999</v>
       </c>
       <c r="E143">
-        <v>-2.518280483012481</v>
+        <v>-1.021269394768642</v>
       </c>
     </row>
     <row r="144">
@@ -3092,13 +3092,13 @@
         <v>17897728</v>
       </c>
       <c r="C144">
-        <v>20042649.61028193</v>
+        <v>18921259.38439894</v>
       </c>
       <c r="D144">
-        <v>-2144921.610281926</v>
+        <v>-1023531.384398941</v>
       </c>
       <c r="E144">
-        <v>-0.1198432343078365</v>
+        <v>-0.05718778296323092</v>
       </c>
     </row>
     <row r="145">
@@ -3111,13 +3111,13 @@
         <v>35640000</v>
       </c>
       <c r="C145">
-        <v>35113727.77529021</v>
+        <v>35193017.87111227</v>
       </c>
       <c r="D145">
-        <v>526272.2247097939</v>
+        <v>446982.1288877279</v>
       </c>
       <c r="E145">
-        <v>0.01476633627131857</v>
+        <v>0.01254158610796094</v>
       </c>
     </row>
     <row r="146">
@@ -3130,13 +3130,13 @@
         <v>1719864</v>
       </c>
       <c r="C146">
-        <v>4011360.934411278</v>
+        <v>3848690.508291708</v>
       </c>
       <c r="D146">
-        <v>-2291496.934411278</v>
+        <v>-2128826.508291708</v>
       </c>
       <c r="E146">
-        <v>-1.332371009807333</v>
+        <v>-1.237787701987894</v>
       </c>
     </row>
     <row r="147">
@@ -3149,13 +3149,13 @@
         <v>13000000</v>
       </c>
       <c r="C147">
-        <v>7336183.673217244</v>
+        <v>10846104.78772892</v>
       </c>
       <c r="D147">
-        <v>5663816.326782756</v>
+        <v>2153895.212271076</v>
       </c>
       <c r="E147">
-        <v>0.4356781789832889</v>
+        <v>0.165684247097775</v>
       </c>
     </row>
     <row r="148">
@@ -3168,13 +3168,13 @@
         <v>19928571</v>
       </c>
       <c r="C148">
-        <v>14776457.62131011</v>
+        <v>6817779.38503163</v>
       </c>
       <c r="D148">
-        <v>5152113.378689885</v>
+        <v>13110791.61496837</v>
       </c>
       <c r="E148">
-        <v>0.2585289923040586</v>
+        <v>0.6578891991286465</v>
       </c>
     </row>
     <row r="149">
@@ -3187,13 +3187,13 @@
         <v>39270150</v>
       </c>
       <c r="C149">
-        <v>26828752.68101161</v>
+        <v>30175814.42074591</v>
       </c>
       <c r="D149">
-        <v>12441397.31898839</v>
+        <v>9094335.579254087</v>
       </c>
       <c r="E149">
-        <v>0.3168156301666377</v>
+        <v>0.2315839277225599</v>
       </c>
     </row>
     <row r="150">
@@ -3206,13 +3206,13 @@
         <v>12960000</v>
       </c>
       <c r="C150">
-        <v>12089566.51824212</v>
+        <v>12479984.76535133</v>
       </c>
       <c r="D150">
-        <v>870433.4817578811</v>
+        <v>480015.2346486691</v>
       </c>
       <c r="E150">
-        <v>0.0671630772961328</v>
+        <v>0.03703821255005163</v>
       </c>
     </row>
     <row r="151">
@@ -3225,13 +3225,13 @@
         <v>9245121</v>
       </c>
       <c r="C151">
-        <v>4907492.879601992</v>
+        <v>7643807.428005324</v>
       </c>
       <c r="D151">
-        <v>4337628.120398008</v>
+        <v>1601313.571994676</v>
       </c>
       <c r="E151">
-        <v>0.4691802433302937</v>
+        <v>0.1732063400786941</v>
       </c>
     </row>
     <row r="152">
@@ -3244,13 +3244,13 @@
         <v>1927896</v>
       </c>
       <c r="C152">
-        <v>3642021.298590383</v>
+        <v>8463473.203363305</v>
       </c>
       <c r="D152">
-        <v>-1714125.298590383</v>
+        <v>-6535577.203363305</v>
       </c>
       <c r="E152">
-        <v>-0.8891170989464071</v>
+        <v>-3.390005064258292</v>
       </c>
     </row>
     <row r="153">
@@ -3263,13 +3263,13 @@
         <v>4310160</v>
       </c>
       <c r="C153">
-        <v>5033729.485074627</v>
+        <v>4902761.110239761</v>
       </c>
       <c r="D153">
-        <v>-723569.4850746272</v>
+        <v>-592601.110239761</v>
       </c>
       <c r="E153">
-        <v>-0.1678753190309936</v>
+        <v>-0.1374893531190863</v>
       </c>
     </row>
     <row r="154">
@@ -3282,13 +3282,13 @@
         <v>2165000</v>
       </c>
       <c r="C154">
-        <v>2501374.757379767</v>
+        <v>2460763.298518149</v>
       </c>
       <c r="D154">
-        <v>-336374.7573797675</v>
+        <v>-295763.2985181487</v>
       </c>
       <c r="E154">
-        <v>-0.1553694029467748</v>
+        <v>-0.1366112233340179</v>
       </c>
     </row>
     <row r="155">
@@ -3301,13 +3301,13 @@
         <v>7413955</v>
       </c>
       <c r="C155">
-        <v>7556655.58698176</v>
+        <v>6523985.015351317</v>
       </c>
       <c r="D155">
-        <v>-142700.5869817603</v>
+        <v>889969.9846486831</v>
       </c>
       <c r="E155">
-        <v>-0.01924756583790438</v>
+        <v>0.1200398417104883</v>
       </c>
     </row>
     <row r="156">
@@ -3320,13 +3320,13 @@
         <v>31500000</v>
       </c>
       <c r="C156">
-        <v>26398199.26285241</v>
+        <v>28030954.49905093</v>
       </c>
       <c r="D156">
-        <v>5101800.737147592</v>
+        <v>3469045.500949066</v>
       </c>
       <c r="E156">
-        <v>0.1619619281634156</v>
+        <v>0.1101284286015577</v>
       </c>
     </row>
     <row r="157">
@@ -3339,13 +3339,13 @@
         <v>9770880</v>
       </c>
       <c r="C157">
-        <v>10794615.61202322</v>
+        <v>10033751.3877456</v>
       </c>
       <c r="D157">
-        <v>-1023735.612023218</v>
+        <v>-262871.3877455965</v>
       </c>
       <c r="E157">
-        <v>-0.1047741464456853</v>
+        <v>-0.02690355298044766</v>
       </c>
     </row>
     <row r="158">
@@ -3358,13 +3358,13 @@
         <v>5569920</v>
       </c>
       <c r="C158">
-        <v>4697865.791873964</v>
+        <v>4739193.746719947</v>
       </c>
       <c r="D158">
-        <v>872054.2081260365</v>
+        <v>830726.2532800529</v>
       </c>
       <c r="E158">
-        <v>0.1565649431456891</v>
+        <v>0.1491450960301141</v>
       </c>
     </row>
     <row r="159">
@@ -3377,13 +3377,13 @@
         <v>27000000</v>
       </c>
       <c r="C159">
-        <v>27429952.25978441</v>
+        <v>27257067.61741592</v>
       </c>
       <c r="D159">
-        <v>-429952.2597844079</v>
+        <v>-257067.6174159162</v>
       </c>
       <c r="E159">
-        <v>-0.01592415776979289</v>
+        <v>-0.009521022867256155</v>
       </c>
     </row>
     <row r="160">
@@ -3396,13 +3396,13 @@
         <v>19279841</v>
       </c>
       <c r="C160">
-        <v>16642648.1221393</v>
+        <v>17582877.01666667</v>
       </c>
       <c r="D160">
-        <v>2637192.877860704</v>
+        <v>1696963.983333327</v>
       </c>
       <c r="E160">
-        <v>0.1367849910100765</v>
+        <v>0.08801752998550802</v>
       </c>
     </row>
     <row r="161">
@@ -3415,13 +3415,13 @@
         <v>1902137</v>
       </c>
       <c r="C161">
-        <v>5315233.163515755</v>
+        <v>3743744.41138861</v>
       </c>
       <c r="D161">
-        <v>-3413096.163515755</v>
+        <v>-1841607.41138861</v>
       </c>
       <c r="E161">
-        <v>-1.794348232285979</v>
+        <v>-0.9681781130321371</v>
       </c>
     </row>
     <row r="162">
@@ -3434,13 +3434,13 @@
         <v>2019706</v>
       </c>
       <c r="C162">
-        <v>3704183.609203981</v>
+        <v>4254378.429903432</v>
       </c>
       <c r="D162">
-        <v>-1684477.609203981</v>
+        <v>-2234672.429903432</v>
       </c>
       <c r="E162">
-        <v>-0.8340211937796792</v>
+        <v>-1.106434515668831</v>
       </c>
     </row>
     <row r="163">
@@ -3453,13 +3453,13 @@
         <v>36861707</v>
       </c>
       <c r="C163">
-        <v>25678055.9623549</v>
+        <v>32865117.45830836</v>
       </c>
       <c r="D163">
-        <v>11183651.0376451</v>
+        <v>3996589.541691642</v>
       </c>
       <c r="E163">
-        <v>0.3033948221021099</v>
+        <v>0.1084211738130207</v>
       </c>
     </row>
     <row r="164">
@@ -3472,13 +3472,13 @@
         <v>2019706</v>
       </c>
       <c r="C164">
-        <v>9577118.626533996</v>
+        <v>4306918.063852812</v>
       </c>
       <c r="D164">
-        <v>-7557412.626533996</v>
+        <v>-2287212.063852812</v>
       </c>
       <c r="E164">
-        <v>-3.741837983614445</v>
+        <v>-1.132448021569878</v>
       </c>
     </row>
     <row r="165">
@@ -3491,13 +3491,13 @@
         <v>12046020</v>
       </c>
       <c r="C165">
-        <v>5479820.213847429</v>
+        <v>8901164.297369299</v>
       </c>
       <c r="D165">
-        <v>6566199.786152571</v>
+        <v>3144855.702630701</v>
       </c>
       <c r="E165">
-        <v>0.5450928843014183</v>
+        <v>0.2610701047010299</v>
       </c>
     </row>
     <row r="166">
@@ -3510,13 +3510,13 @@
         <v>10386000</v>
       </c>
       <c r="C166">
-        <v>9957705.292039802</v>
+        <v>9770356.108091908</v>
       </c>
       <c r="D166">
-        <v>428294.7079601977</v>
+        <v>615643.8919080924</v>
       </c>
       <c r="E166">
-        <v>0.04123769574043883</v>
+        <v>0.05927632311843755</v>
       </c>
     </row>
     <row r="167">
@@ -3529,13 +3529,13 @@
         <v>3695040</v>
       </c>
       <c r="C167">
-        <v>3610869.158789386</v>
+        <v>2608490.529470528</v>
       </c>
       <c r="D167">
-        <v>84170.84121061396</v>
+        <v>1086549.470529472</v>
       </c>
       <c r="E167">
-        <v>0.02277941272912173</v>
+        <v>0.2940562133371957</v>
       </c>
     </row>
     <row r="168">
@@ -3548,13 +3548,13 @@
         <v>10000000</v>
       </c>
       <c r="C168">
-        <v>10090199.68913764</v>
+        <v>9690663.178171832</v>
       </c>
       <c r="D168">
-        <v>-90199.6891376432</v>
+        <v>309336.8218281679</v>
       </c>
       <c r="E168">
-        <v>-0.009019968913764321</v>
+        <v>0.03093368218281679</v>
       </c>
     </row>
     <row r="169">
@@ -3567,13 +3567,13 @@
         <v>11020000</v>
       </c>
       <c r="C169">
-        <v>9324838.510447767</v>
+        <v>9049831.595188145</v>
       </c>
       <c r="D169">
-        <v>1695161.489552233</v>
+        <v>1970168.404811855</v>
       </c>
       <c r="E169">
-        <v>0.1538259064929431</v>
+        <v>0.1787811619611484</v>
       </c>
     </row>
     <row r="170">
@@ -3586,13 +3586,13 @@
         <v>4310250</v>
       </c>
       <c r="C170">
-        <v>5330811.186401328</v>
+        <v>4242475.287995338</v>
       </c>
       <c r="D170">
-        <v>-1020561.186401328</v>
+        <v>67774.71200466249</v>
       </c>
       <c r="E170">
-        <v>-0.2367754043040028</v>
+        <v>0.01572407911482222</v>
       </c>
     </row>
     <row r="171">
@@ -3605,13 +3605,13 @@
         <v>2000000</v>
       </c>
       <c r="C171">
-        <v>2600286.236567164</v>
+        <v>2617819.427589078</v>
       </c>
       <c r="D171">
-        <v>-600286.2365671638</v>
+        <v>-617819.4275890784</v>
       </c>
       <c r="E171">
-        <v>-0.3001431182835819</v>
+        <v>-0.3089097137945392</v>
       </c>
     </row>
     <row r="172">
@@ -3624,13 +3624,13 @@
         <v>5026800</v>
       </c>
       <c r="C172">
-        <v>3333798.319402985</v>
+        <v>3856278.721928071</v>
       </c>
       <c r="D172">
-        <v>1693001.680597015</v>
+        <v>1170521.278071929</v>
       </c>
       <c r="E172">
-        <v>0.3367951143067189</v>
+        <v>0.2328561466682441</v>
       </c>
     </row>
     <row r="173">
@@ -3643,13 +3643,13 @@
         <v>15669643</v>
       </c>
       <c r="C173">
-        <v>11763296.05762853</v>
+        <v>12842798.75521145</v>
       </c>
       <c r="D173">
-        <v>3906346.942371475</v>
+        <v>2826844.244788548</v>
       </c>
       <c r="E173">
-        <v>0.2492939336506565</v>
+        <v>0.1804025940341173</v>
       </c>
     </row>
     <row r="174">
@@ -3662,13 +3662,13 @@
         <v>20089286</v>
       </c>
       <c r="C174">
-        <v>19544181.07172471</v>
+        <v>19438112.7344822</v>
       </c>
       <c r="D174">
-        <v>545104.9282752872</v>
+        <v>651173.2655178048</v>
       </c>
       <c r="E174">
-        <v>0.02713411159935137</v>
+        <v>0.03241395764477666</v>
       </c>
     </row>
     <row r="175">
@@ -3681,13 +3681,13 @@
         <v>2306400</v>
       </c>
       <c r="C175">
-        <v>3428431.28955224</v>
+        <v>3264010.111388608</v>
       </c>
       <c r="D175">
-        <v>-1122031.28955224</v>
+        <v>-957610.1113886083</v>
       </c>
       <c r="E175">
-        <v>-0.4864859909609087</v>
+        <v>-0.4151968918611725</v>
       </c>
     </row>
     <row r="176">
@@ -3700,13 +3700,13 @@
         <v>11000000</v>
       </c>
       <c r="C176">
-        <v>7352295.360862354</v>
+        <v>5906296.623809518</v>
       </c>
       <c r="D176">
-        <v>3647704.639137646</v>
+        <v>5093703.376190482</v>
       </c>
       <c r="E176">
-        <v>0.3316095126488769</v>
+        <v>0.4630639432900438</v>
       </c>
     </row>
     <row r="177">
@@ -3719,13 +3719,13 @@
         <v>33833400</v>
       </c>
       <c r="C177">
-        <v>31639623.26865673</v>
+        <v>27356605.06018982</v>
       </c>
       <c r="D177">
-        <v>2193776.731343269</v>
+        <v>6476794.939810179</v>
       </c>
       <c r="E177">
-        <v>0.0648405638021384</v>
+        <v>0.1914319855471274</v>
       </c>
     </row>
     <row r="178">
@@ -3738,13 +3738,13 @@
         <v>37037037</v>
       </c>
       <c r="C178">
-        <v>30070868.0876451</v>
+        <v>25265361.8727106</v>
       </c>
       <c r="D178">
-        <v>6966168.912354898</v>
+        <v>11771675.1272894</v>
       </c>
       <c r="E178">
-        <v>0.1880865608216688</v>
+        <v>0.3178352287546489</v>
       </c>
     </row>
     <row r="179">
@@ -3757,13 +3757,13 @@
         <v>17400000</v>
       </c>
       <c r="C179">
-        <v>5012723.075953563</v>
+        <v>12278185.29610389</v>
       </c>
       <c r="D179">
-        <v>12387276.92404644</v>
+        <v>5121814.703896111</v>
       </c>
       <c r="E179">
-        <v>0.7119124668992206</v>
+        <v>0.2943571668905811</v>
       </c>
     </row>
     <row r="180">
@@ -3776,13 +3776,13 @@
         <v>7614480</v>
       </c>
       <c r="C180">
-        <v>8348209.859286899</v>
+        <v>7220358.041192139</v>
       </c>
       <c r="D180">
-        <v>-733729.8592868987</v>
+        <v>394121.9588078605</v>
       </c>
       <c r="E180">
-        <v>-0.09635981173854272</v>
+        <v>0.05175953693592478</v>
       </c>
     </row>
     <row r="181">
@@ -3795,13 +3795,13 @@
         <v>1119563</v>
       </c>
       <c r="C181">
-        <v>2037395.926699834</v>
+        <v>1898893.281535132</v>
       </c>
       <c r="D181">
-        <v>-917832.9266998344</v>
+        <v>-779330.2815351323</v>
       </c>
       <c r="E181">
-        <v>-0.819813558236414</v>
+        <v>-0.6961022126804229</v>
       </c>
     </row>
     <row r="182">
@@ -3814,13 +3814,13 @@
         <v>2696280</v>
       </c>
       <c r="C182">
-        <v>3213533.521973467</v>
+        <v>3525310.811338661</v>
       </c>
       <c r="D182">
-        <v>-517253.5219734665</v>
+        <v>-829030.8113386608</v>
       </c>
       <c r="E182">
-        <v>-0.191839690971808</v>
+        <v>-0.307472076838704</v>
       </c>
     </row>
     <row r="183">
@@ -3833,13 +3833,13 @@
         <v>27102202</v>
       </c>
       <c r="C183">
-        <v>26777424.93134328</v>
+        <v>25804385.32301031</v>
       </c>
       <c r="D183">
-        <v>324777.0686567165</v>
+        <v>1297816.676989689</v>
       </c>
       <c r="E183">
-        <v>0.01198341996922304</v>
+        <v>0.04788602331979112</v>
       </c>
     </row>
     <row r="184">
@@ -3852,13 +3852,13 @@
         <v>5000000</v>
       </c>
       <c r="C184">
-        <v>7224343.895688227</v>
+        <v>9888501.119796874</v>
       </c>
       <c r="D184">
-        <v>-2224343.895688227</v>
+        <v>-4888501.119796874</v>
       </c>
       <c r="E184">
-        <v>-0.4448687791376455</v>
+        <v>-0.9777002239593748</v>
       </c>
     </row>
     <row r="185">
@@ -3871,13 +3871,13 @@
         <v>1119563</v>
       </c>
       <c r="C185">
-        <v>2098981.832587066</v>
+        <v>3162708.326640026</v>
       </c>
       <c r="D185">
-        <v>-979418.8325870656</v>
+        <v>-2043145.326640026</v>
       </c>
       <c r="E185">
-        <v>-0.8748224374930804</v>
+        <v>-1.824948954761836</v>
       </c>
     </row>
     <row r="186">
@@ -3890,13 +3890,13 @@
         <v>47607350</v>
       </c>
       <c r="C186">
-        <v>37312298.8818408</v>
+        <v>39899749.53744592</v>
       </c>
       <c r="D186">
-        <v>10295051.1181592</v>
+        <v>7707600.462554082</v>
       </c>
       <c r="E186">
-        <v>0.2162491950961185</v>
+        <v>0.1618993802964055</v>
       </c>
     </row>
     <row r="187">
@@ -3909,13 +3909,13 @@
         <v>3510600</v>
       </c>
       <c r="C187">
-        <v>7370589.179767828</v>
+        <v>4932068.851848152</v>
       </c>
       <c r="D187">
-        <v>-3859989.179767828</v>
+        <v>-1421468.851848152</v>
       </c>
       <c r="E187">
-        <v>-1.099524064196385</v>
+        <v>-0.4049076658827983</v>
       </c>
     </row>
     <row r="188">
@@ -3928,13 +3928,13 @@
         <v>2066585</v>
       </c>
       <c r="C188">
-        <v>2053420.675456054</v>
+        <v>2087542.622044618</v>
       </c>
       <c r="D188">
-        <v>13164.32454394619</v>
+        <v>-20957.62204461847</v>
       </c>
       <c r="E188">
-        <v>0.006370086177895509</v>
+        <v>-0.010141185600698</v>
       </c>
     </row>
     <row r="189">
@@ -3947,13 +3947,13 @@
         <v>2439025</v>
       </c>
       <c r="C189">
-        <v>3195714.840049752</v>
+        <v>2555584.912321013</v>
       </c>
       <c r="D189">
-        <v>-756689.8400497516</v>
+        <v>-116559.9123210134</v>
       </c>
       <c r="E189">
-        <v>-0.3102427568597089</v>
+        <v>-0.04778955210422747</v>
       </c>
     </row>
     <row r="190">
@@ -3966,13 +3966,13 @@
         <v>1997238</v>
       </c>
       <c r="C190">
-        <v>3422856.949751243</v>
+        <v>4949482.460905762</v>
       </c>
       <c r="D190">
-        <v>-1425618.949751243</v>
+        <v>-2952244.460905762</v>
       </c>
       <c r="E190">
-        <v>-0.7137952260828422</v>
+        <v>-1.478163574349057</v>
       </c>
     </row>
     <row r="191">
@@ -3985,13 +3985,13 @@
         <v>25679348</v>
       </c>
       <c r="C191">
-        <v>20988810.12736318</v>
+        <v>18606299.96353646</v>
       </c>
       <c r="D191">
-        <v>4690537.872636817</v>
+        <v>7073048.03646354</v>
       </c>
       <c r="E191">
-        <v>0.1826579815280675</v>
+        <v>0.2754372126762541</v>
       </c>
     </row>
     <row r="192">
@@ -4004,13 +4004,13 @@
         <v>2925360</v>
       </c>
       <c r="C192">
-        <v>7387684.720066336</v>
+        <v>5330142.079220777</v>
       </c>
       <c r="D192">
-        <v>-4462324.720066336</v>
+        <v>-2404782.079220777</v>
       </c>
       <c r="E192">
-        <v>-1.52539336015613</v>
+        <v>-0.822046544432404</v>
       </c>
     </row>
     <row r="193">
@@ -4023,13 +4023,13 @@
         <v>20000000</v>
       </c>
       <c r="C193">
-        <v>18797304.53988392</v>
+        <v>17875188.03879454</v>
       </c>
       <c r="D193">
-        <v>1202695.460116085</v>
+        <v>2124811.961205456</v>
       </c>
       <c r="E193">
-        <v>0.06013477300580423</v>
+        <v>0.1062405980602728</v>
       </c>
     </row>
     <row r="194">
@@ -4042,13 +4042,13 @@
         <v>47607350</v>
       </c>
       <c r="C194">
-        <v>41581763.22819237</v>
+        <v>32361594.74050949</v>
       </c>
       <c r="D194">
-        <v>6025586.771807633</v>
+        <v>15245755.25949051</v>
       </c>
       <c r="E194">
-        <v>0.1265684137387952</v>
+        <v>0.3202395272891794</v>
       </c>
     </row>
     <row r="195">
@@ -4061,13 +4061,13 @@
         <v>2019706</v>
       </c>
       <c r="C195">
-        <v>2070567.707877281</v>
+        <v>1898531.164269063</v>
       </c>
       <c r="D195">
-        <v>-50861.70787728066</v>
+        <v>121174.8357309368</v>
       </c>
       <c r="E195">
-        <v>-0.02518272851458611</v>
+        <v>0.05999627457210942</v>
       </c>
     </row>
     <row r="196">
@@ -4080,13 +4080,13 @@
         <v>2586665</v>
       </c>
       <c r="C196">
-        <v>2598277.646849088</v>
+        <v>2640311.950699301</v>
       </c>
       <c r="D196">
-        <v>-11612.64684908791</v>
+        <v>-53646.95069930051</v>
       </c>
       <c r="E196">
-        <v>-0.004489428220928456</v>
+        <v>-0.02073981389136224</v>
       </c>
     </row>
     <row r="197">
@@ -4099,13 +4099,13 @@
         <v>5379706</v>
       </c>
       <c r="C197">
-        <v>6498838.839220564</v>
+        <v>8175244.201998</v>
       </c>
       <c r="D197">
-        <v>-1119132.839220564</v>
+        <v>-2795538.201998</v>
       </c>
       <c r="E197">
-        <v>-0.2080286244676872</v>
+        <v>-0.519645163136796</v>
       </c>
     </row>
     <row r="198">
@@ -4118,13 +4118,13 @@
         <v>12015150</v>
       </c>
       <c r="C198">
-        <v>10462085.38175787</v>
+        <v>12224938.10990677</v>
       </c>
       <c r="D198">
-        <v>1553064.618242126</v>
+        <v>-209788.1099067722</v>
       </c>
       <c r="E198">
-        <v>0.1292588622066413</v>
+        <v>-0.01746029886491406</v>
       </c>
     </row>
     <row r="199">
@@ -4137,13 +4137,13 @@
         <v>9895833</v>
       </c>
       <c r="C199">
-        <v>9687335.258374793</v>
+        <v>8767810.909607066</v>
       </c>
       <c r="D199">
-        <v>208497.7416252065</v>
+        <v>1128022.090392934</v>
       </c>
       <c r="E199">
-        <v>0.02106924617919548</v>
+        <v>0.1139896045530411</v>
       </c>
     </row>
     <row r="200">
@@ -4156,13 +4156,13 @@
         <v>14000000</v>
       </c>
       <c r="C200">
-        <v>14967186.94660033</v>
+        <v>15131550.63093575</v>
       </c>
       <c r="D200">
-        <v>-967186.946600331</v>
+        <v>-1131550.630935749</v>
       </c>
       <c r="E200">
-        <v>-0.06908478190002364</v>
+        <v>-0.08082504506683921</v>
       </c>
     </row>
     <row r="201">
@@ -4175,13 +4175,13 @@
         <v>2019706</v>
       </c>
       <c r="C201">
-        <v>6123935.955389718</v>
+        <v>3843187.807559102</v>
       </c>
       <c r="D201">
-        <v>-4104229.955389718</v>
+        <v>-1823481.807559102</v>
       </c>
       <c r="E201">
-        <v>-2.032092767655153</v>
+        <v>-0.9028451703164234</v>
       </c>
     </row>
     <row r="202">
@@ -4194,13 +4194,13 @@
         <v>2019706</v>
       </c>
       <c r="C202">
-        <v>4143881.353067994</v>
+        <v>3338845.711588413</v>
       </c>
       <c r="D202">
-        <v>-2124175.353067994</v>
+        <v>-1319139.711588413</v>
       </c>
       <c r="E202">
-        <v>-1.051725029815227</v>
+        <v>-0.6531345213552928</v>
       </c>
     </row>
     <row r="203">
@@ -4213,13 +4213,13 @@
         <v>2352000</v>
       </c>
       <c r="C203">
-        <v>3294690.055721394</v>
+        <v>3128214.952763901</v>
       </c>
       <c r="D203">
-        <v>-942690.0557213943</v>
+        <v>-776214.9527639006</v>
       </c>
       <c r="E203">
-        <v>-0.4008035951196404</v>
+        <v>-0.3300233642703659</v>
       </c>
     </row>
     <row r="204">
@@ -4232,13 +4232,13 @@
         <v>14763636</v>
       </c>
       <c r="C204">
-        <v>9579263.525953563</v>
+        <v>10978555.59114219</v>
       </c>
       <c r="D204">
-        <v>5184372.474046437</v>
+        <v>3785080.408857811</v>
       </c>
       <c r="E204">
-        <v>0.3511582427287179</v>
+        <v>0.2563786054368863</v>
       </c>
     </row>
     <row r="205">
@@ -4251,13 +4251,13 @@
         <v>2831160</v>
       </c>
       <c r="C205">
-        <v>4418705.311359867</v>
+        <v>3806934.66078921</v>
       </c>
       <c r="D205">
-        <v>-1587545.311359867</v>
+        <v>-975774.6607892103</v>
       </c>
       <c r="E205">
-        <v>-0.5607402306333328</v>
+        <v>-0.3446554277360553</v>
       </c>
     </row>
     <row r="206">
@@ -4270,13 +4270,13 @@
         <v>3722040</v>
       </c>
       <c r="C206">
-        <v>4905337.901243782</v>
+        <v>5393905.754945053</v>
       </c>
       <c r="D206">
-        <v>-1183297.901243782</v>
+        <v>-1671865.754945053</v>
       </c>
       <c r="E206">
-        <v>-0.3179164923654184</v>
+        <v>-0.4491799537202859</v>
       </c>
     </row>
     <row r="207">
@@ -4289,13 +4289,13 @@
         <v>11000000</v>
       </c>
       <c r="C207">
-        <v>8564308.439303486</v>
+        <v>8688775.016516816</v>
       </c>
       <c r="D207">
-        <v>2435691.560696514</v>
+        <v>2311224.983483184</v>
       </c>
       <c r="E207">
-        <v>0.2214265055178649</v>
+        <v>0.2101113621348349</v>
       </c>
     </row>
     <row r="208">
@@ -4308,13 +4308,13 @@
         <v>1845593</v>
       </c>
       <c r="C208">
-        <v>3909689.572470977</v>
+        <v>4037459.327189479</v>
       </c>
       <c r="D208">
-        <v>-2064096.572470977</v>
+        <v>-2191866.327189479</v>
       </c>
       <c r="E208">
-        <v>-1.118392068278855</v>
+        <v>-1.187621716808353</v>
       </c>
     </row>
     <row r="209">
@@ -4327,13 +4327,13 @@
         <v>2400000</v>
       </c>
       <c r="C209">
-        <v>3756256.886152571</v>
+        <v>3681813.983932731</v>
       </c>
       <c r="D209">
-        <v>-1356256.886152571</v>
+        <v>-1281813.983932731</v>
       </c>
       <c r="E209">
-        <v>-0.5651070358969044</v>
+        <v>-0.5340891599719714</v>
       </c>
     </row>
     <row r="210">
@@ -4346,13 +4346,13 @@
         <v>5370370</v>
       </c>
       <c r="C210">
-        <v>2159394.59013267</v>
+        <v>2238995.972161172</v>
       </c>
       <c r="D210">
-        <v>3210975.40986733</v>
+        <v>3131374.027838828</v>
       </c>
       <c r="E210">
-        <v>0.5979058072101793</v>
+        <v>0.5830834798791941</v>
       </c>
     </row>
     <row r="211">
@@ -4365,13 +4365,13 @@
         <v>2413304</v>
       </c>
       <c r="C211">
-        <v>4187311.43482587</v>
+        <v>7231862.344322352</v>
       </c>
       <c r="D211">
-        <v>-1774007.43482587</v>
+        <v>-4818558.344322352</v>
       </c>
       <c r="E211">
-        <v>-0.7350948885121268</v>
+        <v>-1.996664466773499</v>
       </c>
     </row>
     <row r="212">
@@ -4384,13 +4384,13 @@
         <v>6012840</v>
       </c>
       <c r="C212">
-        <v>5777911.063764513</v>
+        <v>6158964.209307357</v>
       </c>
       <c r="D212">
-        <v>234928.9362354875</v>
+        <v>-146124.2093073567</v>
       </c>
       <c r="E212">
-        <v>0.03907121031583868</v>
+        <v>-0.02430202854347642</v>
       </c>
     </row>
     <row r="213">
@@ -4403,13 +4403,13 @@
         <v>25568182</v>
       </c>
       <c r="C213">
-        <v>27620960.17230514</v>
+        <v>26408695.07698967</v>
       </c>
       <c r="D213">
-        <v>-2052778.172305141</v>
+        <v>-840513.0769896656</v>
       </c>
       <c r="E213">
-        <v>-0.08028643461256418</v>
+        <v>-0.0328734001107183</v>
       </c>
     </row>
     <row r="214">
@@ -4422,13 +4422,13 @@
         <v>8000000</v>
       </c>
       <c r="C214">
-        <v>6932049.290132671</v>
+        <v>7120173.522510818</v>
       </c>
       <c r="D214">
-        <v>1067950.709867329</v>
+        <v>879826.4774891818</v>
       </c>
       <c r="E214">
-        <v>0.1334938387334162</v>
+        <v>0.1099783096861477</v>
       </c>
     </row>
     <row r="215">
@@ -4441,13 +4441,13 @@
         <v>3199920</v>
       </c>
       <c r="C215">
-        <v>2961210.262603649</v>
+        <v>3101073.304628705</v>
       </c>
       <c r="D215">
-        <v>238709.7373963506</v>
+        <v>98846.69537129533</v>
       </c>
       <c r="E215">
-        <v>0.07459865790280713</v>
+        <v>0.03089036456264386</v>
       </c>
     </row>
     <row r="216">
@@ -4460,13 +4460,13 @@
         <v>40064220</v>
       </c>
       <c r="C216">
-        <v>33759726.2309287</v>
+        <v>28265562.77787212</v>
       </c>
       <c r="D216">
-        <v>6304493.769071303</v>
+        <v>11798657.22212788</v>
       </c>
       <c r="E216">
-        <v>0.1573597032232577</v>
+        <v>0.2944936210446099</v>
       </c>
     </row>
     <row r="217">
@@ -4479,13 +4479,13 @@
         <v>2019706</v>
       </c>
       <c r="C217">
-        <v>3051059.139883915</v>
+        <v>3507706.473959375</v>
       </c>
       <c r="D217">
-        <v>-1031353.139883915</v>
+        <v>-1488000.473959375</v>
       </c>
       <c r="E217">
-        <v>-0.5106451829543087</v>
+        <v>-0.736741126658719</v>
       </c>
     </row>
     <row r="218">
@@ -4498,13 +4498,13 @@
         <v>45640084</v>
       </c>
       <c r="C218">
-        <v>39509759.61160863</v>
+        <v>39685736.84415583</v>
       </c>
       <c r="D218">
-        <v>6130324.388391368</v>
+        <v>5954347.155844167</v>
       </c>
       <c r="E218">
-        <v>0.1343188673445774</v>
+        <v>0.1304631068567746</v>
       </c>
     </row>
     <row r="219">
@@ -4517,13 +4517,13 @@
         <v>15384616</v>
       </c>
       <c r="C219">
-        <v>19324268.03772803</v>
+        <v>20972853.42395937</v>
       </c>
       <c r="D219">
-        <v>-3939652.03772803</v>
+        <v>-5588237.423959367</v>
       </c>
       <c r="E219">
-        <v>-0.256077372209227</v>
+        <v>-0.3632354180279421</v>
       </c>
     </row>
     <row r="220">
@@ -4536,13 +4536,13 @@
         <v>5722116</v>
       </c>
       <c r="C220">
-        <v>4834658.416749586</v>
+        <v>4762947.175174821</v>
       </c>
       <c r="D220">
-        <v>887457.5832504136</v>
+        <v>959168.8248251788</v>
       </c>
       <c r="E220">
-        <v>0.1550925537424291</v>
+        <v>0.1676248480151711</v>
       </c>
     </row>
     <row r="221">
@@ -4555,13 +4555,13 @@
         <v>1119563</v>
       </c>
       <c r="C221">
-        <v>1516717.772968491</v>
+        <v>1498240.936413587</v>
       </c>
       <c r="D221">
-        <v>-397154.7729684906</v>
+        <v>-378677.9364135871</v>
       </c>
       <c r="E221">
-        <v>-0.3547408881576924</v>
+        <v>-0.3382372733053763</v>
       </c>
     </row>
     <row r="222">
@@ -4574,13 +4574,13 @@
         <v>1801769</v>
       </c>
       <c r="C222">
-        <v>1990781.23681592</v>
+        <v>2383978.822327672</v>
       </c>
       <c r="D222">
-        <v>-189012.2368159203</v>
+        <v>-582209.822327672</v>
       </c>
       <c r="E222">
-        <v>-0.1049037012047162</v>
+        <v>-0.3231323340159987</v>
       </c>
     </row>
     <row r="223">
@@ -4593,13 +4593,13 @@
         <v>45640084</v>
       </c>
       <c r="C223">
-        <v>40550309.96351576</v>
+        <v>41917014.3297869</v>
       </c>
       <c r="D223">
-        <v>5089774.036484241</v>
+        <v>3723069.670213096</v>
       </c>
       <c r="E223">
-        <v>0.1115198218409116</v>
+        <v>0.08157455779908503</v>
       </c>
     </row>
     <row r="224">
@@ -4612,13 +4612,13 @@
         <v>6250000</v>
       </c>
       <c r="C224">
-        <v>5103724.795854065</v>
+        <v>4704569.255960705</v>
       </c>
       <c r="D224">
-        <v>1146275.204145935</v>
+        <v>1545430.744039295</v>
       </c>
       <c r="E224">
-        <v>0.1834040326633496</v>
+        <v>0.2472689190462872</v>
       </c>
     </row>
     <row r="225">
@@ -4631,13 +4631,13 @@
         <v>4775640</v>
       </c>
       <c r="C225">
-        <v>5067426.672222223</v>
+        <v>5146826.736263735</v>
       </c>
       <c r="D225">
-        <v>-291786.6722222231</v>
+        <v>-371186.7362637352</v>
       </c>
       <c r="E225">
-        <v>-0.06109896730537125</v>
+        <v>-0.07772502455455922</v>
       </c>
     </row>
     <row r="226">
@@ -4650,13 +4650,13 @@
         <v>1836096</v>
       </c>
       <c r="C226">
-        <v>6080386.498839137</v>
+        <v>5182209.705577757</v>
       </c>
       <c r="D226">
-        <v>-4244290.498839137</v>
+        <v>-3346113.705577757</v>
       </c>
       <c r="E226">
-        <v>-2.311584197579613</v>
+        <v>-1.822406729047804</v>
       </c>
     </row>
     <row r="227">
@@ -4669,13 +4669,13 @@
         <v>1119563</v>
       </c>
       <c r="C227">
-        <v>1677285.630845771</v>
+        <v>1485793.348951049</v>
       </c>
       <c r="D227">
-        <v>-557722.6308457709</v>
+        <v>-366230.3489510489</v>
       </c>
       <c r="E227">
-        <v>-0.4981610064335557</v>
+        <v>-0.3271190178230693</v>
       </c>
     </row>
     <row r="228">
@@ -4688,13 +4688,13 @@
         <v>1719864</v>
       </c>
       <c r="C228">
-        <v>2066349.175621891</v>
+        <v>1946319.586463537</v>
       </c>
       <c r="D228">
-        <v>-346485.1756218907</v>
+        <v>-226455.5864635368</v>
       </c>
       <c r="E228">
-        <v>-0.2014607990061369</v>
+        <v>-0.1316706358546588</v>
       </c>
     </row>
     <row r="229">
@@ -4707,13 +4707,13 @@
         <v>7500000</v>
       </c>
       <c r="C229">
-        <v>7219039.347844115</v>
+        <v>7021954.352264399</v>
       </c>
       <c r="D229">
-        <v>280960.6521558855</v>
+        <v>478045.6477356013</v>
       </c>
       <c r="E229">
-        <v>0.0374614202874514</v>
+        <v>0.06373941969808017</v>
       </c>
     </row>
     <row r="230">
@@ -4726,13 +4726,13 @@
         <v>25000000</v>
       </c>
       <c r="C230">
-        <v>12948284.02470979</v>
+        <v>22462242.54319013</v>
       </c>
       <c r="D230">
-        <v>12051715.97529021</v>
+        <v>2537757.456809867</v>
       </c>
       <c r="E230">
-        <v>0.4820686390116085</v>
+        <v>0.1015102982723947</v>
       </c>
     </row>
     <row r="231">
@@ -4745,13 +4745,13 @@
         <v>2019706</v>
       </c>
       <c r="C231">
-        <v>2686171.174295192</v>
+        <v>2223947.31212121</v>
       </c>
       <c r="D231">
-        <v>-666465.1742951917</v>
+        <v>-204241.3121212102</v>
       </c>
       <c r="E231">
-        <v>-0.3299812815801862</v>
+        <v>-0.10112427854411</v>
       </c>
     </row>
     <row r="232">
@@ -4764,13 +4764,13 @@
         <v>3835738</v>
       </c>
       <c r="C232">
-        <v>5597203.349585407</v>
+        <v>5564790.671511818</v>
       </c>
       <c r="D232">
-        <v>-1761465.349585407</v>
+        <v>-1729052.671511818</v>
       </c>
       <c r="E232">
-        <v>-0.4592246262871467</v>
+        <v>-0.4507744458854639</v>
       </c>
     </row>
     <row r="233">
@@ -4783,13 +4783,13 @@
         <v>29682540</v>
       </c>
       <c r="C233">
-        <v>22571708.020398</v>
+        <v>23894902.79786879</v>
       </c>
       <c r="D233">
-        <v>7110831.979601998</v>
+        <v>5787637.202131212</v>
       </c>
       <c r="E233">
-        <v>0.2395627860554386</v>
+        <v>0.1949845667564572</v>
       </c>
     </row>
     <row r="234">
@@ -4802,13 +4802,13 @@
         <v>8000000</v>
       </c>
       <c r="C234">
-        <v>5914627.796517414</v>
+        <v>7603430.484681979</v>
       </c>
       <c r="D234">
-        <v>2085372.203482586</v>
+        <v>396569.5153180212</v>
       </c>
       <c r="E234">
-        <v>0.2606715254353232</v>
+        <v>0.04957118941475265</v>
       </c>
     </row>
     <row r="235">
@@ -4821,13 +4821,13 @@
         <v>2019706</v>
       </c>
       <c r="C235">
-        <v>3278839.931260365</v>
+        <v>4927310.375541121</v>
       </c>
       <c r="D235">
-        <v>-1259133.931260365</v>
+        <v>-2907604.375541121</v>
       </c>
       <c r="E235">
-        <v>-0.6234243653583069</v>
+        <v>-1.439617635210828</v>
       </c>
     </row>
     <row r="236">
@@ -4840,13 +4840,13 @@
         <v>10576923</v>
       </c>
       <c r="C236">
-        <v>9742386.783499168</v>
+        <v>10141597.7980686</v>
       </c>
       <c r="D236">
-        <v>834536.2165008318</v>
+        <v>435325.2019313984</v>
       </c>
       <c r="E236">
-        <v>0.07890160649754487</v>
+        <v>0.0411580193910269</v>
       </c>
     </row>
     <row r="237">
@@ -4859,13 +4859,13 @@
         <v>3191400</v>
       </c>
       <c r="C237">
-        <v>3808710.073217247</v>
+        <v>4680844.949250746</v>
       </c>
       <c r="D237">
-        <v>-617310.0732172471</v>
+        <v>-1489444.949250746</v>
       </c>
       <c r="E237">
-        <v>-0.193429238960095</v>
+        <v>-0.4667058185281524</v>
       </c>
     </row>
     <row r="238">
@@ -4878,13 +4878,13 @@
         <v>2019706</v>
       </c>
       <c r="C238">
-        <v>4446108.073134328</v>
+        <v>4086909.245321347</v>
       </c>
       <c r="D238">
-        <v>-2426402.073134328</v>
+        <v>-2067203.245321347</v>
       </c>
       <c r="E238">
-        <v>-1.201363997103701</v>
+        <v>-1.023516910541112</v>
       </c>
     </row>
     <row r="239">
@@ -4897,13 +4897,13 @@
         <v>17259999</v>
       </c>
       <c r="C239">
-        <v>24809898.48946932</v>
+        <v>21358112.12162836</v>
       </c>
       <c r="D239">
-        <v>-7549899.489469323</v>
+        <v>-4098113.121628359</v>
       </c>
       <c r="E239">
-        <v>-0.437421780237028</v>
+        <v>-0.2374341459480014</v>
       </c>
     </row>
     <row r="240">
@@ -4916,13 +4916,13 @@
         <v>1930681</v>
       </c>
       <c r="C240">
-        <v>2983735.644444444</v>
+        <v>6589829.341674986</v>
       </c>
       <c r="D240">
-        <v>-1053054.644444444</v>
+        <v>-4659148.341674986</v>
       </c>
       <c r="E240">
-        <v>-0.5454317126674185</v>
+        <v>-2.413214995991045</v>
       </c>
     </row>
     <row r="241">
@@ -4935,13 +4935,13 @@
         <v>6802950</v>
       </c>
       <c r="C241">
-        <v>8209184.505721396</v>
+        <v>9466415.521228775</v>
       </c>
       <c r="D241">
-        <v>-1406234.505721396</v>
+        <v>-2663465.521228775</v>
       </c>
       <c r="E241">
-        <v>-0.2067095165658127</v>
+        <v>-0.3915162570985786</v>
       </c>
     </row>
     <row r="242">
@@ -4954,13 +4954,13 @@
         <v>7560000</v>
       </c>
       <c r="C242">
-        <v>6197906.653482586</v>
+        <v>7758961.155827507</v>
       </c>
       <c r="D242">
-        <v>1362093.346517414</v>
+        <v>-198961.1558275074</v>
       </c>
       <c r="E242">
-        <v>0.1801710775816685</v>
+        <v>-0.02631761320469674</v>
       </c>
     </row>
     <row r="243">
@@ -4973,13 +4973,13 @@
         <v>1930681</v>
       </c>
       <c r="C243">
-        <v>1893394.996517413</v>
+        <v>1902441.664069262</v>
       </c>
       <c r="D243">
-        <v>37286.00348258694</v>
+        <v>28239.3359307379</v>
       </c>
       <c r="E243">
-        <v>0.01931235842823695</v>
+        <v>0.01462661927617141</v>
       </c>
     </row>
     <row r="244">
@@ -4992,13 +4992,13 @@
         <v>2000000</v>
       </c>
       <c r="C244">
-        <v>3256320.148922056</v>
+        <v>3267466.665750918</v>
       </c>
       <c r="D244">
-        <v>-1256320.148922056</v>
+        <v>-1267466.665750918</v>
       </c>
       <c r="E244">
-        <v>-0.628160074461028</v>
+        <v>-0.6337333328754587</v>
       </c>
     </row>
     <row r="245">
@@ -5011,13 +5011,13 @@
         <v>6916080</v>
       </c>
       <c r="C245">
-        <v>7331003.036069652</v>
+        <v>6740841.26328671</v>
       </c>
       <c r="D245">
-        <v>-414923.0360696521</v>
+        <v>175238.7367132902</v>
       </c>
       <c r="E245">
-        <v>-0.05999396132919979</v>
+        <v>0.02533787011042241</v>
       </c>
     </row>
     <row r="246">
@@ -5030,13 +5030,13 @@
         <v>2019706</v>
       </c>
       <c r="C246">
-        <v>5069282.210364842</v>
+        <v>5690612.67567432</v>
       </c>
       <c r="D246">
-        <v>-3049576.210364842</v>
+        <v>-3670906.67567432</v>
       </c>
       <c r="E246">
-        <v>-1.50991095256678</v>
+        <v>-1.817545066298917</v>
       </c>
     </row>
     <row r="247">
@@ -5049,13 +5049,13 @@
         <v>4343920</v>
       </c>
       <c r="C247">
-        <v>24249315.80306799</v>
+        <v>10729318.78181818</v>
       </c>
       <c r="D247">
-        <v>-19905395.80306799</v>
+        <v>-6385398.781818179</v>
       </c>
       <c r="E247">
-        <v>-4.582357824975596</v>
+        <v>-1.469962333979028</v>
       </c>
     </row>
     <row r="248">
@@ -5068,13 +5068,13 @@
         <v>1799163</v>
       </c>
       <c r="C248">
-        <v>4134696.628689884</v>
+        <v>5961030.406859809</v>
       </c>
       <c r="D248">
-        <v>-2335533.628689884</v>
+        <v>-4161867.406859809</v>
       </c>
       <c r="E248">
-        <v>-1.298122309479399</v>
+        <v>-2.31322420862357</v>
       </c>
     </row>
     <row r="249">
@@ -5087,13 +5087,13 @@
         <v>1836096</v>
       </c>
       <c r="C249">
-        <v>1958457.29344942</v>
+        <v>1863314.486896435</v>
       </c>
       <c r="D249">
-        <v>-122361.29344942</v>
+        <v>-27218.48689643526</v>
       </c>
       <c r="E249">
-        <v>-0.06664210011318582</v>
+        <v>-0.01482410881371958</v>
       </c>
     </row>
     <row r="250">
@@ -5106,13 +5106,13 @@
         <v>35802469</v>
       </c>
       <c r="C250">
-        <v>30243267.81177447</v>
+        <v>34026647.24643691</v>
       </c>
       <c r="D250">
-        <v>5559201.188225526</v>
+        <v>1775821.753563091</v>
       </c>
       <c r="E250">
-        <v>0.1552742406738911</v>
+        <v>0.04960053882214355</v>
       </c>
     </row>
     <row r="251">
@@ -5125,13 +5125,13 @@
         <v>8700000</v>
       </c>
       <c r="C251">
-        <v>8923632.381426206</v>
+        <v>8110490.610123205</v>
       </c>
       <c r="D251">
-        <v>-223632.3814262059</v>
+        <v>589509.389876795</v>
       </c>
       <c r="E251">
-        <v>-0.02570487142829952</v>
+        <v>0.0677596999858385</v>
       </c>
     </row>
     <row r="252">
@@ -5144,13 +5144,13 @@
         <v>3901399</v>
       </c>
       <c r="C252">
-        <v>6365162.443200663</v>
+        <v>4689233.20467866</v>
       </c>
       <c r="D252">
-        <v>-2463763.443200663</v>
+        <v>-787834.2046786603</v>
       </c>
       <c r="E252">
-        <v>-0.6315076830646296</v>
+        <v>-0.2019363322435517</v>
       </c>
     </row>
     <row r="253">
@@ -5163,13 +5163,13 @@
         <v>4516000</v>
       </c>
       <c r="C253">
-        <v>3939342.454560529</v>
+        <v>3943631.334032634</v>
       </c>
       <c r="D253">
-        <v>576657.5454394706</v>
+        <v>572368.6659673662</v>
       </c>
       <c r="E253">
-        <v>0.1276921048360209</v>
+        <v>0.126742397246981</v>
       </c>
     </row>
     <row r="254">
@@ -5182,13 +5182,13 @@
         <v>13750000</v>
       </c>
       <c r="C254">
-        <v>12615311.02852405</v>
+        <v>12361788.66706627</v>
       </c>
       <c r="D254">
-        <v>1134688.971475951</v>
+        <v>1388211.332933733</v>
       </c>
       <c r="E254">
-        <v>0.0825228342891601</v>
+        <v>0.1009608242133624</v>
       </c>
     </row>
     <row r="255">
@@ -5201,13 +5201,13 @@
         <v>4368030</v>
       </c>
       <c r="C255">
-        <v>5102960.140215589</v>
+        <v>4580199.140509491</v>
       </c>
       <c r="D255">
-        <v>-734930.1402155887</v>
+        <v>-212169.1405094909</v>
       </c>
       <c r="E255">
-        <v>-0.1682520816513597</v>
+        <v>-0.04857318757185524</v>
       </c>
     </row>
     <row r="256">
@@ -5220,13 +5220,13 @@
         <v>1719864</v>
       </c>
       <c r="C256">
-        <v>2978564.840215588</v>
+        <v>2613598.802297702</v>
       </c>
       <c r="D256">
-        <v>-1258700.840215588</v>
+        <v>-893734.8022977016</v>
       </c>
       <c r="E256">
-        <v>-0.7318606821327666</v>
+        <v>-0.5196543460981227</v>
       </c>
     </row>
     <row r="257">
@@ -5239,13 +5239,13 @@
         <v>2320000</v>
       </c>
       <c r="C257">
-        <v>2785869.4039801</v>
+        <v>2820954.327455876</v>
       </c>
       <c r="D257">
-        <v>-465869.4039800996</v>
+        <v>-500954.3274558764</v>
       </c>
       <c r="E257">
-        <v>-0.2008057775776291</v>
+        <v>-0.2159285894206364</v>
       </c>
     </row>
     <row r="258">
@@ -5258,13 +5258,13 @@
         <v>8000000</v>
       </c>
       <c r="C258">
-        <v>9936547.189635158</v>
+        <v>10193390.700333</v>
       </c>
       <c r="D258">
-        <v>-1936547.189635158</v>
+        <v>-2193390.700333005</v>
       </c>
       <c r="E258">
-        <v>-0.2420683987043947</v>
+        <v>-0.2741738375416256</v>
       </c>
     </row>
     <row r="259">
@@ -5277,13 +5277,13 @@
         <v>1997238</v>
       </c>
       <c r="C259">
-        <v>2942993.013432836</v>
+        <v>5027589.073976022</v>
       </c>
       <c r="D259">
-        <v>-945755.0134328362</v>
+        <v>-3030351.073976022</v>
       </c>
       <c r="E259">
-        <v>-0.4735314536539141</v>
+        <v>-1.517270888084456</v>
       </c>
     </row>
     <row r="260">
@@ -5296,13 +5296,13 @@
         <v>2019706</v>
       </c>
       <c r="C260">
-        <v>4035550.35</v>
+        <v>4680449.554728605</v>
       </c>
       <c r="D260">
-        <v>-2015844.35</v>
+        <v>-2660743.554728605</v>
       </c>
       <c r="E260">
-        <v>-0.9980880138000281</v>
+        <v>-1.317391518730253</v>
       </c>
     </row>
     <row r="261">
@@ -5315,13 +5315,13 @@
         <v>7723000</v>
       </c>
       <c r="C261">
-        <v>7748233.681674958</v>
+        <v>6736008.900316346</v>
       </c>
       <c r="D261">
-        <v>-25233.68167495821</v>
+        <v>986991.0996836536</v>
       </c>
       <c r="E261">
-        <v>-0.003267341923469922</v>
+        <v>0.1277989252471389</v>
       </c>
     </row>
     <row r="262">
@@ -5334,13 +5334,13 @@
         <v>29320988</v>
       </c>
       <c r="C262">
-        <v>16310957.31401327</v>
+        <v>23993885.46943057</v>
       </c>
       <c r="D262">
-        <v>13010030.68598673</v>
+        <v>5327102.530569434</v>
       </c>
       <c r="E262">
-        <v>0.4437105150067499</v>
+        <v>0.1816822315322197</v>
       </c>
     </row>
     <row r="263">
@@ -5353,13 +5353,13 @@
         <v>10880400</v>
       </c>
       <c r="C263">
-        <v>10449190.45058043</v>
+        <v>9278269.931801531</v>
       </c>
       <c r="D263">
-        <v>431209.5494195689</v>
+        <v>1602130.068198469</v>
       </c>
       <c r="E263">
-        <v>0.03963177359468115</v>
+        <v>0.1472491882833782</v>
       </c>
     </row>
     <row r="264">
@@ -5372,13 +5372,13 @@
         <v>1800000</v>
       </c>
       <c r="C264">
-        <v>2193848.37039801</v>
+        <v>2622979.271994673</v>
       </c>
       <c r="D264">
-        <v>-393848.3703980097</v>
+        <v>-822979.2719946732</v>
       </c>
       <c r="E264">
-        <v>-0.2188046502211165</v>
+        <v>-0.4572107066637073</v>
       </c>
     </row>
     <row r="265">
@@ -5391,13 +5391,13 @@
         <v>2966040</v>
       </c>
       <c r="C265">
-        <v>3537168.528938639</v>
+        <v>3031416.641791543</v>
       </c>
       <c r="D265">
-        <v>-571128.5289386385</v>
+        <v>-65376.64179154299</v>
       </c>
       <c r="E265">
-        <v>-0.192555909205081</v>
+        <v>-0.02204172627191238</v>
       </c>
     </row>
     <row r="266">
@@ -5410,13 +5410,13 @@
         <v>6802950</v>
       </c>
       <c r="C266">
-        <v>6109447.265422887</v>
+        <v>5876167.375724271</v>
       </c>
       <c r="D266">
-        <v>693502.7345771128</v>
+        <v>926782.6242757291</v>
       </c>
       <c r="E266">
-        <v>0.1019414716523145</v>
+        <v>0.1362324615462011</v>
       </c>
     </row>
     <row r="267">
@@ -5429,13 +5429,13 @@
         <v>5000000</v>
       </c>
       <c r="C267">
-        <v>4869649.782172471</v>
+        <v>5102941.322377624</v>
       </c>
       <c r="D267">
-        <v>130350.2178275287</v>
+        <v>-102941.322377624</v>
       </c>
       <c r="E267">
-        <v>0.02607004356550574</v>
+        <v>-0.0205882644755248</v>
       </c>
     </row>
     <row r="268">
@@ -5448,13 +5448,13 @@
         <v>1719864</v>
       </c>
       <c r="C268">
-        <v>1910617.564262024</v>
+        <v>1947700.536879787</v>
       </c>
       <c r="D268">
-        <v>-190753.5642620237</v>
+        <v>-227836.5368797868</v>
       </c>
       <c r="E268">
-        <v>-0.1109120048224881</v>
+        <v>-0.1324735774920498</v>
       </c>
     </row>
     <row r="269">
@@ -5467,13 +5467,13 @@
         <v>5063640</v>
       </c>
       <c r="C269">
-        <v>4973742.454809288</v>
+        <v>3434199.254262404</v>
       </c>
       <c r="D269">
-        <v>89897.54519071244</v>
+        <v>1629440.745737596</v>
       </c>
       <c r="E269">
-        <v>0.01775354195612493</v>
+        <v>0.3217923757884835</v>
       </c>
     </row>
     <row r="270">
@@ -5486,13 +5486,13 @@
         <v>33162030</v>
       </c>
       <c r="C270">
-        <v>33242067.42470977</v>
+        <v>33272521.24657011</v>
       </c>
       <c r="D270">
-        <v>-80037.42470977455</v>
+        <v>-110491.246570114</v>
       </c>
       <c r="E270">
-        <v>-0.002413526093239001</v>
+        <v>-0.003331860159649878</v>
       </c>
     </row>
     <row r="271">
@@ -5505,13 +5505,13 @@
         <v>8882640</v>
       </c>
       <c r="C271">
-        <v>16487360.94386401</v>
+        <v>12742824.72186147</v>
       </c>
       <c r="D271">
-        <v>-7604720.943864014</v>
+        <v>-3860184.721861472</v>
       </c>
       <c r="E271">
-        <v>-0.8561329676609672</v>
+        <v>-0.4345762883401187</v>
       </c>
     </row>
     <row r="272">
@@ -5524,13 +5524,13 @@
         <v>9945830</v>
       </c>
       <c r="C272">
-        <v>11718701.41782753</v>
+        <v>12305109.56285382</v>
       </c>
       <c r="D272">
-        <v>-1772871.417827534</v>
+        <v>-2359279.562853824</v>
       </c>
       <c r="E272">
-        <v>-0.1782527368583149</v>
+        <v>-0.2372129387747251</v>
       </c>
     </row>
     <row r="273">
@@ -5543,13 +5543,13 @@
         <v>3918480</v>
       </c>
       <c r="C273">
-        <v>3584524.686898839</v>
+        <v>3790853.539793538</v>
       </c>
       <c r="D273">
-        <v>333955.3131011608</v>
+        <v>127626.4602064621</v>
       </c>
       <c r="E273">
-        <v>0.08522572862466078</v>
+        <v>0.03257039979952994</v>
       </c>
     </row>
     <row r="274">
@@ -5562,13 +5562,13 @@
         <v>2421720</v>
       </c>
       <c r="C274">
-        <v>2063764.648092869</v>
+        <v>2529464.548851148</v>
       </c>
       <c r="D274">
-        <v>357955.351907131</v>
+        <v>-107744.5488511482</v>
       </c>
       <c r="E274">
-        <v>0.1478103793614171</v>
+        <v>-0.04449091920252887</v>
       </c>
     </row>
     <row r="275">
@@ -5581,13 +5581,13 @@
         <v>34005250</v>
       </c>
       <c r="C275">
-        <v>32039723.02280265</v>
+        <v>30997551.62237764</v>
       </c>
       <c r="D275">
-        <v>1965526.977197353</v>
+        <v>3007698.377622359</v>
       </c>
       <c r="E275">
-        <v>0.05780069186955993</v>
+        <v>0.0884480595679302</v>
       </c>
     </row>
     <row r="276">
@@ -5600,13 +5600,13 @@
         <v>17116279</v>
       </c>
       <c r="C276">
-        <v>12538905.3247927</v>
+        <v>12890987.42597402</v>
       </c>
       <c r="D276">
-        <v>4577373.675207296</v>
+        <v>4225291.574025979</v>
       </c>
       <c r="E276">
-        <v>0.2674280826578777</v>
+        <v>0.2468580685104502</v>
       </c>
     </row>
     <row r="277">
@@ -5619,13 +5619,13 @@
         <v>2019706</v>
       </c>
       <c r="C277">
-        <v>5688253.938225538</v>
+        <v>3666273.268165169</v>
       </c>
       <c r="D277">
-        <v>-3668547.938225538</v>
+        <v>-1646567.268165169</v>
       </c>
       <c r="E277">
-        <v>-1.816377204516667</v>
+        <v>-0.8152509663115173</v>
       </c>
     </row>
     <row r="278">
@@ -5638,13 +5638,13 @@
         <v>3359280</v>
       </c>
       <c r="C278">
-        <v>13460122.63756219</v>
+        <v>5789937.463286714</v>
       </c>
       <c r="D278">
-        <v>-10100842.63756219</v>
+        <v>-2430657.463286714</v>
       </c>
       <c r="E278">
-        <v>-3.006847490403357</v>
+        <v>-0.7235650089562983</v>
       </c>
     </row>
     <row r="279">
@@ -5657,13 +5657,13 @@
         <v>18214000</v>
       </c>
       <c r="C279">
-        <v>22477301.17810945</v>
+        <v>24654600.91914752</v>
       </c>
       <c r="D279">
-        <v>-4263301.178109448</v>
+        <v>-6440600.919147518</v>
       </c>
       <c r="E279">
-        <v>-0.2340672657356675</v>
+        <v>-0.3536071658695244</v>
       </c>
     </row>
     <row r="280">
@@ -5676,13 +5676,13 @@
         <v>33833400</v>
       </c>
       <c r="C280">
-        <v>29342759.02470978</v>
+        <v>21155841.87695638</v>
       </c>
       <c r="D280">
-        <v>4490640.975290217</v>
+        <v>12677558.12304362</v>
       </c>
       <c r="E280">
-        <v>0.1327280431552908</v>
+        <v>0.3747054130842192</v>
       </c>
     </row>
     <row r="281">
@@ -5695,13 +5695,13 @@
         <v>8409000</v>
       </c>
       <c r="C281">
-        <v>13141332.4800995</v>
+        <v>10949090.14675325</v>
       </c>
       <c r="D281">
-        <v>-4732332.480099499</v>
+        <v>-2540090.146753253</v>
       </c>
       <c r="E281">
-        <v>-0.5627699464977404</v>
+        <v>-0.3020680398089254</v>
       </c>
     </row>
     <row r="282">
@@ -5714,13 +5714,13 @@
         <v>2847480</v>
       </c>
       <c r="C282">
-        <v>3144168.345936981</v>
+        <v>2919686.762570762</v>
       </c>
       <c r="D282">
-        <v>-296688.3459369815</v>
+        <v>-72206.76257076208</v>
       </c>
       <c r="E282">
-        <v>-0.1041933028281082</v>
+        <v>-0.0253581280889636</v>
       </c>
     </row>
     <row r="283">
@@ -5733,13 +5733,13 @@
         <v>3500000</v>
       </c>
       <c r="C283">
-        <v>5016726.608208954</v>
+        <v>4497504.090076588</v>
       </c>
       <c r="D283">
-        <v>-1516726.608208954</v>
+        <v>-997504.0900765881</v>
       </c>
       <c r="E283">
-        <v>-0.4333504594882727</v>
+        <v>-0.2850011685933109</v>
       </c>
     </row>
     <row r="284">
@@ -5752,13 +5752,13 @@
         <v>2019706</v>
       </c>
       <c r="C284">
-        <v>2307146.097595356</v>
+        <v>2276858.107875459</v>
       </c>
       <c r="D284">
-        <v>-287440.0975953564</v>
+        <v>-257152.1078754589</v>
       </c>
       <c r="E284">
-        <v>-0.1423177915970723</v>
+        <v>-0.1273215546596677</v>
       </c>
     </row>
     <row r="285">
@@ -5771,13 +5771,13 @@
         <v>10375000</v>
       </c>
       <c r="C285">
-        <v>8842224.819983415</v>
+        <v>9110878.186230434</v>
       </c>
       <c r="D285">
-        <v>1532775.180016585</v>
+        <v>1264121.813769566</v>
       </c>
       <c r="E285">
-        <v>0.1477373667485865</v>
+        <v>0.121843066387428</v>
       </c>
     </row>
     <row r="286">
@@ -5790,13 +5790,13 @@
         <v>2131905</v>
       </c>
       <c r="C286">
-        <v>7231933.214510782</v>
+        <v>6587151.574625368</v>
       </c>
       <c r="D286">
-        <v>-5100028.214510782</v>
+        <v>-4455246.574625368</v>
       </c>
       <c r="E286">
-        <v>-2.392239904925774</v>
+        <v>-2.089796015594207</v>
       </c>
     </row>
     <row r="287">
@@ -5809,13 +5809,13 @@
         <v>5634257</v>
       </c>
       <c r="C287">
-        <v>6594053.492703155</v>
+        <v>6413361.606426906</v>
       </c>
       <c r="D287">
-        <v>-959796.4927031547</v>
+        <v>-779104.6064269058</v>
       </c>
       <c r="E287">
-        <v>-0.1703501442520557</v>
+        <v>-0.1382799198593365</v>
       </c>
     </row>
     <row r="288">
@@ -5828,13 +5828,13 @@
         <v>8800000</v>
       </c>
       <c r="C288">
-        <v>7879009.012603647</v>
+        <v>8458359.227272721</v>
       </c>
       <c r="D288">
-        <v>920990.9873963529</v>
+        <v>341640.772727279</v>
       </c>
       <c r="E288">
-        <v>0.1046580667495856</v>
+        <v>0.03882281508264534</v>
       </c>
     </row>
     <row r="289">
@@ -5847,13 +5847,13 @@
         <v>4306281</v>
       </c>
       <c r="C289">
-        <v>3362850.789054725</v>
+        <v>3507236.294255742</v>
       </c>
       <c r="D289">
-        <v>943430.2109452747</v>
+        <v>799044.7057442577</v>
       </c>
       <c r="E289">
-        <v>0.2190823615424248</v>
+        <v>0.185553312880478</v>
       </c>
     </row>
     <row r="290">
@@ -5866,13 +5866,13 @@
         <v>16875000</v>
       </c>
       <c r="C290">
-        <v>19776042.34361525</v>
+        <v>20125717.87823843</v>
       </c>
       <c r="D290">
-        <v>-2901042.343615249</v>
+        <v>-3250717.878238432</v>
       </c>
       <c r="E290">
-        <v>-0.1719136203623851</v>
+        <v>-0.1926351335252404</v>
       </c>
     </row>
     <row r="291">
@@ -5885,13 +5885,13 @@
         <v>3000000</v>
       </c>
       <c r="C291">
-        <v>3558738.252238806</v>
+        <v>3815455.784632036</v>
       </c>
       <c r="D291">
-        <v>-558738.2522388063</v>
+        <v>-815455.7846320355</v>
       </c>
       <c r="E291">
-        <v>-0.1862460840796021</v>
+        <v>-0.2718185948773452</v>
       </c>
     </row>
     <row r="292">
@@ -5904,13 +5904,13 @@
         <v>9500000</v>
       </c>
       <c r="C292">
-        <v>9132256.052238801</v>
+        <v>8868080.021678323</v>
       </c>
       <c r="D292">
-        <v>367743.9477611985</v>
+        <v>631919.9783216771</v>
       </c>
       <c r="E292">
-        <v>0.03870988923802089</v>
+        <v>0.06651789245491338</v>
       </c>
     </row>
     <row r="293">
@@ -5923,13 +5923,13 @@
         <v>5266713</v>
       </c>
       <c r="C293">
-        <v>2741720.29809287</v>
+        <v>3376953.376590078</v>
       </c>
       <c r="D293">
-        <v>2524992.70190713</v>
+        <v>1889759.623409922</v>
       </c>
       <c r="E293">
-        <v>0.4794247763087016</v>
+        <v>0.358811961732094</v>
       </c>
     </row>
     <row r="294">
@@ -5942,13 +5942,13 @@
         <v>2815937</v>
       </c>
       <c r="C294">
-        <v>3097835.815008292</v>
+        <v>3130488.227355977</v>
       </c>
       <c r="D294">
-        <v>-281898.815008292</v>
+        <v>-314551.2273559766</v>
       </c>
       <c r="E294">
-        <v>-0.1001083529241925</v>
+        <v>-0.1117039292271015</v>
       </c>
     </row>
     <row r="295">
@@ -5961,13 +5961,13 @@
         <v>8109063</v>
       </c>
       <c r="C295">
-        <v>6734405.282006633</v>
+        <v>6594105.054362309</v>
       </c>
       <c r="D295">
-        <v>1374657.717993367</v>
+        <v>1514957.945637691</v>
       </c>
       <c r="E295">
-        <v>0.1695211540462032</v>
+        <v>0.1868228111728434</v>
       </c>
     </row>
     <row r="296">
@@ -5980,13 +5980,13 @@
         <v>8920795</v>
       </c>
       <c r="C296">
-        <v>8271494.11641791</v>
+        <v>7336923.304861797</v>
       </c>
       <c r="D296">
-        <v>649300.88358209</v>
+        <v>1583871.695138203</v>
       </c>
       <c r="E296">
-        <v>0.07278509186480465</v>
+        <v>0.1775482672943614</v>
       </c>
     </row>
     <row r="297">
@@ -5999,13 +5999,13 @@
         <v>12195122</v>
       </c>
       <c r="C297">
-        <v>11699959.98665009</v>
+        <v>11638730.6087579</v>
       </c>
       <c r="D297">
-        <v>495162.0133499149</v>
+        <v>556391.3912420962</v>
       </c>
       <c r="E297">
-        <v>0.04060328493227988</v>
+        <v>0.04562409389935551</v>
       </c>
     </row>
     <row r="298">
@@ -6018,13 +6018,13 @@
         <v>6718842</v>
       </c>
       <c r="C298">
-        <v>6385897.78499171</v>
+        <v>6792017.568015316</v>
       </c>
       <c r="D298">
-        <v>332944.2150082905</v>
+        <v>-73175.56801531557</v>
       </c>
       <c r="E298">
-        <v>0.04955380927372462</v>
+        <v>-0.01089109820045115</v>
       </c>
     </row>
     <row r="299">
@@ -6037,13 +6037,13 @@
         <v>2019706</v>
       </c>
       <c r="C299">
-        <v>6241772.547844114</v>
+        <v>6473812.766566767</v>
       </c>
       <c r="D299">
-        <v>-4222066.547844114</v>
+        <v>-4454106.766566767</v>
       </c>
       <c r="E299">
-        <v>-2.090436205984492</v>
+        <v>-2.20532432273151</v>
       </c>
     </row>
     <row r="300">
@@ -6056,13 +6056,13 @@
         <v>30800000</v>
       </c>
       <c r="C300">
-        <v>25412065.53723051</v>
+        <v>17940455.10862472</v>
       </c>
       <c r="D300">
-        <v>5387934.46276949</v>
+        <v>12859544.89137528</v>
       </c>
       <c r="E300">
-        <v>0.1749329371029055</v>
+        <v>0.4175176912784183</v>
       </c>
     </row>
     <row r="301">
@@ -6075,13 +6075,13 @@
         <v>8519706</v>
       </c>
       <c r="C301">
-        <v>7768417.412354893</v>
+        <v>8523371.790992342</v>
       </c>
       <c r="D301">
-        <v>751288.5876451069</v>
+        <v>-3665.790992341936</v>
       </c>
       <c r="E301">
-        <v>0.08818245461112237</v>
+        <v>-0.0004302720061398757</v>
       </c>
     </row>
     <row r="302">
@@ -6094,13 +6094,13 @@
         <v>8715000</v>
       </c>
       <c r="C302">
-        <v>8095670.20273632</v>
+        <v>7587730.931651682</v>
       </c>
       <c r="D302">
-        <v>619329.79726368</v>
+        <v>1127269.068348318</v>
       </c>
       <c r="E302">
-        <v>0.07106480748866094</v>
+        <v>0.1293481432413446</v>
       </c>
     </row>
     <row r="303">
@@ -6113,13 +6113,13 @@
         <v>559782</v>
       </c>
       <c r="C303">
-        <v>2033302.679850747</v>
+        <v>1375303.985314685</v>
       </c>
       <c r="D303">
-        <v>-1473520.679850747</v>
+        <v>-815521.9853146852</v>
       </c>
       <c r="E303">
-        <v>-2.632311649625652</v>
+        <v>-1.45685639287202</v>
       </c>
     </row>
     <row r="304">
@@ -6132,13 +6132,13 @@
         <v>1600000</v>
       </c>
       <c r="C304">
-        <v>2378510.797595357</v>
+        <v>2460884.056976358</v>
       </c>
       <c r="D304">
-        <v>-778510.7975953571</v>
+        <v>-860884.0569763579</v>
       </c>
       <c r="E304">
-        <v>-0.4865692484970982</v>
+        <v>-0.5380525356102237</v>
       </c>
     </row>
     <row r="305">
@@ -6151,13 +6151,13 @@
         <v>1708143</v>
       </c>
       <c r="C305">
-        <v>2062420.783333334</v>
+        <v>1988016.756909758</v>
       </c>
       <c r="D305">
-        <v>-354277.7833333337</v>
+        <v>-279873.7569097576</v>
       </c>
       <c r="E305">
-        <v>-0.20740522505044</v>
+        <v>-0.1638467955608855</v>
       </c>
     </row>
     <row r="306">
@@ -6170,13 +6170,13 @@
         <v>5000000</v>
       </c>
       <c r="C306">
-        <v>6176703.618076285</v>
+        <v>6747477.980053276</v>
       </c>
       <c r="D306">
-        <v>-1176703.618076285</v>
+        <v>-1747477.980053276</v>
       </c>
       <c r="E306">
-        <v>-0.2353407236152571</v>
+        <v>-0.3494955960106552</v>
       </c>
     </row>
     <row r="307">
@@ -6189,13 +6189,13 @@
         <v>3352440</v>
       </c>
       <c r="C307">
-        <v>5011179.420149253</v>
+        <v>4418008.155644357</v>
       </c>
       <c r="D307">
-        <v>-1658739.420149253</v>
+        <v>-1065568.155644357</v>
       </c>
       <c r="E307">
-        <v>-0.4947857143302349</v>
+        <v>-0.3178485388685128</v>
       </c>
     </row>
     <row r="308">
@@ -6208,13 +6208,13 @@
         <v>19500000</v>
       </c>
       <c r="C308">
-        <v>11445394.58905473</v>
+        <v>16899002.5654179</v>
       </c>
       <c r="D308">
-        <v>8054605.410945274</v>
+        <v>2600997.434582096</v>
       </c>
       <c r="E308">
-        <v>0.4130566877407833</v>
+        <v>0.1333844838247228</v>
       </c>
     </row>
     <row r="309">
@@ -6227,13 +6227,13 @@
         <v>5009633</v>
       </c>
       <c r="C309">
-        <v>2720539.456799337</v>
+        <v>3945467.55800865</v>
       </c>
       <c r="D309">
-        <v>2289093.543200663</v>
+        <v>1064165.44199135</v>
       </c>
       <c r="E309">
-        <v>0.4569383711742284</v>
+        <v>0.2124238326423014</v>
       </c>
     </row>
     <row r="310">
@@ -6246,13 +6246,13 @@
         <v>27455357</v>
       </c>
       <c r="C310">
-        <v>16441069.87819237</v>
+        <v>22746112.98881118</v>
       </c>
       <c r="D310">
-        <v>11014287.12180763</v>
+        <v>4709244.01118882</v>
       </c>
       <c r="E310">
-        <v>0.4011707850605488</v>
+        <v>0.1715236852024477</v>
       </c>
     </row>
     <row r="311">
@@ -6265,13 +6265,13 @@
         <v>33386850</v>
       </c>
       <c r="C311">
-        <v>26521997.2566335</v>
+        <v>26659335.02082917</v>
       </c>
       <c r="D311">
-        <v>6864852.743366499</v>
+        <v>6727514.979170829</v>
       </c>
       <c r="E311">
-        <v>0.2056154666692575</v>
+        <v>0.201501938013644</v>
       </c>
     </row>
     <row r="312">
@@ -6284,13 +6284,13 @@
         <v>6300000</v>
       </c>
       <c r="C312">
-        <v>5771233.155887231</v>
+        <v>5730861.180036628</v>
       </c>
       <c r="D312">
-        <v>528766.8441127688</v>
+        <v>569138.8199633723</v>
       </c>
       <c r="E312">
-        <v>0.08393124509726488</v>
+        <v>0.09033949523228132</v>
       </c>
     </row>
     <row r="313">
@@ -6303,13 +6303,13 @@
         <v>11710818</v>
       </c>
       <c r="C313">
-        <v>10051240.74170813</v>
+        <v>11014184.73879453</v>
       </c>
       <c r="D313">
-        <v>1659577.258291874</v>
+        <v>696633.2612054702</v>
       </c>
       <c r="E313">
-        <v>0.141713179924056</v>
+        <v>0.05948630242613882</v>
       </c>
     </row>
     <row r="314">
@@ -6322,13 +6322,13 @@
         <v>36016200</v>
       </c>
       <c r="C314">
-        <v>30918376.28150912</v>
+        <v>31802961.56956377</v>
       </c>
       <c r="D314">
-        <v>5097823.718490876</v>
+        <v>4213238.430436227</v>
       </c>
       <c r="E314">
-        <v>0.1415425202684036</v>
+        <v>0.1169817590538765</v>
       </c>
     </row>
     <row r="315">
@@ -6341,13 +6341,13 @@
         <v>4000000</v>
       </c>
       <c r="C315">
-        <v>5896458.031260365</v>
+        <v>5111713.820779226</v>
       </c>
       <c r="D315">
-        <v>-1896458.031260365</v>
+        <v>-1111713.820779226</v>
       </c>
       <c r="E315">
-        <v>-0.4741145078150912</v>
+        <v>-0.2779284551948065</v>
       </c>
     </row>
     <row r="316">
@@ -6360,13 +6360,13 @@
         <v>18000000</v>
       </c>
       <c r="C316">
-        <v>14895675.57827528</v>
+        <v>14241426.5374126</v>
       </c>
       <c r="D316">
-        <v>3104324.421724718</v>
+        <v>3758573.462587399</v>
       </c>
       <c r="E316">
-        <v>0.1724624678735955</v>
+        <v>0.2088096368104111</v>
       </c>
     </row>
     <row r="317">
@@ -6379,13 +6379,13 @@
         <v>6105941</v>
       </c>
       <c r="C317">
-        <v>5622578.331840798</v>
+        <v>3844380.008041956</v>
       </c>
       <c r="D317">
-        <v>483362.6681592017</v>
+        <v>2261560.991958044</v>
       </c>
       <c r="E317">
-        <v>0.07916268240377719</v>
+        <v>0.3703869709776175</v>
       </c>
     </row>
     <row r="318">
@@ -6398,13 +6398,13 @@
         <v>4516000</v>
       </c>
       <c r="C318">
-        <v>7696124.739386396</v>
+        <v>9536098.25581087</v>
       </c>
       <c r="D318">
-        <v>-3180124.739386396</v>
+        <v>-5020098.25581087</v>
       </c>
       <c r="E318">
-        <v>-0.7041905977383518</v>
+        <v>-1.111624945928005</v>
       </c>
     </row>
     <row r="319">
@@ -6417,13 +6417,13 @@
         <v>4037277</v>
       </c>
       <c r="C319">
-        <v>5081327.06119403</v>
+        <v>5494521.534998333</v>
       </c>
       <c r="D319">
-        <v>-1044050.06119403</v>
+        <v>-1457244.534998333</v>
       </c>
       <c r="E319">
-        <v>-0.2586025336369116</v>
+        <v>-0.360947374925806</v>
       </c>
     </row>
     <row r="320">
@@ -6436,13 +6436,13 @@
         <v>2733720</v>
       </c>
       <c r="C320">
-        <v>3296820.848590382</v>
+        <v>3238665.67084582</v>
       </c>
       <c r="D320">
-        <v>-563100.8485903819</v>
+        <v>-504945.6708458196</v>
       </c>
       <c r="E320">
-        <v>-0.2059833664714681</v>
+        <v>-0.1847100913209179</v>
       </c>
     </row>
     <row r="321">
@@ -6455,13 +6455,13 @@
         <v>4171548</v>
       </c>
       <c r="C321">
-        <v>12379516.65149254</v>
+        <v>7059963.782767232</v>
       </c>
       <c r="D321">
-        <v>-8207968.651492536</v>
+        <v>-2888415.782767232</v>
       </c>
       <c r="E321">
-        <v>-1.967607384954587</v>
+        <v>-0.692408617320772</v>
       </c>
     </row>
     <row r="322">
@@ -6474,13 +6474,13 @@
         <v>28226880</v>
       </c>
       <c r="C322">
-        <v>31123276.50995025</v>
+        <v>32403010.08013652</v>
       </c>
       <c r="D322">
-        <v>-2896396.50995025</v>
+        <v>-4176130.080136515</v>
       </c>
       <c r="E322">
-        <v>-0.1026112878911963</v>
+        <v>-0.1479486957161583</v>
       </c>
     </row>
     <row r="323">
@@ -6493,13 +6493,13 @@
         <v>12015150</v>
       </c>
       <c r="C323">
-        <v>16911527.88913765</v>
+        <v>16135253.87112888</v>
       </c>
       <c r="D323">
-        <v>-4896377.889137648</v>
+        <v>-4120103.871128878</v>
       </c>
       <c r="E323">
-        <v>-0.4075170005482785</v>
+        <v>-0.3429090665642025</v>
       </c>
     </row>
     <row r="324">
@@ -6512,13 +6512,13 @@
         <v>2165000</v>
       </c>
       <c r="C324">
-        <v>4173615.810199005</v>
+        <v>4078575.715984015</v>
       </c>
       <c r="D324">
-        <v>-2008615.810199005</v>
+        <v>-1913575.715984015</v>
       </c>
       <c r="E324">
-        <v>-0.9277671178748291</v>
+        <v>-0.8838686909856883</v>
       </c>
     </row>
     <row r="325">
@@ -6531,13 +6531,13 @@
         <v>7723000</v>
       </c>
       <c r="C325">
-        <v>5386424.667330016</v>
+        <v>3077277.223676322</v>
       </c>
       <c r="D325">
-        <v>2336575.332669984</v>
+        <v>4645722.776323678</v>
       </c>
       <c r="E325">
-        <v>0.3025476282105378</v>
+        <v>0.6015438011554678</v>
       </c>
     </row>
     <row r="326">
@@ -6550,13 +6550,13 @@
         <v>12950400</v>
       </c>
       <c r="C326">
-        <v>6990691.361774461</v>
+        <v>10341257.38704629</v>
       </c>
       <c r="D326">
-        <v>5959708.638225539</v>
+        <v>2609142.612953708</v>
       </c>
       <c r="E326">
-        <v>0.460194946737208</v>
+        <v>0.2014719709780167</v>
       </c>
     </row>
     <row r="327">
@@ -6569,13 +6569,13 @@
         <v>5000000</v>
       </c>
       <c r="C327">
-        <v>6042537.904311774</v>
+        <v>6168708.272127872</v>
       </c>
       <c r="D327">
-        <v>-1042537.904311774</v>
+        <v>-1168708.272127872</v>
       </c>
       <c r="E327">
-        <v>-0.2085075808623549</v>
+        <v>-0.2337416544255745</v>
       </c>
     </row>
     <row r="328">
@@ -6588,13 +6588,13 @@
         <v>2891467</v>
       </c>
       <c r="C328">
-        <v>8018121.609121061</v>
+        <v>7147982.470346322</v>
       </c>
       <c r="D328">
-        <v>-5126654.609121061</v>
+        <v>-4256515.470346322</v>
       </c>
       <c r="E328">
-        <v>-1.773028918926296</v>
+        <v>-1.472095469305485</v>
       </c>
     </row>
     <row r="329">
@@ -6607,13 +6607,13 @@
         <v>18154000</v>
       </c>
       <c r="C329">
-        <v>16075430.34063017</v>
+        <v>14717493.93200134</v>
       </c>
       <c r="D329">
-        <v>2078569.659369826</v>
+        <v>3436506.067998661</v>
       </c>
       <c r="E329">
-        <v>0.1144965109270588</v>
+        <v>0.1892974588519699</v>
       </c>
     </row>
     <row r="330">
@@ -6626,13 +6626,13 @@
         <v>15681818</v>
       </c>
       <c r="C330">
-        <v>11814982.42578773</v>
+        <v>14535375.25632702</v>
       </c>
       <c r="D330">
-        <v>3866835.574212268</v>
+        <v>1146442.743672978</v>
       </c>
       <c r="E330">
-        <v>0.2465808220840382</v>
+        <v>0.07310649464704781</v>
       </c>
     </row>
     <row r="331">
@@ -6645,13 +6645,13 @@
         <v>1801769</v>
       </c>
       <c r="C331">
-        <v>2338372.860613599</v>
+        <v>2441454.428787877</v>
       </c>
       <c r="D331">
-        <v>-536603.860613599</v>
+        <v>-639685.4287878769</v>
       </c>
       <c r="E331">
-        <v>-0.2978205644639235</v>
+        <v>-0.3550318763325803</v>
       </c>
     </row>
     <row r="332">
@@ -6664,13 +6664,13 @@
         <v>2718240</v>
       </c>
       <c r="C332">
-        <v>3696070.391542288</v>
+        <v>3390810.662187811</v>
       </c>
       <c r="D332">
-        <v>-977830.391542288</v>
+        <v>-672570.6621878115</v>
       </c>
       <c r="E332">
-        <v>-0.3597292334533698</v>
+        <v>-0.2474287267451776</v>
       </c>
     </row>
     <row r="333">
@@ -6683,13 +6683,13 @@
         <v>1719864</v>
       </c>
       <c r="C333">
-        <v>4018654.077114428</v>
+        <v>2725985.834299034</v>
       </c>
       <c r="D333">
-        <v>-2298790.077114428</v>
+        <v>-1006121.834299034</v>
       </c>
       <c r="E333">
-        <v>-1.33661154435143</v>
+        <v>-0.5850008107030751</v>
       </c>
     </row>
     <row r="334">
@@ -6702,13 +6702,13 @@
         <v>3196448</v>
       </c>
       <c r="C334">
-        <v>5319497.878358209</v>
+        <v>4750298.152314352</v>
       </c>
       <c r="D334">
-        <v>-2123049.878358209</v>
+        <v>-1553850.152314352</v>
       </c>
       <c r="E334">
-        <v>-0.6641903382624115</v>
+        <v>-0.4861177633155152</v>
       </c>
     </row>
     <row r="335">
@@ -6721,13 +6721,13 @@
         <v>23205221</v>
       </c>
       <c r="C335">
-        <v>27815743.27222223</v>
+        <v>28492816.7167832</v>
       </c>
       <c r="D335">
-        <v>-4610522.272222228</v>
+        <v>-5287595.716783199</v>
       </c>
       <c r="E335">
-        <v>-0.1986846956649208</v>
+        <v>-0.2278623296362142</v>
       </c>
     </row>
     <row r="336">
@@ -6740,13 +6740,13 @@
         <v>1119563</v>
       </c>
       <c r="C336">
-        <v>1963678.671641791</v>
+        <v>3812927.776207126</v>
       </c>
       <c r="D336">
-        <v>-844115.671641791</v>
+        <v>-2693364.776207126</v>
       </c>
       <c r="E336">
-        <v>-0.753968889327167</v>
+        <v>-2.405728642521347</v>
       </c>
     </row>
     <row r="337">
@@ -6759,13 +6759,13 @@
         <v>17307693</v>
       </c>
       <c r="C337">
-        <v>19894056.96575455</v>
+        <v>18158936.02554113</v>
       </c>
       <c r="D337">
-        <v>-2586363.965754554</v>
+        <v>-851243.0255411305</v>
       </c>
       <c r="E337">
-        <v>-0.1494343564884444</v>
+        <v>-0.04918292839728151</v>
       </c>
     </row>
     <row r="338">
@@ -6778,13 +6778,13 @@
         <v>30600000</v>
       </c>
       <c r="C338">
-        <v>31553059.74676616</v>
+        <v>30866645.47530802</v>
       </c>
       <c r="D338">
-        <v>-953059.7467661612</v>
+        <v>-266645.4753080197</v>
       </c>
       <c r="E338">
-        <v>-0.03114574335837128</v>
+        <v>-0.008713904421830707</v>
       </c>
     </row>
     <row r="339">
@@ -6797,13 +6797,13 @@
         <v>2066585</v>
       </c>
       <c r="C339">
-        <v>2363860.909618573</v>
+        <v>2956357.583566435</v>
       </c>
       <c r="D339">
-        <v>-297275.9096185728</v>
+        <v>-889772.5835664351</v>
       </c>
       <c r="E339">
-        <v>-0.1438488664238697</v>
+        <v>-0.4305521348342484</v>
       </c>
     </row>
     <row r="340">
@@ -6816,13 +6816,13 @@
         <v>1029483</v>
       </c>
       <c r="C340">
-        <v>1725893.60721393</v>
+        <v>1610994.701098901</v>
       </c>
       <c r="D340">
-        <v>-696410.6072139305</v>
+        <v>-581511.7010989012</v>
       </c>
       <c r="E340">
-        <v>-0.6764663498221247</v>
+        <v>-0.5648579928943958</v>
       </c>
     </row>
     <row r="341">
@@ -6835,13 +6835,13 @@
         <v>2019706</v>
       </c>
       <c r="C341">
-        <v>4740010.917910447</v>
+        <v>8066968.206210461</v>
       </c>
       <c r="D341">
-        <v>-2720304.917910447</v>
+        <v>-6047262.206210461</v>
       </c>
       <c r="E341">
-        <v>-1.34688163421332</v>
+        <v>-2.994129940798543</v>
       </c>
     </row>
     <row r="342">
@@ -6854,13 +6854,13 @@
         <v>2624040</v>
       </c>
       <c r="C342">
-        <v>3758454.913432836</v>
+        <v>4435856.475108222</v>
       </c>
       <c r="D342">
-        <v>-1134414.913432836</v>
+        <v>-1811816.475108222</v>
       </c>
       <c r="E342">
-        <v>-0.432316166458147</v>
+        <v>-0.6904683141675516</v>
       </c>
     </row>
     <row r="343">
@@ -6873,13 +6873,13 @@
         <v>12405000</v>
       </c>
       <c r="C343">
-        <v>16771381.75290215</v>
+        <v>17117169.21821513</v>
       </c>
       <c r="D343">
-        <v>-4366381.752902152</v>
+        <v>-4712169.21821513</v>
       </c>
       <c r="E343">
-        <v>-0.3519856310279849</v>
+        <v>-0.3798604770830415</v>
       </c>
     </row>
     <row r="344">
@@ -6892,13 +6892,13 @@
         <v>3536280</v>
       </c>
       <c r="C344">
-        <v>12904425.93897181</v>
+        <v>7272948.918381615</v>
       </c>
       <c r="D344">
-        <v>-9368145.938971814</v>
+        <v>-3736668.918381615</v>
       </c>
       <c r="E344">
-        <v>-2.649152764761788</v>
+        <v>-1.056666587029764</v>
       </c>
     </row>
     <row r="345">
@@ -6911,13 +6911,13 @@
         <v>2448600</v>
       </c>
       <c r="C345">
-        <v>2578480.79145937</v>
+        <v>2899452.862054612</v>
       </c>
       <c r="D345">
-        <v>-129880.7914593699</v>
+        <v>-450852.8620546125</v>
       </c>
       <c r="E345">
-        <v>-0.05304287815869065</v>
+        <v>-0.1841267916583405</v>
       </c>
     </row>
     <row r="346">
@@ -6930,13 +6930,13 @@
         <v>17325000</v>
       </c>
       <c r="C346">
-        <v>15512863.60480928</v>
+        <v>15022840.87920413</v>
       </c>
       <c r="D346">
-        <v>1812136.395190716</v>
+        <v>2302159.120795874</v>
       </c>
       <c r="E346">
-        <v>0.1045966173270254</v>
+        <v>0.1328807573330952</v>
       </c>
     </row>
     <row r="347">
@@ -6949,13 +6949,13 @@
         <v>10250000</v>
       </c>
       <c r="C347">
-        <v>7177285.751990051</v>
+        <v>8925556.006610056</v>
       </c>
       <c r="D347">
-        <v>3072714.248009949</v>
+        <v>1324443.993389944</v>
       </c>
       <c r="E347">
-        <v>0.2997769998058487</v>
+        <v>0.1292140481356042</v>
       </c>
     </row>
     <row r="348">
@@ -6968,13 +6968,13 @@
         <v>2210040</v>
       </c>
       <c r="C348">
-        <v>3105300.502736319</v>
+        <v>3057999.348984349</v>
       </c>
       <c r="D348">
-        <v>-895260.5027363189</v>
+        <v>-847959.3489843491</v>
       </c>
       <c r="E348">
-        <v>-0.4050879181989099</v>
+        <v>-0.3836850685889618</v>
       </c>
     </row>
     <row r="349">
@@ -6987,13 +6987,13 @@
         <v>6313800</v>
       </c>
       <c r="C349">
-        <v>8853353.941873964</v>
+        <v>12860719.23812854</v>
       </c>
       <c r="D349">
-        <v>-2539553.941873964</v>
+        <v>-6546919.238128539</v>
       </c>
       <c r="E349">
-        <v>-0.4022227409601134</v>
+        <v>-1.036922176522623</v>
       </c>
     </row>
     <row r="350">
@@ -7006,13 +7006,13 @@
         <v>2537160</v>
       </c>
       <c r="C350">
-        <v>3008409.489220565</v>
+        <v>2766334.448135198</v>
       </c>
       <c r="D350">
-        <v>-471249.4892205647</v>
+        <v>-229174.4481351976</v>
       </c>
       <c r="E350">
-        <v>-0.1857389716141531</v>
+        <v>-0.09032715640132968</v>
       </c>
     </row>
     <row r="351">
@@ -7025,13 +7025,13 @@
         <v>37893408</v>
       </c>
       <c r="C351">
-        <v>29367948.21393036</v>
+        <v>33025303.6403097</v>
       </c>
       <c r="D351">
-        <v>8525459.786069639</v>
+        <v>4868104.359690305</v>
       </c>
       <c r="E351">
-        <v>0.2249853005058199</v>
+        <v>0.1284683700048912</v>
       </c>
     </row>
     <row r="352">
@@ -7044,13 +7044,13 @@
         <v>37893408</v>
       </c>
       <c r="C352">
-        <v>29362677.75787728</v>
+        <v>30301666.0070596</v>
       </c>
       <c r="D352">
-        <v>8530730.242122725</v>
+        <v>7591741.9929404</v>
       </c>
       <c r="E352">
-        <v>0.2251243868622934</v>
+        <v>0.2003446613442739</v>
       </c>
     </row>
     <row r="353">
@@ -7063,13 +7063,13 @@
         <v>24107143</v>
       </c>
       <c r="C353">
-        <v>24416363.95903814</v>
+        <v>24630590.72725608</v>
       </c>
       <c r="D353">
-        <v>-309220.9590381421</v>
+        <v>-523447.7272560783</v>
       </c>
       <c r="E353">
-        <v>-0.01282694341001512</v>
+        <v>-0.02171338707602466</v>
       </c>
     </row>
     <row r="354">
@@ -7082,13 +7082,13 @@
         <v>1927896</v>
       </c>
       <c r="C354">
-        <v>2334371.314096187</v>
+        <v>2064452.719680319</v>
       </c>
       <c r="D354">
-        <v>-406475.3140961868</v>
+        <v>-136556.7196803186</v>
       </c>
       <c r="E354">
-        <v>-0.2108388181189166</v>
+        <v>-0.07083199492105312</v>
       </c>
     </row>
     <row r="355">
@@ -7101,13 +7101,13 @@
         <v>18833713</v>
       </c>
       <c r="C355">
-        <v>18930521.01492538</v>
+        <v>19243304.4865801</v>
       </c>
       <c r="D355">
-        <v>-96808.01492537931</v>
+        <v>-409591.4865801036</v>
       </c>
       <c r="E355">
-        <v>-0.005140144958425315</v>
+        <v>-0.02174778210648658</v>
       </c>
     </row>
     <row r="356">
@@ -7120,13 +7120,13 @@
         <v>2019706</v>
       </c>
       <c r="C356">
-        <v>3774258.945522387</v>
+        <v>3468945.655977355</v>
       </c>
       <c r="D356">
-        <v>-1754552.945522387</v>
+        <v>-1449239.655977355</v>
       </c>
       <c r="E356">
-        <v>-0.8687170041196031</v>
+        <v>-0.7175498097135696</v>
       </c>
     </row>
     <row r="357">
@@ -7139,13 +7139,13 @@
         <v>1801769</v>
       </c>
       <c r="C357">
-        <v>3072863.670149253</v>
+        <v>2941453.445021646</v>
       </c>
       <c r="D357">
-        <v>-1271094.670149253</v>
+        <v>-1139684.445021646</v>
       </c>
       <c r="E357">
-        <v>-0.7054703850211946</v>
+        <v>-0.6325363823118533</v>
       </c>
     </row>
     <row r="358">
@@ -7158,13 +7158,13 @@
         <v>2019706</v>
       </c>
       <c r="C358">
-        <v>8745093.363267001</v>
+        <v>4713817.052713952</v>
       </c>
       <c r="D358">
-        <v>-6725387.363267001</v>
+        <v>-2694111.052713952</v>
       </c>
       <c r="E358">
-        <v>-3.329884331317034</v>
+        <v>-1.333912486626248</v>
       </c>
     </row>
     <row r="359">
@@ -7177,13 +7177,13 @@
         <v>9326520</v>
       </c>
       <c r="C359">
-        <v>9012373.155472636</v>
+        <v>8276572.790609392</v>
       </c>
       <c r="D359">
-        <v>314146.8445273638</v>
+        <v>1049947.209390608</v>
       </c>
       <c r="E359">
-        <v>0.033683179205895</v>
+        <v>0.1125765247263296</v>
       </c>
     </row>
     <row r="360">
@@ -7196,13 +7196,13 @@
         <v>5043773</v>
       </c>
       <c r="C360">
-        <v>5158911.337147596</v>
+        <v>5290495.167365967</v>
       </c>
       <c r="D360">
-        <v>-115138.3371475963</v>
+        <v>-246722.1673659673</v>
       </c>
       <c r="E360">
-        <v>-0.02282781900525585</v>
+        <v>-0.04891619178063075</v>
       </c>
     </row>
     <row r="361">
@@ -7215,13 +7215,13 @@
         <v>2463960</v>
       </c>
       <c r="C361">
-        <v>3334827.316086235</v>
+        <v>3313999.850782552</v>
       </c>
       <c r="D361">
-        <v>-870867.3160862345</v>
+        <v>-850039.8507825523</v>
       </c>
       <c r="E361">
-        <v>-0.3534421484464985</v>
+        <v>-0.3449893061504863</v>
       </c>
     </row>
     <row r="362">
@@ -7234,13 +7234,13 @@
         <v>5316960</v>
       </c>
       <c r="C362">
-        <v>8038219.577529022</v>
+        <v>7053077.370229764</v>
       </c>
       <c r="D362">
-        <v>-2721259.577529022</v>
+        <v>-1736117.370229764</v>
       </c>
       <c r="E362">
-        <v>-0.5118074195647553</v>
+        <v>-0.326524436939485</v>
       </c>
     </row>
     <row r="363">
@@ -7253,13 +7253,13 @@
         <v>2226240</v>
       </c>
       <c r="C363">
-        <v>2669075.896766169</v>
+        <v>2316705.725008326</v>
       </c>
       <c r="D363">
-        <v>-442835.896766169</v>
+        <v>-90465.72500832612</v>
       </c>
       <c r="E363">
-        <v>-0.1989165124901938</v>
+        <v>-0.04063610617378455</v>
       </c>
     </row>
     <row r="364">
@@ -7272,13 +7272,13 @@
         <v>2419706</v>
       </c>
       <c r="C364">
-        <v>2392178.512437811</v>
+        <v>2497802.634898438</v>
       </c>
       <c r="D364">
-        <v>27527.48756218934</v>
+        <v>-78096.63489843765</v>
       </c>
       <c r="E364">
-        <v>0.01137637694917868</v>
+        <v>-0.03227525777860519</v>
       </c>
     </row>
     <row r="365">
@@ -7291,13 +7291,13 @@
         <v>5266713</v>
       </c>
       <c r="C365">
-        <v>8841987.340878936</v>
+        <v>6936683.85218115</v>
       </c>
       <c r="D365">
-        <v>-3575274.340878936</v>
+        <v>-1669970.85218115</v>
       </c>
       <c r="E365">
-        <v>-0.6788435862897666</v>
+        <v>-0.3170802836951909</v>
       </c>
     </row>
     <row r="366">
@@ -7310,13 +7310,13 @@
         <v>2431080</v>
       </c>
       <c r="C366">
-        <v>3056151.674709786</v>
+        <v>3398453.546786547</v>
       </c>
       <c r="D366">
-        <v>-625071.6747097857</v>
+        <v>-967373.5467865472</v>
       </c>
       <c r="E366">
-        <v>-0.25711686769246</v>
+        <v>-0.3979192567856867</v>
       </c>
     </row>
     <row r="367">
@@ -7329,13 +7329,13 @@
         <v>14487684</v>
       </c>
       <c r="C367">
-        <v>17877731.55497513</v>
+        <v>17991868.61974691</v>
       </c>
       <c r="D367">
-        <v>-3390047.554975126</v>
+        <v>-3504184.619746909</v>
       </c>
       <c r="E367">
-        <v>-0.2339951337270419</v>
+        <v>-0.2418733470268201</v>
       </c>
     </row>
     <row r="368">
@@ -7348,13 +7348,13 @@
         <v>7252080</v>
       </c>
       <c r="C368">
-        <v>8215266.947678279</v>
+        <v>7661101.211255411</v>
       </c>
       <c r="D368">
-        <v>-963186.9476782791</v>
+        <v>-409021.2112554107</v>
       </c>
       <c r="E368">
-        <v>-0.1328152678511929</v>
+        <v>-0.05640053767407567</v>
       </c>
     </row>
     <row r="369">
@@ -7367,13 +7367,13 @@
         <v>6500000</v>
       </c>
       <c r="C369">
-        <v>6021623.397927036</v>
+        <v>6496416.63213454</v>
       </c>
       <c r="D369">
-        <v>478376.6020729644</v>
+        <v>3583.367865459993</v>
       </c>
       <c r="E369">
-        <v>0.07359640031891761</v>
+        <v>0.0005512873639169221</v>
       </c>
     </row>
     <row r="370">
@@ -7386,13 +7386,13 @@
         <v>32600060</v>
       </c>
       <c r="C370">
-        <v>32042380.2066335</v>
+        <v>31631350.69207462</v>
       </c>
       <c r="D370">
-        <v>557679.793366503</v>
+        <v>968709.3079253845</v>
       </c>
       <c r="E370">
-        <v>0.01710671064306333</v>
+        <v>0.02971495475546317</v>
       </c>
     </row>
     <row r="371">
@@ -7405,13 +7405,13 @@
         <v>2019706</v>
       </c>
       <c r="C371">
-        <v>2276146.339054727</v>
+        <v>2345428.160689312</v>
       </c>
       <c r="D371">
-        <v>-256440.339054727</v>
+        <v>-325722.1606893116</v>
       </c>
       <c r="E371">
-        <v>-0.126969142565664</v>
+        <v>-0.1612720666717391</v>
       </c>
     </row>
     <row r="372">
@@ -7424,13 +7424,13 @@
         <v>2019706</v>
       </c>
       <c r="C372">
-        <v>3148167.384411278</v>
+        <v>3376891.980419583</v>
       </c>
       <c r="D372">
-        <v>-1128461.384411278</v>
+        <v>-1357185.980419583</v>
       </c>
       <c r="E372">
-        <v>-0.5587255691725816</v>
+        <v>-0.6719720496050332</v>
       </c>
     </row>
     <row r="373">
@@ -7443,13 +7443,13 @@
         <v>3350760</v>
       </c>
       <c r="C373">
-        <v>3242770.544776118</v>
+        <v>3609709.340409591</v>
       </c>
       <c r="D373">
-        <v>107989.4552238816</v>
+        <v>-258949.3404095909</v>
       </c>
       <c r="E373">
-        <v>0.03222834677024963</v>
+        <v>-0.07728077821437251</v>
       </c>
     </row>
     <row r="374">
@@ -7462,13 +7462,13 @@
         <v>8670002</v>
       </c>
       <c r="C374">
-        <v>7335223.847678277</v>
+        <v>6937587.42209457</v>
       </c>
       <c r="D374">
-        <v>1334778.152321723</v>
+        <v>1732414.57790543</v>
       </c>
       <c r="E374">
-        <v>0.1539536152727212</v>
+        <v>0.1998170909194058</v>
       </c>
     </row>
     <row r="375">
@@ -7481,13 +7481,13 @@
         <v>8670002</v>
       </c>
       <c r="C375">
-        <v>8441178.633582087</v>
+        <v>8940829.767499158</v>
       </c>
       <c r="D375">
-        <v>228823.3664179128</v>
+        <v>-270827.7674991582</v>
       </c>
       <c r="E375">
-        <v>0.02639253905799708</v>
+        <v>-0.03123733621966386</v>
       </c>
     </row>
     <row r="376">
@@ -7500,13 +7500,13 @@
         <v>2240160</v>
       </c>
       <c r="C376">
-        <v>9651625.139054727</v>
+        <v>7528774.344055946</v>
       </c>
       <c r="D376">
-        <v>-7411465.139054727</v>
+        <v>-5288614.344055946</v>
       </c>
       <c r="E376">
-        <v>-3.308453476115423</v>
+        <v>-2.360819916459514</v>
       </c>
     </row>
     <row r="377">
@@ -7519,13 +7519,13 @@
         <v>8809320</v>
       </c>
       <c r="C377">
-        <v>6417339.764925373</v>
+        <v>6548731.879403926</v>
       </c>
       <c r="D377">
-        <v>2391980.235074627</v>
+        <v>2260588.120596074</v>
       </c>
       <c r="E377">
-        <v>0.2715283625835623</v>
+        <v>0.2566132369576851</v>
       </c>
     </row>
     <row r="378">
@@ -7538,13 +7538,13 @@
         <v>7977480</v>
       </c>
       <c r="C378">
-        <v>8031357.72238806</v>
+        <v>6463879.930719278</v>
       </c>
       <c r="D378">
-        <v>-53877.72238805983</v>
+        <v>1513600.069280722</v>
       </c>
       <c r="E378">
-        <v>-0.006753727040125432</v>
+        <v>0.1897341101802477</v>
       </c>
     </row>
     <row r="379">
@@ -7557,13 +7557,13 @@
         <v>43219440</v>
       </c>
       <c r="C379">
-        <v>33209873.50912106</v>
+        <v>35045099.54197468</v>
       </c>
       <c r="D379">
-        <v>10009566.49087894</v>
+        <v>8174340.458025321</v>
       </c>
       <c r="E379">
-        <v>0.2315987086107303</v>
+        <v>0.1891357328559861</v>
       </c>
     </row>
     <row r="380">
@@ -7576,13 +7576,13 @@
         <v>2019706</v>
       </c>
       <c r="C380">
-        <v>3790962.182918741</v>
+        <v>3778959.598401597</v>
       </c>
       <c r="D380">
-        <v>-1771256.182918741</v>
+        <v>-1759253.598401597</v>
       </c>
       <c r="E380">
-        <v>-0.8769871371965726</v>
+        <v>-0.8710443987400133</v>
       </c>
     </row>
     <row r="381">
@@ -7595,13 +7595,13 @@
         <v>1836096</v>
       </c>
       <c r="C381">
-        <v>3743972.275124377</v>
+        <v>2898635.04868465</v>
       </c>
       <c r="D381">
-        <v>-1907876.275124377</v>
+        <v>-1062539.04868465</v>
       </c>
       <c r="E381">
-        <v>-1.039093966287371</v>
+        <v>-0.5786947135033518</v>
       </c>
     </row>
     <row r="382">
@@ -7614,13 +7614,13 @@
         <v>10500000</v>
       </c>
       <c r="C382">
-        <v>8847781.504394695</v>
+        <v>9339993.787079591</v>
       </c>
       <c r="D382">
-        <v>1652218.495605305</v>
+        <v>1160006.212920409</v>
       </c>
       <c r="E382">
-        <v>0.1573541424386005</v>
+        <v>0.1104767821828961</v>
       </c>
     </row>
     <row r="383">
@@ -7633,13 +7633,13 @@
         <v>1930681</v>
       </c>
       <c r="C383">
-        <v>2837276.490298508</v>
+        <v>2760338.177439228</v>
       </c>
       <c r="D383">
-        <v>-906595.4902985077</v>
+        <v>-829657.1774392277</v>
       </c>
       <c r="E383">
-        <v>-0.4695729073308888</v>
+        <v>-0.429722557708512</v>
       </c>
     </row>
     <row r="384">
@@ -7652,13 +7652,13 @@
         <v>6803012</v>
       </c>
       <c r="C384">
-        <v>7967528.832006632</v>
+        <v>8647422.921828175</v>
       </c>
       <c r="D384">
-        <v>-1164516.832006632</v>
+        <v>-1844410.921828175</v>
       </c>
       <c r="E384">
-        <v>-0.1711766541065387</v>
+        <v>-0.271116811469416</v>
       </c>
     </row>
     <row r="385">
@@ -7671,13 +7671,13 @@
         <v>36016200</v>
       </c>
       <c r="C385">
-        <v>33291223.24527363</v>
+        <v>33394485.29665334</v>
       </c>
       <c r="D385">
-        <v>2724976.754726373</v>
+        <v>2621714.703346662</v>
       </c>
       <c r="E385">
-        <v>0.07565975185406491</v>
+        <v>0.07279265173301631</v>
       </c>
     </row>
     <row r="386">
@@ -7690,13 +7690,13 @@
         <v>18560000</v>
       </c>
       <c r="C386">
-        <v>9068215.335903814</v>
+        <v>9891894.873060269</v>
       </c>
       <c r="D386">
-        <v>9491784.664096186</v>
+        <v>8668105.126939731</v>
       </c>
       <c r="E386">
-        <v>0.5114108116431134</v>
+        <v>0.4670315262359769</v>
       </c>
     </row>
     <row r="387">
@@ -7709,13 +7709,13 @@
         <v>11014500</v>
       </c>
       <c r="C387">
-        <v>9468191.437810943</v>
+        <v>8540697.012021311</v>
       </c>
       <c r="D387">
-        <v>1546308.562189057</v>
+        <v>2473802.987978689</v>
       </c>
       <c r="E387">
-        <v>0.1403884481537117</v>
+        <v>0.2245951235170629</v>
       </c>
     </row>
     <row r="388">
@@ -7728,13 +7728,13 @@
         <v>20975000</v>
       </c>
       <c r="C388">
-        <v>21481419.92968491</v>
+        <v>20481416.39670331</v>
       </c>
       <c r="D388">
-        <v>-506419.9296849146</v>
+        <v>493583.603296686</v>
       </c>
       <c r="E388">
-        <v>-0.02414397757734993</v>
+        <v>0.0235319953895917</v>
       </c>
     </row>
     <row r="389">
@@ -7747,13 +7747,13 @@
         <v>1119563</v>
       </c>
       <c r="C389">
-        <v>1506195.681757877</v>
+        <v>1723579.320246418</v>
       </c>
       <c r="D389">
-        <v>-386632.6817578771</v>
+        <v>-604016.320246418</v>
       </c>
       <c r="E389">
-        <v>-0.3453424968115927</v>
+        <v>-0.5395107914841933</v>
       </c>
     </row>
     <row r="390">
@@ -7766,13 +7766,13 @@
         <v>15435000</v>
       </c>
       <c r="C390">
-        <v>21244213.75588723</v>
+        <v>23001486.99648685</v>
       </c>
       <c r="D390">
-        <v>-5809213.755887225</v>
+        <v>-7566486.996486846</v>
       </c>
       <c r="E390">
-        <v>-0.3763662945181228</v>
+        <v>-0.4902161967273629</v>
       </c>
     </row>
     <row r="391">
@@ -7785,13 +7785,13 @@
         <v>4698000</v>
       </c>
       <c r="C391">
-        <v>4611690.210364842</v>
+        <v>4433406.042957043</v>
       </c>
       <c r="D391">
-        <v>86309.78963515814</v>
+        <v>264593.9570429567</v>
       </c>
       <c r="E391">
-        <v>0.01837160273204728</v>
+        <v>0.05632055279756423</v>
       </c>
     </row>
     <row r="392">
@@ -7804,13 +7804,13 @@
         <v>40806300</v>
       </c>
       <c r="C392">
-        <v>32301660.22271974</v>
+        <v>22089871.22920412</v>
       </c>
       <c r="D392">
-        <v>8504639.777280264</v>
+        <v>18716428.77079588</v>
       </c>
       <c r="E392">
-        <v>0.2084148716565889</v>
+        <v>0.4586651759849798</v>
       </c>
     </row>
     <row r="393">
@@ -7823,13 +7823,13 @@
         <v>5887899</v>
       </c>
       <c r="C393">
-        <v>10933405.5655058</v>
+        <v>8068397.597752254</v>
       </c>
       <c r="D393">
-        <v>-5045506.565505803</v>
+        <v>-2180498.597752254</v>
       </c>
       <c r="E393">
-        <v>-0.8569281785414122</v>
+        <v>-0.3703355981059209</v>
       </c>
     </row>
     <row r="394">
@@ -7842,13 +7842,13 @@
         <v>6341464</v>
       </c>
       <c r="C394">
-        <v>5587225.67039801</v>
+        <v>5473887.600099901</v>
       </c>
       <c r="D394">
-        <v>754238.3296019901</v>
+        <v>867576.3999000993</v>
       </c>
       <c r="E394">
-        <v>0.1189375717660764</v>
+        <v>0.1368101119710053</v>
       </c>
     </row>
     <row r="395">
@@ -7861,13 +7861,13 @@
         <v>10500000</v>
       </c>
       <c r="C395">
-        <v>9487318.523880595</v>
+        <v>8124539.633116881</v>
       </c>
       <c r="D395">
-        <v>1012681.476119405</v>
+        <v>2375460.366883119</v>
       </c>
       <c r="E395">
-        <v>0.09644585486851473</v>
+        <v>0.2262343206555351</v>
       </c>
     </row>
     <row r="396">
@@ -7880,13 +7880,13 @@
         <v>18518519</v>
       </c>
       <c r="C396">
-        <v>24086574.98225541</v>
+        <v>25328127.90527804</v>
       </c>
       <c r="D396">
-        <v>-5568055.98225541</v>
+        <v>-6809608.905278042</v>
       </c>
       <c r="E396">
-        <v>-0.3006750152242418</v>
+        <v>-0.3677188713243236</v>
       </c>
     </row>
     <row r="397">
@@ -7899,13 +7899,13 @@
         <v>5709877</v>
       </c>
       <c r="C397">
-        <v>5740452.722222223</v>
+        <v>6552845.4469031</v>
       </c>
       <c r="D397">
-        <v>-30575.72222222295</v>
+        <v>-842968.4469031002</v>
       </c>
       <c r="E397">
-        <v>-0.005354882814852745</v>
+        <v>-0.147633381052359</v>
       </c>
     </row>
     <row r="398">
@@ -7918,13 +7918,13 @@
         <v>5508720</v>
       </c>
       <c r="C398">
-        <v>10093527.44883914</v>
+        <v>8722159.550982341</v>
       </c>
       <c r="D398">
-        <v>-4584807.448839137</v>
+        <v>-3213439.550982341</v>
       </c>
       <c r="E398">
-        <v>-0.832281809356645</v>
+        <v>-0.5833368824304632</v>
       </c>
     </row>
     <row r="399">
@@ -7937,13 +7937,13 @@
         <v>8000000</v>
       </c>
       <c r="C399">
-        <v>7607970.713432835</v>
+        <v>8557097.88391608</v>
       </c>
       <c r="D399">
-        <v>392029.2865671646</v>
+        <v>-557097.88391608</v>
       </c>
       <c r="E399">
-        <v>0.04900366082089557</v>
+        <v>-0.06963723548950999</v>
       </c>
     </row>
     <row r="400">
@@ -7956,13 +7956,13 @@
         <v>1927896</v>
       </c>
       <c r="C400">
-        <v>2643110.724958541</v>
+        <v>4851926.974658676</v>
       </c>
       <c r="D400">
-        <v>-715214.7249585409</v>
+        <v>-2924030.974658676</v>
       </c>
       <c r="E400">
-        <v>-0.3709820057505908</v>
+        <v>-1.516695389512026</v>
       </c>
     </row>
     <row r="401">
@@ -7975,13 +7975,13 @@
         <v>1719864</v>
       </c>
       <c r="C401">
-        <v>4232561.710447761</v>
+        <v>2924237.755044954</v>
       </c>
       <c r="D401">
-        <v>-2512697.710447761</v>
+        <v>-1204373.755044954</v>
       </c>
       <c r="E401">
-        <v>-1.460986281733766</v>
+        <v>-0.7002726698418912</v>
       </c>
     </row>
     <row r="402">
@@ -7994,13 +7994,13 @@
         <v>6059520</v>
       </c>
       <c r="C402">
-        <v>4984893.821144278</v>
+        <v>5133177.258857804</v>
       </c>
       <c r="D402">
-        <v>1074626.178855722</v>
+        <v>926342.7411421956</v>
       </c>
       <c r="E402">
-        <v>0.1773450997530699</v>
+        <v>0.1528739472998184</v>
       </c>
     </row>
     <row r="403">
@@ -8013,13 +8013,13 @@
         <v>2019706</v>
       </c>
       <c r="C403">
-        <v>6559909.899004975</v>
+        <v>6594527.214302364</v>
       </c>
       <c r="D403">
-        <v>-4540203.899004975</v>
+        <v>-4574821.214302364</v>
       </c>
       <c r="E403">
-        <v>-2.247952869875603</v>
+        <v>-2.265092649277847</v>
       </c>
     </row>
     <row r="404">
@@ -8032,13 +8032,13 @@
         <v>5291400</v>
       </c>
       <c r="C404">
-        <v>4367477.711359868</v>
+        <v>5056873.479786877</v>
       </c>
       <c r="D404">
-        <v>923922.2886401322</v>
+        <v>234526.5202131234</v>
       </c>
       <c r="E404">
-        <v>0.1746082867747916</v>
+        <v>0.0443222058837214</v>
       </c>
     </row>
     <row r="405">
@@ -8051,13 +8051,13 @@
         <v>16847826</v>
       </c>
       <c r="C405">
-        <v>16560930.01409618</v>
+        <v>15922268.15715953</v>
       </c>
       <c r="D405">
-        <v>286895.9859038163</v>
+        <v>925557.8428404685</v>
       </c>
       <c r="E405">
-        <v>0.01702866505766479</v>
+        <v>0.05493633676181536</v>
       </c>
     </row>
     <row r="406">
@@ -8070,13 +8070,13 @@
         <v>2346614</v>
       </c>
       <c r="C406">
-        <v>4151505.880845771</v>
+        <v>4139375.285014986</v>
       </c>
       <c r="D406">
-        <v>-1804891.880845771</v>
+        <v>-1792761.285014986</v>
       </c>
       <c r="E406">
-        <v>-0.769147324973673</v>
+        <v>-0.7639779209597258</v>
       </c>
     </row>
     <row r="407">
@@ -8089,13 +8089,13 @@
         <v>2019706</v>
       </c>
       <c r="C407">
-        <v>3247057.38888889</v>
+        <v>2587009.612520811</v>
       </c>
       <c r="D407">
-        <v>-1227351.38888889</v>
+        <v>-567303.6125208107</v>
       </c>
       <c r="E407">
-        <v>-0.607688143169793</v>
+        <v>-0.2808842537086144</v>
       </c>
     </row>
     <row r="408">
@@ -8108,13 +8108,13 @@
         <v>2303520</v>
       </c>
       <c r="C408">
-        <v>2818542.04742952</v>
+        <v>3327587.614485515</v>
       </c>
       <c r="D408">
-        <v>-515022.0474295197</v>
+        <v>-1024067.614485515</v>
       </c>
       <c r="E408">
-        <v>-0.2235804540136485</v>
+        <v>-0.4445664090112156</v>
       </c>
     </row>
     <row r="409">
@@ -8127,13 +8127,13 @@
         <v>12160680</v>
       </c>
       <c r="C409">
-        <v>11855595.69237148</v>
+        <v>12990257.43759573</v>
       </c>
       <c r="D409">
-        <v>305084.3076285217</v>
+        <v>-829577.4375957251</v>
       </c>
       <c r="E409">
-        <v>0.02508776710089581</v>
+        <v>-0.06821801392650123</v>
       </c>
     </row>
     <row r="410">
@@ -8146,13 +8146,13 @@
         <v>2504640</v>
       </c>
       <c r="C410">
-        <v>3577835.778524048</v>
+        <v>5303171.142690641</v>
       </c>
       <c r="D410">
-        <v>-1073195.778524048</v>
+        <v>-2798531.142690641</v>
       </c>
       <c r="E410">
-        <v>-0.4284830468746198</v>
+        <v>-1.117338676492686</v>
       </c>
     </row>
     <row r="411">
@@ -8165,13 +8165,13 @@
         <v>3835738</v>
       </c>
       <c r="C411">
-        <v>9431284.709286898</v>
+        <v>15282854.32334333</v>
       </c>
       <c r="D411">
-        <v>-5595546.709286898</v>
+        <v>-11447116.32334333</v>
       </c>
       <c r="E411">
-        <v>-1.458792730183057</v>
+        <v>-2.984332173715548</v>
       </c>
     </row>
     <row r="412">
@@ -8184,13 +8184,13 @@
         <v>11111111</v>
       </c>
       <c r="C412">
-        <v>17217348.08756219</v>
+        <v>11240219.2062271</v>
       </c>
       <c r="D412">
-        <v>-6106237.087562189</v>
+        <v>-129108.2062271032</v>
       </c>
       <c r="E412">
-        <v>-0.5495613433762104</v>
+        <v>-0.01161973867663668</v>
       </c>
     </row>
     <row r="413">
@@ -8203,13 +8203,13 @@
         <v>18357143</v>
       </c>
       <c r="C413">
-        <v>22377318.48905472</v>
+        <v>22368228.34771895</v>
       </c>
       <c r="D413">
-        <v>-4020175.489054721</v>
+        <v>-4011085.34771895</v>
       </c>
       <c r="E413">
-        <v>-0.2189978848590285</v>
+        <v>-0.2185027020663809</v>
       </c>
     </row>
     <row r="414">
@@ -8222,13 +8222,13 @@
         <v>3218160</v>
       </c>
       <c r="C414">
-        <v>3548998.816749585</v>
+        <v>3703765.911055611</v>
       </c>
       <c r="D414">
-        <v>-330838.8167495853</v>
+        <v>-485605.9110556114</v>
       </c>
       <c r="E414">
-        <v>-0.1028037191281929</v>
+        <v>-0.1508955151563662</v>
       </c>
     </row>
     <row r="415">
@@ -8241,13 +8241,13 @@
         <v>1836096</v>
       </c>
       <c r="C415">
-        <v>2523986.396185737</v>
+        <v>3599099.364085914</v>
       </c>
       <c r="D415">
-        <v>-687890.3961857366</v>
+        <v>-1763003.364085914</v>
       </c>
       <c r="E415">
-        <v>-0.3746483823208245</v>
+        <v>-0.9601912776270487</v>
       </c>
     </row>
     <row r="416">
@@ -8260,13 +8260,13 @@
         <v>24330357</v>
       </c>
       <c r="C416">
-        <v>10810324.36575456</v>
+        <v>18498836.44455545</v>
       </c>
       <c r="D416">
-        <v>13520032.63424544</v>
+        <v>5831520.555444546</v>
       </c>
       <c r="E416">
-        <v>0.555685748229894</v>
+        <v>0.2396808462549294</v>
       </c>
     </row>
     <row r="417">
@@ -8279,13 +8279,13 @@
         <v>12405000</v>
       </c>
       <c r="C417">
-        <v>10056893.90887231</v>
+        <v>12072200.60099901</v>
       </c>
       <c r="D417">
-        <v>2348106.091127692</v>
+        <v>332799.3990009911</v>
       </c>
       <c r="E417">
-        <v>0.1892870690147273</v>
+        <v>0.02682784353091424</v>
       </c>
     </row>
     <row r="418">
@@ -8298,13 +8298,13 @@
         <v>4558680</v>
       </c>
       <c r="C418">
-        <v>8764119.722885573</v>
+        <v>6863521.402947048</v>
       </c>
       <c r="D418">
-        <v>-4205439.722885573</v>
+        <v>-2304841.402947048</v>
       </c>
       <c r="E418">
-        <v>-0.9225125963843861</v>
+        <v>-0.5055940322521097</v>
       </c>
     </row>
     <row r="419">
@@ -8317,13 +8317,13 @@
         <v>2000000</v>
       </c>
       <c r="C419">
-        <v>3109303.239635157</v>
+        <v>4916340.254412252</v>
       </c>
       <c r="D419">
-        <v>-1109303.239635157</v>
+        <v>-2916340.254412252</v>
       </c>
       <c r="E419">
-        <v>-0.5546516198175785</v>
+        <v>-1.458170127206126</v>
       </c>
     </row>
     <row r="420">
@@ -8336,13 +8336,13 @@
         <v>6175000</v>
       </c>
       <c r="C420">
-        <v>6149778.44660033</v>
+        <v>6049557.722027976</v>
       </c>
       <c r="D420">
-        <v>25221.55339966994</v>
+        <v>125442.2779720239</v>
       </c>
       <c r="E420">
-        <v>0.004084462089015375</v>
+        <v>0.02031453894283788</v>
       </c>
     </row>
     <row r="421">
@@ -8355,13 +8355,13 @@
         <v>3908160</v>
       </c>
       <c r="C421">
-        <v>6236092.373631842</v>
+        <v>5114517.360506164</v>
       </c>
       <c r="D421">
-        <v>-2327932.373631842</v>
+        <v>-1206357.360506164</v>
       </c>
       <c r="E421">
-        <v>-0.5956594340128964</v>
+        <v>-0.308676553801831</v>
       </c>
     </row>
     <row r="422">
@@ -8374,13 +8374,13 @@
         <v>9835881</v>
       </c>
       <c r="C422">
-        <v>7085261.761359867</v>
+        <v>6621520.255744255</v>
       </c>
       <c r="D422">
-        <v>2750619.238640133</v>
+        <v>3214360.744255745</v>
       </c>
       <c r="E422">
-        <v>0.2796515369228372</v>
+        <v>0.3267994747248106</v>
       </c>
     </row>
     <row r="423">
@@ -8393,13 +8393,13 @@
         <v>11571429</v>
       </c>
       <c r="C423">
-        <v>8065711.60456053</v>
+        <v>9361876.828837838</v>
       </c>
       <c r="D423">
-        <v>3505717.39543947</v>
+        <v>2209552.171162162</v>
       </c>
       <c r="E423">
-        <v>0.3029632204837855</v>
+        <v>0.1909489459912135</v>
       </c>
     </row>
     <row r="424">
@@ -8412,13 +8412,13 @@
         <v>4810200</v>
       </c>
       <c r="C424">
-        <v>3458484.992039802</v>
+        <v>4058532.295254746</v>
       </c>
       <c r="D424">
-        <v>1351715.007960198</v>
+        <v>751667.7047452535</v>
       </c>
       <c r="E424">
-        <v>0.2810101467631696</v>
+        <v>0.1562653745676383</v>
       </c>
     </row>
     <row r="425">
@@ -8431,13 +8431,13 @@
         <v>34005250</v>
       </c>
       <c r="C425">
-        <v>26454253.61517414</v>
+        <v>21563420.86300367</v>
       </c>
       <c r="D425">
-        <v>7550996.384825859</v>
+        <v>12441829.13699633</v>
       </c>
       <c r="E425">
-        <v>0.2220538412399809</v>
+        <v>0.3658796549649343</v>
       </c>
     </row>
     <row r="426">
@@ -8450,13 +8450,13 @@
         <v>2019706</v>
       </c>
       <c r="C426">
-        <v>1974467.033830847</v>
+        <v>2064598.384831832</v>
       </c>
       <c r="D426">
-        <v>45238.96616915287</v>
+        <v>-44892.38483183249</v>
       </c>
       <c r="E426">
-        <v>0.02239878782810611</v>
+        <v>-0.02222718793321032</v>
       </c>
     </row>
     <row r="427">
@@ -8469,13 +8469,13 @@
         <v>12119440</v>
       </c>
       <c r="C427">
-        <v>5725611.755389719</v>
+        <v>8225654.628421583</v>
       </c>
       <c r="D427">
-        <v>6393828.244610281</v>
+        <v>3893785.371578417</v>
       </c>
       <c r="E427">
-        <v>0.5275679606161903</v>
+        <v>0.3212842649147499</v>
       </c>
     </row>
     <row r="428">
@@ -8488,13 +8488,13 @@
         <v>2709849</v>
       </c>
       <c r="C428">
-        <v>3915435.556550581</v>
+        <v>6852873.028904431</v>
       </c>
       <c r="D428">
-        <v>-1205586.556550581</v>
+        <v>-4143024.028904431</v>
       </c>
       <c r="E428">
-        <v>-0.4448906771375752</v>
+        <v>-1.528876342890113</v>
       </c>
     </row>
     <row r="429">
@@ -8507,13 +8507,13 @@
         <v>8195122</v>
       </c>
       <c r="C429">
-        <v>8179408.876036484</v>
+        <v>6660399.179903428</v>
       </c>
       <c r="D429">
-        <v>15713.12396351621</v>
+        <v>1534722.820096572</v>
       </c>
       <c r="E429">
-        <v>0.001917375234135161</v>
+        <v>0.1872727239565893</v>
       </c>
     </row>
     <row r="430">
@@ -8526,13 +8526,13 @@
         <v>8000000</v>
       </c>
       <c r="C430">
-        <v>5918718.626119401</v>
+        <v>6048851.609357305</v>
       </c>
       <c r="D430">
-        <v>2081281.373880599</v>
+        <v>1951148.390642695</v>
       </c>
       <c r="E430">
-        <v>0.2601601717350748</v>
+        <v>0.2438935488303369</v>
       </c>
     </row>
     <row r="431">
@@ -8545,13 +8545,13 @@
         <v>40064220</v>
       </c>
       <c r="C431">
-        <v>35805973.99237148</v>
+        <v>35899001.74095905</v>
       </c>
       <c r="D431">
-        <v>4258246.007628515</v>
+        <v>4165218.259040952</v>
       </c>
       <c r="E431">
-        <v>0.1062855088063243</v>
+        <v>0.1039635430077249</v>
       </c>
     </row>
     <row r="432">
@@ -8564,13 +8564,13 @@
         <v>2800000</v>
       </c>
       <c r="C432">
-        <v>3566424.322388059</v>
+        <v>3717975.097735597</v>
       </c>
       <c r="D432">
-        <v>-766424.3223880595</v>
+        <v>-917975.0977355973</v>
       </c>
       <c r="E432">
-        <v>-0.2737229722814498</v>
+        <v>-0.3278482491912847</v>
       </c>
     </row>
     <row r="433">
@@ -8583,13 +8583,13 @@
         <v>2019706</v>
       </c>
       <c r="C433">
-        <v>3877711.316169154</v>
+        <v>5045091.09691975</v>
       </c>
       <c r="D433">
-        <v>-1858005.316169154</v>
+        <v>-3025385.09691975</v>
       </c>
       <c r="E433">
-        <v>-0.9199385040046194</v>
+        <v>-1.497933410565572</v>
       </c>
     </row>
     <row r="434">
@@ -8602,13 +8602,13 @@
         <v>10933333</v>
       </c>
       <c r="C434">
-        <v>11586401.94411277</v>
+        <v>12975246.03977691</v>
       </c>
       <c r="D434">
-        <v>-653068.9441127665</v>
+        <v>-2041913.039776908</v>
       </c>
       <c r="E434">
-        <v>-0.05973191744116516</v>
+        <v>-0.1867603446978985</v>
       </c>
     </row>
   </sheetData>

--- a/residualTable.xlsx
+++ b/residualTable.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E434"/>
+  <dimension ref="A1:E433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,13 +394,13 @@
         <v>4379527</v>
       </c>
       <c r="C2">
-        <v>4476394.12062937</v>
+        <v>2542596.750715951</v>
       </c>
       <c r="D2">
-        <v>-96867.12062937021</v>
+        <v>1836930.249284049</v>
       </c>
       <c r="E2">
-        <v>-0.02211816952592602</v>
+        <v>0.4194357631050223</v>
       </c>
     </row>
     <row r="3">
@@ -413,13 +413,13 @@
         <v>32600060</v>
       </c>
       <c r="C3">
-        <v>31297737.2241259</v>
+        <v>31865170.85139862</v>
       </c>
       <c r="D3">
-        <v>1302322.775874104</v>
+        <v>734889.1486013755</v>
       </c>
       <c r="E3">
-        <v>0.0399484778823752</v>
+        <v>0.02254257043089416</v>
       </c>
     </row>
     <row r="4">
@@ -432,13 +432,13 @@
         <v>4114200</v>
       </c>
       <c r="C4">
-        <v>3960748.798834498</v>
+        <v>3608209.826290378</v>
       </c>
       <c r="D4">
-        <v>153451.201165502</v>
+        <v>505990.1737096221</v>
       </c>
       <c r="E4">
-        <v>0.0372979439904482</v>
+        <v>0.1229862849909149</v>
       </c>
     </row>
     <row r="5">
@@ -451,13 +451,13 @@
         <v>2194200</v>
       </c>
       <c r="C5">
-        <v>4051539.490276388</v>
+        <v>4202633.115651014</v>
       </c>
       <c r="D5">
-        <v>-1857339.490276388</v>
+        <v>-2008433.115651014</v>
       </c>
       <c r="E5">
-        <v>-0.8464768436224537</v>
+        <v>-0.9153373054648684</v>
       </c>
     </row>
     <row r="6">
@@ -470,13 +470,13 @@
         <v>4687500</v>
       </c>
       <c r="C6">
-        <v>5255564.12564102</v>
+        <v>5239524.868731269</v>
       </c>
       <c r="D6">
-        <v>-568064.12564102</v>
+        <v>-552024.8687312687</v>
       </c>
       <c r="E6">
-        <v>-0.1211870134700843</v>
+        <v>-0.1177653053293373</v>
       </c>
     </row>
     <row r="7">
@@ -489,13 +489,13 @@
         <v>8925000</v>
       </c>
       <c r="C7">
-        <v>13414378.00927407</v>
+        <v>13139448.53742923</v>
       </c>
       <c r="D7">
-        <v>-4489378.009274069</v>
+        <v>-4214448.537429232</v>
       </c>
       <c r="E7">
-        <v>-0.5030115416553579</v>
+        <v>-0.4722071190396899</v>
       </c>
     </row>
     <row r="8">
@@ -508,13 +508,13 @@
         <v>20000000</v>
       </c>
       <c r="C8">
-        <v>19174195.88056943</v>
+        <v>18660564.54348986</v>
       </c>
       <c r="D8">
-        <v>825804.1194305718</v>
+        <v>1339435.456510141</v>
       </c>
       <c r="E8">
-        <v>0.04129020597152859</v>
+        <v>0.06697177282550708</v>
       </c>
     </row>
     <row r="9">
@@ -527,13 +527,13 @@
         <v>1836096</v>
       </c>
       <c r="C9">
-        <v>2939369.361338658</v>
+        <v>2329144.352547452</v>
       </c>
       <c r="D9">
-        <v>-1103273.361338658</v>
+        <v>-493048.3525474523</v>
       </c>
       <c r="E9">
-        <v>-0.600879998289119</v>
+        <v>-0.2685308135018279</v>
       </c>
     </row>
     <row r="10">
@@ -546,13 +546,13 @@
         <v>9219512</v>
       </c>
       <c r="C10">
-        <v>10225976.86063936</v>
+        <v>9721545.452847145</v>
       </c>
       <c r="D10">
-        <v>-1006464.860639358</v>
+        <v>-502033.4528471455</v>
       </c>
       <c r="E10">
-        <v>-0.1091668258189108</v>
+        <v>-0.05445336508560816</v>
       </c>
     </row>
     <row r="11">
@@ -565,13 +565,13 @@
         <v>45640084</v>
       </c>
       <c r="C11">
-        <v>41672810.7640859</v>
+        <v>40038092.86823179</v>
       </c>
       <c r="D11">
-        <v>3967273.235914096</v>
+        <v>5601991.131768212</v>
       </c>
       <c r="E11">
-        <v>0.08692519575367337</v>
+        <v>0.1227427874972406</v>
       </c>
     </row>
     <row r="12">
@@ -584,13 +584,13 @@
         <v>2019706</v>
       </c>
       <c r="C12">
-        <v>2455843.761621711</v>
+        <v>2612322.156809859</v>
       </c>
       <c r="D12">
-        <v>-436137.7616217113</v>
+        <v>-592616.156809859</v>
       </c>
       <c r="E12">
-        <v>-0.2159412120485414</v>
+        <v>-0.2934170403067867</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>5539771</v>
       </c>
       <c r="C13">
-        <v>7133472.806060598</v>
+        <v>6804499.738211786</v>
       </c>
       <c r="D13">
-        <v>-1593701.806060598</v>
+        <v>-1264728.738211786</v>
       </c>
       <c r="E13">
-        <v>-0.2876836977666763</v>
+        <v>-0.2282998229009442</v>
       </c>
     </row>
     <row r="14">
@@ -622,13 +622,13 @@
         <v>18642857</v>
       </c>
       <c r="C14">
-        <v>18042766.48747919</v>
+        <v>18727320.42475857</v>
       </c>
       <c r="D14">
-        <v>600090.512520805</v>
+        <v>-84463.42475856841</v>
       </c>
       <c r="E14">
-        <v>0.03218876337037853</v>
+        <v>-0.00453060519418072</v>
       </c>
     </row>
     <row r="15">
@@ -641,13 +641,13 @@
         <v>2019706</v>
       </c>
       <c r="C15">
-        <v>2091156.130119879</v>
+        <v>2130841.821811521</v>
       </c>
       <c r="D15">
-        <v>-71450.13011987857</v>
+        <v>-111135.8218115214</v>
       </c>
       <c r="E15">
-        <v>-0.03537650040148347</v>
+        <v>-0.05502574226720197</v>
       </c>
     </row>
     <row r="16">
@@ -660,13 +660,13 @@
         <v>6263188</v>
       </c>
       <c r="C16">
-        <v>7439534.778887771</v>
+        <v>7678257.863020315</v>
       </c>
       <c r="D16">
-        <v>-1176346.778887771</v>
+        <v>-1415069.863020315</v>
       </c>
       <c r="E16">
-        <v>-0.1878191711453929</v>
+        <v>-0.2259344383435903</v>
       </c>
     </row>
     <row r="17">
@@ -679,13 +679,13 @@
         <v>32459438</v>
       </c>
       <c r="C17">
-        <v>22286647.66405262</v>
+        <v>18705776.09680322</v>
       </c>
       <c r="D17">
-        <v>10172790.33594738</v>
+        <v>13753661.90319678</v>
       </c>
       <c r="E17">
-        <v>0.3134000759947654</v>
+        <v>0.4237184236891834</v>
       </c>
     </row>
     <row r="18">
@@ -698,13 +698,13 @@
         <v>12500000</v>
       </c>
       <c r="C18">
-        <v>9779685.206393616</v>
+        <v>9957949.761288714</v>
       </c>
       <c r="D18">
-        <v>2720314.793606384</v>
+        <v>2542050.238711286</v>
       </c>
       <c r="E18">
-        <v>0.2176251834885107</v>
+        <v>0.2033640190969029</v>
       </c>
     </row>
     <row r="19">
@@ -717,13 +717,13 @@
         <v>2337720</v>
       </c>
       <c r="C19">
-        <v>2561438.490825841</v>
+        <v>2652557.582833833</v>
       </c>
       <c r="D19">
-        <v>-223718.4908258412</v>
+        <v>-314837.5828338331</v>
       </c>
       <c r="E19">
-        <v>-0.09569943826713259</v>
+        <v>-0.1346771995079963</v>
       </c>
     </row>
     <row r="20">
@@ -736,13 +736,13 @@
         <v>10900635</v>
       </c>
       <c r="C20">
-        <v>14864144.66383616</v>
+        <v>15553040.62199466</v>
       </c>
       <c r="D20">
-        <v>-3963509.663836159</v>
+        <v>-4652405.621994663</v>
       </c>
       <c r="E20">
-        <v>-0.363603557392405</v>
+        <v>-0.4268013397379752</v>
       </c>
     </row>
     <row r="21">
@@ -755,13 +755,13 @@
         <v>2019706</v>
       </c>
       <c r="C21">
-        <v>3002351.911738258</v>
+        <v>2997263.729653678</v>
       </c>
       <c r="D21">
-        <v>-982645.9117382583</v>
+        <v>-977557.7296536779</v>
       </c>
       <c r="E21">
-        <v>-0.4865291838209414</v>
+        <v>-0.4840099151330332</v>
       </c>
     </row>
     <row r="22">
@@ -774,13 +774,13 @@
         <v>11608080</v>
       </c>
       <c r="C22">
-        <v>12318096.99075924</v>
+        <v>11593124.86606726</v>
       </c>
       <c r="D22">
-        <v>-710016.9907592386</v>
+        <v>14955.13393274322</v>
       </c>
       <c r="E22">
-        <v>-0.0611657561594371</v>
+        <v>0.00128833828960028</v>
       </c>
     </row>
     <row r="23">
@@ -793,13 +793,13 @@
         <v>3845083</v>
       </c>
       <c r="C23">
-        <v>16842890.65474524</v>
+        <v>16183951.39628704</v>
       </c>
       <c r="D23">
-        <v>-12997807.65474524</v>
+        <v>-12338868.39628704</v>
       </c>
       <c r="E23">
-        <v>-3.380371153170229</v>
+        <v>-3.208999232600971</v>
       </c>
     </row>
     <row r="24">
@@ -812,13 +812,13 @@
         <v>2019706</v>
       </c>
       <c r="C24">
-        <v>2067343.747069597</v>
+        <v>2106165.40011655</v>
       </c>
       <c r="D24">
-        <v>-47637.74706959655</v>
+        <v>-86459.40011655027</v>
       </c>
       <c r="E24">
-        <v>-0.02358647598689935</v>
+        <v>-0.0428079136847394</v>
       </c>
     </row>
     <row r="25">
@@ -831,13 +831,13 @@
         <v>17000000</v>
       </c>
       <c r="C25">
-        <v>16427168.37520814</v>
+        <v>16039995.12649019</v>
       </c>
       <c r="D25">
-        <v>572831.6247918624</v>
+        <v>960004.8735098131</v>
       </c>
       <c r="E25">
-        <v>0.03369597792893309</v>
+        <v>0.05647087491234195</v>
       </c>
     </row>
     <row r="26">
@@ -850,13 +850,13 @@
         <v>8008680</v>
       </c>
       <c r="C26">
-        <v>9409797.109007655</v>
+        <v>10927556.64139194</v>
       </c>
       <c r="D26">
-        <v>-1401117.109007655</v>
+        <v>-2918876.64139194</v>
       </c>
       <c r="E26">
-        <v>-0.1749498180733473</v>
+        <v>-0.364464136585797</v>
       </c>
     </row>
     <row r="27">
@@ -869,13 +869,13 @@
         <v>23883929</v>
       </c>
       <c r="C27">
-        <v>16647819.07973693</v>
+        <v>20587040.47837163</v>
       </c>
       <c r="D27">
-        <v>7236109.920263065</v>
+        <v>3296888.521628372</v>
       </c>
       <c r="E27">
-        <v>0.30296983047735</v>
+        <v>0.1380379468398341</v>
       </c>
     </row>
     <row r="28">
@@ -888,13 +888,13 @@
         <v>2600000</v>
       </c>
       <c r="C28">
-        <v>3971742.933516486</v>
+        <v>3387626.113752916</v>
       </c>
       <c r="D28">
-        <v>-1371742.933516486</v>
+        <v>-787626.1137529155</v>
       </c>
       <c r="E28">
-        <v>-0.5275934359678792</v>
+        <v>-0.3029331206741983</v>
       </c>
     </row>
     <row r="29">
@@ -907,13 +907,13 @@
         <v>2346614</v>
       </c>
       <c r="C29">
-        <v>3441641.492673996</v>
+        <v>3522860.502747252</v>
       </c>
       <c r="D29">
-        <v>-1095027.492673996</v>
+        <v>-1176246.502747252</v>
       </c>
       <c r="E29">
-        <v>-0.4666415067301211</v>
+        <v>-0.5012526571252247</v>
       </c>
     </row>
     <row r="30">
@@ -926,13 +926,13 @@
         <v>11710818</v>
       </c>
       <c r="C30">
-        <v>10596632.00178155</v>
+        <v>9865166.484681983</v>
       </c>
       <c r="D30">
-        <v>1114185.998218449</v>
+        <v>1845651.515318017</v>
       </c>
       <c r="E30">
-        <v>0.09514160310735328</v>
+        <v>0.1576022712775502</v>
       </c>
     </row>
     <row r="31">
@@ -945,13 +945,13 @@
         <v>46741590</v>
       </c>
       <c r="C31">
-        <v>33267933.47755576</v>
+        <v>33145832.28221775</v>
       </c>
       <c r="D31">
-        <v>13473656.52244424</v>
+        <v>13595757.71778225</v>
       </c>
       <c r="E31">
-        <v>0.2882584123142631</v>
+        <v>0.2908706725163232</v>
       </c>
     </row>
     <row r="32">
@@ -964,13 +964,13 @@
         <v>2019706</v>
       </c>
       <c r="C32">
-        <v>7667717.417615716</v>
+        <v>8254948.433999335</v>
       </c>
       <c r="D32">
-        <v>-5648011.417615716</v>
+        <v>-6235242.433999335</v>
       </c>
       <c r="E32">
-        <v>-2.796452264644318</v>
+        <v>-3.087203005783681</v>
       </c>
     </row>
     <row r="33">
@@ -983,13 +983,13 @@
         <v>2609400</v>
       </c>
       <c r="C33">
-        <v>3319164.61939727</v>
+        <v>3190227.267399267</v>
       </c>
       <c r="D33">
-        <v>-709764.6193972696</v>
+        <v>-580827.2673992673</v>
       </c>
       <c r="E33">
-        <v>-0.2720029966265308</v>
+        <v>-0.2225903531077134</v>
       </c>
     </row>
     <row r="34">
@@ -1002,13 +1002,13 @@
         <v>17000000</v>
       </c>
       <c r="C34">
-        <v>5303366.208941057</v>
+        <v>5385174.852430901</v>
       </c>
       <c r="D34">
-        <v>11696633.79105894</v>
+        <v>11614825.1475691</v>
       </c>
       <c r="E34">
-        <v>0.6880372818269966</v>
+        <v>0.6832250086805352</v>
       </c>
     </row>
     <row r="35">
@@ -1021,13 +1021,13 @@
         <v>2019706</v>
       </c>
       <c r="C35">
-        <v>3966095.845787545</v>
+        <v>4712237.601898101</v>
       </c>
       <c r="D35">
-        <v>-1946389.845787545</v>
+        <v>-2692531.601898101</v>
       </c>
       <c r="E35">
-        <v>-0.96369959082537</v>
+        <v>-1.333130466462991</v>
       </c>
     </row>
     <row r="36">
@@ -1040,13 +1040,13 @@
         <v>4556983</v>
       </c>
       <c r="C36">
-        <v>9172233.88176824</v>
+        <v>9110430.786763234</v>
       </c>
       <c r="D36">
-        <v>-4615250.88176824</v>
+        <v>-4553447.786763234</v>
       </c>
       <c r="E36">
-        <v>-1.012786504090149</v>
+        <v>-0.9992242206660051</v>
       </c>
     </row>
     <row r="37">
@@ -1059,13 +1059,13 @@
         <v>2066585</v>
       </c>
       <c r="C37">
-        <v>3299301.283816183</v>
+        <v>2893398.793273395</v>
       </c>
       <c r="D37">
-        <v>-1232716.283816183</v>
+        <v>-826813.7932733949</v>
       </c>
       <c r="E37">
-        <v>-0.5964991925404391</v>
+        <v>-0.4000870001831016</v>
       </c>
     </row>
     <row r="38">
@@ -1078,13 +1078,13 @@
         <v>5000000</v>
       </c>
       <c r="C38">
-        <v>7039557.74352314</v>
+        <v>7084819.400466205</v>
       </c>
       <c r="D38">
-        <v>-2039557.74352314</v>
+        <v>-2084819.400466205</v>
       </c>
       <c r="E38">
-        <v>-0.4079115487046281</v>
+        <v>-0.4169638800932409</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>7245480</v>
       </c>
       <c r="C39">
-        <v>4625236.776140528</v>
+        <v>4610415.227206129</v>
       </c>
       <c r="D39">
-        <v>2620243.223859472</v>
+        <v>2635064.772793871</v>
       </c>
       <c r="E39">
-        <v>0.3616383212512452</v>
+        <v>0.3636839481709799</v>
       </c>
     </row>
     <row r="40">
@@ -1116,13 +1116,13 @@
         <v>18700000</v>
       </c>
       <c r="C40">
-        <v>19444038.45243091</v>
+        <v>18674403.94115885</v>
       </c>
       <c r="D40">
-        <v>-744038.4524309114</v>
+        <v>25596.05884114653</v>
       </c>
       <c r="E40">
-        <v>-0.03978815253641237</v>
+        <v>0.001368773200061312</v>
       </c>
     </row>
     <row r="41">
@@ -1135,13 +1135,13 @@
         <v>20000000</v>
       </c>
       <c r="C41">
-        <v>23815507.77006324</v>
+        <v>23934267.86635031</v>
       </c>
       <c r="D41">
-        <v>-3815507.770063244</v>
+        <v>-3934267.866350308</v>
       </c>
       <c r="E41">
-        <v>-0.1907753885031622</v>
+        <v>-0.1967133933175154</v>
       </c>
     </row>
     <row r="42">
@@ -1154,13 +1154,13 @@
         <v>2019706</v>
       </c>
       <c r="C42">
-        <v>1943991.369780217</v>
+        <v>2018433.003613053</v>
       </c>
       <c r="D42">
-        <v>75714.63021978294</v>
+        <v>1272.99638694711</v>
       </c>
       <c r="E42">
-        <v>0.03748794637426583</v>
+        <v>0.0006302879661431467</v>
       </c>
     </row>
     <row r="43">
@@ -1173,13 +1173,13 @@
         <v>36016200</v>
       </c>
       <c r="C43">
-        <v>34541595.99868464</v>
+        <v>34717034.06421912</v>
       </c>
       <c r="D43">
-        <v>1474604.001315355</v>
+        <v>1299165.935780875</v>
       </c>
       <c r="E43">
-        <v>0.04094279799966002</v>
+        <v>0.03607171039090396</v>
       </c>
     </row>
     <row r="44">
@@ -1192,13 +1192,13 @@
         <v>1836096</v>
       </c>
       <c r="C44">
-        <v>2578560.760289708</v>
+        <v>2373732.428288377</v>
       </c>
       <c r="D44">
-        <v>-742464.7602897082</v>
+        <v>-537636.4282883769</v>
       </c>
       <c r="E44">
-        <v>-0.4043714273598484</v>
+        <v>-0.2928149880444034</v>
       </c>
     </row>
     <row r="45">
@@ -1211,13 +1211,13 @@
         <v>11750000</v>
       </c>
       <c r="C45">
-        <v>11989161.87803862</v>
+        <v>10474678.72995339</v>
       </c>
       <c r="D45">
-        <v>-239161.8780386224</v>
+        <v>1275321.270046614</v>
       </c>
       <c r="E45">
-        <v>-0.02035420238626574</v>
+        <v>0.1085379804294991</v>
       </c>
     </row>
     <row r="46">
@@ -1230,13 +1230,13 @@
         <v>4570080</v>
       </c>
       <c r="C46">
-        <v>3980884.86092241</v>
+        <v>4063262.571811519</v>
       </c>
       <c r="D46">
-        <v>589195.1390775903</v>
+        <v>506817.4281884809</v>
       </c>
       <c r="E46">
-        <v>0.1289244693916934</v>
+        <v>0.1108990276293809</v>
       </c>
     </row>
     <row r="47">
@@ -1249,13 +1249,13 @@
         <v>3071880</v>
       </c>
       <c r="C47">
-        <v>4202676.916683313</v>
+        <v>4611205.98867799</v>
       </c>
       <c r="D47">
-        <v>-1130796.916683313</v>
+        <v>-1539325.98867799</v>
       </c>
       <c r="E47">
-        <v>-0.3681123340375644</v>
+        <v>-0.5011022529128708</v>
       </c>
     </row>
     <row r="48">
@@ -1268,13 +1268,13 @@
         <v>2949120</v>
       </c>
       <c r="C48">
-        <v>3485946.926157176</v>
+        <v>3209608.603130204</v>
       </c>
       <c r="D48">
-        <v>-536826.9261571765</v>
+        <v>-260488.6031302041</v>
       </c>
       <c r="E48">
-        <v>-0.1820295295400582</v>
+        <v>-0.08832756996331249</v>
       </c>
     </row>
     <row r="49">
@@ -1287,13 +1287,13 @@
         <v>21700000</v>
       </c>
       <c r="C49">
-        <v>28775263.02221112</v>
+        <v>28040348.54612056</v>
       </c>
       <c r="D49">
-        <v>-7075263.02221112</v>
+        <v>-6340348.546120562</v>
       </c>
       <c r="E49">
-        <v>-0.3260489871986691</v>
+        <v>-0.2921819606507171</v>
       </c>
     </row>
     <row r="50">
@@ -1306,13 +1306,13 @@
         <v>7921300</v>
       </c>
       <c r="C50">
-        <v>15268389.099001</v>
+        <v>16264414.63258409</v>
       </c>
       <c r="D50">
-        <v>-7347089.099001</v>
+        <v>-8343114.632584088</v>
       </c>
       <c r="E50">
-        <v>-0.9275105221366442</v>
+        <v>-1.053250682663715</v>
       </c>
     </row>
     <row r="51">
@@ -1325,13 +1325,13 @@
         <v>2165000</v>
       </c>
       <c r="C51">
-        <v>2657273.837545787</v>
+        <v>2781895.321944721</v>
       </c>
       <c r="D51">
-        <v>-492273.837545787</v>
+        <v>-616895.321944721</v>
       </c>
       <c r="E51">
-        <v>-0.2273782159564836</v>
+        <v>-0.2849401025148827</v>
       </c>
     </row>
     <row r="52">
@@ -1344,13 +1344,13 @@
         <v>22500000</v>
       </c>
       <c r="C52">
-        <v>21869791.63519813</v>
+        <v>21512083.69958374</v>
       </c>
       <c r="D52">
-        <v>630208.3648018688</v>
+        <v>987916.300416261</v>
       </c>
       <c r="E52">
-        <v>0.02800926065786084</v>
+        <v>0.0439073911296116</v>
       </c>
     </row>
     <row r="53">
@@ -1363,13 +1363,13 @@
         <v>22627671</v>
       </c>
       <c r="C53">
-        <v>20930995.66684986</v>
+        <v>20672960.24375625</v>
       </c>
       <c r="D53">
-        <v>1696675.333150145</v>
+        <v>1954710.75624375</v>
       </c>
       <c r="E53">
-        <v>0.07498232288909207</v>
+        <v>0.08638585722073432</v>
       </c>
     </row>
     <row r="54">
@@ -1382,13 +1382,13 @@
         <v>22000000</v>
       </c>
       <c r="C54">
-        <v>18156493.41238762</v>
+        <v>18821397.87432568</v>
       </c>
       <c r="D54">
-        <v>3843506.587612383</v>
+        <v>3178602.125674319</v>
       </c>
       <c r="E54">
-        <v>0.1747048448914719</v>
+        <v>0.1444819148033781</v>
       </c>
     </row>
     <row r="55">
@@ -1401,13 +1401,13 @@
         <v>31830357</v>
       </c>
       <c r="C55">
-        <v>30874215.6000666</v>
+        <v>31261916.76540128</v>
       </c>
       <c r="D55">
-        <v>956141.3999333978</v>
+        <v>568440.2345987223</v>
       </c>
       <c r="E55">
-        <v>0.0300386640317417</v>
+        <v>0.01785843101284482</v>
       </c>
     </row>
     <row r="56">
@@ -1420,13 +1420,13 @@
         <v>2413320</v>
       </c>
       <c r="C56">
-        <v>2513323.337595738</v>
+        <v>2831412.987545785</v>
       </c>
       <c r="D56">
-        <v>-100003.3375957385</v>
+        <v>-418092.9875457855</v>
       </c>
       <c r="E56">
-        <v>-0.04143807600970384</v>
+        <v>-0.1732439077891807</v>
       </c>
     </row>
     <row r="57">
@@ -1439,13 +1439,13 @@
         <v>2019706</v>
       </c>
       <c r="C57">
-        <v>4414678.69618715</v>
+        <v>3375998.7511655</v>
       </c>
       <c r="D57">
-        <v>-2394972.69618715</v>
+        <v>-1356292.7511655</v>
       </c>
       <c r="E57">
-        <v>-1.185802634733545</v>
+        <v>-0.6715297925368841</v>
       </c>
     </row>
     <row r="58">
@@ -1458,13 +1458,13 @@
         <v>4000000</v>
       </c>
       <c r="C58">
-        <v>3836674.41085581</v>
+        <v>3674705.87668998</v>
       </c>
       <c r="D58">
-        <v>163325.5891441903</v>
+        <v>325294.1233100202</v>
       </c>
       <c r="E58">
-        <v>0.04083139728604758</v>
+        <v>0.08132353082750504</v>
       </c>
     </row>
     <row r="59">
@@ -1477,13 +1477,13 @@
         <v>26346666</v>
       </c>
       <c r="C59">
-        <v>26910294.12820516</v>
+        <v>25837771.93318348</v>
       </c>
       <c r="D59">
-        <v>-563628.1282051578</v>
+        <v>508894.0668165237</v>
       </c>
       <c r="E59">
-        <v>-0.02139276856529619</v>
+        <v>0.01931531172925347</v>
       </c>
     </row>
     <row r="60">
@@ -1496,13 +1496,13 @@
         <v>2528233</v>
       </c>
       <c r="C60">
-        <v>4852053.180702629</v>
+        <v>3844199.061471861</v>
       </c>
       <c r="D60">
-        <v>-2323820.180702629</v>
+        <v>-1315966.061471861</v>
       </c>
       <c r="E60">
-        <v>-0.9191479506448296</v>
+        <v>-0.5205082211457018</v>
       </c>
     </row>
     <row r="61">
@@ -1515,13 +1515,13 @@
         <v>4094280</v>
       </c>
       <c r="C61">
-        <v>3339222.517848816</v>
+        <v>3421521.13806194</v>
       </c>
       <c r="D61">
-        <v>755057.4821511838</v>
+        <v>672758.8619380603</v>
       </c>
       <c r="E61">
-        <v>0.1844176466072628</v>
+        <v>0.1643167692336773</v>
       </c>
     </row>
     <row r="62">
@@ -1534,13 +1534,13 @@
         <v>13033786</v>
       </c>
       <c r="C62">
-        <v>6287178.890909093</v>
+        <v>7841777.39818515</v>
       </c>
       <c r="D62">
-        <v>6746607.109090907</v>
+        <v>5192008.60181485</v>
       </c>
       <c r="E62">
-        <v>0.5176245113346888</v>
+        <v>0.3983499960652147</v>
       </c>
     </row>
     <row r="63">
@@ -1553,13 +1553,13 @@
         <v>10489600</v>
       </c>
       <c r="C63">
-        <v>9158268.274691971</v>
+        <v>12127120.76794871</v>
       </c>
       <c r="D63">
-        <v>1331331.725308029</v>
+        <v>-1637520.767948709</v>
       </c>
       <c r="E63">
-        <v>0.126919208102123</v>
+        <v>-0.1561089810811384</v>
       </c>
     </row>
     <row r="64">
@@ -1572,13 +1572,13 @@
         <v>45183960</v>
       </c>
       <c r="C64">
-        <v>41217400.66463537</v>
+        <v>39973981.03531467</v>
       </c>
       <c r="D64">
-        <v>3966559.335364632</v>
+        <v>5209978.964685328</v>
       </c>
       <c r="E64">
-        <v>0.08778689020096141</v>
+        <v>0.1153059396450716</v>
       </c>
     </row>
     <row r="65">
@@ -1591,13 +1591,13 @@
         <v>14704938</v>
       </c>
       <c r="C65">
-        <v>12273930.8390776</v>
+        <v>13505820.63672995</v>
       </c>
       <c r="D65">
-        <v>2431007.160922395</v>
+        <v>1199117.363270052</v>
       </c>
       <c r="E65">
-        <v>0.1653191030742459</v>
+        <v>0.08154521721003188</v>
       </c>
     </row>
     <row r="66">
@@ -1610,13 +1610,13 @@
         <v>1119563</v>
       </c>
       <c r="C66">
-        <v>2769595.71168831</v>
+        <v>3028689.326973023</v>
       </c>
       <c r="D66">
-        <v>-1650032.71168831</v>
+        <v>-1909126.326973023</v>
       </c>
       <c r="E66">
-        <v>-1.473818544993279</v>
+        <v>-1.705242426708478</v>
       </c>
     </row>
     <row r="67">
@@ -1629,13 +1629,13 @@
         <v>20616000</v>
       </c>
       <c r="C67">
-        <v>17466939.63643025</v>
+        <v>17771259.43628039</v>
       </c>
       <c r="D67">
-        <v>3149060.363569751</v>
+        <v>2844740.563719608</v>
       </c>
       <c r="E67">
-        <v>0.1527483684308184</v>
+        <v>0.1379870277318397</v>
       </c>
     </row>
     <row r="68">
@@ -1648,13 +1648,13 @@
         <v>6190476</v>
       </c>
       <c r="C68">
-        <v>6518677.37472527</v>
+        <v>6431017.133100233</v>
       </c>
       <c r="D68">
-        <v>-328201.3747252701</v>
+        <v>-240541.133100233</v>
       </c>
       <c r="E68">
-        <v>-0.05301714677922507</v>
+        <v>-0.03885664577331906</v>
       </c>
     </row>
     <row r="69">
@@ -1667,13 +1667,13 @@
         <v>13050000</v>
       </c>
       <c r="C69">
-        <v>6814224.309706956</v>
+        <v>5584220.434382292</v>
       </c>
       <c r="D69">
-        <v>6235775.690293044</v>
+        <v>7465779.565617708</v>
       </c>
       <c r="E69">
-        <v>0.4778372176469766</v>
+        <v>0.5720903881699394</v>
       </c>
     </row>
     <row r="70">
@@ -1686,13 +1686,13 @@
         <v>9460000</v>
       </c>
       <c r="C70">
-        <v>10447589.46092241</v>
+        <v>10280816.33511488</v>
       </c>
       <c r="D70">
-        <v>-987589.4609224126</v>
+        <v>-820816.3351148833</v>
       </c>
       <c r="E70">
-        <v>-0.1043963489347159</v>
+        <v>-0.08676705445189041</v>
       </c>
     </row>
     <row r="71">
@@ -1705,13 +1705,13 @@
         <v>3000000</v>
       </c>
       <c r="C71">
-        <v>3791412.814202465</v>
+        <v>3115130.491591741</v>
       </c>
       <c r="D71">
-        <v>-791412.8142024651</v>
+        <v>-115130.4915917413</v>
       </c>
       <c r="E71">
-        <v>-0.2638042714008217</v>
+        <v>-0.03837683053058044</v>
       </c>
     </row>
     <row r="72">
@@ -1724,13 +1724,13 @@
         <v>1719864</v>
       </c>
       <c r="C72">
-        <v>2728623.631801533</v>
+        <v>2475357.327738929</v>
       </c>
       <c r="D72">
-        <v>-1008759.631801533</v>
+        <v>-755493.3277389286</v>
       </c>
       <c r="E72">
-        <v>-0.5865345351734399</v>
+        <v>-0.4392750402002301</v>
       </c>
     </row>
     <row r="73">
@@ -1743,13 +1743,13 @@
         <v>1119563</v>
       </c>
       <c r="C73">
-        <v>3994749.634965034</v>
+        <v>4343019.207142855</v>
       </c>
       <c r="D73">
-        <v>-2875186.634965034</v>
+        <v>-3223456.207142855</v>
       </c>
       <c r="E73">
-        <v>-2.568132954523358</v>
+        <v>-2.879209305008164</v>
       </c>
     </row>
     <row r="74">
@@ -1762,13 +1762,13 @@
         <v>23487629</v>
       </c>
       <c r="C74">
-        <v>24417376.45795867</v>
+        <v>24819776.62219445</v>
       </c>
       <c r="D74">
-        <v>-929747.4579586685</v>
+        <v>-1332147.622194454</v>
       </c>
       <c r="E74">
-        <v>-0.03958455993828362</v>
+        <v>-0.05671699013103682</v>
       </c>
     </row>
     <row r="75">
@@ -1781,13 +1781,13 @@
         <v>9625000</v>
       </c>
       <c r="C75">
-        <v>10215059.26463537</v>
+        <v>10256938.05174825</v>
       </c>
       <c r="D75">
-        <v>-590059.2646353673</v>
+        <v>-631938.0517482534</v>
       </c>
       <c r="E75">
-        <v>-0.06130485866341479</v>
+        <v>-0.06565590148033802</v>
       </c>
     </row>
     <row r="76">
@@ -1800,13 +1800,13 @@
         <v>3089520</v>
       </c>
       <c r="C76">
-        <v>3121464.737445888</v>
+        <v>2979025.541591743</v>
       </c>
       <c r="D76">
-        <v>-31944.73744588764</v>
+        <v>110494.4584082575</v>
       </c>
       <c r="E76">
-        <v>-0.01033970890167005</v>
+        <v>0.03576428002028065</v>
       </c>
     </row>
     <row r="77">
@@ -1819,13 +1819,13 @@
         <v>3666667</v>
       </c>
       <c r="C77">
-        <v>3870586.147519153</v>
+        <v>3787324.880003332</v>
       </c>
       <c r="D77">
-        <v>-203919.1475191526</v>
+        <v>-120657.8800033322</v>
       </c>
       <c r="E77">
-        <v>-0.05561430790392272</v>
+        <v>-0.0329066915548459</v>
       </c>
     </row>
     <row r="78">
@@ -1838,13 +1838,13 @@
         <v>25340000</v>
       </c>
       <c r="C78">
-        <v>19009994.14725276</v>
+        <v>17749419.92011322</v>
       </c>
       <c r="D78">
-        <v>6330005.852747239</v>
+        <v>7590580.079886775</v>
       </c>
       <c r="E78">
-        <v>0.249802914473056</v>
+        <v>0.2995493322765105</v>
       </c>
     </row>
     <row r="79">
@@ -1857,13 +1857,13 @@
         <v>7700000</v>
       </c>
       <c r="C79">
-        <v>11019812.0488678</v>
+        <v>10086603.47660672</v>
       </c>
       <c r="D79">
-        <v>-3319812.048867805</v>
+        <v>-2386603.476606719</v>
       </c>
       <c r="E79">
-        <v>-0.4311444219308838</v>
+        <v>-0.3099485034554181</v>
       </c>
     </row>
     <row r="80">
@@ -1876,13 +1876,13 @@
         <v>24360000</v>
       </c>
       <c r="C80">
-        <v>23715349.74600401</v>
+        <v>23004845.64295704</v>
       </c>
       <c r="D80">
-        <v>644650.2539959885</v>
+        <v>1355154.357042961</v>
       </c>
       <c r="E80">
-        <v>0.02646347512298803</v>
+        <v>0.05563031022343846</v>
       </c>
     </row>
     <row r="81">
@@ -1895,13 +1895,13 @@
         <v>9423869</v>
       </c>
       <c r="C81">
-        <v>8918366.970862476</v>
+        <v>9377881.561338658</v>
       </c>
       <c r="D81">
-        <v>505502.0291375238</v>
+        <v>45987.43866134249</v>
       </c>
       <c r="E81">
-        <v>0.05364060442027832</v>
+        <v>0.004879889423478031</v>
       </c>
     </row>
     <row r="82">
@@ -1914,13 +1914,13 @@
         <v>6614280</v>
       </c>
       <c r="C82">
-        <v>6502013.760689306</v>
+        <v>6815158.368897777</v>
       </c>
       <c r="D82">
-        <v>112266.2393106939</v>
+        <v>-200878.3688977771</v>
       </c>
       <c r="E82">
-        <v>0.01697331218374395</v>
+        <v>-0.03037040598489587</v>
       </c>
     </row>
     <row r="83">
@@ -1933,13 +1933,13 @@
         <v>11692308</v>
       </c>
       <c r="C83">
-        <v>8822719.84428904</v>
+        <v>9005844.550849147</v>
       </c>
       <c r="D83">
-        <v>2869588.15571096</v>
+        <v>2686463.449150853</v>
       </c>
       <c r="E83">
-        <v>0.2454252963325085</v>
+        <v>0.2297633152625515</v>
       </c>
     </row>
     <row r="84">
@@ -1952,13 +1952,13 @@
         <v>2528233</v>
       </c>
       <c r="C84">
-        <v>5431200.002097903</v>
+        <v>4954324.845188146</v>
       </c>
       <c r="D84">
-        <v>-2902967.002097903</v>
+        <v>-2426091.845188146</v>
       </c>
       <c r="E84">
-        <v>-1.148219725831402</v>
+        <v>-0.9595997857745494</v>
       </c>
     </row>
     <row r="85">
@@ -1971,13 +1971,13 @@
         <v>2019706</v>
       </c>
       <c r="C85">
-        <v>5548950.316983018</v>
+        <v>5756012.483183485</v>
       </c>
       <c r="D85">
-        <v>-3529244.316983018</v>
+        <v>-3736306.483183485</v>
       </c>
       <c r="E85">
-        <v>-1.747404977250658</v>
+        <v>-1.849925921487328</v>
       </c>
     </row>
     <row r="86">
@@ -1990,13 +1990,13 @@
         <v>11055360</v>
       </c>
       <c r="C86">
-        <v>12495821.38638028</v>
+        <v>13879297.29252414</v>
       </c>
       <c r="D86">
-        <v>-1440461.386380283</v>
+        <v>-2823937.292524142</v>
       </c>
       <c r="E86">
-        <v>-0.1302952944436258</v>
+        <v>-0.2554360321621496</v>
       </c>
     </row>
     <row r="87">
@@ -2009,13 +2009,13 @@
         <v>4000000</v>
       </c>
       <c r="C87">
-        <v>4309438.921078918</v>
+        <v>4548230.305527803</v>
       </c>
       <c r="D87">
-        <v>-309438.9210789176</v>
+        <v>-548230.3055278026</v>
       </c>
       <c r="E87">
-        <v>-0.07735973026972939</v>
+        <v>-0.1370575763819507</v>
       </c>
     </row>
     <row r="88">
@@ -2028,13 +2028,13 @@
         <v>51915615</v>
       </c>
       <c r="C88">
-        <v>40611683.62312686</v>
+        <v>35406332.16461872</v>
       </c>
       <c r="D88">
-        <v>11303931.37687314</v>
+        <v>16509282.83538128</v>
       </c>
       <c r="E88">
-        <v>0.2177366362099945</v>
+        <v>0.3180022587689904</v>
       </c>
     </row>
     <row r="89">
@@ -2047,13 +2047,13 @@
         <v>5784120</v>
       </c>
       <c r="C89">
-        <v>5413121.209274061</v>
+        <v>5377743.477072927</v>
       </c>
       <c r="D89">
-        <v>370998.790725939</v>
+        <v>406376.5229270728</v>
       </c>
       <c r="E89">
-        <v>0.06414092216723356</v>
+        <v>0.07025727732603626</v>
       </c>
     </row>
     <row r="90">
@@ -2066,13 +2066,13 @@
         <v>40600080</v>
       </c>
       <c r="C90">
-        <v>35040196.82962038</v>
+        <v>32564226.66836496</v>
       </c>
       <c r="D90">
-        <v>5559883.170379616</v>
+        <v>8035853.331635039</v>
       </c>
       <c r="E90">
-        <v>0.1369426653932607</v>
+        <v>0.1979270319574503</v>
       </c>
     </row>
     <row r="91">
@@ -2085,13 +2085,13 @@
         <v>5050800</v>
       </c>
       <c r="C91">
-        <v>2905542.903330005</v>
+        <v>2791249.349766898</v>
       </c>
       <c r="D91">
-        <v>2145257.096669995</v>
+        <v>2259550.650233102</v>
       </c>
       <c r="E91">
-        <v>0.4247361005523867</v>
+        <v>0.4473649026358403</v>
       </c>
     </row>
     <row r="92">
@@ -2104,13 +2104,13 @@
         <v>28600000</v>
       </c>
       <c r="C92">
-        <v>29844709.23136864</v>
+        <v>29682299.43366634</v>
       </c>
       <c r="D92">
-        <v>-1244709.231368639</v>
+        <v>-1082299.433666337</v>
       </c>
       <c r="E92">
-        <v>-0.04352130179610624</v>
+        <v>-0.03784263754078102</v>
       </c>
     </row>
     <row r="93">
@@ -2123,13 +2123,13 @@
         <v>4536720</v>
       </c>
       <c r="C93">
-        <v>4207922.259590407</v>
+        <v>4218962.532767231</v>
       </c>
       <c r="D93">
-        <v>328797.7404095931</v>
+        <v>317757.4672327694</v>
       </c>
       <c r="E93">
-        <v>0.07247477040892827</v>
+        <v>0.0700412340265146</v>
       </c>
     </row>
     <row r="94">
@@ -2142,13 +2142,13 @@
         <v>4798440</v>
       </c>
       <c r="C94">
-        <v>4249853.157808857</v>
+        <v>4188399.915434565</v>
       </c>
       <c r="D94">
-        <v>548586.842191143</v>
+        <v>610040.0845654351</v>
       </c>
       <c r="E94">
-        <v>0.1143260814329538</v>
+        <v>0.1271330025102815</v>
       </c>
     </row>
     <row r="95">
@@ -2161,13 +2161,13 @@
         <v>20357143</v>
       </c>
       <c r="C95">
-        <v>22698023.95269731</v>
+        <v>20809407.52499168</v>
       </c>
       <c r="D95">
-        <v>-2340880.952697307</v>
+        <v>-452264.5249916837</v>
       </c>
       <c r="E95">
-        <v>-0.1149906424834422</v>
+        <v>-0.02221650282614233</v>
       </c>
     </row>
     <row r="96">
@@ -2180,13 +2180,13 @@
         <v>10900000</v>
       </c>
       <c r="C96">
-        <v>8728089.287495837</v>
+        <v>9346785.020795874</v>
       </c>
       <c r="D96">
-        <v>2171910.712504163</v>
+        <v>1553214.979204126</v>
       </c>
       <c r="E96">
-        <v>0.1992578635324921</v>
+        <v>0.1424967870829473</v>
       </c>
     </row>
     <row r="97">
@@ -2199,13 +2199,13 @@
         <v>40064220</v>
       </c>
       <c r="C97">
-        <v>36591454.30862471</v>
+        <v>37960500.71280385</v>
       </c>
       <c r="D97">
-        <v>3472765.691375293</v>
+        <v>2103719.287196152</v>
       </c>
       <c r="E97">
-        <v>0.08667997758037703</v>
+        <v>0.05250867949497462</v>
       </c>
     </row>
     <row r="98">
@@ -2218,13 +2218,13 @@
         <v>15277778</v>
       </c>
       <c r="C98">
-        <v>12374678.09592074</v>
+        <v>13194169.5398768</v>
       </c>
       <c r="D98">
-        <v>2903099.90407926</v>
+        <v>2083608.460123202</v>
       </c>
       <c r="E98">
-        <v>0.1900210818666995</v>
+        <v>0.1363816426788766</v>
       </c>
     </row>
     <row r="99">
@@ -2237,13 +2237,13 @@
         <v>6481482</v>
       </c>
       <c r="C99">
-        <v>5938618.818381618</v>
+        <v>5494914.772061269</v>
       </c>
       <c r="D99">
-        <v>542863.1816183822</v>
+        <v>986567.2279387312</v>
       </c>
       <c r="E99">
-        <v>0.08375602703492538</v>
+        <v>0.1522132172763469</v>
       </c>
     </row>
     <row r="100">
@@ -2256,13 +2256,13 @@
         <v>3360000</v>
       </c>
       <c r="C100">
-        <v>5903581.888777888</v>
+        <v>5435762.069463874</v>
       </c>
       <c r="D100">
-        <v>-2543581.888777888</v>
+        <v>-2075762.069463874</v>
       </c>
       <c r="E100">
-        <v>-0.7570184192791335</v>
+        <v>-0.6177863301975816</v>
       </c>
     </row>
     <row r="101">
@@ -2275,13 +2275,13 @@
         <v>4124400</v>
       </c>
       <c r="C101">
-        <v>3759635.522960376</v>
+        <v>3848125.560672664</v>
       </c>
       <c r="D101">
-        <v>364764.4770396245</v>
+        <v>276274.4393273364</v>
       </c>
       <c r="E101">
-        <v>0.08844061609922037</v>
+        <v>0.06698536498092726</v>
       </c>
     </row>
     <row r="102">
@@ -2294,13 +2294,13 @@
         <v>2586665</v>
       </c>
       <c r="C102">
-        <v>3916612.072793878</v>
+        <v>3670662.513519816</v>
       </c>
       <c r="D102">
-        <v>-1329947.072793878</v>
+        <v>-1083997.513519816</v>
       </c>
       <c r="E102">
-        <v>-0.5141551274687206</v>
+        <v>-0.4190714737006207</v>
       </c>
     </row>
     <row r="103">
@@ -2313,13 +2313,13 @@
         <v>47649433</v>
       </c>
       <c r="C103">
-        <v>44772222.24603729</v>
+        <v>43887413.3909091</v>
       </c>
       <c r="D103">
-        <v>2877210.75396271</v>
+        <v>3762019.609090902</v>
       </c>
       <c r="E103">
-        <v>0.06038289593000425</v>
+        <v>0.07895203305128315</v>
       </c>
     </row>
     <row r="104">
@@ -2332,13 +2332,13 @@
         <v>4330680</v>
       </c>
       <c r="C104">
-        <v>6439614.282051285</v>
+        <v>6810062.307059608</v>
       </c>
       <c r="D104">
-        <v>-2108934.282051285</v>
+        <v>-2479382.307059608</v>
       </c>
       <c r="E104">
-        <v>-0.4869753207466921</v>
+        <v>-0.5725157035522386</v>
       </c>
     </row>
     <row r="105">
@@ -2351,13 +2351,13 @@
         <v>3527160</v>
       </c>
       <c r="C105">
-        <v>4834280.262770562</v>
+        <v>5295155.207575756</v>
       </c>
       <c r="D105">
-        <v>-1307120.262770562</v>
+        <v>-1767995.207575756</v>
       </c>
       <c r="E105">
-        <v>-0.3705871757364459</v>
+        <v>-0.5012517741116809</v>
       </c>
     </row>
     <row r="106">
@@ -2370,13 +2370,13 @@
         <v>13534817</v>
       </c>
       <c r="C106">
-        <v>15219239.58839491</v>
+        <v>15266641.60690974</v>
       </c>
       <c r="D106">
-        <v>-1684422.588394912</v>
+        <v>-1731824.606909743</v>
       </c>
       <c r="E106">
-        <v>-0.1244510796411146</v>
+        <v>-0.1279533078954627</v>
       </c>
     </row>
     <row r="107">
@@ -2389,13 +2389,13 @@
         <v>1927896</v>
       </c>
       <c r="C107">
-        <v>1891676.019480516</v>
+        <v>1894469.670379619</v>
       </c>
       <c r="D107">
-        <v>36219.9805194838</v>
+        <v>33426.32962038089</v>
       </c>
       <c r="E107">
-        <v>0.01878731037332086</v>
+        <v>0.0173382431523178</v>
       </c>
     </row>
     <row r="108">
@@ -2408,13 +2408,13 @@
         <v>47607350</v>
       </c>
       <c r="C108">
-        <v>43210949.25359637</v>
+        <v>43580646.80184817</v>
       </c>
       <c r="D108">
-        <v>4396400.746403635</v>
+        <v>4026703.198151827</v>
       </c>
       <c r="E108">
-        <v>0.09234710073977305</v>
+        <v>0.08458154461762368</v>
       </c>
     </row>
     <row r="109">
@@ -2427,13 +2427,13 @@
         <v>2346614</v>
       </c>
       <c r="C109">
-        <v>5757300.820462872</v>
+        <v>2966001.899317347</v>
       </c>
       <c r="D109">
-        <v>-3410686.820462872</v>
+        <v>-619387.8993173474</v>
       </c>
       <c r="E109">
-        <v>-1.453450299223848</v>
+        <v>-0.2639496309650192</v>
       </c>
     </row>
     <row r="110">
@@ -2446,13 +2446,13 @@
         <v>3000000</v>
       </c>
       <c r="C110">
-        <v>4242801.586147192</v>
+        <v>3712528.821361975</v>
       </c>
       <c r="D110">
-        <v>-1242801.586147192</v>
+        <v>-712528.8213619748</v>
       </c>
       <c r="E110">
-        <v>-0.4142671953823973</v>
+        <v>-0.2375096071206583</v>
       </c>
     </row>
     <row r="111">
@@ -2465,13 +2465,13 @@
         <v>2581522</v>
       </c>
       <c r="C111">
-        <v>2876709.182201136</v>
+        <v>2676454.674608727</v>
       </c>
       <c r="D111">
-        <v>-295187.1822011359</v>
+        <v>-94932.67460872745</v>
       </c>
       <c r="E111">
-        <v>-0.114346181129247</v>
+        <v>-0.03677391655338496</v>
       </c>
     </row>
     <row r="112">
@@ -2484,4972 +2484,4972 @@
         <v>13932008</v>
       </c>
       <c r="C112">
-        <v>13188736.91350317</v>
+        <v>12361075.77615717</v>
       </c>
       <c r="D112">
-        <v>743271.0864968337</v>
+        <v>1570932.223842829</v>
       </c>
       <c r="E112">
-        <v>0.05334988944140957</v>
+        <v>0.1127570572628748</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Malachi Flynn</t>
+          <t>Simone Fontecchio</t>
         </is>
       </c>
       <c r="B113">
-        <v>3873025</v>
+        <v>3044872</v>
       </c>
       <c r="C113">
-        <v>3975867.050982349</v>
+        <v>4419236.90401266</v>
       </c>
       <c r="D113">
-        <v>-102842.0509823491</v>
+        <v>-1374364.90401266</v>
       </c>
       <c r="E113">
-        <v>-0.02655341780193753</v>
+        <v>-0.4513703380676299</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Simone Fontecchio</t>
+          <t>Evan Fournier</t>
         </is>
       </c>
       <c r="B114">
-        <v>3044872</v>
+        <v>18857143</v>
       </c>
       <c r="C114">
-        <v>4402147.775041629</v>
+        <v>13251392.93216783</v>
       </c>
       <c r="D114">
-        <v>-1357275.775041629</v>
+        <v>5605750.067832172</v>
       </c>
       <c r="E114">
-        <v>-0.4457579087205074</v>
+        <v>0.2972746225572014</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Evan Fournier</t>
+          <t>De'Aaron Fox</t>
         </is>
       </c>
       <c r="B115">
-        <v>18857143</v>
+        <v>32600060</v>
       </c>
       <c r="C115">
-        <v>13108423.62660673</v>
+        <v>32983915.77510823</v>
       </c>
       <c r="D115">
-        <v>5748719.373393275</v>
+        <v>-383855.7751082294</v>
       </c>
       <c r="E115">
-        <v>0.3048563280977015</v>
+        <v>-0.01177469535664135</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>De'Aaron Fox</t>
+          <t>Markelle Fultz</t>
         </is>
       </c>
       <c r="B116">
-        <v>32600060</v>
+        <v>17000000</v>
       </c>
       <c r="C116">
-        <v>31538391.29227443</v>
+        <v>15067465.1917416</v>
       </c>
       <c r="D116">
-        <v>1061668.707725573</v>
+        <v>1932534.808258398</v>
       </c>
       <c r="E116">
-        <v>0.03256646483857923</v>
+        <v>0.1136785181328469</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Markelle Fultz</t>
+          <t>Daniel Gafford</t>
         </is>
       </c>
       <c r="B117">
-        <v>17000000</v>
+        <v>12402000</v>
       </c>
       <c r="C117">
-        <v>15503057.22312689</v>
+        <v>10880120.91911422</v>
       </c>
       <c r="D117">
-        <v>1496942.776873114</v>
+        <v>1521879.080885779</v>
       </c>
       <c r="E117">
-        <v>0.08805545746312433</v>
+        <v>0.1227123916211723</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Daniel Gafford</t>
+          <t>Danilo Gallinari</t>
         </is>
       </c>
       <c r="B118">
-        <v>12402000</v>
+        <v>6802950</v>
       </c>
       <c r="C118">
-        <v>11577892.54991674</v>
+        <v>7477467.587312686</v>
       </c>
       <c r="D118">
-        <v>824107.4500832576</v>
+        <v>-674517.5873126863</v>
       </c>
       <c r="E118">
-        <v>0.06644956056146248</v>
+        <v>-0.09915074891226398</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Danilo Gallinari</t>
+          <t>Darius Garland</t>
         </is>
       </c>
       <c r="B119">
-        <v>6802950</v>
+        <v>34005250</v>
       </c>
       <c r="C119">
-        <v>8041692.811588403</v>
+        <v>30811885.04710291</v>
       </c>
       <c r="D119">
-        <v>-1238742.811588403</v>
+        <v>3193364.952897094</v>
       </c>
       <c r="E119">
-        <v>-0.1820890660064241</v>
+        <v>0.0939079981149115</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Darius Garland</t>
+          <t>Keyonte George</t>
         </is>
       </c>
       <c r="B120">
-        <v>34005250</v>
+        <v>3889800</v>
       </c>
       <c r="C120">
-        <v>26068940.24885114</v>
+        <v>8955430.288561443</v>
       </c>
       <c r="D120">
-        <v>7936309.751148865</v>
+        <v>-5065630.288561443</v>
       </c>
       <c r="E120">
-        <v>0.2333848376691501</v>
+        <v>-1.302285538732439</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Keyonte George</t>
+          <t>Paul George</t>
         </is>
       </c>
       <c r="B121">
-        <v>3889800</v>
+        <v>45640084</v>
       </c>
       <c r="C121">
-        <v>6035423.626606727</v>
+        <v>41489385.17902094</v>
       </c>
       <c r="D121">
-        <v>-2145623.626606727</v>
+        <v>4150698.820979059</v>
       </c>
       <c r="E121">
-        <v>-0.5516025570997807</v>
+        <v>0.09094415384903889</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Paul George</t>
+          <t>Josh Giddey</t>
         </is>
       </c>
       <c r="B122">
-        <v>45640084</v>
+        <v>6587040</v>
       </c>
       <c r="C122">
-        <v>43218680.6173493</v>
+        <v>8115450.962171166</v>
       </c>
       <c r="D122">
-        <v>2421403.382650696</v>
+        <v>-1528410.962171166</v>
       </c>
       <c r="E122">
-        <v>0.05305431476968131</v>
+        <v>-0.2320330470395149</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Josh Giddey</t>
+          <t>Harry Giles</t>
         </is>
       </c>
       <c r="B123">
-        <v>6587040</v>
+        <v>2019706</v>
       </c>
       <c r="C123">
-        <v>7418713.132783876</v>
+        <v>2148652.009823508</v>
       </c>
       <c r="D123">
-        <v>-831673.1327838758</v>
+        <v>-128946.0098235081</v>
       </c>
       <c r="E123">
-        <v>-0.1262590075031996</v>
+        <v>-0.06384395046779487</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Harry Giles</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="B124">
-        <v>2019706</v>
+        <v>33386850</v>
       </c>
       <c r="C124">
-        <v>2283196.102597401</v>
+        <v>32980160.63697967</v>
       </c>
       <c r="D124">
-        <v>-263490.1025974005</v>
+        <v>406689.3630203344</v>
       </c>
       <c r="E124">
-        <v>-0.1304596325392906</v>
+        <v>0.01218112409587411</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Anthony Gill</t>
         </is>
       </c>
       <c r="B125">
-        <v>33386850</v>
+        <v>1997238</v>
       </c>
       <c r="C125">
-        <v>32026516.90825842</v>
+        <v>3549763.262021316</v>
       </c>
       <c r="D125">
-        <v>1360333.091741581</v>
+        <v>-1552525.262021316</v>
       </c>
       <c r="E125">
-        <v>0.04074457733333874</v>
+        <v>-0.777336132209239</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Anthony Gill</t>
+          <t>Rudy Gobert</t>
         </is>
       </c>
       <c r="B126">
-        <v>1997238</v>
+        <v>41000000</v>
       </c>
       <c r="C126">
-        <v>5621011.503013649</v>
+        <v>19169092.97567433</v>
       </c>
       <c r="D126">
-        <v>-3623773.503013649</v>
+        <v>21830907.02432567</v>
       </c>
       <c r="E126">
-        <v>-1.814392427449132</v>
+        <v>0.5324611469347725</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
+          <t>Jordan Goodwin</t>
         </is>
       </c>
       <c r="B127">
-        <v>41000000</v>
+        <v>1927896</v>
       </c>
       <c r="C127">
-        <v>32433737.51809859</v>
+        <v>2304276.024042626</v>
       </c>
       <c r="D127">
-        <v>8566262.481901411</v>
+        <v>-376380.0240426264</v>
       </c>
       <c r="E127">
-        <v>0.2089332312658881</v>
+        <v>-0.1952283857856577</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Jordan Goodwin</t>
+          <t>Aaron Gordon</t>
         </is>
       </c>
       <c r="B128">
-        <v>1927896</v>
+        <v>22266182</v>
       </c>
       <c r="C128">
-        <v>2809797.241391938</v>
+        <v>20165530.39084248</v>
       </c>
       <c r="D128">
-        <v>-881901.2413919382</v>
+        <v>2100651.609157518</v>
       </c>
       <c r="E128">
-        <v>-0.4574423316361143</v>
+        <v>0.09434269463698436</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Aaron Gordon</t>
+          <t>Eric Gordon</t>
         </is>
       </c>
       <c r="B129">
-        <v>22266182</v>
+        <v>3196448</v>
       </c>
       <c r="C129">
-        <v>21255494.07693973</v>
+        <v>10983398.77602399</v>
       </c>
       <c r="D129">
-        <v>1010687.923060268</v>
+        <v>-7786950.776023986</v>
       </c>
       <c r="E129">
-        <v>0.04539116419062182</v>
+        <v>-2.436126217609042</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Eric Gordon</t>
+          <t>Devonte' Graham</t>
         </is>
       </c>
       <c r="B130">
-        <v>3196448</v>
+        <v>12100000</v>
       </c>
       <c r="C130">
-        <v>11924857.30594406</v>
+        <v>9372316.673126874</v>
       </c>
       <c r="D130">
-        <v>-8728409.305944055</v>
+        <v>2727683.326873126</v>
       </c>
       <c r="E130">
-        <v>-2.730658939530396</v>
+        <v>0.2254283741217459</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Devonte' Graham</t>
+          <t>Jerami Grant</t>
         </is>
       </c>
       <c r="B131">
-        <v>12100000</v>
+        <v>27586207</v>
       </c>
       <c r="C131">
-        <v>9332258.059473861</v>
+        <v>27166918.77527472</v>
       </c>
       <c r="D131">
-        <v>2767741.940526139</v>
+        <v>419288.2247252837</v>
       </c>
       <c r="E131">
-        <v>0.2287390033492677</v>
+        <v>0.01519919808929454</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Jerami Grant</t>
+          <t>A.J. Green</t>
         </is>
       </c>
       <c r="B132">
-        <v>27586207</v>
+        <v>1901769</v>
       </c>
       <c r="C132">
-        <v>27718738.38403261</v>
+        <v>2067520.083932734</v>
       </c>
       <c r="D132">
-        <v>-132531.3840326108</v>
+        <v>-165751.0839327336</v>
       </c>
       <c r="E132">
-        <v>-0.004804262653166157</v>
+        <v>-0.08715626552579921</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A.J. Green</t>
+          <t>Danny Green</t>
         </is>
       </c>
       <c r="B133">
-        <v>1901769</v>
+        <v>200000</v>
       </c>
       <c r="C133">
-        <v>1873762.107609056</v>
+        <v>1863182.300566101</v>
       </c>
       <c r="D133">
-        <v>28006.8923909443</v>
+        <v>-1663182.300566101</v>
       </c>
       <c r="E133">
-        <v>0.01472675829238162</v>
+        <v>-8.315911502830506</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Danny Green</t>
+          <t>Draymond Green</t>
         </is>
       </c>
       <c r="B134">
-        <v>200000</v>
+        <v>22321429</v>
       </c>
       <c r="C134">
-        <v>1812308.953596404</v>
+        <v>17601009.18236763</v>
       </c>
       <c r="D134">
-        <v>-1612308.953596404</v>
+        <v>4720419.81763237</v>
       </c>
       <c r="E134">
-        <v>-8.061544767982019</v>
+        <v>0.2114748037696139</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Draymond Green</t>
+          <t>Jalen Green</t>
         </is>
       </c>
       <c r="B135">
-        <v>22321429</v>
+        <v>9891480</v>
       </c>
       <c r="C135">
-        <v>19096747.99282385</v>
+        <v>9485800.977639023</v>
       </c>
       <c r="D135">
-        <v>3224681.00717615</v>
+        <v>405679.0223609768</v>
       </c>
       <c r="E135">
-        <v>0.1444657063477499</v>
+        <v>0.04101297504124527</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Jalen Green</t>
+          <t>Jeff Green</t>
         </is>
       </c>
       <c r="B136">
-        <v>9891480</v>
+        <v>9600000</v>
       </c>
       <c r="C136">
-        <v>9282594.710506164</v>
+        <v>9007835.299034292</v>
       </c>
       <c r="D136">
-        <v>608885.2894938365</v>
+        <v>592164.7009657081</v>
       </c>
       <c r="E136">
-        <v>0.06155654052718466</v>
+        <v>0.06168382301726126</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Jeff Green</t>
+          <t>Josh Green</t>
         </is>
       </c>
       <c r="B137">
-        <v>9600000</v>
+        <v>4765339</v>
       </c>
       <c r="C137">
-        <v>8950329.768614717</v>
+        <v>5285666.998201799</v>
       </c>
       <c r="D137">
-        <v>649670.2313852832</v>
+        <v>-520327.9982017986</v>
       </c>
       <c r="E137">
-        <v>0.06767398243596699</v>
+        <v>-0.1091901327905105</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Josh Green</t>
+          <t>AJ Griffin</t>
         </is>
       </c>
       <c r="B138">
-        <v>4765339</v>
+        <v>3712920</v>
       </c>
       <c r="C138">
-        <v>5210923.175541124</v>
+        <v>3392819.487445888</v>
       </c>
       <c r="D138">
-        <v>-445584.1755411243</v>
+        <v>320100.5125541119</v>
       </c>
       <c r="E138">
-        <v>-0.09350524181828918</v>
+        <v>0.08621260693850444</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>AJ Griffin</t>
+          <t>Quentin Grimes</t>
         </is>
       </c>
       <c r="B139">
-        <v>3712920</v>
+        <v>2385720</v>
       </c>
       <c r="C139">
-        <v>3679648.443922742</v>
+        <v>2924079.07121212</v>
       </c>
       <c r="D139">
-        <v>33271.55607725773</v>
+        <v>-538359.0712121199</v>
       </c>
       <c r="E139">
-        <v>0.00896102153487221</v>
+        <v>-0.2256589504267558</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Quentin Grimes</t>
+          <t>Mouhamed Gueye</t>
         </is>
       </c>
       <c r="B140">
-        <v>2385720</v>
+        <v>1119563</v>
       </c>
       <c r="C140">
-        <v>4048997.270029973</v>
+        <v>3822249.636197138</v>
       </c>
       <c r="D140">
-        <v>-1663277.270029973</v>
+        <v>-2702686.636197138</v>
       </c>
       <c r="E140">
-        <v>-0.6971804193409006</v>
+        <v>-2.414054980556822</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Mouhamed Gueye</t>
+          <t>Rui Hachimura</t>
         </is>
       </c>
       <c r="B141">
-        <v>1119563</v>
+        <v>15740741</v>
       </c>
       <c r="C141">
-        <v>3188936.459440558</v>
+        <v>7253483.582284383</v>
       </c>
       <c r="D141">
-        <v>-2069373.459440558</v>
+        <v>8487257.417715617</v>
       </c>
       <c r="E141">
-        <v>-1.848376071235435</v>
+        <v>0.5391904623623257</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Rui Hachimura</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="B142">
-        <v>15740741</v>
+        <v>5808435</v>
       </c>
       <c r="C142">
-        <v>11909969.99928405</v>
+        <v>13738825.07795538</v>
       </c>
       <c r="D142">
-        <v>3830771.000715954</v>
+        <v>-7930390.07795538</v>
       </c>
       <c r="E142">
-        <v>0.2433666242723868</v>
+        <v>-1.365323030722627</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Tim Hardaway Jr.</t>
         </is>
       </c>
       <c r="B143">
-        <v>5808435</v>
+        <v>17897728</v>
       </c>
       <c r="C143">
-        <v>11740411.897003</v>
+        <v>18403829.72604064</v>
       </c>
       <c r="D143">
-        <v>-5931976.897002999</v>
+        <v>-506101.7260406427</v>
       </c>
       <c r="E143">
-        <v>-1.021269394768642</v>
+        <v>-0.02827742862337849</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Tim Hardaway Jr.</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="B144">
-        <v>17897728</v>
+        <v>35640000</v>
       </c>
       <c r="C144">
-        <v>18921259.38439894</v>
+        <v>35895053.10974026</v>
       </c>
       <c r="D144">
-        <v>-1023531.384398941</v>
+        <v>-255053.1097402647</v>
       </c>
       <c r="E144">
-        <v>-0.05718778296323092</v>
+        <v>-0.007156372327167921</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Jaden Hardy</t>
         </is>
       </c>
       <c r="B145">
-        <v>35640000</v>
+        <v>1719864</v>
       </c>
       <c r="C145">
-        <v>35193017.87111227</v>
+        <v>2441019.443906093</v>
       </c>
       <c r="D145">
-        <v>446982.1288877279</v>
+        <v>-721155.443906093</v>
       </c>
       <c r="E145">
-        <v>0.01254158610796094</v>
+        <v>-0.4193095755862633</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Jaden Hardy</t>
+          <t>Gary Harris</t>
         </is>
       </c>
       <c r="B146">
-        <v>1719864</v>
+        <v>13000000</v>
       </c>
       <c r="C146">
-        <v>3848690.508291708</v>
+        <v>7307045.597718941</v>
       </c>
       <c r="D146">
-        <v>-2128826.508291708</v>
+        <v>5692954.402281059</v>
       </c>
       <c r="E146">
-        <v>-1.237787701987894</v>
+        <v>0.4379195694062353</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Gary Harris</t>
+          <t>Joe Harris</t>
         </is>
       </c>
       <c r="B147">
-        <v>13000000</v>
+        <v>19928571</v>
       </c>
       <c r="C147">
-        <v>10846104.78772892</v>
+        <v>14004276.88588078</v>
       </c>
       <c r="D147">
-        <v>2153895.212271076</v>
+        <v>5924294.114119222</v>
       </c>
       <c r="E147">
-        <v>0.165684247097775</v>
+        <v>0.2972764135531455</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Joe Harris</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="B148">
-        <v>19928571</v>
+        <v>39270150</v>
       </c>
       <c r="C148">
-        <v>6817779.38503163</v>
+        <v>24249884.09137525</v>
       </c>
       <c r="D148">
-        <v>13110791.61496837</v>
+        <v>15020265.90862475</v>
       </c>
       <c r="E148">
-        <v>0.6578891991286465</v>
+        <v>0.3824855751410358</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Josh Hart</t>
         </is>
       </c>
       <c r="B149">
-        <v>39270150</v>
+        <v>12960000</v>
       </c>
       <c r="C149">
-        <v>30175814.42074591</v>
+        <v>14088691.66158842</v>
       </c>
       <c r="D149">
-        <v>9094335.579254087</v>
+        <v>-1128691.661588416</v>
       </c>
       <c r="E149">
-        <v>0.2315839277225599</v>
+        <v>-0.08709040598676046</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Josh Hart</t>
+          <t>Isaiah Hartenstein</t>
         </is>
       </c>
       <c r="B150">
-        <v>12960000</v>
+        <v>9245121</v>
       </c>
       <c r="C150">
-        <v>12479984.76535133</v>
+        <v>5190398.983000335</v>
       </c>
       <c r="D150">
-        <v>480015.2346486691</v>
+        <v>4054722.016999665</v>
       </c>
       <c r="E150">
-        <v>0.03703821255005163</v>
+        <v>0.4385796591520722</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Isaiah Hartenstein</t>
+          <t>Sam Hauser</t>
         </is>
       </c>
       <c r="B151">
-        <v>9245121</v>
+        <v>1927896</v>
       </c>
       <c r="C151">
-        <v>7643807.428005324</v>
+        <v>3988344.8531302</v>
       </c>
       <c r="D151">
-        <v>1601313.571994676</v>
+        <v>-2060448.8531302</v>
       </c>
       <c r="E151">
-        <v>0.1732063400786941</v>
+        <v>-1.068755188625424</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sam Hauser</t>
+          <t>Jordan Hawkins</t>
         </is>
       </c>
       <c r="B152">
-        <v>1927896</v>
+        <v>4310160</v>
       </c>
       <c r="C152">
-        <v>8463473.203363305</v>
+        <v>5948833.131185483</v>
       </c>
       <c r="D152">
-        <v>-6535577.203363305</v>
+        <v>-1638673.131185483</v>
       </c>
       <c r="E152">
-        <v>-3.390005064258292</v>
+        <v>-0.3801884689165793</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Jordan Hawkins</t>
+          <t>Jaxson Hayes</t>
         </is>
       </c>
       <c r="B153">
-        <v>4310160</v>
+        <v>2165000</v>
       </c>
       <c r="C153">
-        <v>4902761.110239761</v>
+        <v>2310112.78083583</v>
       </c>
       <c r="D153">
-        <v>-592601.110239761</v>
+        <v>-145112.7808358301</v>
       </c>
       <c r="E153">
-        <v>-0.1374893531190863</v>
+        <v>-0.06702668860777374</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Jaxson Hayes</t>
+          <t>Killian Hayes</t>
         </is>
       </c>
       <c r="B154">
-        <v>2165000</v>
+        <v>7413955</v>
       </c>
       <c r="C154">
-        <v>2460763.298518149</v>
+        <v>7138874.658641363</v>
       </c>
       <c r="D154">
-        <v>-295763.2985181487</v>
+        <v>275080.3413586374</v>
       </c>
       <c r="E154">
-        <v>-0.1366112233340179</v>
+        <v>0.03710304977014798</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Killian Hayes</t>
+          <t>Gordon Hayward</t>
         </is>
       </c>
       <c r="B155">
-        <v>7413955</v>
+        <v>31500000</v>
       </c>
       <c r="C155">
-        <v>6523985.015351317</v>
+        <v>25050342.43433232</v>
       </c>
       <c r="D155">
-        <v>889969.9846486831</v>
+        <v>6449657.565667678</v>
       </c>
       <c r="E155">
-        <v>0.1200398417104883</v>
+        <v>0.2047510338307199</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Gordon Hayward</t>
+          <t>Scoot Henderson</t>
         </is>
       </c>
       <c r="B156">
-        <v>31500000</v>
+        <v>9770880</v>
       </c>
       <c r="C156">
-        <v>28030954.49905093</v>
+        <v>10301369.95740927</v>
       </c>
       <c r="D156">
-        <v>3469045.500949066</v>
+        <v>-530489.9574092682</v>
       </c>
       <c r="E156">
-        <v>0.1101284286015577</v>
+        <v>-0.05429295594759819</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Scoot Henderson</t>
+          <t>Taylor Hendricks</t>
         </is>
       </c>
       <c r="B157">
-        <v>9770880</v>
+        <v>5569920</v>
       </c>
       <c r="C157">
-        <v>10033751.3877456</v>
+        <v>3877394.918531469</v>
       </c>
       <c r="D157">
-        <v>-262871.3877455965</v>
+        <v>1692525.081468531</v>
       </c>
       <c r="E157">
-        <v>-0.02690355298044766</v>
+        <v>0.303868831413832</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Taylor Hendricks</t>
+          <t>Tyler Herro</t>
         </is>
       </c>
       <c r="B158">
-        <v>5569920</v>
+        <v>27000000</v>
       </c>
       <c r="C158">
-        <v>4739193.746719947</v>
+        <v>28077579.09204134</v>
       </c>
       <c r="D158">
-        <v>830726.2532800529</v>
+        <v>-1077579.092041336</v>
       </c>
       <c r="E158">
-        <v>0.1491450960301141</v>
+        <v>-0.03991033674227171</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Tyler Herro</t>
+          <t>Buddy Hield</t>
         </is>
       </c>
       <c r="B159">
-        <v>27000000</v>
+        <v>19279841</v>
       </c>
       <c r="C159">
-        <v>27257067.61741592</v>
+        <v>17179388.85392941</v>
       </c>
       <c r="D159">
-        <v>-257067.6174159162</v>
+        <v>2100452.146070588</v>
       </c>
       <c r="E159">
-        <v>-0.009521022867256155</v>
+        <v>0.1089455118468347</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Buddy Hield</t>
+          <t>Haywood Highsmith</t>
         </is>
       </c>
       <c r="B160">
-        <v>19279841</v>
+        <v>1902137</v>
       </c>
       <c r="C160">
-        <v>17582877.01666667</v>
+        <v>3015513.240259739</v>
       </c>
       <c r="D160">
-        <v>1696963.983333327</v>
+        <v>-1113376.240259739</v>
       </c>
       <c r="E160">
-        <v>0.08801752998550802</v>
+        <v>-0.5853291536097235</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Haywood Highsmith</t>
+          <t>Aaron Holiday</t>
         </is>
       </c>
       <c r="B161">
-        <v>1902137</v>
+        <v>2019706</v>
       </c>
       <c r="C161">
-        <v>3743744.41138861</v>
+        <v>3333714.660356313</v>
       </c>
       <c r="D161">
-        <v>-1841607.41138861</v>
+        <v>-1314008.660356313</v>
       </c>
       <c r="E161">
-        <v>-0.9681781130321371</v>
+        <v>-0.65059402722788</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Aaron Holiday</t>
+          <t>Jrue Holiday</t>
         </is>
       </c>
       <c r="B162">
-        <v>2019706</v>
+        <v>36861707</v>
       </c>
       <c r="C162">
-        <v>4254378.429903432</v>
+        <v>29993063.53649681</v>
       </c>
       <c r="D162">
-        <v>-2234672.429903432</v>
+        <v>6868643.463503189</v>
       </c>
       <c r="E162">
-        <v>-1.106434515668831</v>
+        <v>0.1863354690411703</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Jrue Holiday</t>
+          <t>Justin Holiday</t>
         </is>
       </c>
       <c r="B163">
-        <v>36861707</v>
+        <v>2019706</v>
       </c>
       <c r="C163">
-        <v>32865117.45830836</v>
+        <v>4498502.631035631</v>
       </c>
       <c r="D163">
-        <v>3996589.541691642</v>
+        <v>-2478796.631035631</v>
       </c>
       <c r="E163">
-        <v>0.1084211738130207</v>
+        <v>-1.227305672724461</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Justin Holiday</t>
+          <t>Richaun Holmes</t>
         </is>
       </c>
       <c r="B164">
-        <v>2019706</v>
+        <v>12046020</v>
       </c>
       <c r="C164">
-        <v>4306918.063852812</v>
+        <v>8692139.282151189</v>
       </c>
       <c r="D164">
-        <v>-2287212.063852812</v>
+        <v>3353880.717848811</v>
       </c>
       <c r="E164">
-        <v>-1.132448021569878</v>
+        <v>0.2784223102608838</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Richaun Holmes</t>
+          <t>Chet Holmgren</t>
         </is>
       </c>
       <c r="B165">
-        <v>12046020</v>
+        <v>10386000</v>
       </c>
       <c r="C165">
-        <v>8901164.297369299</v>
+        <v>9755579.863020308</v>
       </c>
       <c r="D165">
-        <v>3144855.702630701</v>
+        <v>630420.1369796917</v>
       </c>
       <c r="E165">
-        <v>0.2610701047010299</v>
+        <v>0.06069903109760174</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Chet Holmgren</t>
+          <t>Jalen Hood-Schifino</t>
         </is>
       </c>
       <c r="B166">
-        <v>10386000</v>
+        <v>3695040</v>
       </c>
       <c r="C166">
-        <v>9770356.108091908</v>
+        <v>2933328.495637695</v>
       </c>
       <c r="D166">
-        <v>615643.8919080924</v>
+        <v>761711.5043623052</v>
       </c>
       <c r="E166">
-        <v>0.05927632311843755</v>
+        <v>0.2061443189687541</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Jalen Hood-Schifino</t>
+          <t>Al Horford</t>
         </is>
       </c>
       <c r="B167">
-        <v>3695040</v>
+        <v>10000000</v>
       </c>
       <c r="C167">
-        <v>2608490.529470528</v>
+        <v>9714197.158841154</v>
       </c>
       <c r="D167">
-        <v>1086549.470529472</v>
+        <v>285802.8411588464</v>
       </c>
       <c r="E167">
-        <v>0.2940562133371957</v>
+        <v>0.02858028411588464</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Al Horford</t>
+          <t>Talen Horton-Tucker</t>
         </is>
       </c>
       <c r="B168">
-        <v>10000000</v>
+        <v>11020000</v>
       </c>
       <c r="C168">
-        <v>9690663.178171832</v>
+        <v>9124773.008441564</v>
       </c>
       <c r="D168">
-        <v>309336.8218281679</v>
+        <v>1895226.991558436</v>
       </c>
       <c r="E168">
-        <v>0.03093368218281679</v>
+        <v>0.17198067074033</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Talen Horton-Tucker</t>
+          <t>Danuel House Jr.</t>
         </is>
       </c>
       <c r="B169">
-        <v>11020000</v>
+        <v>4310250</v>
       </c>
       <c r="C169">
-        <v>9049831.595188145</v>
+        <v>5194293.503446547</v>
       </c>
       <c r="D169">
-        <v>1970168.404811855</v>
+        <v>-884043.5034465473</v>
       </c>
       <c r="E169">
-        <v>0.1787811619611484</v>
+        <v>-0.2051026050569102</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Danuel House Jr.</t>
+          <t>Caleb Houstan</t>
         </is>
       </c>
       <c r="B170">
-        <v>4310250</v>
+        <v>2000000</v>
       </c>
       <c r="C170">
-        <v>4242475.287995338</v>
+        <v>2513546.140659338</v>
       </c>
       <c r="D170">
-        <v>67774.71200466249</v>
+        <v>-513546.1406593379</v>
       </c>
       <c r="E170">
-        <v>0.01572407911482222</v>
+        <v>-0.256773070329669</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Caleb Houstan</t>
+          <t>Jett Howard</t>
         </is>
       </c>
       <c r="B171">
-        <v>2000000</v>
+        <v>5026800</v>
       </c>
       <c r="C171">
-        <v>2617819.427589078</v>
+        <v>4065055.41268731</v>
       </c>
       <c r="D171">
-        <v>-617819.4275890784</v>
+        <v>961744.58731269</v>
       </c>
       <c r="E171">
-        <v>-0.3089097137945392</v>
+        <v>0.1913234239103784</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Jett Howard</t>
+          <t>Kevin Huerter</t>
         </is>
       </c>
       <c r="B172">
-        <v>5026800</v>
+        <v>15669643</v>
       </c>
       <c r="C172">
-        <v>3856278.721928071</v>
+        <v>11862268.74162504</v>
       </c>
       <c r="D172">
-        <v>1170521.278071929</v>
+        <v>3807374.258374957</v>
       </c>
       <c r="E172">
-        <v>0.2328561466682441</v>
+        <v>0.2429777282338186</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Kevin Huerter</t>
+          <t>De'Andre Hunter</t>
         </is>
       </c>
       <c r="B173">
-        <v>15669643</v>
+        <v>20089286</v>
       </c>
       <c r="C173">
-        <v>12842798.75521145</v>
+        <v>18328700.20131537</v>
       </c>
       <c r="D173">
-        <v>2826844.244788548</v>
+        <v>1760585.798684634</v>
       </c>
       <c r="E173">
-        <v>0.1804025940341173</v>
+        <v>0.08763804739922734</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>De'Andre Hunter</t>
+          <t>Bones Hyland</t>
         </is>
       </c>
       <c r="B174">
-        <v>20089286</v>
+        <v>2306400</v>
       </c>
       <c r="C174">
-        <v>19438112.7344822</v>
+        <v>3140276.240642689</v>
       </c>
       <c r="D174">
-        <v>651173.2655178048</v>
+        <v>-833876.2406426887</v>
       </c>
       <c r="E174">
-        <v>0.03241395764477666</v>
+        <v>-0.3615488382946101</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Bones Hyland</t>
+          <t>Joe Ingles</t>
         </is>
       </c>
       <c r="B175">
-        <v>2306400</v>
+        <v>11000000</v>
       </c>
       <c r="C175">
-        <v>3264010.111388608</v>
+        <v>8797417.310489515</v>
       </c>
       <c r="D175">
-        <v>-957610.1113886083</v>
+        <v>2202582.689510485</v>
       </c>
       <c r="E175">
-        <v>-0.4151968918611725</v>
+        <v>0.2002347899554986</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Joe Ingles</t>
+          <t>Brandon Ingram</t>
         </is>
       </c>
       <c r="B176">
-        <v>11000000</v>
+        <v>33833400</v>
       </c>
       <c r="C176">
-        <v>5906296.623809518</v>
+        <v>29362455.43491513</v>
       </c>
       <c r="D176">
-        <v>5093703.376190482</v>
+        <v>4470944.565084871</v>
       </c>
       <c r="E176">
-        <v>0.4630639432900438</v>
+        <v>0.1321458843948545</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Brandon Ingram</t>
+          <t>Kyrie Irving</t>
         </is>
       </c>
       <c r="B177">
-        <v>33833400</v>
+        <v>37037037</v>
       </c>
       <c r="C177">
-        <v>27356605.06018982</v>
+        <v>25459487.37239427</v>
       </c>
       <c r="D177">
-        <v>6476794.939810179</v>
+        <v>11577549.62760573</v>
       </c>
       <c r="E177">
-        <v>0.1914319855471274</v>
+        <v>0.3125938402579485</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Kyrie Irving</t>
+          <t>Jonathan Isaac</t>
         </is>
       </c>
       <c r="B178">
-        <v>37037037</v>
+        <v>17400000</v>
       </c>
       <c r="C178">
-        <v>25265361.8727106</v>
+        <v>5169676.30884116</v>
       </c>
       <c r="D178">
-        <v>11771675.1272894</v>
+        <v>12230323.69115884</v>
       </c>
       <c r="E178">
-        <v>0.3178352287546489</v>
+        <v>0.702892166158554</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Jonathan Isaac</t>
+          <t>Jaden Ivey</t>
         </is>
       </c>
       <c r="B179">
-        <v>17400000</v>
+        <v>7614480</v>
       </c>
       <c r="C179">
-        <v>12278185.29610389</v>
+        <v>7622047.156776557</v>
       </c>
       <c r="D179">
-        <v>5121814.703896111</v>
+        <v>-7567.156776556745</v>
       </c>
       <c r="E179">
-        <v>0.2943571668905811</v>
+        <v>-0.0009937851010911769</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Jaden Ivey</t>
+          <t>Andre Jackson Jr.</t>
         </is>
       </c>
       <c r="B180">
-        <v>7614480</v>
+        <v>1119563</v>
       </c>
       <c r="C180">
-        <v>7220358.041192139</v>
+        <v>1994858.802314352</v>
       </c>
       <c r="D180">
-        <v>394121.9588078605</v>
+        <v>-875295.8023143518</v>
       </c>
       <c r="E180">
-        <v>0.05175953693592478</v>
+        <v>-0.7818191582915404</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Andre Jackson Jr.</t>
+          <t>Isaiah Jackson</t>
         </is>
       </c>
       <c r="B181">
-        <v>1119563</v>
+        <v>2696280</v>
       </c>
       <c r="C181">
-        <v>1898893.281535132</v>
+        <v>2986091.656460207</v>
       </c>
       <c r="D181">
-        <v>-779330.2815351323</v>
+        <v>-289811.6564602074</v>
       </c>
       <c r="E181">
-        <v>-0.6961022126804229</v>
+        <v>-0.1074857420075836</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Isaiah Jackson</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="B182">
-        <v>2696280</v>
+        <v>27102202</v>
       </c>
       <c r="C182">
-        <v>3525310.811338661</v>
+        <v>25315540.57607395</v>
       </c>
       <c r="D182">
-        <v>-829030.8113386608</v>
+        <v>1786661.423926052</v>
       </c>
       <c r="E182">
-        <v>-0.307472076838704</v>
+        <v>0.06592310927082795</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>Reggie Jackson</t>
         </is>
       </c>
       <c r="B183">
-        <v>27102202</v>
+        <v>5000000</v>
       </c>
       <c r="C183">
-        <v>25804385.32301031</v>
+        <v>8793496.63937729</v>
       </c>
       <c r="D183">
-        <v>1297816.676989689</v>
+        <v>-3793496.63937729</v>
       </c>
       <c r="E183">
-        <v>0.04788602331979112</v>
+        <v>-0.7586993278754581</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Reggie Jackson</t>
+          <t>Trayce Jackson-Davis</t>
         </is>
       </c>
       <c r="B184">
-        <v>5000000</v>
+        <v>1119563</v>
       </c>
       <c r="C184">
-        <v>9888501.119796874</v>
+        <v>1856516.053729603</v>
       </c>
       <c r="D184">
-        <v>-4888501.119796874</v>
+        <v>-736953.0537296031</v>
       </c>
       <c r="E184">
-        <v>-0.9777002239593748</v>
+        <v>-0.658250633264589</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Trayce Jackson-Davis</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="B185">
-        <v>1119563</v>
+        <v>47607350</v>
       </c>
       <c r="C185">
-        <v>3162708.326640026</v>
+        <v>38776195.9573926</v>
       </c>
       <c r="D185">
-        <v>-2043145.326640026</v>
+        <v>8831154.042607404</v>
       </c>
       <c r="E185">
-        <v>-1.824948954761836</v>
+        <v>0.1854998029213431</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Jaime Jaquez Jr.</t>
         </is>
       </c>
       <c r="B186">
-        <v>47607350</v>
+        <v>3510600</v>
       </c>
       <c r="C186">
-        <v>39899749.53744592</v>
+        <v>7506092.519463864</v>
       </c>
       <c r="D186">
-        <v>7707600.462554082</v>
+        <v>-3995492.519463864</v>
       </c>
       <c r="E186">
-        <v>0.1618993802964055</v>
+        <v>-1.138122406273533</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Jaime Jaquez Jr.</t>
+          <t>DaQuan Jeffries</t>
         </is>
       </c>
       <c r="B187">
-        <v>3510600</v>
+        <v>831385</v>
       </c>
       <c r="C187">
-        <v>4932068.851848152</v>
+        <v>1544707.407242757</v>
       </c>
       <c r="D187">
-        <v>-1421468.851848152</v>
+        <v>-713322.4072427566</v>
       </c>
       <c r="E187">
-        <v>-0.4049076658827983</v>
+        <v>-0.8579928760354788</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>DaQuan Jeffries</t>
+          <t>Ty Jerome</t>
         </is>
       </c>
       <c r="B188">
-        <v>2066585</v>
+        <v>2439025</v>
       </c>
       <c r="C188">
-        <v>2087542.622044618</v>
+        <v>3147691.205710955</v>
       </c>
       <c r="D188">
-        <v>-20957.62204461847</v>
+        <v>-708666.205710955</v>
       </c>
       <c r="E188">
-        <v>-0.010141185600698</v>
+        <v>-0.2905530717032236</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Ty Jerome</t>
+          <t>Isaiah Joe</t>
         </is>
       </c>
       <c r="B189">
-        <v>2439025</v>
+        <v>1997238</v>
       </c>
       <c r="C189">
-        <v>2555584.912321013</v>
+        <v>2905544.49267399</v>
       </c>
       <c r="D189">
-        <v>-116559.9123210134</v>
+        <v>-908306.4926739903</v>
       </c>
       <c r="E189">
-        <v>-0.04778955210422747</v>
+        <v>-0.4547812993113441</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Isaiah Joe</t>
+          <t>Cameron Johnson</t>
         </is>
       </c>
       <c r="B190">
-        <v>1997238</v>
+        <v>25679348</v>
       </c>
       <c r="C190">
-        <v>4949482.460905762</v>
+        <v>17284967.23070263</v>
       </c>
       <c r="D190">
-        <v>-2952244.460905762</v>
+        <v>8394380.769297365</v>
       </c>
       <c r="E190">
-        <v>-1.478163574349057</v>
+        <v>0.3268922859450079</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Cameron Johnson</t>
+          <t>Jalen Johnson</t>
         </is>
       </c>
       <c r="B191">
-        <v>25679348</v>
+        <v>2925360</v>
       </c>
       <c r="C191">
-        <v>18606299.96353646</v>
+        <v>7683268.439760244</v>
       </c>
       <c r="D191">
-        <v>7073048.03646354</v>
+        <v>-4757908.439760244</v>
       </c>
       <c r="E191">
-        <v>0.2754372126762541</v>
+        <v>-1.626435187382149</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Jalen Johnson</t>
+          <t>Keldon Johnson</t>
         </is>
       </c>
       <c r="B192">
-        <v>2925360</v>
+        <v>20000000</v>
       </c>
       <c r="C192">
-        <v>5330142.079220777</v>
+        <v>18884821.30865803</v>
       </c>
       <c r="D192">
-        <v>-2404782.079220777</v>
+        <v>1115178.691341974</v>
       </c>
       <c r="E192">
-        <v>-0.822046544432404</v>
+        <v>0.05575893456709869</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Keldon Johnson</t>
+          <t>Nikola Jokić</t>
         </is>
       </c>
       <c r="B193">
-        <v>20000000</v>
+        <v>47607350</v>
       </c>
       <c r="C193">
-        <v>17875188.03879454</v>
+        <v>31126422.42495838</v>
       </c>
       <c r="D193">
-        <v>2124811.961205456</v>
+        <v>16480927.57504162</v>
       </c>
       <c r="E193">
-        <v>0.1062405980602728</v>
+        <v>0.3461845193030408</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Nikola Jokić</t>
+          <t>Colby Jones</t>
         </is>
       </c>
       <c r="B194">
-        <v>47607350</v>
+        <v>2019706</v>
       </c>
       <c r="C194">
-        <v>32361594.74050949</v>
+        <v>1994005.64059274</v>
       </c>
       <c r="D194">
-        <v>15245755.25949051</v>
+        <v>25700.35940726008</v>
       </c>
       <c r="E194">
-        <v>0.3202395272891794</v>
+        <v>0.01272480222728461</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Colby Jones</t>
+          <t>Damian Jones</t>
         </is>
       </c>
       <c r="B195">
-        <v>2019706</v>
+        <v>2586665</v>
       </c>
       <c r="C195">
-        <v>1898531.164269063</v>
+        <v>2708441.117432571</v>
       </c>
       <c r="D195">
-        <v>121174.8357309368</v>
+        <v>-121776.1174325706</v>
       </c>
       <c r="E195">
-        <v>0.05999627457210942</v>
+        <v>-0.0470784262486911</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Damian Jones</t>
+          <t>Derrick Jones Jr.</t>
         </is>
       </c>
       <c r="B196">
-        <v>2586665</v>
+        <v>5379706</v>
       </c>
       <c r="C196">
-        <v>2640311.950699301</v>
+        <v>7701522.756410262</v>
       </c>
       <c r="D196">
-        <v>-53646.95069930051</v>
+        <v>-2321816.756410262</v>
       </c>
       <c r="E196">
-        <v>-0.02073981389136224</v>
+        <v>-0.4315880377868719</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Derrick Jones Jr.</t>
+          <t>Herbert Jones</t>
         </is>
       </c>
       <c r="B197">
-        <v>5379706</v>
+        <v>12015150</v>
       </c>
       <c r="C197">
-        <v>8175244.201998</v>
+        <v>12854053.57317684</v>
       </c>
       <c r="D197">
-        <v>-2795538.201998</v>
+        <v>-838903.573176844</v>
       </c>
       <c r="E197">
-        <v>-0.519645163136796</v>
+        <v>-0.06982048273861284</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Herbert Jones</t>
+          <t>Tre Jones</t>
         </is>
       </c>
       <c r="B198">
-        <v>12015150</v>
+        <v>9895833</v>
       </c>
       <c r="C198">
-        <v>12224938.10990677</v>
+        <v>8895070.858208464</v>
       </c>
       <c r="D198">
-        <v>-209788.1099067722</v>
+        <v>1000762.141791536</v>
       </c>
       <c r="E198">
-        <v>-0.01746029886491406</v>
+        <v>0.1011296514190908</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Tre Jones</t>
+          <t>Tyus Jones</t>
         </is>
       </c>
       <c r="B199">
-        <v>9895833</v>
+        <v>14000000</v>
       </c>
       <c r="C199">
-        <v>8767810.909607066</v>
+        <v>15060206.76078922</v>
       </c>
       <c r="D199">
-        <v>1128022.090392934</v>
+        <v>-1060206.760789219</v>
       </c>
       <c r="E199">
-        <v>0.1139896045530411</v>
+        <v>-0.0757290543420871</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Tyus Jones</t>
+          <t>DeAndre Jordan</t>
         </is>
       </c>
       <c r="B200">
-        <v>14000000</v>
+        <v>2019706</v>
       </c>
       <c r="C200">
-        <v>15131550.63093575</v>
+        <v>3954136.962987014</v>
       </c>
       <c r="D200">
-        <v>-1131550.630935749</v>
+        <v>-1934430.962987014</v>
       </c>
       <c r="E200">
-        <v>-0.08082504506683921</v>
+        <v>-0.9577784900312292</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>DeAndre Jordan</t>
+          <t>Cory Joseph</t>
         </is>
       </c>
       <c r="B201">
         <v>2019706</v>
       </c>
       <c r="C201">
-        <v>3843187.807559102</v>
+        <v>3163188.75967366</v>
       </c>
       <c r="D201">
-        <v>-1823481.807559102</v>
+        <v>-1143482.75967366</v>
       </c>
       <c r="E201">
-        <v>-0.9028451703164234</v>
+        <v>-0.5661629760339674</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Cory Joseph</t>
+          <t>Nikola Jović</t>
         </is>
       </c>
       <c r="B202">
-        <v>2019706</v>
+        <v>2352000</v>
       </c>
       <c r="C202">
-        <v>3338845.711588413</v>
+        <v>2702725.379720279</v>
       </c>
       <c r="D202">
-        <v>-1319139.711588413</v>
+        <v>-350725.3797202795</v>
       </c>
       <c r="E202">
-        <v>-0.6531345213552928</v>
+        <v>-0.1491179335545406</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Nikola Jović</t>
+          <t>Luke Kennard</t>
         </is>
       </c>
       <c r="B203">
-        <v>2352000</v>
+        <v>14763636</v>
       </c>
       <c r="C203">
-        <v>3128214.952763901</v>
+        <v>10886864.84593739</v>
       </c>
       <c r="D203">
-        <v>-776214.9527639006</v>
+        <v>3876771.154062612</v>
       </c>
       <c r="E203">
-        <v>-0.3300233642703659</v>
+        <v>0.2625891856222012</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Luke Kennard</t>
+          <t>Walker Kessler</t>
         </is>
       </c>
       <c r="B204">
-        <v>14763636</v>
+        <v>2831160</v>
       </c>
       <c r="C204">
-        <v>10978555.59114219</v>
+        <v>4113156.526290373</v>
       </c>
       <c r="D204">
-        <v>3785080.408857811</v>
+        <v>-1281996.526290373</v>
       </c>
       <c r="E204">
-        <v>0.2563786054368863</v>
+        <v>-0.4528166992647443</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Walker Kessler</t>
+          <t>Corey Kispert</t>
         </is>
       </c>
       <c r="B205">
-        <v>2831160</v>
+        <v>3722040</v>
       </c>
       <c r="C205">
-        <v>3806934.66078921</v>
+        <v>5122620.798035295</v>
       </c>
       <c r="D205">
-        <v>-975774.6607892103</v>
+        <v>-1400580.798035295</v>
       </c>
       <c r="E205">
-        <v>-0.3446554277360553</v>
+        <v>-0.3762938598282917</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Corey Kispert</t>
+          <t>Maxi Kleber</t>
         </is>
       </c>
       <c r="B206">
-        <v>3722040</v>
+        <v>11000000</v>
       </c>
       <c r="C206">
-        <v>5393905.754945053</v>
+        <v>9077200.454345653</v>
       </c>
       <c r="D206">
-        <v>-1671865.754945053</v>
+        <v>1922799.545654347</v>
       </c>
       <c r="E206">
-        <v>-0.4491799537202859</v>
+        <v>0.1747999586958497</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Maxi Kleber</t>
+          <t>Kevin Knox</t>
         </is>
       </c>
       <c r="B207">
-        <v>11000000</v>
+        <v>1845593</v>
       </c>
       <c r="C207">
-        <v>8688775.016516816</v>
+        <v>3546473.807159505</v>
       </c>
       <c r="D207">
-        <v>2311224.983483184</v>
+        <v>-1700880.807159505</v>
       </c>
       <c r="E207">
-        <v>0.2101113621348349</v>
+        <v>-0.9215904086976408</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Kevin Knox</t>
+          <t>John Konchar</t>
         </is>
       </c>
       <c r="B208">
-        <v>1845593</v>
+        <v>2400000</v>
       </c>
       <c r="C208">
-        <v>4037459.327189479</v>
+        <v>3259763.101448553</v>
       </c>
       <c r="D208">
-        <v>-2191866.327189479</v>
+        <v>-859763.1014485527</v>
       </c>
       <c r="E208">
-        <v>-1.187621716808353</v>
+        <v>-0.3582346256035636</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>John Konchar</t>
+          <t>Furkan Korkmaz</t>
         </is>
       </c>
       <c r="B209">
-        <v>2400000</v>
+        <v>5370370</v>
       </c>
       <c r="C209">
-        <v>3681813.983932731</v>
+        <v>3818065.676273726</v>
       </c>
       <c r="D209">
-        <v>-1281813.983932731</v>
+        <v>1552304.323726274</v>
       </c>
       <c r="E209">
-        <v>-0.5340891599719714</v>
+        <v>0.2890497905593606</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Furkan Korkmaz</t>
+          <t>Luke Kornet</t>
         </is>
       </c>
       <c r="B210">
-        <v>5370370</v>
+        <v>2413304</v>
       </c>
       <c r="C210">
-        <v>2238995.972161172</v>
+        <v>6745083.016550113</v>
       </c>
       <c r="D210">
-        <v>3131374.027838828</v>
+        <v>-4331779.016550113</v>
       </c>
       <c r="E210">
-        <v>0.5830834798791941</v>
+        <v>-1.794957873749065</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Luke Kornet</t>
+          <t>Jonathan Kuminga</t>
         </is>
       </c>
       <c r="B211">
-        <v>2413304</v>
+        <v>6012840</v>
       </c>
       <c r="C211">
-        <v>7231862.344322352</v>
+        <v>6849152.368981018</v>
       </c>
       <c r="D211">
-        <v>-4818558.344322352</v>
+        <v>-836312.3689810177</v>
       </c>
       <c r="E211">
-        <v>-1.996664466773499</v>
+        <v>-0.1390877470514794</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Jonathan Kuminga</t>
+          <t>Kyle Kuzma</t>
         </is>
       </c>
       <c r="B212">
-        <v>6012840</v>
+        <v>25568182</v>
       </c>
       <c r="C212">
-        <v>6158964.209307357</v>
+        <v>25834013.1544955</v>
       </c>
       <c r="D212">
-        <v>-146124.2093073567</v>
+        <v>-265831.1544954963</v>
       </c>
       <c r="E212">
-        <v>-0.02430202854347642</v>
+        <v>-0.01039695174633442</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Kyle Kuzma</t>
+          <t>Jock Landale</t>
         </is>
       </c>
       <c r="B213">
-        <v>25568182</v>
+        <v>8000000</v>
       </c>
       <c r="C213">
-        <v>26408695.07698967</v>
+        <v>7364564.173110222</v>
       </c>
       <c r="D213">
-        <v>-840513.0769896656</v>
+        <v>635435.8268897785</v>
       </c>
       <c r="E213">
-        <v>-0.0328734001107183</v>
+        <v>0.07942947836122231</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Jock Landale</t>
+          <t>Jake LaRavia</t>
         </is>
       </c>
       <c r="B214">
-        <v>8000000</v>
+        <v>3199920</v>
       </c>
       <c r="C214">
-        <v>7120173.522510818</v>
+        <v>3099301.737612386</v>
       </c>
       <c r="D214">
-        <v>879826.4774891818</v>
+        <v>100618.2623876138</v>
       </c>
       <c r="E214">
-        <v>0.1099783096861477</v>
+        <v>0.0314439930959567</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Jake LaRavia</t>
+          <t>Zach LaVine</t>
         </is>
       </c>
       <c r="B215">
-        <v>3199920</v>
+        <v>40064220</v>
       </c>
       <c r="C215">
-        <v>3101073.304628705</v>
+        <v>34298786.88621376</v>
       </c>
       <c r="D215">
-        <v>98846.69537129533</v>
+        <v>5765433.113786235</v>
       </c>
       <c r="E215">
-        <v>0.03089036456264386</v>
+        <v>0.1439047887063878</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
+          <t>Alex Len</t>
         </is>
       </c>
       <c r="B216">
-        <v>40064220</v>
+        <v>2019706</v>
       </c>
       <c r="C216">
-        <v>28265562.77787212</v>
+        <v>4922721.446103897</v>
       </c>
       <c r="D216">
-        <v>11798657.22212788</v>
+        <v>-2903015.446103897</v>
       </c>
       <c r="E216">
-        <v>0.2944936210446099</v>
+        <v>-1.437345557276107</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Alex Len</t>
+          <t>Kawhi Leonard</t>
         </is>
       </c>
       <c r="B217">
-        <v>2019706</v>
+        <v>45640084</v>
       </c>
       <c r="C217">
-        <v>3507706.473959375</v>
+        <v>33252945.44104227</v>
       </c>
       <c r="D217">
-        <v>-1488000.473959375</v>
+        <v>12387138.55895773</v>
       </c>
       <c r="E217">
-        <v>-0.736741126658719</v>
+        <v>0.2714091972082638</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Kawhi Leonard</t>
+          <t>Caris LeVert</t>
         </is>
       </c>
       <c r="B218">
-        <v>45640084</v>
+        <v>15384616</v>
       </c>
       <c r="C218">
-        <v>39685736.84415583</v>
+        <v>18043749.47569098</v>
       </c>
       <c r="D218">
-        <v>5954347.155844167</v>
+        <v>-2659133.47569098</v>
       </c>
       <c r="E218">
-        <v>0.1304631068567746</v>
+        <v>-0.1728436690061669</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Caris LeVert</t>
+          <t>Kira Lewis Jr.</t>
         </is>
       </c>
       <c r="B219">
-        <v>15384616</v>
+        <v>5722116</v>
       </c>
       <c r="C219">
-        <v>20972853.42395937</v>
+        <v>2926269.849783549</v>
       </c>
       <c r="D219">
-        <v>-5588237.423959367</v>
+        <v>2795846.150216451</v>
       </c>
       <c r="E219">
-        <v>-0.3632354180279421</v>
+        <v>0.4886035428531073</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Kira Lewis Jr.</t>
+          <t>Maxwell Lewis</t>
         </is>
       </c>
       <c r="B220">
-        <v>5722116</v>
+        <v>1119563</v>
       </c>
       <c r="C220">
-        <v>4762947.175174821</v>
+        <v>1601884.836596737</v>
       </c>
       <c r="D220">
-        <v>959168.8248251788</v>
+        <v>-482321.8365967369</v>
       </c>
       <c r="E220">
-        <v>0.1676248480151711</v>
+        <v>-0.430812590802605</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Maxwell Lewis</t>
+          <t>E.J. Liddell</t>
         </is>
       </c>
       <c r="B221">
-        <v>1119563</v>
+        <v>1801769</v>
       </c>
       <c r="C221">
-        <v>1498240.936413587</v>
+        <v>2100355.962287711</v>
       </c>
       <c r="D221">
-        <v>-378677.9364135871</v>
+        <v>-298586.9622877114</v>
       </c>
       <c r="E221">
-        <v>-0.3382372733053763</v>
+        <v>-0.1657187809800876</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>E.J. Liddell</t>
+          <t>Damian Lillard</t>
         </is>
       </c>
       <c r="B222">
-        <v>1801769</v>
+        <v>45640084</v>
       </c>
       <c r="C222">
-        <v>2383978.822327672</v>
+        <v>35345781.41125543</v>
       </c>
       <c r="D222">
-        <v>-582209.822327672</v>
+        <v>10294302.58874457</v>
       </c>
       <c r="E222">
-        <v>-0.3231323340159987</v>
+        <v>0.2255539798906717</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Damian Lillard</t>
+          <t>Nassir Little</t>
         </is>
       </c>
       <c r="B223">
-        <v>45640084</v>
+        <v>6250000</v>
       </c>
       <c r="C223">
-        <v>41917014.3297869</v>
+        <v>4865619.316550118</v>
       </c>
       <c r="D223">
-        <v>3723069.670213096</v>
+        <v>1384380.683449882</v>
       </c>
       <c r="E223">
-        <v>0.08157455779908503</v>
+        <v>0.2215009093519811</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Nassir Little</t>
+          <t>Dereck Lively II</t>
         </is>
       </c>
       <c r="B224">
-        <v>6250000</v>
+        <v>4775640</v>
       </c>
       <c r="C224">
-        <v>4704569.255960705</v>
+        <v>5268487.126040625</v>
       </c>
       <c r="D224">
-        <v>1545430.744039295</v>
+        <v>-492847.1260406254</v>
       </c>
       <c r="E224">
-        <v>0.2472689190462872</v>
+        <v>-0.1032002257374143</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Dereck Lively II</t>
+          <t>Isaiah Livers</t>
         </is>
       </c>
       <c r="B225">
-        <v>4775640</v>
+        <v>1836096</v>
       </c>
       <c r="C225">
-        <v>5146826.736263735</v>
+        <v>3493225.866283717</v>
       </c>
       <c r="D225">
-        <v>-371186.7362637352</v>
+        <v>-1657129.866283717</v>
       </c>
       <c r="E225">
-        <v>-0.07772502455455922</v>
+        <v>-0.9025289888348521</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Isaiah Livers</t>
+          <t>Chris Livingston</t>
         </is>
       </c>
       <c r="B226">
-        <v>1836096</v>
+        <v>1119563</v>
       </c>
       <c r="C226">
-        <v>5182209.705577757</v>
+        <v>2091659.274192474</v>
       </c>
       <c r="D226">
-        <v>-3346113.705577757</v>
+        <v>-972096.2741924739</v>
       </c>
       <c r="E226">
-        <v>-1.822406729047804</v>
+        <v>-0.868281886943811</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Chris Livingston</t>
+          <t>Kenneth Lofton Jr.</t>
         </is>
       </c>
       <c r="B227">
-        <v>1119563</v>
+        <v>1719864</v>
       </c>
       <c r="C227">
-        <v>1485793.348951049</v>
+        <v>1992782.154545454</v>
       </c>
       <c r="D227">
-        <v>-366230.3489510489</v>
+        <v>-272918.1545454536</v>
       </c>
       <c r="E227">
-        <v>-0.3271190178230693</v>
+        <v>-0.1586858929226111</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Kenneth Lofton Jr.</t>
+          <t>Kevon Looney</t>
         </is>
       </c>
       <c r="B228">
-        <v>1719864</v>
+        <v>7500000</v>
       </c>
       <c r="C228">
-        <v>1946319.586463537</v>
+        <v>5099138.175407925</v>
       </c>
       <c r="D228">
-        <v>-226455.5864635368</v>
+        <v>2400861.824592075</v>
       </c>
       <c r="E228">
-        <v>-0.1316706358546588</v>
+        <v>0.32011490994561</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Kevon Looney</t>
+          <t>Brook Lopez</t>
         </is>
       </c>
       <c r="B229">
-        <v>7500000</v>
+        <v>25000000</v>
       </c>
       <c r="C229">
-        <v>7021954.352264399</v>
+        <v>22262442.69978354</v>
       </c>
       <c r="D229">
-        <v>478045.6477356013</v>
+        <v>2737557.300216459</v>
       </c>
       <c r="E229">
-        <v>0.06373941969808017</v>
+        <v>0.1095022920086584</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Brook Lopez</t>
+          <t>Robin Lopez</t>
         </is>
       </c>
       <c r="B230">
-        <v>25000000</v>
+        <v>2019706</v>
       </c>
       <c r="C230">
-        <v>22462242.54319013</v>
+        <v>2704646.541158841</v>
       </c>
       <c r="D230">
-        <v>2537757.456809867</v>
+        <v>-684940.541158841</v>
       </c>
       <c r="E230">
-        <v>0.1015102982723947</v>
+        <v>-0.3391288341762816</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Robin Lopez</t>
+          <t>Kevin Love</t>
         </is>
       </c>
       <c r="B231">
-        <v>2019706</v>
+        <v>3835738</v>
       </c>
       <c r="C231">
-        <v>2223947.31212121</v>
+        <v>5137510.240592745</v>
       </c>
       <c r="D231">
-        <v>-204241.3121212102</v>
+        <v>-1301772.240592745</v>
       </c>
       <c r="E231">
-        <v>-0.10112427854411</v>
+        <v>-0.3393798639512774</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Kevin Love</t>
+          <t>Kyle Lowry</t>
         </is>
       </c>
       <c r="B232">
-        <v>3835738</v>
+        <v>29682540</v>
       </c>
       <c r="C232">
-        <v>5564790.671511818</v>
+        <v>24765821.96640026</v>
       </c>
       <c r="D232">
-        <v>-1729052.671511818</v>
+        <v>4916718.033599738</v>
       </c>
       <c r="E232">
-        <v>-0.4507744458854639</v>
+        <v>0.1656434400020934</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Kyle Lowry</t>
+          <t>Trey Lyles</t>
         </is>
       </c>
       <c r="B233">
-        <v>29682540</v>
+        <v>8000000</v>
       </c>
       <c r="C233">
-        <v>23894902.79786879</v>
+        <v>7040313.933666325</v>
       </c>
       <c r="D233">
-        <v>5787637.202131212</v>
+        <v>959686.0663336748</v>
       </c>
       <c r="E233">
-        <v>0.1949845667564572</v>
+        <v>0.1199607582917094</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Trey Lyles</t>
+          <t>Sandro Mamukelashvili</t>
         </is>
       </c>
       <c r="B234">
-        <v>8000000</v>
+        <v>2019706</v>
       </c>
       <c r="C234">
-        <v>7603430.484681979</v>
+        <v>2914364.1998335</v>
       </c>
       <c r="D234">
-        <v>396569.5153180212</v>
+        <v>-894658.1998334997</v>
       </c>
       <c r="E234">
-        <v>0.04957118941475265</v>
+        <v>-0.4429645700084566</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Sandro Mamukelashvili</t>
+          <t>Terance Mann</t>
         </is>
       </c>
       <c r="B235">
-        <v>2019706</v>
+        <v>10576923</v>
       </c>
       <c r="C235">
-        <v>4927310.375541121</v>
+        <v>8178710.229037626</v>
       </c>
       <c r="D235">
-        <v>-2907604.375541121</v>
+        <v>2398212.770962374</v>
       </c>
       <c r="E235">
-        <v>-1.439617635210828</v>
+        <v>0.2267401181763708</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Terance Mann</t>
+          <t>Tre Mann</t>
         </is>
       </c>
       <c r="B236">
-        <v>10576923</v>
+        <v>3191400</v>
       </c>
       <c r="C236">
-        <v>10141597.7980686</v>
+        <v>3162747.83761239</v>
       </c>
       <c r="D236">
-        <v>435325.2019313984</v>
+        <v>28652.16238760995</v>
       </c>
       <c r="E236">
-        <v>0.0411580193910269</v>
+        <v>0.008977928930127827</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Tre Mann</t>
+          <t>Boban Marjanović</t>
         </is>
       </c>
       <c r="B237">
-        <v>3191400</v>
+        <v>2019706</v>
       </c>
       <c r="C237">
-        <v>4680844.949250746</v>
+        <v>7014644.48754579</v>
       </c>
       <c r="D237">
-        <v>-1489444.949250746</v>
+        <v>-4994938.48754579</v>
       </c>
       <c r="E237">
-        <v>-0.4667058185281524</v>
+        <v>-2.473101772013249</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Boban Marjanović</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="B238">
-        <v>2019706</v>
+        <v>17259999</v>
       </c>
       <c r="C238">
-        <v>4086909.245321347</v>
+        <v>21634291.57515819</v>
       </c>
       <c r="D238">
-        <v>-2067203.245321347</v>
+        <v>-4374292.575158194</v>
       </c>
       <c r="E238">
-        <v>-1.023516910541112</v>
+        <v>-0.2534352739625416</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>Naji Marshall</t>
         </is>
       </c>
       <c r="B239">
-        <v>17259999</v>
+        <v>1930681</v>
       </c>
       <c r="C239">
-        <v>21358112.12162836</v>
+        <v>3100206.181418583</v>
       </c>
       <c r="D239">
-        <v>-4098113.121628359</v>
+        <v>-1169525.181418583</v>
       </c>
       <c r="E239">
-        <v>-0.2374341459480014</v>
+        <v>-0.6057578550877039</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Naji Marshall</t>
+          <t>Caleb Martin</t>
         </is>
       </c>
       <c r="B240">
-        <v>1930681</v>
+        <v>6802950</v>
       </c>
       <c r="C240">
-        <v>6589829.341674986</v>
+        <v>13335601.94470529</v>
       </c>
       <c r="D240">
-        <v>-4659148.341674986</v>
+        <v>-6532651.944705294</v>
       </c>
       <c r="E240">
-        <v>-2.413214995991045</v>
+        <v>-0.9602675228695338</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Caleb Martin</t>
+          <t>Cody Martin</t>
         </is>
       </c>
       <c r="B241">
-        <v>6802950</v>
+        <v>7560000</v>
       </c>
       <c r="C241">
-        <v>9466415.521228775</v>
+        <v>7878033.671928073</v>
       </c>
       <c r="D241">
-        <v>-2663465.521228775</v>
+        <v>-318033.6719280733</v>
       </c>
       <c r="E241">
-        <v>-0.3915162570985786</v>
+        <v>-0.04206794602223191</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Cody Martin</t>
+          <t>KJ Martin</t>
         </is>
       </c>
       <c r="B242">
-        <v>7560000</v>
+        <v>1930681</v>
       </c>
       <c r="C242">
-        <v>7758961.155827507</v>
+        <v>2236991.093756242</v>
       </c>
       <c r="D242">
-        <v>-198961.1558275074</v>
+        <v>-306310.0937562422</v>
       </c>
       <c r="E242">
-        <v>-0.02631761320469674</v>
+        <v>-0.1586539121461506</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>KJ Martin</t>
+          <t>Garrison Mathews</t>
         </is>
       </c>
       <c r="B243">
-        <v>1930681</v>
+        <v>2000000</v>
       </c>
       <c r="C243">
-        <v>1902441.664069262</v>
+        <v>2995474.328837828</v>
       </c>
       <c r="D243">
-        <v>28239.3359307379</v>
+        <v>-995474.3288378278</v>
       </c>
       <c r="E243">
-        <v>0.01462661927617141</v>
+        <v>-0.4977371644189139</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Garrison Mathews</t>
+          <t>Bennedict Mathurin</t>
         </is>
       </c>
       <c r="B244">
-        <v>2000000</v>
+        <v>6916080</v>
       </c>
       <c r="C244">
-        <v>3267466.665750918</v>
+        <v>6785124.370729277</v>
       </c>
       <c r="D244">
-        <v>-1267466.665750918</v>
+        <v>130955.6292707231</v>
       </c>
       <c r="E244">
-        <v>-0.6337333328754587</v>
+        <v>0.01893495003972237</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Bennedict Mathurin</t>
+          <t>Wesley Matthews</t>
         </is>
       </c>
       <c r="B245">
-        <v>6916080</v>
+        <v>2019706</v>
       </c>
       <c r="C245">
-        <v>6740841.26328671</v>
+        <v>3431917.386913088</v>
       </c>
       <c r="D245">
-        <v>175238.7367132902</v>
+        <v>-1412211.386913088</v>
       </c>
       <c r="E245">
-        <v>0.02533787011042241</v>
+        <v>-0.6992163151038259</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Wesley Matthews</t>
+          <t>Tyrese Maxey</t>
         </is>
       </c>
       <c r="B246">
-        <v>2019706</v>
+        <v>4343920</v>
       </c>
       <c r="C246">
-        <v>5690612.67567432</v>
+        <v>17835028.96308691</v>
       </c>
       <c r="D246">
-        <v>-3670906.67567432</v>
+        <v>-13491108.96308691</v>
       </c>
       <c r="E246">
-        <v>-1.817545066298917</v>
+        <v>-3.105745263054318</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Tyrese Maxey</t>
+          <t>Skylar Mays</t>
         </is>
       </c>
       <c r="B247">
-        <v>4343920</v>
+        <v>1799163</v>
       </c>
       <c r="C247">
-        <v>10729318.78181818</v>
+        <v>2793393.682500831</v>
       </c>
       <c r="D247">
-        <v>-6385398.781818179</v>
+        <v>-994230.6825008313</v>
       </c>
       <c r="E247">
-        <v>-1.469962333979028</v>
+        <v>-0.5526073415809637</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Skylar Mays</t>
+          <t>Miles McBride</t>
         </is>
       </c>
       <c r="B248">
-        <v>1799163</v>
+        <v>1836096</v>
       </c>
       <c r="C248">
-        <v>5961030.406859809</v>
+        <v>2359917.996120545</v>
       </c>
       <c r="D248">
-        <v>-4161867.406859809</v>
+        <v>-523821.9961205446</v>
       </c>
       <c r="E248">
-        <v>-2.31322420862357</v>
+        <v>-0.2852911809189414</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Miles McBride</t>
+          <t>CJ McCollum</t>
         </is>
       </c>
       <c r="B249">
-        <v>1836096</v>
+        <v>35802469</v>
       </c>
       <c r="C249">
-        <v>1863314.486896435</v>
+        <v>30842178.49999998</v>
       </c>
       <c r="D249">
-        <v>-27218.48689643526</v>
+        <v>4960290.500000022</v>
       </c>
       <c r="E249">
-        <v>-0.01482410881371958</v>
+        <v>0.1385460455255201</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>CJ McCollum</t>
+          <t>T.J. McConnell</t>
         </is>
       </c>
       <c r="B250">
-        <v>35802469</v>
+        <v>8700000</v>
       </c>
       <c r="C250">
-        <v>34026647.24643691</v>
+        <v>8337179.963003661</v>
       </c>
       <c r="D250">
-        <v>1775821.753563091</v>
+        <v>362820.0369963385</v>
       </c>
       <c r="E250">
-        <v>0.04960053882214355</v>
+        <v>0.04170345252831477</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>T.J. McConnell</t>
+          <t>Jaden McDaniels</t>
         </is>
       </c>
       <c r="B251">
-        <v>8700000</v>
+        <v>3901399</v>
       </c>
       <c r="C251">
-        <v>8110490.610123205</v>
+        <v>5086178.307708963</v>
       </c>
       <c r="D251">
-        <v>589509.389876795</v>
+        <v>-1184779.307708963</v>
       </c>
       <c r="E251">
-        <v>0.0677596999858385</v>
+        <v>-0.3036806303864236</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Jaden McDaniels</t>
+          <t>Jalen McDaniels</t>
         </is>
       </c>
       <c r="B252">
-        <v>3901399</v>
+        <v>4516000</v>
       </c>
       <c r="C252">
-        <v>4689233.20467866</v>
+        <v>4152131.464618716</v>
       </c>
       <c r="D252">
-        <v>-787834.2046786603</v>
+        <v>363868.5353812836</v>
       </c>
       <c r="E252">
-        <v>-0.2019363322435517</v>
+        <v>0.08057319206848619</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Jalen McDaniels</t>
+          <t>Doug McDermott</t>
         </is>
       </c>
       <c r="B253">
-        <v>4516000</v>
+        <v>13750000</v>
       </c>
       <c r="C253">
-        <v>3943631.334032634</v>
+        <v>12493922.56505161</v>
       </c>
       <c r="D253">
-        <v>572368.6659673662</v>
+        <v>1256077.434948387</v>
       </c>
       <c r="E253">
-        <v>0.126742397246981</v>
+        <v>0.09135108617806448</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Doug McDermott</t>
+          <t>JaVale McGee</t>
         </is>
       </c>
       <c r="B254">
-        <v>13750000</v>
+        <v>4368030</v>
       </c>
       <c r="C254">
-        <v>12361788.66706627</v>
+        <v>4727989.418131866</v>
       </c>
       <c r="D254">
-        <v>1388211.332933733</v>
+        <v>-359959.4181318665</v>
       </c>
       <c r="E254">
-        <v>0.1009608242133624</v>
+        <v>-0.08240772570972875</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>JaVale McGee</t>
+          <t>Bryce McGowens</t>
         </is>
       </c>
       <c r="B255">
-        <v>4368030</v>
+        <v>1719864</v>
       </c>
       <c r="C255">
-        <v>4580199.140509491</v>
+        <v>2311982.440959042</v>
       </c>
       <c r="D255">
-        <v>-212169.1405094909</v>
+        <v>-592118.4409590424</v>
       </c>
       <c r="E255">
-        <v>-0.04857318757185524</v>
+        <v>-0.344282129842268</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Bryce McGowens</t>
+          <t>Jordan McLaughlin</t>
         </is>
       </c>
       <c r="B256">
-        <v>1719864</v>
+        <v>2320000</v>
       </c>
       <c r="C256">
-        <v>2613598.802297702</v>
+        <v>2700378.911322012</v>
       </c>
       <c r="D256">
-        <v>-893734.8022977016</v>
+        <v>-380378.9113220121</v>
       </c>
       <c r="E256">
-        <v>-0.5196543460981227</v>
+        <v>-0.1639564272939707</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Jordan McLaughlin</t>
+          <t>De'Anthony Melton</t>
         </is>
       </c>
       <c r="B257">
-        <v>2320000</v>
+        <v>8000000</v>
       </c>
       <c r="C257">
-        <v>2820954.327455876</v>
+        <v>10914234.40967366</v>
       </c>
       <c r="D257">
-        <v>-500954.3274558764</v>
+        <v>-2914234.409673663</v>
       </c>
       <c r="E257">
-        <v>-0.2159285894206364</v>
+        <v>-0.3642793012092079</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>De'Anthony Melton</t>
+          <t>Sam Merrill</t>
         </is>
       </c>
       <c r="B258">
-        <v>8000000</v>
+        <v>1997238</v>
       </c>
       <c r="C258">
-        <v>10193390.700333</v>
+        <v>3344251.100166501</v>
       </c>
       <c r="D258">
-        <v>-2193390.700333005</v>
+        <v>-1347013.100166501</v>
       </c>
       <c r="E258">
-        <v>-0.2741738375416256</v>
+        <v>-0.6744379488906683</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Sam Merrill</t>
+          <t>Chimezie Metu</t>
         </is>
       </c>
       <c r="B259">
-        <v>1997238</v>
+        <v>2019706</v>
       </c>
       <c r="C259">
-        <v>5027589.073976022</v>
+        <v>3636670.608408258</v>
       </c>
       <c r="D259">
-        <v>-3030351.073976022</v>
+        <v>-1616964.608408258</v>
       </c>
       <c r="E259">
-        <v>-1.517270888084456</v>
+        <v>-0.8005940510194347</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Chimezie Metu</t>
+          <t>Vasilije Micić</t>
         </is>
       </c>
       <c r="B260">
-        <v>2019706</v>
+        <v>7723000</v>
       </c>
       <c r="C260">
-        <v>4680449.554728605</v>
+        <v>6153371.123626375</v>
       </c>
       <c r="D260">
-        <v>-2660743.554728605</v>
+        <v>1569628.876373625</v>
       </c>
       <c r="E260">
-        <v>-1.317391518730253</v>
+        <v>0.2032408230446232</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Vasilije Micić</t>
+          <t>Khris Middleton</t>
         </is>
       </c>
       <c r="B261">
-        <v>7723000</v>
+        <v>29320988</v>
       </c>
       <c r="C261">
-        <v>6736008.900316346</v>
+        <v>15085313.19721945</v>
       </c>
       <c r="D261">
-        <v>986991.0996836536</v>
+        <v>14235674.80278055</v>
       </c>
       <c r="E261">
-        <v>0.1277989252471389</v>
+        <v>0.4855114296551177</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Brandon Miller</t>
         </is>
       </c>
       <c r="B262">
-        <v>29320988</v>
+        <v>10880400</v>
       </c>
       <c r="C262">
-        <v>23993885.46943057</v>
+        <v>8875851.385164838</v>
       </c>
       <c r="D262">
-        <v>5327102.530569434</v>
+        <v>2004548.614835162</v>
       </c>
       <c r="E262">
-        <v>0.1816822315322197</v>
+        <v>0.1842348272889932</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Brandon Miller</t>
+          <t>Leonard Miller</t>
         </is>
       </c>
       <c r="B263">
-        <v>10880400</v>
+        <v>1800000</v>
       </c>
       <c r="C263">
-        <v>9278269.931801531</v>
+        <v>2122456.479587079</v>
       </c>
       <c r="D263">
-        <v>1602130.068198469</v>
+        <v>-322456.4795870786</v>
       </c>
       <c r="E263">
-        <v>0.1472491882833782</v>
+        <v>-0.1791424886594881</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Leonard Miller</t>
+          <t>Dariq Whitehead</t>
         </is>
       </c>
       <c r="B264">
-        <v>1800000</v>
+        <v>2966040</v>
       </c>
       <c r="C264">
-        <v>2622979.271994673</v>
+        <v>3383798.817765571</v>
       </c>
       <c r="D264">
-        <v>-822979.2719946732</v>
+        <v>-417758.8177655707</v>
       </c>
       <c r="E264">
-        <v>-0.4572107066637073</v>
+        <v>-0.1408473310425924</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Dariq Whitehead</t>
+          <t>Patty Mills</t>
         </is>
       </c>
       <c r="B265">
-        <v>2966040</v>
+        <v>6802950</v>
       </c>
       <c r="C265">
-        <v>3031416.641791543</v>
+        <v>5020712.287612392</v>
       </c>
       <c r="D265">
-        <v>-65376.64179154299</v>
+        <v>1782237.712387608</v>
       </c>
       <c r="E265">
-        <v>-0.02204172627191238</v>
+        <v>0.2619801280896682</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Patty Mills</t>
+          <t>Shake Milton</t>
         </is>
       </c>
       <c r="B266">
-        <v>6802950</v>
+        <v>5000000</v>
       </c>
       <c r="C266">
-        <v>5876167.375724271</v>
+        <v>4331700.061488514</v>
       </c>
       <c r="D266">
-        <v>926782.6242757291</v>
+        <v>668299.9385114862</v>
       </c>
       <c r="E266">
-        <v>0.1362324615462011</v>
+        <v>0.1336599877022972</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Shake Milton</t>
+          <t>Josh Minott</t>
         </is>
       </c>
       <c r="B267">
-        <v>5000000</v>
+        <v>1719864</v>
       </c>
       <c r="C267">
-        <v>5102941.322377624</v>
+        <v>1846381.984315684</v>
       </c>
       <c r="D267">
-        <v>-102941.322377624</v>
+        <v>-126517.9843156843</v>
       </c>
       <c r="E267">
-        <v>-0.0205882644755248</v>
+        <v>-0.07356278421763832</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Josh Minott</t>
+          <t>Davion Mitchell</t>
         </is>
       </c>
       <c r="B268">
-        <v>1719864</v>
+        <v>5063640</v>
       </c>
       <c r="C268">
-        <v>1947700.536879787</v>
+        <v>4414395.808175158</v>
       </c>
       <c r="D268">
-        <v>-227836.5368797868</v>
+        <v>649244.1918248422</v>
       </c>
       <c r="E268">
-        <v>-0.1324735774920498</v>
+        <v>0.1282168937414276</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Davion Mitchell</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="B269">
-        <v>5063640</v>
+        <v>33162030</v>
       </c>
       <c r="C269">
-        <v>3434199.254262404</v>
+        <v>34187277.54282387</v>
       </c>
       <c r="D269">
-        <v>1629440.745737596</v>
+        <v>-1025247.542823866</v>
       </c>
       <c r="E269">
-        <v>0.3217923757884835</v>
+        <v>-0.03091630828462148</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Evan Mobley</t>
         </is>
       </c>
       <c r="B270">
-        <v>33162030</v>
+        <v>8882640</v>
       </c>
       <c r="C270">
-        <v>33272521.24657011</v>
+        <v>11017728.93231768</v>
       </c>
       <c r="D270">
-        <v>-110491.246570114</v>
+        <v>-2135088.932317676</v>
       </c>
       <c r="E270">
-        <v>-0.003331860159649878</v>
+        <v>-0.2403664825229522</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Evan Mobley</t>
+          <t>Malik Monk</t>
         </is>
       </c>
       <c r="B271">
-        <v>8882640</v>
+        <v>9945830</v>
       </c>
       <c r="C271">
-        <v>12742824.72186147</v>
+        <v>10476568.37788878</v>
       </c>
       <c r="D271">
-        <v>-3860184.721861472</v>
+        <v>-530738.3778887782</v>
       </c>
       <c r="E271">
-        <v>-0.4345762883401187</v>
+        <v>-0.05336290464333075</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Malik Monk</t>
+          <t>Moses Moody</t>
         </is>
       </c>
       <c r="B272">
-        <v>9945830</v>
+        <v>3918480</v>
       </c>
       <c r="C272">
-        <v>12305109.56285382</v>
+        <v>3425321.324109227</v>
       </c>
       <c r="D272">
-        <v>-2359279.562853824</v>
+        <v>493158.6758907731</v>
       </c>
       <c r="E272">
-        <v>-0.2372129387747251</v>
+        <v>0.1258545854236268</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Moses Moody</t>
+          <t>Wendell Moore Jr.</t>
         </is>
       </c>
       <c r="B273">
-        <v>3918480</v>
+        <v>2421720</v>
       </c>
       <c r="C273">
-        <v>3790853.539793538</v>
+        <v>2450612.225258075</v>
       </c>
       <c r="D273">
-        <v>127626.4602064621</v>
+        <v>-28892.2252580747</v>
       </c>
       <c r="E273">
-        <v>0.03257039979952994</v>
+        <v>-0.01193045655900546</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Wendell Moore Jr.</t>
+          <t>Ja Morant</t>
         </is>
       </c>
       <c r="B274">
-        <v>2421720</v>
+        <v>34005250</v>
       </c>
       <c r="C274">
-        <v>2529464.548851148</v>
+        <v>31785326.6019314</v>
       </c>
       <c r="D274">
-        <v>-107744.5488511482</v>
+        <v>2219923.398068599</v>
       </c>
       <c r="E274">
-        <v>-0.04449091920252887</v>
+        <v>0.06528178437354819</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Ja Morant</t>
+          <t>Marcus Morris</t>
         </is>
       </c>
       <c r="B275">
-        <v>34005250</v>
+        <v>17116279</v>
       </c>
       <c r="C275">
-        <v>30997551.62237764</v>
+        <v>12078117.15334665</v>
       </c>
       <c r="D275">
-        <v>3007698.377622359</v>
+        <v>5038161.846653346</v>
       </c>
       <c r="E275">
-        <v>0.0884480595679302</v>
+        <v>0.2943491308276376</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Marcus Morris</t>
+          <t>Markieff Morris</t>
         </is>
       </c>
       <c r="B276">
-        <v>17116279</v>
+        <v>2019706</v>
       </c>
       <c r="C276">
-        <v>12890987.42597402</v>
+        <v>3217723.869197472</v>
       </c>
       <c r="D276">
-        <v>4225291.574025979</v>
+        <v>-1198017.869197472</v>
       </c>
       <c r="E276">
-        <v>0.2468580685104502</v>
+        <v>-0.593164484928733</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Markieff Morris</t>
+          <t>Trey Murphy III</t>
         </is>
       </c>
       <c r="B277">
-        <v>2019706</v>
+        <v>3359280</v>
       </c>
       <c r="C277">
-        <v>3666273.268165169</v>
+        <v>4847378.697152849</v>
       </c>
       <c r="D277">
-        <v>-1646567.268165169</v>
+        <v>-1488098.697152849</v>
       </c>
       <c r="E277">
-        <v>-0.8152509663115173</v>
+        <v>-0.4429814416044061</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Trey Murphy III</t>
+          <t>Dejounte Murray</t>
         </is>
       </c>
       <c r="B278">
-        <v>3359280</v>
+        <v>18214000</v>
       </c>
       <c r="C278">
-        <v>5789937.463286714</v>
+        <v>21407387.25068264</v>
       </c>
       <c r="D278">
-        <v>-2430657.463286714</v>
+        <v>-3193387.250682641</v>
       </c>
       <c r="E278">
-        <v>-0.7235650089562983</v>
+        <v>-0.1753259718174284</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Dejounte Murray</t>
+          <t>Jamal Murray</t>
         </is>
       </c>
       <c r="B279">
-        <v>18214000</v>
+        <v>33833400</v>
       </c>
       <c r="C279">
-        <v>24654600.91914752</v>
+        <v>23362451.5204129</v>
       </c>
       <c r="D279">
-        <v>-6440600.919147518</v>
+        <v>10470948.4795871</v>
       </c>
       <c r="E279">
-        <v>-0.3536071658695244</v>
+        <v>0.3094855521344914</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Jamal Murray</t>
+          <t>Keegan Murray</t>
         </is>
       </c>
       <c r="B280">
-        <v>33833400</v>
+        <v>8409000</v>
       </c>
       <c r="C280">
-        <v>21155841.87695638</v>
+        <v>11163488.95198136</v>
       </c>
       <c r="D280">
-        <v>12677558.12304362</v>
+        <v>-2754488.951981356</v>
       </c>
       <c r="E280">
-        <v>0.3747054130842192</v>
+        <v>-0.327564389580373</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Keegan Murray</t>
+          <t>Kris Murray</t>
         </is>
       </c>
       <c r="B281">
-        <v>8409000</v>
+        <v>2847480</v>
       </c>
       <c r="C281">
-        <v>10949090.14675325</v>
+        <v>2883243.049350649</v>
       </c>
       <c r="D281">
-        <v>-2540090.146753253</v>
+        <v>-35763.04935064865</v>
       </c>
       <c r="E281">
-        <v>-0.3020680398089254</v>
+        <v>-0.01255954364934913</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Kris Murray</t>
+          <t>Mike Muscala</t>
         </is>
       </c>
       <c r="B282">
-        <v>2847480</v>
+        <v>3500000</v>
       </c>
       <c r="C282">
-        <v>2919686.762570762</v>
+        <v>4261297.415517813</v>
       </c>
       <c r="D282">
-        <v>-72206.76257076208</v>
+        <v>-761297.4155178126</v>
       </c>
       <c r="E282">
-        <v>-0.0253581280889636</v>
+        <v>-0.2175135472908036</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Mike Muscala</t>
+          <t>Svi Mykhailiuk</t>
         </is>
       </c>
       <c r="B283">
-        <v>3500000</v>
+        <v>2019706</v>
       </c>
       <c r="C283">
-        <v>4497504.090076588</v>
+        <v>2306125.600732598</v>
       </c>
       <c r="D283">
-        <v>-997504.0900765881</v>
+        <v>-286419.6007325975</v>
       </c>
       <c r="E283">
-        <v>-0.2850011685933109</v>
+        <v>-0.141812521591062</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Svi Mykhailiuk</t>
+          <t>Larry Nance Jr.</t>
         </is>
       </c>
       <c r="B284">
-        <v>2019706</v>
+        <v>10375000</v>
       </c>
       <c r="C284">
-        <v>2276858.107875459</v>
+        <v>7735490.672677322</v>
       </c>
       <c r="D284">
-        <v>-257152.1078754589</v>
+        <v>2639509.327322678</v>
       </c>
       <c r="E284">
-        <v>-0.1273215546596677</v>
+        <v>0.2544105375732701</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Larry Nance Jr.</t>
+          <t>Andrew Nembhard</t>
         </is>
       </c>
       <c r="B285">
-        <v>10375000</v>
+        <v>2131905</v>
       </c>
       <c r="C285">
-        <v>9110878.186230434</v>
+        <v>3458597.013086913</v>
       </c>
       <c r="D285">
-        <v>1264121.813769566</v>
+        <v>-1326692.013086913</v>
       </c>
       <c r="E285">
-        <v>0.121843066387428</v>
+        <v>-0.6223035327966832</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Andrew Nembhard</t>
+          <t>Aaron Nesmith</t>
         </is>
       </c>
       <c r="B286">
-        <v>2131905</v>
+        <v>5634257</v>
       </c>
       <c r="C286">
-        <v>6587151.574625368</v>
+        <v>6942764.098534801</v>
       </c>
       <c r="D286">
-        <v>-4455246.574625368</v>
+        <v>-1308507.098534801</v>
       </c>
       <c r="E286">
-        <v>-2.089796015594207</v>
+        <v>-0.23224128727795</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Aaron Nesmith</t>
+          <t>Georges Niang</t>
         </is>
       </c>
       <c r="B287">
-        <v>5634257</v>
+        <v>8800000</v>
       </c>
       <c r="C287">
-        <v>6413361.606426906</v>
+        <v>7975212.815551116</v>
       </c>
       <c r="D287">
-        <v>-779104.6064269058</v>
+        <v>824787.1844488839</v>
       </c>
       <c r="E287">
-        <v>-0.1382799198593365</v>
+        <v>0.09372581641464589</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Georges Niang</t>
+          <t>Zeke Nnaji</t>
         </is>
       </c>
       <c r="B288">
-        <v>8800000</v>
+        <v>4306281</v>
       </c>
       <c r="C288">
-        <v>8458359.227272721</v>
+        <v>3584365.43078588</v>
       </c>
       <c r="D288">
-        <v>341640.772727279</v>
+        <v>721915.5692141196</v>
       </c>
       <c r="E288">
-        <v>0.03882281508264534</v>
+        <v>0.1676424667164357</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Zeke Nnaji</t>
+          <t>Jusuf Nurkić</t>
         </is>
       </c>
       <c r="B289">
-        <v>4306281</v>
+        <v>16875000</v>
       </c>
       <c r="C289">
-        <v>3507236.294255742</v>
+        <v>19977212.39125876</v>
       </c>
       <c r="D289">
-        <v>799044.7057442577</v>
+        <v>-3102212.391258758</v>
       </c>
       <c r="E289">
-        <v>0.185553312880478</v>
+        <v>-0.1838348083708893</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Jusuf Nurkić</t>
+          <t>Jordan Nwora</t>
         </is>
       </c>
       <c r="B290">
-        <v>16875000</v>
+        <v>3000000</v>
       </c>
       <c r="C290">
-        <v>20125717.87823843</v>
+        <v>2841742.564119213</v>
       </c>
       <c r="D290">
-        <v>-3250717.878238432</v>
+        <v>158257.4358807872</v>
       </c>
       <c r="E290">
-        <v>-0.1926351335252404</v>
+        <v>0.05275247862692907</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Jordan Nwora</t>
+          <t>Royce O'Neale</t>
         </is>
       </c>
       <c r="B291">
-        <v>3000000</v>
+        <v>9500000</v>
       </c>
       <c r="C291">
-        <v>3815455.784632036</v>
+        <v>8846754.865784213</v>
       </c>
       <c r="D291">
-        <v>-815455.7846320355</v>
+        <v>653245.1342157871</v>
       </c>
       <c r="E291">
-        <v>-0.2718185948773452</v>
+        <v>0.06876264570692495</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Royce O'Neale</t>
+          <t>Chuma Okeke</t>
         </is>
       </c>
       <c r="B292">
-        <v>9500000</v>
+        <v>5266713</v>
       </c>
       <c r="C292">
-        <v>8868080.021678323</v>
+        <v>4089524.535031635</v>
       </c>
       <c r="D292">
-        <v>631919.9783216771</v>
+        <v>1177188.464968365</v>
       </c>
       <c r="E292">
-        <v>0.06651789245491338</v>
+        <v>0.2235148307812415</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Chuma Okeke</t>
+          <t>Josh Okogie</t>
         </is>
       </c>
       <c r="B293">
-        <v>5266713</v>
+        <v>2815937</v>
       </c>
       <c r="C293">
-        <v>3376953.376590078</v>
+        <v>2824435.394039297</v>
       </c>
       <c r="D293">
-        <v>1889759.623409922</v>
+        <v>-8498.394039297011</v>
       </c>
       <c r="E293">
-        <v>0.358811961732094</v>
+        <v>-0.003017963128897064</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Josh Okogie</t>
+          <t>Onyeka Okongwu</t>
         </is>
       </c>
       <c r="B294">
-        <v>2815937</v>
+        <v>8109063</v>
       </c>
       <c r="C294">
-        <v>3130488.227355977</v>
+        <v>6639115.534582084</v>
       </c>
       <c r="D294">
-        <v>-314551.2273559766</v>
+        <v>1469947.465417916</v>
       </c>
       <c r="E294">
-        <v>-0.1117039292271015</v>
+        <v>0.1812721723111432</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Onyeka Okongwu</t>
+          <t>Isaac Okoro</t>
         </is>
       </c>
       <c r="B295">
-        <v>8109063</v>
+        <v>8920795</v>
       </c>
       <c r="C295">
-        <v>6594105.054362309</v>
+        <v>7373762.937312689</v>
       </c>
       <c r="D295">
-        <v>1514957.945637691</v>
+        <v>1547032.062687311</v>
       </c>
       <c r="E295">
-        <v>0.1868228111728434</v>
+        <v>0.1734186317124551</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Isaac Okoro</t>
+          <t>Kelly Olynyk</t>
         </is>
       </c>
       <c r="B296">
-        <v>8920795</v>
+        <v>12195122</v>
       </c>
       <c r="C296">
-        <v>7336923.304861797</v>
+        <v>10407716.7602231</v>
       </c>
       <c r="D296">
-        <v>1583871.695138203</v>
+        <v>1787405.239776898</v>
       </c>
       <c r="E296">
-        <v>0.1775482672943614</v>
+        <v>0.1465672290754367</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Kelly Olynyk</t>
+          <t>Cedi Osman</t>
         </is>
       </c>
       <c r="B297">
-        <v>12195122</v>
+        <v>6718842</v>
       </c>
       <c r="C297">
-        <v>11638730.6087579</v>
+        <v>6859653.614252412</v>
       </c>
       <c r="D297">
-        <v>556391.3912420962</v>
+        <v>-140811.6142524118</v>
       </c>
       <c r="E297">
-        <v>0.04562409389935551</v>
+        <v>-0.02095772072812722</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Cedi Osman</t>
+          <t>Kelly Oubre Jr.</t>
         </is>
       </c>
       <c r="B298">
-        <v>6718842</v>
+        <v>2019706</v>
       </c>
       <c r="C298">
-        <v>6792017.568015316</v>
+        <v>7338230.124442222</v>
       </c>
       <c r="D298">
-        <v>-73175.56801531557</v>
+        <v>-5318524.124442222</v>
       </c>
       <c r="E298">
-        <v>-0.01089109820045115</v>
+        <v>-2.6333159996763</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Kelly Oubre Jr.</t>
+          <t>Chris Paul</t>
         </is>
       </c>
       <c r="B299">
-        <v>2019706</v>
+        <v>30800000</v>
       </c>
       <c r="C299">
-        <v>6473812.766566767</v>
+        <v>17770353.93190142</v>
       </c>
       <c r="D299">
-        <v>-4454106.766566767</v>
+        <v>13029646.06809858</v>
       </c>
       <c r="E299">
-        <v>-2.20532432273151</v>
+        <v>0.4230404567564475</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Chris Paul</t>
+          <t>Cameron Payne</t>
         </is>
       </c>
       <c r="B300">
-        <v>30800000</v>
+        <v>8519706</v>
       </c>
       <c r="C300">
-        <v>17940455.10862472</v>
+        <v>7809471.290442886</v>
       </c>
       <c r="D300">
-        <v>12859544.89137528</v>
+        <v>710234.7095571142</v>
       </c>
       <c r="E300">
-        <v>0.4175176912784183</v>
+        <v>0.08336375804013826</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Cameron Payne</t>
+          <t>Gary Payton II</t>
         </is>
       </c>
       <c r="B301">
-        <v>8519706</v>
+        <v>8715000</v>
       </c>
       <c r="C301">
-        <v>8523371.790992342</v>
+        <v>8010452.796503495</v>
       </c>
       <c r="D301">
-        <v>-3665.790992341936</v>
+        <v>704547.2034965046</v>
       </c>
       <c r="E301">
-        <v>-0.0004302720061398757</v>
+        <v>0.08084305261004068</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Gary Payton II</t>
+          <t>Filip Petrušev</t>
         </is>
       </c>
       <c r="B302">
-        <v>8715000</v>
+        <v>559782</v>
       </c>
       <c r="C302">
-        <v>7587730.931651682</v>
+        <v>3252341.739710289</v>
       </c>
       <c r="D302">
-        <v>1127269.068348318</v>
+        <v>-2692559.739710289</v>
       </c>
       <c r="E302">
-        <v>0.1293481432413446</v>
+        <v>-4.810014862411241</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Filip Petrušev</t>
+          <t>Julian Phillips</t>
         </is>
       </c>
       <c r="B303">
-        <v>559782</v>
+        <v>1600000</v>
       </c>
       <c r="C303">
-        <v>1375303.985314685</v>
+        <v>2549253.444788544</v>
       </c>
       <c r="D303">
-        <v>-815521.9853146852</v>
+        <v>-949253.4447885435</v>
       </c>
       <c r="E303">
-        <v>-1.45685639287202</v>
+        <v>-0.5932834029928397</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Julian Phillips</t>
+          <t>Jalen Pickett</t>
         </is>
       </c>
       <c r="B304">
-        <v>1600000</v>
+        <v>1708143</v>
       </c>
       <c r="C304">
-        <v>2460884.056976358</v>
+        <v>2055461.102314352</v>
       </c>
       <c r="D304">
-        <v>-860884.0569763579</v>
+        <v>-347318.1023143516</v>
       </c>
       <c r="E304">
-        <v>-0.5380525356102237</v>
+        <v>-0.2033308114802751</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Jalen Pickett</t>
+          <t>Mason Plumlee</t>
         </is>
       </c>
       <c r="B305">
-        <v>1708143</v>
+        <v>5000000</v>
       </c>
       <c r="C305">
-        <v>1988016.756909758</v>
+        <v>6410220.415534464</v>
       </c>
       <c r="D305">
-        <v>-279873.7569097576</v>
+        <v>-1410220.415534464</v>
       </c>
       <c r="E305">
-        <v>-0.1638467955608855</v>
+        <v>-0.2820440831068927</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Mason Plumlee</t>
+          <t>Brandin Podziemski</t>
         </is>
       </c>
       <c r="B306">
-        <v>5000000</v>
+        <v>3352440</v>
       </c>
       <c r="C306">
-        <v>6747477.980053276</v>
+        <v>4447853.315084915</v>
       </c>
       <c r="D306">
-        <v>-1747477.980053276</v>
+        <v>-1095413.315084915</v>
       </c>
       <c r="E306">
-        <v>-0.3494955960106552</v>
+        <v>-0.3267510574640902</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Brandin Podziemski</t>
+          <t>Jakob Poeltl</t>
         </is>
       </c>
       <c r="B307">
-        <v>3352440</v>
+        <v>19500000</v>
       </c>
       <c r="C307">
-        <v>4418008.155644357</v>
+        <v>17783077.50847486</v>
       </c>
       <c r="D307">
-        <v>-1065568.155644357</v>
+        <v>1716922.491525143</v>
       </c>
       <c r="E307">
-        <v>-0.3178485388685128</v>
+        <v>0.08804730725769966</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Jakob Poeltl</t>
+          <t>Aleksej Pokusevski</t>
         </is>
       </c>
       <c r="B308">
-        <v>19500000</v>
+        <v>5009633</v>
       </c>
       <c r="C308">
-        <v>16899002.5654179</v>
+        <v>4082675.416550113</v>
       </c>
       <c r="D308">
-        <v>2600997.434582096</v>
+        <v>926957.5834498866</v>
       </c>
       <c r="E308">
-        <v>0.1333844838247228</v>
+        <v>0.1850350282046383</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Aleksej Pokusevski</t>
+          <t>Jordan Poole</t>
         </is>
       </c>
       <c r="B309">
-        <v>5009633</v>
+        <v>27455357</v>
       </c>
       <c r="C309">
-        <v>3945467.55800865</v>
+        <v>23425505.70188146</v>
       </c>
       <c r="D309">
-        <v>1064165.44199135</v>
+        <v>4029851.298118543</v>
       </c>
       <c r="E309">
-        <v>0.2124238326423014</v>
+        <v>0.1467783244675545</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Jordan Poole</t>
+          <t>Michael Porter Jr.</t>
         </is>
       </c>
       <c r="B310">
-        <v>27455357</v>
+        <v>33386850</v>
       </c>
       <c r="C310">
-        <v>22746112.98881118</v>
+        <v>26374864.66363636</v>
       </c>
       <c r="D310">
-        <v>4709244.01118882</v>
+        <v>7011985.336363636</v>
       </c>
       <c r="E310">
-        <v>0.1715236852024477</v>
+        <v>0.2100223691771951</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Michael Porter Jr.</t>
+          <t>Otto Porter Jr.</t>
         </is>
       </c>
       <c r="B311">
-        <v>33386850</v>
+        <v>6300000</v>
       </c>
       <c r="C311">
-        <v>26659335.02082917</v>
+        <v>5603891.362171164</v>
       </c>
       <c r="D311">
-        <v>6727514.979170829</v>
+        <v>696108.6378288362</v>
       </c>
       <c r="E311">
-        <v>0.201501938013644</v>
+        <v>0.1104934345760057</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Otto Porter Jr.</t>
+          <t>Bobby Portis</t>
         </is>
       </c>
       <c r="B312">
-        <v>6300000</v>
+        <v>11710818</v>
       </c>
       <c r="C312">
-        <v>5730861.180036628</v>
+        <v>10350694.7459707</v>
       </c>
       <c r="D312">
-        <v>569138.8199633723</v>
+        <v>1360123.254029298</v>
       </c>
       <c r="E312">
-        <v>0.09033949523228132</v>
+        <v>0.1161424636630249</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Bobby Portis</t>
+          <t>Kristaps Porziņģis</t>
         </is>
       </c>
       <c r="B313">
-        <v>11710818</v>
+        <v>36016200</v>
       </c>
       <c r="C313">
-        <v>11014184.73879453</v>
+        <v>31495429.52074591</v>
       </c>
       <c r="D313">
-        <v>696633.2612054702</v>
+        <v>4520770.479254093</v>
       </c>
       <c r="E313">
-        <v>0.05948630242613882</v>
+        <v>0.1255204735439634</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Kristaps Porziņģis</t>
+          <t>Dwight Powell</t>
         </is>
       </c>
       <c r="B314">
-        <v>36016200</v>
+        <v>4000000</v>
       </c>
       <c r="C314">
-        <v>31802961.56956377</v>
+        <v>5123261.248334996</v>
       </c>
       <c r="D314">
-        <v>4213238.430436227</v>
+        <v>-1123261.248334996</v>
       </c>
       <c r="E314">
-        <v>0.1169817590538765</v>
+        <v>-0.2808153120837491</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Dwight Powell</t>
+          <t>Norman Powell</t>
         </is>
       </c>
       <c r="B315">
-        <v>4000000</v>
+        <v>18000000</v>
       </c>
       <c r="C315">
-        <v>5111713.820779226</v>
+        <v>14010969.08889444</v>
       </c>
       <c r="D315">
-        <v>-1111713.820779226</v>
+        <v>3989030.911105556</v>
       </c>
       <c r="E315">
-        <v>-0.2779284551948065</v>
+        <v>0.2216128283947531</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Norman Powell</t>
+          <t>Joshua Primo</t>
         </is>
       </c>
       <c r="B316">
-        <v>18000000</v>
+        <v>6105941</v>
       </c>
       <c r="C316">
-        <v>14241426.5374126</v>
+        <v>5519245.05038295</v>
       </c>
       <c r="D316">
-        <v>3758573.462587399</v>
+        <v>586695.9496170497</v>
       </c>
       <c r="E316">
-        <v>0.2088096368104111</v>
+        <v>0.09608608232818654</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Joshua Primo</t>
+          <t>Taurean Prince</t>
         </is>
       </c>
       <c r="B317">
-        <v>6105941</v>
+        <v>4516000</v>
       </c>
       <c r="C317">
-        <v>3844380.008041956</v>
+        <v>15456925.69653681</v>
       </c>
       <c r="D317">
-        <v>2261560.991958044</v>
+        <v>-10940925.69653681</v>
       </c>
       <c r="E317">
-        <v>0.3703869709776175</v>
+        <v>-2.422702767169355</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Taurean Prince</t>
+          <t>Payton Pritchard</t>
         </is>
       </c>
       <c r="B318">
-        <v>4516000</v>
+        <v>4037277</v>
       </c>
       <c r="C318">
-        <v>9536098.25581087</v>
+        <v>4285179.685364637</v>
       </c>
       <c r="D318">
-        <v>-5020098.25581087</v>
+        <v>-247902.6853646366</v>
       </c>
       <c r="E318">
-        <v>-1.111624945928005</v>
+        <v>-0.06140343735756466</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Payton Pritchard</t>
+          <t>Olivier-Maxence Prosper</t>
         </is>
       </c>
       <c r="B319">
-        <v>4037277</v>
+        <v>2733720</v>
       </c>
       <c r="C319">
-        <v>5494521.534998333</v>
+        <v>2917946.0488678</v>
       </c>
       <c r="D319">
-        <v>-1457244.534998333</v>
+        <v>-184226.0488677998</v>
       </c>
       <c r="E319">
-        <v>-0.360947374925806</v>
+        <v>-0.06739024072245871</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Olivier-Maxence Prosper</t>
+          <t>Immanuel Quickley</t>
         </is>
       </c>
       <c r="B320">
-        <v>2733720</v>
+        <v>4171548</v>
       </c>
       <c r="C320">
-        <v>3238665.67084582</v>
+        <v>7163232.31873127</v>
       </c>
       <c r="D320">
-        <v>-504945.6708458196</v>
+        <v>-2991684.31873127</v>
       </c>
       <c r="E320">
-        <v>-0.1847100913209179</v>
+        <v>-0.7171640644507195</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Immanuel Quickley</t>
+          <t>Julius Randle</t>
         </is>
       </c>
       <c r="B321">
-        <v>4171548</v>
+        <v>28226880</v>
       </c>
       <c r="C321">
-        <v>7059963.782767232</v>
+        <v>30438426.5061272</v>
       </c>
       <c r="D321">
-        <v>-2888415.782767232</v>
+        <v>-2211546.506127205</v>
       </c>
       <c r="E321">
-        <v>-0.692408617320772</v>
+        <v>-0.07834895341345571</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Julius Randle</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="B322">
-        <v>28226880</v>
+        <v>12015150</v>
       </c>
       <c r="C322">
-        <v>32403010.08013652</v>
+        <v>15189650.90422911</v>
       </c>
       <c r="D322">
-        <v>-4176130.080136515</v>
+        <v>-3174500.90422911</v>
       </c>
       <c r="E322">
-        <v>-0.1479486957161583</v>
+        <v>-0.2642081791928615</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
+          <t>Cam Reddish</t>
         </is>
       </c>
       <c r="B323">
-        <v>12015150</v>
+        <v>2165000</v>
       </c>
       <c r="C323">
-        <v>16135253.87112888</v>
+        <v>4201304.916633367</v>
       </c>
       <c r="D323">
-        <v>-4120103.871128878</v>
+        <v>-2036304.916633367</v>
       </c>
       <c r="E323">
-        <v>-0.3429090665642025</v>
+        <v>-0.940556543479615</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Cam Reddish</t>
+          <t>Paul Reed</t>
         </is>
       </c>
       <c r="B324">
-        <v>2165000</v>
+        <v>7723000</v>
       </c>
       <c r="C324">
-        <v>4078575.715984015</v>
+        <v>2874930.115501164</v>
       </c>
       <c r="D324">
-        <v>-1913575.715984015</v>
+        <v>4848069.884498836</v>
       </c>
       <c r="E324">
-        <v>-0.8838686909856883</v>
+        <v>0.6277443848891411</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Paul Reed</t>
+          <t>Naz Reid</t>
         </is>
       </c>
       <c r="B325">
-        <v>7723000</v>
+        <v>12950400</v>
       </c>
       <c r="C325">
-        <v>3077277.223676322</v>
+        <v>10079691.03283383</v>
       </c>
       <c r="D325">
-        <v>4645722.776323678</v>
+        <v>2870708.967166167</v>
       </c>
       <c r="E325">
-        <v>0.6015438011554678</v>
+        <v>0.2216695211859222</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Naz Reid</t>
+          <t>Nick Richards</t>
         </is>
       </c>
       <c r="B326">
-        <v>12950400</v>
+        <v>5000000</v>
       </c>
       <c r="C326">
-        <v>10341257.38704629</v>
+        <v>5511585.953113556</v>
       </c>
       <c r="D326">
-        <v>2609142.612953708</v>
+        <v>-511585.9531135559</v>
       </c>
       <c r="E326">
-        <v>0.2014719709780167</v>
+        <v>-0.1023171906227112</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Nick Richards</t>
+          <t>Josh Richardson</t>
         </is>
       </c>
       <c r="B327">
-        <v>5000000</v>
+        <v>2891467</v>
       </c>
       <c r="C327">
-        <v>6168708.272127872</v>
+        <v>8917701.626873128</v>
       </c>
       <c r="D327">
-        <v>-1168708.272127872</v>
+        <v>-6026234.626873128</v>
       </c>
       <c r="E327">
-        <v>-0.2337416544255745</v>
+        <v>-2.084144355399224</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Josh Richardson</t>
+          <t>Duncan Robinson</t>
         </is>
       </c>
       <c r="B328">
-        <v>2891467</v>
+        <v>18154000</v>
       </c>
       <c r="C328">
-        <v>7147982.470346322</v>
+        <v>14467987.93429905</v>
       </c>
       <c r="D328">
-        <v>-4256515.470346322</v>
+        <v>3686012.065700952</v>
       </c>
       <c r="E328">
-        <v>-1.472095469305485</v>
+        <v>0.2030413168282997</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Duncan Robinson</t>
+          <t>Mitchell Robinson</t>
         </is>
       </c>
       <c r="B329">
-        <v>18154000</v>
+        <v>15681818</v>
       </c>
       <c r="C329">
-        <v>14717493.93200134</v>
+        <v>15115014.51486848</v>
       </c>
       <c r="D329">
-        <v>3436506.067998661</v>
+        <v>566803.4851315189</v>
       </c>
       <c r="E329">
-        <v>0.1892974588519699</v>
+        <v>0.03614399077527356</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Mitchell Robinson</t>
+          <t>Orlando Robinson</t>
         </is>
       </c>
       <c r="B330">
-        <v>15681818</v>
+        <v>1801769</v>
       </c>
       <c r="C330">
-        <v>14535375.25632702</v>
+        <v>2083583.697319347</v>
       </c>
       <c r="D330">
-        <v>1146442.743672978</v>
+        <v>-281814.6973193474</v>
       </c>
       <c r="E330">
-        <v>0.07310649464704781</v>
+        <v>-0.1564100044563689</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Orlando Robinson</t>
+          <t>David Roddy</t>
         </is>
       </c>
       <c r="B331">
-        <v>1801769</v>
+        <v>2718240</v>
       </c>
       <c r="C331">
-        <v>2441454.428787877</v>
+        <v>4229255.669796868</v>
       </c>
       <c r="D331">
-        <v>-639685.4287878769</v>
+        <v>-1511015.669796868</v>
       </c>
       <c r="E331">
-        <v>-0.3550318763325803</v>
+        <v>-0.5558801539955516</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>David Roddy</t>
+          <t>Ryan Rollins</t>
         </is>
       </c>
       <c r="B332">
-        <v>2718240</v>
+        <v>1719864</v>
       </c>
       <c r="C332">
-        <v>3390810.662187811</v>
+        <v>2584221.816050618</v>
       </c>
       <c r="D332">
-        <v>-672570.6621878115</v>
+        <v>-864357.816050618</v>
       </c>
       <c r="E332">
-        <v>-0.2474287267451776</v>
+        <v>-0.5025733523410095</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Ryan Rollins</t>
+          <t>Derrick Rose</t>
         </is>
       </c>
       <c r="B333">
-        <v>1719864</v>
+        <v>3196448</v>
       </c>
       <c r="C333">
-        <v>2725985.834299034</v>
+        <v>4546276.444555449</v>
       </c>
       <c r="D333">
-        <v>-1006121.834299034</v>
+        <v>-1349828.444555449</v>
       </c>
       <c r="E333">
-        <v>-0.5850008107030751</v>
+        <v>-0.4222901309689535</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Derrick Rose</t>
+          <t>Terry Rozier</t>
         </is>
       </c>
       <c r="B334">
-        <v>3196448</v>
+        <v>23205221</v>
       </c>
       <c r="C334">
-        <v>4750298.152314352</v>
+        <v>31707288.94578753</v>
       </c>
       <c r="D334">
-        <v>-1553850.152314352</v>
+        <v>-8502067.945787527</v>
       </c>
       <c r="E334">
-        <v>-0.4861177633155152</v>
+        <v>-0.3663859932981257</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Terry Rozier</t>
+          <t>Rayan Rupert</t>
         </is>
       </c>
       <c r="B335">
-        <v>23205221</v>
+        <v>1119563</v>
       </c>
       <c r="C335">
-        <v>28492816.7167832</v>
+        <v>4028150.553712952</v>
       </c>
       <c r="D335">
-        <v>-5287595.716783199</v>
+        <v>-2908587.553712952</v>
       </c>
       <c r="E335">
-        <v>-0.2278623296362142</v>
+        <v>-2.597966843949784</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Rayan Rupert</t>
+          <t>D'Angelo Russell</t>
         </is>
       </c>
       <c r="B336">
-        <v>1119563</v>
+        <v>17307693</v>
       </c>
       <c r="C336">
-        <v>3812927.776207126</v>
+        <v>18353111.42962038</v>
       </c>
       <c r="D336">
-        <v>-2693364.776207126</v>
+        <v>-1045418.429620381</v>
       </c>
       <c r="E336">
-        <v>-2.405728642521347</v>
+        <v>-0.06040195129532176</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>D'Angelo Russell</t>
+          <t>Domantas Sabonis</t>
         </is>
       </c>
       <c r="B337">
-        <v>17307693</v>
+        <v>30600000</v>
       </c>
       <c r="C337">
-        <v>18158936.02554113</v>
+        <v>30731782.97567433</v>
       </c>
       <c r="D337">
-        <v>-851243.0255411305</v>
+        <v>-131782.9756743349</v>
       </c>
       <c r="E337">
-        <v>-0.04918292839728151</v>
+        <v>-0.004306633191971729</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Luka Šamanić</t>
         </is>
       </c>
       <c r="B338">
-        <v>30600000</v>
+        <v>2066585</v>
       </c>
       <c r="C338">
-        <v>30866645.47530802</v>
+        <v>2292830.331235433</v>
       </c>
       <c r="D338">
-        <v>-266645.4753080197</v>
+        <v>-226245.3312354325</v>
       </c>
       <c r="E338">
-        <v>-0.008713904421830707</v>
+        <v>-0.1094778735137594</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Luka Šamanić</t>
+          <t>Gui Santos</t>
         </is>
       </c>
       <c r="B339">
-        <v>2066585</v>
+        <v>1029483</v>
       </c>
       <c r="C339">
-        <v>2956357.583566435</v>
+        <v>1611626.130852481</v>
       </c>
       <c r="D339">
-        <v>-889772.5835664351</v>
+        <v>-582143.1308524809</v>
       </c>
       <c r="E339">
-        <v>-0.4305521348342484</v>
+        <v>-0.5654713393542982</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Gui Santos</t>
+          <t>Dario Šarić</t>
         </is>
       </c>
       <c r="B340">
-        <v>1029483</v>
+        <v>2019706</v>
       </c>
       <c r="C340">
-        <v>1610994.701098901</v>
+        <v>4715520.852364304</v>
       </c>
       <c r="D340">
-        <v>-581511.7010989012</v>
+        <v>-2695814.852364304</v>
       </c>
       <c r="E340">
-        <v>-0.5648579928943958</v>
+        <v>-1.334756074579322</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Dario Šarić</t>
+          <t>Marcus Sasser</t>
         </is>
       </c>
       <c r="B341">
-        <v>2019706</v>
+        <v>2624040</v>
       </c>
       <c r="C341">
-        <v>8066968.206210461</v>
+        <v>3955961.401198798</v>
       </c>
       <c r="D341">
-        <v>-6047262.206210461</v>
+        <v>-1331921.401198798</v>
       </c>
       <c r="E341">
-        <v>-2.994129940798543</v>
+        <v>-0.5075842598431418</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Marcus Sasser</t>
+          <t>Dennis Schröder</t>
         </is>
       </c>
       <c r="B342">
-        <v>2624040</v>
+        <v>12405000</v>
       </c>
       <c r="C342">
-        <v>4435856.475108222</v>
+        <v>17188180.31704961</v>
       </c>
       <c r="D342">
-        <v>-1811816.475108222</v>
+        <v>-4783180.317049611</v>
       </c>
       <c r="E342">
-        <v>-0.6904683141675516</v>
+        <v>-0.3855848703788481</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Dennis Schröder</t>
+          <t>Alperen Şengün</t>
         </is>
       </c>
       <c r="B343">
-        <v>12405000</v>
+        <v>3536280</v>
       </c>
       <c r="C343">
-        <v>17117169.21821513</v>
+        <v>10498468.93752913</v>
       </c>
       <c r="D343">
-        <v>-4712169.21821513</v>
+        <v>-6962188.937529126</v>
       </c>
       <c r="E343">
-        <v>-0.3798604770830415</v>
+        <v>-1.968788935697718</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Alperen Şengün</t>
+          <t>Brice Sensabaugh</t>
         </is>
       </c>
       <c r="B344">
-        <v>3536280</v>
+        <v>2448600</v>
       </c>
       <c r="C344">
-        <v>7272948.918381615</v>
+        <v>2946755.302147853</v>
       </c>
       <c r="D344">
-        <v>-3736668.918381615</v>
+        <v>-498155.3021478527</v>
       </c>
       <c r="E344">
-        <v>-1.056666587029764</v>
+        <v>-0.2034449490108032</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Brice Sensabaugh</t>
+          <t>Collin Sexton</t>
         </is>
       </c>
       <c r="B345">
-        <v>2448600</v>
+        <v>17325000</v>
       </c>
       <c r="C345">
-        <v>2899452.862054612</v>
+        <v>14890353.97692307</v>
       </c>
       <c r="D345">
-        <v>-450852.8620546125</v>
+        <v>2434646.023076925</v>
       </c>
       <c r="E345">
-        <v>-0.1841267916583405</v>
+        <v>0.1405279089799091</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Collin Sexton</t>
+          <t>Landry Shamet</t>
         </is>
       </c>
       <c r="B346">
-        <v>17325000</v>
+        <v>10250000</v>
       </c>
       <c r="C346">
-        <v>15022840.87920413</v>
+        <v>7046672.159157515</v>
       </c>
       <c r="D346">
-        <v>2302159.120795874</v>
+        <v>3203327.840842485</v>
       </c>
       <c r="E346">
-        <v>0.1328807573330952</v>
+        <v>0.3125197893504864</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Landry Shamet</t>
+          <t>Day'Ron Sharpe</t>
         </is>
       </c>
       <c r="B347">
-        <v>10250000</v>
+        <v>2210040</v>
       </c>
       <c r="C347">
-        <v>8925556.006610056</v>
+        <v>3365868.248001998</v>
       </c>
       <c r="D347">
-        <v>1324443.993389944</v>
+        <v>-1155828.248001998</v>
       </c>
       <c r="E347">
-        <v>0.1292140481356042</v>
+        <v>-0.5229897413630514</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Day'Ron Sharpe</t>
+          <t>Shaedon Sharpe</t>
         </is>
       </c>
       <c r="B348">
-        <v>2210040</v>
+        <v>6313800</v>
       </c>
       <c r="C348">
-        <v>3057999.348984349</v>
+        <v>8395929.941275394</v>
       </c>
       <c r="D348">
-        <v>-847959.3489843491</v>
+        <v>-2082129.941275394</v>
       </c>
       <c r="E348">
-        <v>-0.3836850685889618</v>
+        <v>-0.3297744529879619</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Shaedon Sharpe</t>
+          <t>Ben Sheppard</t>
         </is>
       </c>
       <c r="B349">
-        <v>6313800</v>
+        <v>2537160</v>
       </c>
       <c r="C349">
-        <v>12860719.23812854</v>
+        <v>2772466.574458874</v>
       </c>
       <c r="D349">
-        <v>-6546919.238128539</v>
+        <v>-235306.5744588738</v>
       </c>
       <c r="E349">
-        <v>-1.036922176522623</v>
+        <v>-0.09274408175238212</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Ben Sheppard</t>
+          <t>Pascal Siakam</t>
         </is>
       </c>
       <c r="B350">
-        <v>2537160</v>
+        <v>37893408</v>
       </c>
       <c r="C350">
-        <v>2766334.448135198</v>
+        <v>30113091.4090243</v>
       </c>
       <c r="D350">
-        <v>-229174.4481351976</v>
+        <v>7780316.590975698</v>
       </c>
       <c r="E350">
-        <v>-0.09032715640132968</v>
+        <v>0.2053211099665593</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Pascal Siakam</t>
+          <t>Ben Simmons</t>
         </is>
       </c>
       <c r="B351">
         <v>37893408</v>
       </c>
       <c r="C351">
-        <v>33025303.6403097</v>
+        <v>30446825.70364634</v>
       </c>
       <c r="D351">
-        <v>4868104.359690305</v>
+        <v>7446582.296353664</v>
       </c>
       <c r="E351">
-        <v>0.1284683700048912</v>
+        <v>0.196513923908709</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Ben Simmons</t>
+          <t>Anfernee Simons</t>
         </is>
       </c>
       <c r="B352">
-        <v>37893408</v>
+        <v>24107143</v>
       </c>
       <c r="C352">
-        <v>30301666.0070596</v>
+        <v>24398685.50248087</v>
       </c>
       <c r="D352">
-        <v>7591741.9929404</v>
+        <v>-291542.5024808683</v>
       </c>
       <c r="E352">
-        <v>0.2003446613442739</v>
+        <v>-0.01209361484605904</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Anfernee Simons</t>
+          <t>Jericho Sims</t>
         </is>
       </c>
       <c r="B353">
-        <v>24107143</v>
+        <v>1927896</v>
       </c>
       <c r="C353">
-        <v>24630590.72725608</v>
+        <v>2057438.715834164</v>
       </c>
       <c r="D353">
-        <v>-523447.7272560783</v>
+        <v>-129542.7158341641</v>
       </c>
       <c r="E353">
-        <v>-0.02171338707602466</v>
+        <v>-0.06719382987161344</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Jericho Sims</t>
+          <t>Marcus Smart</t>
         </is>
       </c>
       <c r="B354">
-        <v>1927896</v>
+        <v>18833713</v>
       </c>
       <c r="C354">
-        <v>2064452.719680319</v>
+        <v>20486841.51228771</v>
       </c>
       <c r="D354">
-        <v>-136556.7196803186</v>
+        <v>-1653128.51228771</v>
       </c>
       <c r="E354">
-        <v>-0.07083199492105312</v>
+        <v>-0.08777496568455248</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Marcus Smart</t>
+          <t>Dennis Smith Jr.</t>
         </is>
       </c>
       <c r="B355">
-        <v>18833713</v>
+        <v>2019706</v>
       </c>
       <c r="C355">
-        <v>19243304.4865801</v>
+        <v>2570403.174592075</v>
       </c>
       <c r="D355">
-        <v>-409591.4865801036</v>
+        <v>-550697.1745920749</v>
       </c>
       <c r="E355">
-        <v>-0.02174778210648658</v>
+        <v>-0.2726620481357558</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Dennis Smith Jr.</t>
+          <t>Dru Smith</t>
         </is>
       </c>
       <c r="B356">
-        <v>2019706</v>
+        <v>1801769</v>
       </c>
       <c r="C356">
-        <v>3468945.655977355</v>
+        <v>3804476.024608723</v>
       </c>
       <c r="D356">
-        <v>-1449239.655977355</v>
+        <v>-2002707.024608723</v>
       </c>
       <c r="E356">
-        <v>-0.7175498097135696</v>
+        <v>-1.111522633927392</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Dru Smith</t>
+          <t>Ish Smith</t>
         </is>
       </c>
       <c r="B357">
-        <v>1801769</v>
+        <v>2019706</v>
       </c>
       <c r="C357">
-        <v>2941453.445021646</v>
+        <v>4370840.873593071</v>
       </c>
       <c r="D357">
-        <v>-1139684.445021646</v>
+        <v>-2351134.873593071</v>
       </c>
       <c r="E357">
-        <v>-0.6325363823118533</v>
+        <v>-1.1640975833082</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Ish Smith</t>
+          <t>Jabari Smith Jr.</t>
         </is>
       </c>
       <c r="B358">
-        <v>2019706</v>
+        <v>9326520</v>
       </c>
       <c r="C358">
-        <v>4713817.052713952</v>
+        <v>8712887.296137199</v>
       </c>
       <c r="D358">
-        <v>-2694111.052713952</v>
+        <v>613632.7038628012</v>
       </c>
       <c r="E358">
-        <v>-1.333912486626248</v>
+        <v>0.0657943910336118</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Jabari Smith Jr.</t>
+          <t>Jalen Smith</t>
         </is>
       </c>
       <c r="B359">
-        <v>9326520</v>
+        <v>5043773</v>
       </c>
       <c r="C359">
-        <v>8276572.790609392</v>
+        <v>5697568.863270065</v>
       </c>
       <c r="D359">
-        <v>1049947.209390608</v>
+        <v>-653795.8632700648</v>
       </c>
       <c r="E359">
-        <v>0.1125765247263296</v>
+        <v>-0.129624363203908</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Jalen Smith</t>
+          <t>Nick Smith Jr.</t>
         </is>
       </c>
       <c r="B360">
-        <v>5043773</v>
+        <v>2463960</v>
       </c>
       <c r="C360">
-        <v>5290495.167365967</v>
+        <v>3207805.662753911</v>
       </c>
       <c r="D360">
-        <v>-246722.1673659673</v>
+        <v>-743845.6627539108</v>
       </c>
       <c r="E360">
-        <v>-0.04891619178063075</v>
+        <v>-0.301890315895514</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Nick Smith Jr.</t>
+          <t>Jeremy Sochan</t>
         </is>
       </c>
       <c r="B361">
-        <v>2463960</v>
+        <v>5316960</v>
       </c>
       <c r="C361">
-        <v>3313999.850782552</v>
+        <v>9743231.834831834</v>
       </c>
       <c r="D361">
-        <v>-850039.8507825523</v>
+        <v>-4426271.834831834</v>
       </c>
       <c r="E361">
-        <v>-0.3449893061504863</v>
+        <v>-0.8324816878125534</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Jeremy Sochan</t>
+          <t>Jaden Springer</t>
         </is>
       </c>
       <c r="B362">
-        <v>5316960</v>
+        <v>2226240</v>
       </c>
       <c r="C362">
-        <v>7053077.370229764</v>
+        <v>2444030.262420912</v>
       </c>
       <c r="D362">
-        <v>-1736117.370229764</v>
+        <v>-217790.2624209123</v>
       </c>
       <c r="E362">
-        <v>-0.326524436939485</v>
+        <v>-0.09782874372076339</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Jaden Springer</t>
+          <t>Lamar Stevens</t>
         </is>
       </c>
       <c r="B363">
-        <v>2226240</v>
+        <v>2419706</v>
       </c>
       <c r="C363">
-        <v>2316705.725008326</v>
+        <v>2593975.087712289</v>
       </c>
       <c r="D363">
-        <v>-90465.72500832612</v>
+        <v>-174269.0877122888</v>
       </c>
       <c r="E363">
-        <v>-0.04063610617378455</v>
+        <v>-0.07202076934647797</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Lamar Stevens</t>
+          <t>Isaiah Stewart</t>
         </is>
       </c>
       <c r="B364">
-        <v>2419706</v>
+        <v>5266713</v>
       </c>
       <c r="C364">
-        <v>2497802.634898438</v>
+        <v>6962858.758208463</v>
       </c>
       <c r="D364">
-        <v>-78096.63489843765</v>
+        <v>-1696145.758208463</v>
       </c>
       <c r="E364">
-        <v>-0.03227525777860519</v>
+        <v>-0.3220501588388171</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Isaiah Stewart</t>
+          <t>Julian Strawther</t>
         </is>
       </c>
       <c r="B365">
-        <v>5266713</v>
+        <v>2431080</v>
       </c>
       <c r="C365">
-        <v>6936683.85218115</v>
+        <v>2676212.268681317</v>
       </c>
       <c r="D365">
-        <v>-1669970.85218115</v>
+        <v>-245132.2686813171</v>
       </c>
       <c r="E365">
-        <v>-0.3170802836951909</v>
+        <v>-0.1008326623070064</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Julian Strawther</t>
+          <t>Max Strus</t>
         </is>
       </c>
       <c r="B366">
-        <v>2431080</v>
+        <v>14487684</v>
       </c>
       <c r="C366">
-        <v>3398453.546786547</v>
+        <v>16925558.55427903</v>
       </c>
       <c r="D366">
-        <v>-967373.5467865472</v>
+        <v>-2437874.554279033</v>
       </c>
       <c r="E366">
-        <v>-0.3979192567856867</v>
+        <v>-0.1682722065361885</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Max Strus</t>
+          <t>Jalen Suggs</t>
         </is>
       </c>
       <c r="B367">
-        <v>14487684</v>
+        <v>7252080</v>
       </c>
       <c r="C367">
-        <v>17991868.61974691</v>
+        <v>7659398.705128204</v>
       </c>
       <c r="D367">
-        <v>-3504184.619746909</v>
+        <v>-407318.7051282041</v>
       </c>
       <c r="E367">
-        <v>-0.2418733470268201</v>
+        <v>-0.05616577659488093</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Jalen Suggs</t>
+          <t>Jae'Sean Tate</t>
         </is>
       </c>
       <c r="B368">
-        <v>7252080</v>
+        <v>6500000</v>
       </c>
       <c r="C368">
-        <v>7661101.211255411</v>
+        <v>6665409.489660341</v>
       </c>
       <c r="D368">
-        <v>-409021.2112554107</v>
+        <v>-165409.4896603413</v>
       </c>
       <c r="E368">
-        <v>-0.05640053767407567</v>
+        <v>-0.02544761379389866</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Jae'Sean Tate</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="B369">
-        <v>6500000</v>
+        <v>32600060</v>
       </c>
       <c r="C369">
-        <v>6496416.63213454</v>
+        <v>31392428.09843492</v>
       </c>
       <c r="D369">
-        <v>3583.367865459993</v>
+        <v>1207631.901565079</v>
       </c>
       <c r="E369">
-        <v>0.0005512873639169221</v>
+        <v>0.03704385518201742</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Terry Taylor</t>
         </is>
       </c>
       <c r="B370">
-        <v>32600060</v>
+        <v>2019706</v>
       </c>
       <c r="C370">
-        <v>31631350.69207462</v>
+        <v>2612525.405494507</v>
       </c>
       <c r="D370">
-        <v>968709.3079253845</v>
+        <v>-592819.4054945069</v>
       </c>
       <c r="E370">
-        <v>0.02971495475546317</v>
+        <v>-0.2935176731140606</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Terry Taylor</t>
+          <t>Garrett Temple</t>
         </is>
       </c>
       <c r="B371">
         <v>2019706</v>
       </c>
       <c r="C371">
-        <v>2345428.160689312</v>
+        <v>2530688.827972027</v>
       </c>
       <c r="D371">
-        <v>-325722.1606893116</v>
+        <v>-510982.8279720275</v>
       </c>
       <c r="E371">
-        <v>-0.1612720666717391</v>
+        <v>-0.2529986185969777</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Garrett Temple</t>
+          <t>Dalen Terry</t>
         </is>
       </c>
       <c r="B372">
-        <v>2019706</v>
+        <v>3350760</v>
       </c>
       <c r="C372">
-        <v>3376891.980419583</v>
+        <v>3270010.395787549</v>
       </c>
       <c r="D372">
-        <v>-1357185.980419583</v>
+        <v>80749.60421245126</v>
       </c>
       <c r="E372">
-        <v>-0.6719720496050332</v>
+        <v>0.0240988922550261</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Dalen Terry</t>
+          <t>Daniel Theis</t>
         </is>
       </c>
       <c r="B373">
-        <v>3350760</v>
+        <v>8670002</v>
       </c>
       <c r="C373">
-        <v>3609709.340409591</v>
+        <v>6929642.248717953</v>
       </c>
       <c r="D373">
-        <v>-258949.3404095909</v>
+        <v>1740359.751282047</v>
       </c>
       <c r="E373">
-        <v>-0.07728077821437251</v>
+        <v>0.2007334890213459</v>
       </c>
     </row>
     <row r="374">
@@ -7462,1153 +7462,1134 @@
         <v>8670002</v>
       </c>
       <c r="C374">
-        <v>6937587.42209457</v>
+        <v>8674983.263586409</v>
       </c>
       <c r="D374">
-        <v>1732414.57790543</v>
+        <v>-4981.26358640939</v>
       </c>
       <c r="E374">
-        <v>0.1998170909194058</v>
+        <v>-0.0005745400735097166</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Daniel Theis</t>
+          <t>Cam Thomas</t>
         </is>
       </c>
       <c r="B375">
-        <v>8670002</v>
+        <v>2240160</v>
       </c>
       <c r="C375">
-        <v>8940829.767499158</v>
+        <v>7390185.548251744</v>
       </c>
       <c r="D375">
-        <v>-270827.7674991582</v>
+        <v>-5150025.548251744</v>
       </c>
       <c r="E375">
-        <v>-0.03123733621966386</v>
+        <v>-2.298954337302578</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Cam Thomas</t>
+          <t>Amen Thompson</t>
         </is>
       </c>
       <c r="B376">
-        <v>2240160</v>
+        <v>8809320</v>
       </c>
       <c r="C376">
-        <v>7528774.344055946</v>
+        <v>6921395.749350647</v>
       </c>
       <c r="D376">
-        <v>-5288614.344055946</v>
+        <v>1887924.250649353</v>
       </c>
       <c r="E376">
-        <v>-2.360819916459514</v>
+        <v>0.2143098730264484</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Amen Thompson</t>
+          <t>Ausar Thompson</t>
         </is>
       </c>
       <c r="B377">
-        <v>8809320</v>
+        <v>7977480</v>
       </c>
       <c r="C377">
-        <v>6548731.879403926</v>
+        <v>6569433.521478526</v>
       </c>
       <c r="D377">
-        <v>2260588.120596074</v>
+        <v>1408046.478521474</v>
       </c>
       <c r="E377">
-        <v>0.2566132369576851</v>
+        <v>0.1765026648166431</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Ausar Thompson</t>
+          <t>Klay Thompson</t>
         </is>
       </c>
       <c r="B378">
-        <v>7977480</v>
+        <v>43219440</v>
       </c>
       <c r="C378">
-        <v>6463879.930719278</v>
+        <v>23836790.74816847</v>
       </c>
       <c r="D378">
-        <v>1513600.069280722</v>
+        <v>19382649.25183153</v>
       </c>
       <c r="E378">
-        <v>0.1897341101802477</v>
+        <v>0.4484706246039173</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Klay Thompson</t>
+          <t>Tristan Thompson</t>
         </is>
       </c>
       <c r="B379">
-        <v>43219440</v>
+        <v>2019706</v>
       </c>
       <c r="C379">
-        <v>35045099.54197468</v>
+        <v>4174774.260023308</v>
       </c>
       <c r="D379">
-        <v>8174340.458025321</v>
+        <v>-2155068.260023308</v>
       </c>
       <c r="E379">
-        <v>0.1891357328559861</v>
+        <v>-1.067020774322257</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Tristan Thompson</t>
+          <t>JT Thor</t>
         </is>
       </c>
       <c r="B380">
-        <v>2019706</v>
+        <v>1836096</v>
       </c>
       <c r="C380">
-        <v>3778959.598401597</v>
+        <v>2471069.338128536</v>
       </c>
       <c r="D380">
-        <v>-1759253.598401597</v>
+        <v>-634973.338128536</v>
       </c>
       <c r="E380">
-        <v>-0.8710443987400133</v>
+        <v>-0.3458279622244894</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>JT Thor</t>
+          <t>Matisse Thybulle</t>
         </is>
       </c>
       <c r="B381">
-        <v>1836096</v>
+        <v>10500000</v>
       </c>
       <c r="C381">
-        <v>2898635.04868465</v>
+        <v>8008349.574758575</v>
       </c>
       <c r="D381">
-        <v>-1062539.04868465</v>
+        <v>2491650.425241425</v>
       </c>
       <c r="E381">
-        <v>-0.5786947135033518</v>
+        <v>0.2373000404991833</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Matisse Thybulle</t>
+          <t>Xavier Tillman Sr.</t>
         </is>
       </c>
       <c r="B382">
-        <v>10500000</v>
+        <v>1930681</v>
       </c>
       <c r="C382">
-        <v>9339993.787079591</v>
+        <v>2356463.671095571</v>
       </c>
       <c r="D382">
-        <v>1160006.212920409</v>
+        <v>-425782.671095571</v>
       </c>
       <c r="E382">
-        <v>0.1104767821828961</v>
+        <v>-0.2205349672450141</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Xavier Tillman Sr.</t>
+          <t>Obi Toppin</t>
         </is>
       </c>
       <c r="B383">
-        <v>1930681</v>
+        <v>6803012</v>
       </c>
       <c r="C383">
-        <v>2760338.177439228</v>
+        <v>7724904.09215784</v>
       </c>
       <c r="D383">
-        <v>-829657.1774392277</v>
+        <v>-921892.0921578398</v>
       </c>
       <c r="E383">
-        <v>-0.429722557708512</v>
+        <v>-0.1355123424973879</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Obi Toppin</t>
+          <t>Karl-Anthony Towns</t>
         </is>
       </c>
       <c r="B384">
-        <v>6803012</v>
+        <v>36016200</v>
       </c>
       <c r="C384">
-        <v>8647422.921828175</v>
+        <v>33239916.30198136</v>
       </c>
       <c r="D384">
-        <v>-1844410.921828175</v>
+        <v>2776283.698018637</v>
       </c>
       <c r="E384">
-        <v>-0.271116811469416</v>
+        <v>0.07708430367497505</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Karl-Anthony Towns</t>
+          <t>Gary Trent Jr.</t>
         </is>
       </c>
       <c r="B385">
-        <v>36016200</v>
+        <v>18560000</v>
       </c>
       <c r="C385">
-        <v>33394485.29665334</v>
+        <v>8431584.980053276</v>
       </c>
       <c r="D385">
-        <v>2621714.703346662</v>
+        <v>10128415.01994672</v>
       </c>
       <c r="E385">
-        <v>0.07279265173301631</v>
+        <v>0.5457120161609227</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Gary Trent Jr.</t>
+          <t>P.J. Tucker</t>
         </is>
       </c>
       <c r="B386">
-        <v>18560000</v>
+        <v>11014500</v>
       </c>
       <c r="C386">
-        <v>9891894.873060269</v>
+        <v>4421440.596203797</v>
       </c>
       <c r="D386">
-        <v>8668105.126939731</v>
+        <v>6593059.403796203</v>
       </c>
       <c r="E386">
-        <v>0.4670315262359769</v>
+        <v>0.598579999436761</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>P.J. Tucker</t>
+          <t>Myles Turner</t>
         </is>
       </c>
       <c r="B387">
-        <v>11014500</v>
+        <v>20975000</v>
       </c>
       <c r="C387">
-        <v>8540697.012021311</v>
+        <v>19279422.62983684</v>
       </c>
       <c r="D387">
-        <v>2473802.987978689</v>
+        <v>1695577.370163161</v>
       </c>
       <c r="E387">
-        <v>0.2245951235170629</v>
+        <v>0.08083801526403629</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Myles Turner</t>
+          <t>Hunter Tyson</t>
         </is>
       </c>
       <c r="B388">
-        <v>20975000</v>
+        <v>1119563</v>
       </c>
       <c r="C388">
-        <v>20481416.39670331</v>
+        <v>1959395.096603396</v>
       </c>
       <c r="D388">
-        <v>493583.603296686</v>
+        <v>-839832.0966033957</v>
       </c>
       <c r="E388">
-        <v>0.0235319953895917</v>
+        <v>-0.7501427758896959</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Hunter Tyson</t>
+          <t>Jonas Valančiūnas</t>
         </is>
       </c>
       <c r="B389">
-        <v>1119563</v>
+        <v>15435000</v>
       </c>
       <c r="C389">
-        <v>1723579.320246418</v>
+        <v>18927725.56699966</v>
       </c>
       <c r="D389">
-        <v>-604016.320246418</v>
+        <v>-3492725.566999655</v>
       </c>
       <c r="E389">
-        <v>-0.5395107914841933</v>
+        <v>-0.2262860749594853</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Jonas Valančiūnas</t>
+          <t>Jarred Vanderbilt</t>
         </is>
       </c>
       <c r="B390">
-        <v>15435000</v>
+        <v>4698000</v>
       </c>
       <c r="C390">
-        <v>23001486.99648685</v>
+        <v>4173808.543040297</v>
       </c>
       <c r="D390">
-        <v>-7566486.996486846</v>
+        <v>524191.4569597035</v>
       </c>
       <c r="E390">
-        <v>-0.4902161967273629</v>
+        <v>0.1115775770454882</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Jarred Vanderbilt</t>
+          <t>Fred VanVleet</t>
         </is>
       </c>
       <c r="B391">
-        <v>4698000</v>
+        <v>40806300</v>
       </c>
       <c r="C391">
-        <v>4433406.042957043</v>
+        <v>32783706.68210122</v>
       </c>
       <c r="D391">
-        <v>264593.9570429567</v>
+        <v>8022593.317898784</v>
       </c>
       <c r="E391">
-        <v>0.05632055279756423</v>
+        <v>0.1966018315284352</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Fred VanVleet</t>
+          <t>Devin Vassell</t>
         </is>
       </c>
       <c r="B392">
-        <v>40806300</v>
+        <v>5887899</v>
       </c>
       <c r="C392">
-        <v>22089871.22920412</v>
+        <v>8012184.874292387</v>
       </c>
       <c r="D392">
-        <v>18716428.77079588</v>
+        <v>-2124285.874292387</v>
       </c>
       <c r="E392">
-        <v>0.4586651759849798</v>
+        <v>-0.3607884364681505</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Devin Vassell</t>
+          <t>Sasha Vezenkov</t>
         </is>
       </c>
       <c r="B393">
-        <v>5887899</v>
+        <v>6341464</v>
       </c>
       <c r="C393">
-        <v>8068397.597752254</v>
+        <v>6080194.897952045</v>
       </c>
       <c r="D393">
-        <v>-2180498.597752254</v>
+        <v>261269.1020479547</v>
       </c>
       <c r="E393">
-        <v>-0.3703355981059209</v>
+        <v>0.04120012382755066</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Sasha Vezenkov</t>
+          <t>Gabe Vincent</t>
         </is>
       </c>
       <c r="B394">
-        <v>6341464</v>
+        <v>10500000</v>
       </c>
       <c r="C394">
-        <v>5473887.600099901</v>
+        <v>9437884.303013653</v>
       </c>
       <c r="D394">
-        <v>867576.3999000993</v>
+        <v>1062115.696986347</v>
       </c>
       <c r="E394">
-        <v>0.1368101119710053</v>
+        <v>0.1011538759034617</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Gabe Vincent</t>
+          <t>Nikola Vučević</t>
         </is>
       </c>
       <c r="B395">
-        <v>10500000</v>
+        <v>18518519</v>
       </c>
       <c r="C395">
-        <v>8124539.633116881</v>
+        <v>22948853.61799865</v>
       </c>
       <c r="D395">
-        <v>2375460.366883119</v>
+        <v>-4430334.617998648</v>
       </c>
       <c r="E395">
-        <v>0.2262343206555351</v>
+        <v>-0.2392380631517374</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Nikola Vučević</t>
+          <t>Dean Wade</t>
         </is>
       </c>
       <c r="B396">
-        <v>18518519</v>
+        <v>5709877</v>
       </c>
       <c r="C396">
-        <v>25328127.90527804</v>
+        <v>6035431.105461202</v>
       </c>
       <c r="D396">
-        <v>-6809608.905278042</v>
+        <v>-325554.1054612016</v>
       </c>
       <c r="E396">
-        <v>-0.3677188713243236</v>
+        <v>-0.05701595769246897</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Dean Wade</t>
+          <t>Franz Wagner</t>
         </is>
       </c>
       <c r="B397">
-        <v>5709877</v>
+        <v>5508720</v>
       </c>
       <c r="C397">
-        <v>6552845.4469031</v>
+        <v>7929242.385431237</v>
       </c>
       <c r="D397">
-        <v>-842968.4469031002</v>
+        <v>-2420522.385431237</v>
       </c>
       <c r="E397">
-        <v>-0.147633381052359</v>
+        <v>-0.4393983330848612</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Franz Wagner</t>
+          <t>Moritz Wagner</t>
         </is>
       </c>
       <c r="B398">
-        <v>5508720</v>
+        <v>8000000</v>
       </c>
       <c r="C398">
-        <v>8722159.550982341</v>
+        <v>7967184.549300699</v>
       </c>
       <c r="D398">
-        <v>-3213439.550982341</v>
+        <v>32815.45069930051</v>
       </c>
       <c r="E398">
-        <v>-0.5833368824304632</v>
+        <v>0.004101931337412563</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Moritz Wagner</t>
+          <t>Ish Wainright</t>
         </is>
       </c>
       <c r="B399">
-        <v>8000000</v>
+        <v>1927896</v>
       </c>
       <c r="C399">
-        <v>8557097.88391608</v>
+        <v>3144943.375924078</v>
       </c>
       <c r="D399">
-        <v>-557097.88391608</v>
+        <v>-1217047.375924078</v>
       </c>
       <c r="E399">
-        <v>-0.06963723548950999</v>
+        <v>-0.6312826915580912</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Ish Wainright</t>
+          <t>Jabari Walker</t>
         </is>
       </c>
       <c r="B400">
-        <v>1927896</v>
+        <v>1719864</v>
       </c>
       <c r="C400">
-        <v>4851926.974658676</v>
+        <v>2878484.005611057</v>
       </c>
       <c r="D400">
-        <v>-2924030.974658676</v>
+        <v>-1158620.005611057</v>
       </c>
       <c r="E400">
-        <v>-1.516695389512026</v>
+        <v>-0.6736695492266002</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Jabari Walker</t>
+          <t>Jarace Walker</t>
         </is>
       </c>
       <c r="B401">
-        <v>1719864</v>
+        <v>6059520</v>
       </c>
       <c r="C401">
-        <v>2924237.755044954</v>
+        <v>4756523.015018311</v>
       </c>
       <c r="D401">
-        <v>-1204373.755044954</v>
+        <v>1302996.984981689</v>
       </c>
       <c r="E401">
-        <v>-0.7002726698418912</v>
+        <v>0.2150330364421091</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Jarace Walker</t>
+          <t>Lonnie Walker IV</t>
         </is>
       </c>
       <c r="B402">
-        <v>6059520</v>
+        <v>2019706</v>
       </c>
       <c r="C402">
-        <v>5133177.258857804</v>
+        <v>6225438.843473199</v>
       </c>
       <c r="D402">
-        <v>926342.7411421956</v>
+        <v>-4205732.843473199</v>
       </c>
       <c r="E402">
-        <v>0.1528739472998184</v>
+        <v>-2.082349036678209</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Lonnie Walker IV</t>
+          <t>Cason Wallace</t>
         </is>
       </c>
       <c r="B403">
-        <v>2019706</v>
+        <v>5291400</v>
       </c>
       <c r="C403">
-        <v>6594527.214302364</v>
+        <v>5005661.111355313</v>
       </c>
       <c r="D403">
-        <v>-4574821.214302364</v>
+        <v>285738.8886446869</v>
       </c>
       <c r="E403">
-        <v>-2.265092649277847</v>
+        <v>0.05400062150748137</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Cason Wallace</t>
+          <t>P.J. Washington</t>
         </is>
       </c>
       <c r="B404">
-        <v>5291400</v>
+        <v>16847826</v>
       </c>
       <c r="C404">
-        <v>5056873.479786877</v>
+        <v>15593870.89891775</v>
       </c>
       <c r="D404">
-        <v>234526.5202131234</v>
+        <v>1253955.101082247</v>
       </c>
       <c r="E404">
-        <v>0.0443222058837214</v>
+        <v>0.07442830315806008</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>P.J. Washington</t>
+          <t>Yuta Watanabe</t>
         </is>
       </c>
       <c r="B405">
-        <v>16847826</v>
+        <v>2346614</v>
       </c>
       <c r="C405">
-        <v>15922268.15715953</v>
+        <v>4178423.871894768</v>
       </c>
       <c r="D405">
-        <v>925557.8428404685</v>
+        <v>-1831809.871894768</v>
       </c>
       <c r="E405">
-        <v>0.05493633676181536</v>
+        <v>-0.780618317241254</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Yuta Watanabe</t>
+          <t>Trendon Watford</t>
         </is>
       </c>
       <c r="B406">
-        <v>2346614</v>
+        <v>2019706</v>
       </c>
       <c r="C406">
-        <v>4139375.285014986</v>
+        <v>2274246.474542125</v>
       </c>
       <c r="D406">
-        <v>-1792761.285014986</v>
+        <v>-254540.4745421251</v>
       </c>
       <c r="E406">
-        <v>-0.7639779209597258</v>
+        <v>-0.12602847867072</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Trendon Watford</t>
+          <t>Peyton Watson</t>
         </is>
       </c>
       <c r="B407">
-        <v>2019706</v>
+        <v>2303520</v>
       </c>
       <c r="C407">
-        <v>2587009.612520811</v>
+        <v>3120047.188078589</v>
       </c>
       <c r="D407">
-        <v>-567303.6125208107</v>
+        <v>-816527.1880785893</v>
       </c>
       <c r="E407">
-        <v>-0.2808842537086144</v>
+        <v>-0.3544693287137031</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Peyton Watson</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="B408">
-        <v>2303520</v>
+        <v>12160680</v>
       </c>
       <c r="C408">
-        <v>3327587.614485515</v>
+        <v>11765941.43366633</v>
       </c>
       <c r="D408">
-        <v>-1024067.614485515</v>
+        <v>394738.5663336683</v>
       </c>
       <c r="E408">
-        <v>-0.4445664090112156</v>
+        <v>0.03246023794176545</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Blake Wesley</t>
         </is>
       </c>
       <c r="B409">
-        <v>12160680</v>
+        <v>2504640</v>
       </c>
       <c r="C409">
-        <v>12990257.43759573</v>
+        <v>5207061.741375292</v>
       </c>
       <c r="D409">
-        <v>-829577.4375957251</v>
+        <v>-2702421.741375292</v>
       </c>
       <c r="E409">
-        <v>-0.06821801392650123</v>
+        <v>-1.078966135402809</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Blake Wesley</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="B410">
-        <v>2504640</v>
+        <v>3835738</v>
       </c>
       <c r="C410">
-        <v>5303171.142690641</v>
+        <v>12998008.90797535</v>
       </c>
       <c r="D410">
-        <v>-2798531.142690641</v>
+        <v>-9162270.90797535</v>
       </c>
       <c r="E410">
-        <v>-1.117338676492686</v>
+        <v>-2.388659211858409</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
+          <t>Coby White</t>
         </is>
       </c>
       <c r="B411">
-        <v>3835738</v>
+        <v>11111111</v>
       </c>
       <c r="C411">
-        <v>15282854.32334333</v>
+        <v>11730639.2592574</v>
       </c>
       <c r="D411">
-        <v>-11447116.32334333</v>
+        <v>-619528.2592573985</v>
       </c>
       <c r="E411">
-        <v>-2.984332173715548</v>
+        <v>-0.05575754389074131</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Coby White</t>
+          <t>Derrick White</t>
         </is>
       </c>
       <c r="B412">
-        <v>11111111</v>
+        <v>18357143</v>
       </c>
       <c r="C412">
-        <v>11240219.2062271</v>
+        <v>21689871.60073258</v>
       </c>
       <c r="D412">
-        <v>-129108.2062271032</v>
+        <v>-3332728.60073258</v>
       </c>
       <c r="E412">
-        <v>-0.01161973867663668</v>
+        <v>-0.1815494165259038</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Derrick White</t>
+          <t>Cam Whitmore</t>
         </is>
       </c>
       <c r="B413">
-        <v>18357143</v>
+        <v>3218160</v>
       </c>
       <c r="C413">
-        <v>22368228.34771895</v>
+        <v>3420215.628205126</v>
       </c>
       <c r="D413">
-        <v>-4011085.34771895</v>
+        <v>-202055.6282051257</v>
       </c>
       <c r="E413">
-        <v>-0.2185027020663809</v>
+        <v>-0.0627860728506742</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Cam Whitmore</t>
+          <t>Aaron Wiggins</t>
         </is>
       </c>
       <c r="B414">
-        <v>3218160</v>
+        <v>1836096</v>
       </c>
       <c r="C414">
-        <v>3703765.911055611</v>
+        <v>3503329.172460875</v>
       </c>
       <c r="D414">
-        <v>-485605.9110556114</v>
+        <v>-1667233.172460875</v>
       </c>
       <c r="E414">
-        <v>-0.1508955151563662</v>
+        <v>-0.9080315911917868</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Aaron Wiggins</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="B415">
-        <v>1836096</v>
+        <v>24330357</v>
       </c>
       <c r="C415">
-        <v>3599099.364085914</v>
+        <v>18412197.09547119</v>
       </c>
       <c r="D415">
-        <v>-1763003.364085914</v>
+        <v>5918159.904528812</v>
       </c>
       <c r="E415">
-        <v>-0.9601912776270487</v>
+        <v>0.2432418030088425</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
+          <t>Grant Williams</t>
         </is>
       </c>
       <c r="B416">
-        <v>24330357</v>
+        <v>12405000</v>
       </c>
       <c r="C416">
-        <v>18498836.44455545</v>
+        <v>13214913.83992675</v>
       </c>
       <c r="D416">
-        <v>5831520.555444546</v>
+        <v>-809913.8399267513</v>
       </c>
       <c r="E416">
-        <v>0.2396808462549294</v>
+        <v>-0.06528930591912546</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Grant Williams</t>
+          <t>Jalen Williams</t>
         </is>
       </c>
       <c r="B417">
-        <v>12405000</v>
+        <v>4558680</v>
       </c>
       <c r="C417">
-        <v>12072200.60099901</v>
+        <v>6827370.059174164</v>
       </c>
       <c r="D417">
-        <v>332799.3990009911</v>
+        <v>-2268690.059174164</v>
       </c>
       <c r="E417">
-        <v>0.02682784353091424</v>
+        <v>-0.4976638103955891</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Jalen Williams</t>
+          <t>Jaylin Williams</t>
         </is>
       </c>
       <c r="B418">
-        <v>4558680</v>
+        <v>2000000</v>
       </c>
       <c r="C418">
-        <v>6863521.402947048</v>
+        <v>3716483.32737263</v>
       </c>
       <c r="D418">
-        <v>-2304841.402947048</v>
+        <v>-1716483.32737263</v>
       </c>
       <c r="E418">
-        <v>-0.5055940322521097</v>
+        <v>-0.858241663686315</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Jaylin Williams</t>
+          <t>Kenrich Williams</t>
         </is>
       </c>
       <c r="B419">
-        <v>2000000</v>
+        <v>6175000</v>
       </c>
       <c r="C419">
-        <v>4916340.254412252</v>
+        <v>6032936.618364966</v>
       </c>
       <c r="D419">
-        <v>-2916340.254412252</v>
+        <v>142063.3816350345</v>
       </c>
       <c r="E419">
-        <v>-1.458170127206126</v>
+        <v>0.02300621564939829</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Kenrich Williams</t>
+          <t>Mark Williams</t>
         </is>
       </c>
       <c r="B420">
-        <v>6175000</v>
+        <v>3908160</v>
       </c>
       <c r="C420">
-        <v>6049557.722027976</v>
+        <v>5289338.623043628</v>
       </c>
       <c r="D420">
-        <v>125442.2779720239</v>
+        <v>-1381178.623043628</v>
       </c>
       <c r="E420">
-        <v>0.02031453894283788</v>
+        <v>-0.3534089246713616</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Mark Williams</t>
+          <t>Patrick Williams</t>
         </is>
       </c>
       <c r="B421">
-        <v>3908160</v>
+        <v>9835881</v>
       </c>
       <c r="C421">
-        <v>5114517.360506164</v>
+        <v>6838046.43762904</v>
       </c>
       <c r="D421">
-        <v>-1206357.360506164</v>
+        <v>2997834.56237096</v>
       </c>
       <c r="E421">
-        <v>-0.308676553801831</v>
+        <v>0.3047855664755358</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Patrick Williams</t>
+          <t>Robert Williams</t>
         </is>
       </c>
       <c r="B422">
-        <v>9835881</v>
+        <v>11571429</v>
       </c>
       <c r="C422">
-        <v>6621520.255744255</v>
+        <v>8123307.347669009</v>
       </c>
       <c r="D422">
-        <v>3214360.744255745</v>
+        <v>3448121.652330991</v>
       </c>
       <c r="E422">
-        <v>0.3267994747248106</v>
+        <v>0.2979858107698704</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Robert Williams</t>
+          <t>Ziaire Williams</t>
         </is>
       </c>
       <c r="B423">
-        <v>11571429</v>
+        <v>4810200</v>
       </c>
       <c r="C423">
-        <v>9361876.828837838</v>
+        <v>3866373.140193135</v>
       </c>
       <c r="D423">
-        <v>2209552.171162162</v>
+        <v>943826.8598068645</v>
       </c>
       <c r="E423">
-        <v>0.1909489459912135</v>
+        <v>0.1962136418042627</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Ziaire Williams</t>
+          <t>Zion Williamson</t>
         </is>
       </c>
       <c r="B424">
-        <v>4810200</v>
+        <v>34005250</v>
       </c>
       <c r="C424">
-        <v>4058532.295254746</v>
+        <v>23854437.9412421</v>
       </c>
       <c r="D424">
-        <v>751667.7047452535</v>
+        <v>10150812.0587579</v>
       </c>
       <c r="E424">
-        <v>0.1562653745676383</v>
+        <v>0.2985072028218556</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Zion Williamson</t>
+          <t>Dylan Windler</t>
         </is>
       </c>
       <c r="B425">
-        <v>34005250</v>
+        <v>2019706</v>
       </c>
       <c r="C425">
-        <v>21563420.86300367</v>
+        <v>1955265.370745919</v>
       </c>
       <c r="D425">
-        <v>12441829.13699633</v>
+        <v>64440.62925408059</v>
       </c>
       <c r="E425">
-        <v>0.3658796549649343</v>
+        <v>0.03190594534753107</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Dylan Windler</t>
+          <t>James Wiseman</t>
         </is>
       </c>
       <c r="B426">
-        <v>2019706</v>
+        <v>12119440</v>
       </c>
       <c r="C426">
-        <v>2064598.384831832</v>
+        <v>8669199.125641024</v>
       </c>
       <c r="D426">
-        <v>-44892.38483183249</v>
+        <v>3450240.874358976</v>
       </c>
       <c r="E426">
-        <v>-0.02222718793321032</v>
+        <v>0.284686493299936</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>James Wiseman</t>
+          <t>Christian Wood</t>
         </is>
       </c>
       <c r="B427">
-        <v>12119440</v>
+        <v>2709849</v>
       </c>
       <c r="C427">
-        <v>8225654.628421583</v>
+        <v>5388867.428271734</v>
       </c>
       <c r="D427">
-        <v>3893785.371578417</v>
+        <v>-2679018.428271734</v>
       </c>
       <c r="E427">
-        <v>0.3212842649147499</v>
+        <v>-0.9886227713321791</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Christian Wood</t>
+          <t>Delon Wright</t>
         </is>
       </c>
       <c r="B428">
-        <v>2709849</v>
+        <v>8195122</v>
       </c>
       <c r="C428">
-        <v>6852873.028904431</v>
+        <v>7829941.032500839</v>
       </c>
       <c r="D428">
-        <v>-4143024.028904431</v>
+        <v>365180.9674991611</v>
       </c>
       <c r="E428">
-        <v>-1.528876342890113</v>
+        <v>0.04456077255459542</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Delon Wright</t>
+          <t>Thaddeus Young</t>
         </is>
       </c>
       <c r="B429">
-        <v>8195122</v>
+        <v>8000000</v>
       </c>
       <c r="C429">
-        <v>6660399.179903428</v>
+        <v>3239024.95909091</v>
       </c>
       <c r="D429">
-        <v>1534722.820096572</v>
+        <v>4760975.04090909</v>
       </c>
       <c r="E429">
-        <v>0.1872727239565893</v>
+        <v>0.5951218801136363</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Thaddeus Young</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="B430">
-        <v>8000000</v>
+        <v>40064220</v>
       </c>
       <c r="C430">
-        <v>6048851.609357305</v>
+        <v>36555607.62455878</v>
       </c>
       <c r="D430">
-        <v>1951148.390642695</v>
+        <v>3508612.375441216</v>
       </c>
       <c r="E430">
-        <v>0.2438935488303369</v>
+        <v>0.0875747081920281</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Omer Yurtseven</t>
         </is>
       </c>
       <c r="B431">
-        <v>40064220</v>
+        <v>2800000</v>
       </c>
       <c r="C431">
-        <v>35899001.74095905</v>
+        <v>3552691.832500834</v>
       </c>
       <c r="D431">
-        <v>4165218.259040952</v>
+        <v>-752691.832500834</v>
       </c>
       <c r="E431">
-        <v>0.1039635430077249</v>
+        <v>-0.2688185116074407</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Omer Yurtseven</t>
+          <t>Cody Zeller</t>
         </is>
       </c>
       <c r="B432">
-        <v>2800000</v>
+        <v>2019706</v>
       </c>
       <c r="C432">
-        <v>3717975.097735597</v>
+        <v>4445977.774458876</v>
       </c>
       <c r="D432">
-        <v>-917975.0977355973</v>
+        <v>-2426271.774458876</v>
       </c>
       <c r="E432">
-        <v>-0.3278482491912847</v>
+        <v>-1.201299483419308</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Cody Zeller</t>
+          <t>Ivica Zubac</t>
         </is>
       </c>
       <c r="B433">
-        <v>2019706</v>
+        <v>10933333</v>
       </c>
       <c r="C433">
-        <v>5045091.09691975</v>
+        <v>11964184.07032967</v>
       </c>
       <c r="D433">
-        <v>-3025385.09691975</v>
+        <v>-1030851.070329672</v>
       </c>
       <c r="E433">
-        <v>-1.497933410565572</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>Ivica Zubac</t>
-        </is>
-      </c>
-      <c r="B434">
-        <v>10933333</v>
-      </c>
-      <c r="C434">
-        <v>12975246.03977691</v>
-      </c>
-      <c r="D434">
-        <v>-2041913.039776908</v>
-      </c>
-      <c r="E434">
-        <v>-0.1867603446978985</v>
+        <v>-0.09428516174616393</v>
       </c>
     </row>
   </sheetData>
